--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A3CEEA6-378A-4357-8581-051828FB6CF2}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{483C0409-BEE7-4799-946F-E8694315F4B6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12507,7 +12507,114 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="114" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44029</v>
+      </c>
+      <c r="C113">
+        <v>2427</v>
+      </c>
+      <c r="D113">
+        <v>4267</v>
+      </c>
+      <c r="E113">
+        <v>12178</v>
+      </c>
+      <c r="F113">
+        <v>14309</v>
+      </c>
+      <c r="G113">
+        <v>13248</v>
+      </c>
+      <c r="H113">
+        <v>11727</v>
+      </c>
+      <c r="I113">
+        <v>8286</v>
+      </c>
+      <c r="J113">
+        <v>5192</v>
+      </c>
+      <c r="K113">
+        <v>4737</v>
+      </c>
+      <c r="M113">
+        <f t="shared" ref="M113" si="56">SUM(C113-C112)</f>
+        <v>40</v>
+      </c>
+      <c r="N113">
+        <f t="shared" ref="N113" si="57">SUM(D113-D112)</f>
+        <v>60</v>
+      </c>
+      <c r="O113">
+        <f t="shared" ref="O113" si="58">SUM(E113-E112)</f>
+        <v>206</v>
+      </c>
+      <c r="P113">
+        <f t="shared" ref="P113" si="59">SUM(F113-F112)</f>
+        <v>126</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" ref="Q113" si="60">SUM(G113-G112)</f>
+        <v>106</v>
+      </c>
+      <c r="R113">
+        <f t="shared" ref="R113" si="61">SUM(H113-H112)</f>
+        <v>88</v>
+      </c>
+      <c r="S113">
+        <f t="shared" ref="S113" si="62">SUM(I113-I112)</f>
+        <v>43</v>
+      </c>
+      <c r="T113">
+        <f t="shared" ref="T113" si="63">SUM(J113-J112)</f>
+        <v>19</v>
+      </c>
+      <c r="U113">
+        <f t="shared" ref="U113" si="64">SUM(K113-K112)</f>
+        <v>19</v>
+      </c>
+      <c r="W113" s="1">
+        <f t="shared" ref="W113" si="65">AVERAGE(M107:M113)</f>
+        <v>29</v>
+      </c>
+      <c r="X113" s="1">
+        <f t="shared" ref="X113" si="66">AVERAGE(N107:N113)</f>
+        <v>55.428571428571431</v>
+      </c>
+      <c r="Y113" s="1">
+        <f t="shared" ref="Y113" si="67">AVERAGE(O107:O113)</f>
+        <v>169</v>
+      </c>
+      <c r="Z113" s="1">
+        <f t="shared" ref="Z113" si="68">AVERAGE(P107:P113)</f>
+        <v>124</v>
+      </c>
+      <c r="AA113" s="1">
+        <f t="shared" ref="AA113" si="69">AVERAGE(Q107:Q113)</f>
+        <v>89.571428571428569</v>
+      </c>
+      <c r="AB113" s="1">
+        <f t="shared" ref="AB113" si="70">AVERAGE(R107:R113)</f>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="AC113" s="1">
+        <f t="shared" ref="AC113" si="71">AVERAGE(S107:S113)</f>
+        <v>48.285714285714285</v>
+      </c>
+      <c r="AD113" s="1">
+        <f t="shared" ref="AD113" si="72">AVERAGE(T107:T113)</f>
+        <v>26.714285714285715</v>
+      </c>
+      <c r="AE113" s="1">
+        <f t="shared" ref="AE113" si="73">AVERAGE(U107:U113)</f>
+        <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
@@ -12519,46 +12626,60 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V123" s="1"/>
-    </row>
-    <row r="128" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
+      <c r="W128" s="1"/>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D129" s="1"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{483C0409-BEE7-4799-946F-E8694315F4B6}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B43600CA-CE18-474A-813E-A40D8DDECAE1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +561,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,15 +917,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE136"/>
+  <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I93" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="U124" sqref="U124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -940,7 +946,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -12615,40 +12621,561 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
-      <c r="Z114" s="1"/>
-      <c r="AA114" s="1"/>
-      <c r="AB114" s="1"/>
-      <c r="AC114" s="1"/>
-      <c r="AD114" s="1"/>
-      <c r="AE114" s="1"/>
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44030</v>
+      </c>
+      <c r="C114">
+        <v>2462</v>
+      </c>
+      <c r="D114">
+        <v>4352</v>
+      </c>
+      <c r="E114">
+        <v>12388</v>
+      </c>
+      <c r="F114">
+        <v>14466</v>
+      </c>
+      <c r="G114">
+        <v>13369</v>
+      </c>
+      <c r="H114">
+        <v>11832</v>
+      </c>
+      <c r="I114">
+        <v>8349</v>
+      </c>
+      <c r="J114">
+        <v>5226</v>
+      </c>
+      <c r="K114">
+        <v>4762</v>
+      </c>
+      <c r="M114">
+        <f t="shared" ref="M114:M120" si="74">SUM(C114-C113)</f>
+        <v>35</v>
+      </c>
+      <c r="N114">
+        <f t="shared" ref="N114:N120" si="75">SUM(D114-D113)</f>
+        <v>85</v>
+      </c>
+      <c r="O114">
+        <f t="shared" ref="O114:O120" si="76">SUM(E114-E113)</f>
+        <v>210</v>
+      </c>
+      <c r="P114">
+        <f t="shared" ref="P114:P120" si="77">SUM(F114-F113)</f>
+        <v>157</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" ref="Q114:Q120" si="78">SUM(G114-G113)</f>
+        <v>121</v>
+      </c>
+      <c r="R114">
+        <f t="shared" ref="R114:R120" si="79">SUM(H114-H113)</f>
+        <v>105</v>
+      </c>
+      <c r="S114">
+        <f t="shared" ref="S114:S120" si="80">SUM(I114-I113)</f>
+        <v>63</v>
+      </c>
+      <c r="T114">
+        <f t="shared" ref="T114:T120" si="81">SUM(J114-J113)</f>
+        <v>34</v>
+      </c>
+      <c r="U114">
+        <f t="shared" ref="U114:U120" si="82">SUM(K114-K113)</f>
+        <v>25</v>
+      </c>
+      <c r="W114" s="1">
+        <f t="shared" ref="W114:W120" si="83">AVERAGE(M108:M114)</f>
+        <v>31.285714285714285</v>
+      </c>
+      <c r="X114" s="1">
+        <f t="shared" ref="X114:X120" si="84">AVERAGE(N108:N114)</f>
+        <v>61.428571428571431</v>
+      </c>
+      <c r="Y114" s="1">
+        <f t="shared" ref="Y114:Y120" si="85">AVERAGE(O108:O114)</f>
+        <v>177.57142857142858</v>
+      </c>
+      <c r="Z114" s="1">
+        <f t="shared" ref="Z114:Z120" si="86">AVERAGE(P108:P114)</f>
+        <v>129.85714285714286</v>
+      </c>
+      <c r="AA114" s="1">
+        <f t="shared" ref="AA114:AA120" si="87">AVERAGE(Q108:Q114)</f>
+        <v>97.285714285714292</v>
+      </c>
+      <c r="AB114" s="1">
+        <f t="shared" ref="AB114:AB120" si="88">AVERAGE(R108:R114)</f>
+        <v>83.714285714285708</v>
+      </c>
+      <c r="AC114" s="1">
+        <f t="shared" ref="AC114:AC120" si="89">AVERAGE(S108:S114)</f>
+        <v>50.857142857142854</v>
+      </c>
+      <c r="AD114" s="1">
+        <f t="shared" ref="AD114:AD120" si="90">AVERAGE(T108:T114)</f>
+        <v>26.714285714285715</v>
+      </c>
+      <c r="AE114" s="1">
+        <f t="shared" ref="AE114:AE120" si="91">AVERAGE(U108:U114)</f>
+        <v>18.285714285714285</v>
+      </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44031</v>
+      </c>
+      <c r="C115">
+        <v>2496</v>
+      </c>
+      <c r="D115">
+        <v>4430</v>
+      </c>
+      <c r="E115">
+        <v>12646</v>
+      </c>
+      <c r="F115">
+        <v>14662</v>
+      </c>
+      <c r="G115">
+        <v>13500</v>
+      </c>
+      <c r="H115">
+        <v>11937</v>
+      </c>
+      <c r="I115">
+        <v>8416</v>
+      </c>
+      <c r="J115">
+        <v>5255</v>
+      </c>
+      <c r="K115">
+        <v>4789</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="74"/>
+        <v>34</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="75"/>
+        <v>78</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="76"/>
+        <v>258</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="77"/>
+        <v>196</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="78"/>
+        <v>131</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="79"/>
+        <v>105</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="80"/>
+        <v>67</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="81"/>
+        <v>29</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="82"/>
+        <v>27</v>
+      </c>
+      <c r="W115" s="1">
+        <f t="shared" si="83"/>
+        <v>31.285714285714285</v>
+      </c>
+      <c r="X115" s="1">
+        <f t="shared" si="84"/>
+        <v>65</v>
+      </c>
+      <c r="Y115" s="1">
+        <f t="shared" si="85"/>
+        <v>192</v>
+      </c>
+      <c r="Z115" s="1">
+        <f t="shared" si="86"/>
+        <v>138.14285714285714</v>
+      </c>
+      <c r="AA115" s="1">
+        <f t="shared" si="87"/>
+        <v>102.28571428571429</v>
+      </c>
+      <c r="AB115" s="1">
+        <f t="shared" si="88"/>
+        <v>87.714285714285708</v>
+      </c>
+      <c r="AC115" s="1">
+        <f t="shared" si="89"/>
+        <v>54.285714285714285</v>
+      </c>
+      <c r="AD115" s="1">
+        <f t="shared" si="90"/>
+        <v>27</v>
+      </c>
+      <c r="AE115" s="1">
+        <f t="shared" si="91"/>
+        <v>19.714285714285715</v>
+      </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44032</v>
+      </c>
+      <c r="C116">
+        <v>2519</v>
+      </c>
+      <c r="D116">
+        <v>4486</v>
+      </c>
+      <c r="E116">
+        <v>12766</v>
+      </c>
+      <c r="F116">
+        <v>14768</v>
+      </c>
+      <c r="G116">
+        <v>13593</v>
+      </c>
+      <c r="H116">
+        <v>12023</v>
+      </c>
+      <c r="I116">
+        <v>8452</v>
+      </c>
+      <c r="J116">
+        <v>5277</v>
+      </c>
+      <c r="K116">
+        <v>4801</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="74"/>
+        <v>23</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="75"/>
+        <v>56</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="76"/>
+        <v>120</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="77"/>
+        <v>106</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="78"/>
+        <v>93</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="79"/>
+        <v>86</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="80"/>
+        <v>36</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="81"/>
+        <v>22</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="82"/>
+        <v>12</v>
+      </c>
+      <c r="W116" s="1">
+        <f t="shared" si="83"/>
+        <v>31.714285714285715</v>
+      </c>
+      <c r="X116" s="1">
+        <f t="shared" si="84"/>
+        <v>66.714285714285708</v>
+      </c>
+      <c r="Y116" s="1">
+        <f t="shared" si="85"/>
+        <v>192</v>
+      </c>
+      <c r="Z116" s="1">
+        <f t="shared" si="86"/>
+        <v>143.28571428571428</v>
+      </c>
+      <c r="AA116" s="1">
+        <f t="shared" si="87"/>
+        <v>107.57142857142857</v>
+      </c>
+      <c r="AB116" s="1">
+        <f t="shared" si="88"/>
+        <v>91.857142857142861</v>
+      </c>
+      <c r="AC116" s="1">
+        <f t="shared" si="89"/>
+        <v>55.285714285714285</v>
+      </c>
+      <c r="AD116" s="1">
+        <f t="shared" si="90"/>
+        <v>28</v>
+      </c>
+      <c r="AE116" s="1">
+        <f t="shared" si="91"/>
+        <v>20.428571428571427</v>
+      </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>44033</v>
+      </c>
+      <c r="C117">
+        <v>2552</v>
+      </c>
+      <c r="D117">
+        <v>4563</v>
+      </c>
+      <c r="E117">
+        <v>12983</v>
+      </c>
+      <c r="F117">
+        <v>14969</v>
+      </c>
+      <c r="G117">
+        <v>13711</v>
+      </c>
+      <c r="H117">
+        <v>12144</v>
+      </c>
+      <c r="I117">
+        <v>8507</v>
+      </c>
+      <c r="J117">
+        <v>5302</v>
+      </c>
+      <c r="K117">
+        <v>4814</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="74"/>
+        <v>33</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="75"/>
+        <v>77</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="76"/>
+        <v>217</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="77"/>
+        <v>201</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="78"/>
+        <v>118</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="79"/>
+        <v>121</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="80"/>
+        <v>55</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="81"/>
+        <v>25</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="82"/>
+        <v>13</v>
+      </c>
+      <c r="W117" s="1">
+        <f t="shared" si="83"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="X117" s="1">
+        <f t="shared" si="84"/>
+        <v>68.428571428571431</v>
+      </c>
+      <c r="Y117" s="1">
+        <f t="shared" si="85"/>
+        <v>199</v>
+      </c>
+      <c r="Z117" s="1">
+        <f t="shared" si="86"/>
+        <v>152</v>
+      </c>
+      <c r="AA117" s="1">
+        <f t="shared" si="87"/>
+        <v>108.42857142857143</v>
+      </c>
+      <c r="AB117" s="1">
+        <f t="shared" si="88"/>
+        <v>96.714285714285708</v>
+      </c>
+      <c r="AC117" s="1">
+        <f t="shared" si="89"/>
+        <v>53.857142857142854</v>
+      </c>
+      <c r="AD117" s="1">
+        <f t="shared" si="90"/>
+        <v>26.142857142857142</v>
+      </c>
+      <c r="AE117" s="1">
+        <f t="shared" si="91"/>
+        <v>18.285714285714285</v>
+      </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V118" s="1"/>
-      <c r="W118" s="1"/>
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44034</v>
+      </c>
+      <c r="C118">
+        <v>2572</v>
+      </c>
+      <c r="D118">
+        <v>4613</v>
+      </c>
+      <c r="E118">
+        <v>13113</v>
+      </c>
+      <c r="F118">
+        <v>15065</v>
+      </c>
+      <c r="G118">
+        <v>13796</v>
+      </c>
+      <c r="H118">
+        <v>12210</v>
+      </c>
+      <c r="I118">
+        <v>8556</v>
+      </c>
+      <c r="J118">
+        <v>5363</v>
+      </c>
+      <c r="K118">
+        <v>4884</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="74"/>
+        <v>20</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="75"/>
+        <v>50</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="76"/>
+        <v>130</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="77"/>
+        <v>96</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="78"/>
+        <v>85</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="79"/>
+        <v>66</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="80"/>
+        <v>49</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="81"/>
+        <v>61</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="82"/>
+        <v>70</v>
+      </c>
+      <c r="W118" s="1">
+        <f t="shared" si="83"/>
+        <v>31</v>
+      </c>
+      <c r="X118" s="1">
+        <f t="shared" si="84"/>
+        <v>66.714285714285708</v>
+      </c>
+      <c r="Y118" s="1">
+        <f t="shared" si="85"/>
+        <v>190</v>
+      </c>
+      <c r="Z118" s="1">
+        <f t="shared" si="86"/>
+        <v>148.14285714285714</v>
+      </c>
+      <c r="AA118" s="1">
+        <f t="shared" si="87"/>
+        <v>104.14285714285714</v>
+      </c>
+      <c r="AB118" s="1">
+        <f t="shared" si="88"/>
+        <v>91.285714285714292</v>
+      </c>
+      <c r="AC118" s="1">
+        <f t="shared" si="89"/>
+        <v>50.857142857142854</v>
+      </c>
+      <c r="AD118" s="1">
+        <f t="shared" si="90"/>
+        <v>29.571428571428573</v>
+      </c>
+      <c r="AE118" s="1">
+        <f t="shared" si="91"/>
+        <v>24.857142857142858</v>
+      </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V119" s="1"/>
       <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="V120" s="1"/>
       <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V121" s="1"/>
@@ -12661,18 +13188,58 @@
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D128" s="1"/>
@@ -12680,54 +13247,149 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="W128" s="1"/>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+    </row>
+    <row r="129" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
+    </row>
+    <row r="133" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+    </row>
+    <row r="134" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+    </row>
+    <row r="135" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
+    </row>
+    <row r="136" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
+    </row>
+    <row r="137" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+    </row>
+    <row r="138" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+    </row>
+    <row r="139" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
+    </row>
+    <row r="140" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
+    </row>
+    <row r="147" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W147" s="2"/>
+      <c r="X147" s="2"/>
+      <c r="Y147" s="2"/>
+      <c r="Z147" s="2"/>
+      <c r="AA147" s="2"/>
+      <c r="AB147" s="2"/>
+      <c r="AC147" s="2"/>
+      <c r="AD147" s="2"/>
+      <c r="AE147" s="2"/>
+      <c r="AF147" s="2"/>
+      <c r="AG147" s="2"/>
+    </row>
+    <row r="157" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W157" s="2"/>
+    </row>
+    <row r="158" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W158" s="2"/>
+    </row>
+    <row r="159" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W159" s="2"/>
+    </row>
+    <row r="160" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W160" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{869DE7C3-9312-4EA7-B7D9-B0D332985592}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C587C95-98D4-4994-9375-4629146CE681}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,10 +917,10 @@
   <dimension ref="A1:AF160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I129" sqref="I129"/>
+      <selection pane="bottomRight" activeCell="R128" sqref="R128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13114,151 +13114,366 @@
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B122">
+        <v>2728</v>
+      </c>
+      <c r="C122">
+        <v>4927</v>
+      </c>
+      <c r="D122">
+        <v>14079</v>
+      </c>
+      <c r="E122">
+        <v>15779</v>
+      </c>
+      <c r="F122">
+        <v>14294</v>
+      </c>
+      <c r="G122">
+        <v>12644</v>
+      </c>
+      <c r="H122">
+        <v>8825</v>
+      </c>
+      <c r="I122">
+        <v>5496</v>
+      </c>
+      <c r="J122">
+        <v>4976</v>
+      </c>
+      <c r="L122">
+        <f t="shared" ref="L122:L124" si="110">SUM(B122-B121)</f>
+        <v>33</v>
+      </c>
+      <c r="M122">
+        <f t="shared" ref="M122:M124" si="111">SUM(C122-C121)</f>
+        <v>64</v>
+      </c>
+      <c r="N122">
+        <f t="shared" ref="N122:N124" si="112">SUM(D122-D121)</f>
+        <v>165</v>
+      </c>
+      <c r="O122">
+        <f t="shared" ref="O122:O124" si="113">SUM(E122-E121)</f>
+        <v>149</v>
+      </c>
+      <c r="P122">
+        <f t="shared" ref="P122:P124" si="114">SUM(F122-F121)</f>
+        <v>101</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" ref="Q122:Q124" si="115">SUM(G122-G121)</f>
+        <v>84</v>
+      </c>
+      <c r="R122">
+        <f t="shared" ref="R122:R124" si="116">SUM(H122-H121)</f>
+        <v>50</v>
+      </c>
+      <c r="S122">
+        <f t="shared" ref="S122:S124" si="117">SUM(I122-I121)</f>
+        <v>28</v>
+      </c>
+      <c r="T122">
+        <f t="shared" ref="T122:T124" si="118">SUM(J122-J121)</f>
+        <v>20</v>
+      </c>
       <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
+      <c r="V122" s="1">
+        <f t="shared" ref="V122:V124" si="119">AVERAGE(L116:L122)</f>
+        <v>33.142857142857146</v>
+      </c>
+      <c r="W122" s="1">
+        <f t="shared" ref="W122:W124" si="120">AVERAGE(M116:M122)</f>
+        <v>71</v>
+      </c>
+      <c r="X122" s="1">
+        <f t="shared" ref="X122:X124" si="121">AVERAGE(N116:N122)</f>
+        <v>204.71428571428572</v>
+      </c>
+      <c r="Y122" s="1">
+        <f t="shared" ref="Y122:Y124" si="122">AVERAGE(O116:O122)</f>
+        <v>159.57142857142858</v>
+      </c>
+      <c r="Z122" s="1">
+        <f t="shared" ref="Z122:Z124" si="123">AVERAGE(P116:P122)</f>
+        <v>113.42857142857143</v>
+      </c>
+      <c r="AA122" s="1">
+        <f t="shared" ref="AA122:AA124" si="124">AVERAGE(Q116:Q122)</f>
+        <v>101</v>
+      </c>
+      <c r="AB122" s="1">
+        <f t="shared" ref="AB122:AB124" si="125">AVERAGE(R116:R122)</f>
+        <v>58.428571428571431</v>
+      </c>
+      <c r="AC122" s="1">
+        <f t="shared" ref="AC122:AC124" si="126">AVERAGE(S116:S122)</f>
+        <v>34.428571428571431</v>
+      </c>
+      <c r="AD122" s="1">
+        <f t="shared" ref="AD122:AD124" si="127">AVERAGE(T116:T122)</f>
+        <v>26.714285714285715</v>
+      </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B123">
+        <v>2777</v>
+      </c>
+      <c r="C123">
+        <v>5034</v>
+      </c>
+      <c r="D123">
+        <v>14378</v>
+      </c>
+      <c r="E123">
+        <v>16006</v>
+      </c>
+      <c r="F123">
+        <v>14449</v>
+      </c>
+      <c r="G123">
+        <v>12795</v>
+      </c>
+      <c r="H123">
+        <v>8926</v>
+      </c>
+      <c r="I123">
+        <v>5523</v>
+      </c>
+      <c r="J123">
+        <v>4988</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="110"/>
+        <v>49</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="111"/>
+        <v>107</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="112"/>
+        <v>299</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="113"/>
+        <v>227</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="114"/>
+        <v>155</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="115"/>
+        <v>151</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="116"/>
+        <v>101</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="117"/>
+        <v>27</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="118"/>
+        <v>12</v>
+      </c>
       <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
-      <c r="Y123" s="1"/>
-      <c r="Z123" s="1"/>
-      <c r="AA123" s="1"/>
-      <c r="AB123" s="1"/>
-      <c r="AC123" s="1"/>
-      <c r="AD123" s="1"/>
+      <c r="V123" s="1">
+        <f t="shared" si="119"/>
+        <v>36.857142857142854</v>
+      </c>
+      <c r="W123" s="1">
+        <f t="shared" si="120"/>
+        <v>78.285714285714292</v>
+      </c>
+      <c r="X123" s="1">
+        <f t="shared" si="121"/>
+        <v>230.28571428571428</v>
+      </c>
+      <c r="Y123" s="1">
+        <f t="shared" si="122"/>
+        <v>176.85714285714286</v>
+      </c>
+      <c r="Z123" s="1">
+        <f t="shared" si="123"/>
+        <v>122.28571428571429</v>
+      </c>
+      <c r="AA123" s="1">
+        <f t="shared" si="124"/>
+        <v>110.28571428571429</v>
+      </c>
+      <c r="AB123" s="1">
+        <f t="shared" si="125"/>
+        <v>67.714285714285708</v>
+      </c>
+      <c r="AC123" s="1">
+        <f t="shared" si="126"/>
+        <v>35.142857142857146</v>
+      </c>
+      <c r="AD123" s="1">
+        <f t="shared" si="127"/>
+        <v>26.714285714285715</v>
+      </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V124" s="1"/>
-      <c r="W124" s="1"/>
-      <c r="X124" s="1"/>
-      <c r="Y124" s="1"/>
-      <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
-      <c r="AB124" s="1"/>
-      <c r="AC124" s="1"/>
-      <c r="AD124" s="1"/>
+      <c r="A124" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B124">
+        <v>2812</v>
+      </c>
+      <c r="C124">
+        <v>5112</v>
+      </c>
+      <c r="D124">
+        <v>14517</v>
+      </c>
+      <c r="E124">
+        <v>16122</v>
+      </c>
+      <c r="F124">
+        <v>14537</v>
+      </c>
+      <c r="G124">
+        <v>12879</v>
+      </c>
+      <c r="H124">
+        <v>8988</v>
+      </c>
+      <c r="I124">
+        <v>5552</v>
+      </c>
+      <c r="J124">
+        <v>5005</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="110"/>
+        <v>35</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="111"/>
+        <v>78</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="112"/>
+        <v>139</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="113"/>
+        <v>116</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="114"/>
+        <v>88</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="115"/>
+        <v>84</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="116"/>
+        <v>62</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="117"/>
+        <v>29</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="118"/>
+        <v>17</v>
+      </c>
+      <c r="V124" s="1">
+        <f t="shared" si="119"/>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="W124" s="1">
+        <f t="shared" si="120"/>
+        <v>78.428571428571431</v>
+      </c>
+      <c r="X124" s="1">
+        <f t="shared" si="121"/>
+        <v>219.14285714285714</v>
+      </c>
+      <c r="Y124" s="1">
+        <f t="shared" si="122"/>
+        <v>164.71428571428572</v>
+      </c>
+      <c r="Z124" s="1">
+        <f t="shared" si="123"/>
+        <v>118</v>
+      </c>
+      <c r="AA124" s="1">
+        <f t="shared" si="124"/>
+        <v>105</v>
+      </c>
+      <c r="AB124" s="1">
+        <f t="shared" si="125"/>
+        <v>68.714285714285708</v>
+      </c>
+      <c r="AC124" s="1">
+        <f t="shared" si="126"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="AD124" s="1">
+        <f t="shared" si="127"/>
+        <v>27.285714285714285</v>
+      </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V125" s="1">
-        <v>31</v>
-      </c>
-      <c r="W125" s="1">
-        <v>66.714285714285708</v>
-      </c>
-      <c r="X125" s="1">
-        <v>190</v>
-      </c>
-      <c r="Y125" s="1">
-        <v>148.14285714285714</v>
-      </c>
-      <c r="Z125" s="1">
-        <v>104.14285714285714</v>
-      </c>
-      <c r="AA125" s="1">
-        <v>91.285714285714292</v>
-      </c>
-      <c r="AB125" s="1">
-        <v>50.857142857142854</v>
-      </c>
-      <c r="AC125" s="1">
-        <v>29.571428571428573</v>
-      </c>
-      <c r="AD125" s="1">
-        <v>24.857142857142858</v>
-      </c>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V126" s="1">
-        <v>29.285714285714285</v>
-      </c>
-      <c r="W126" s="1">
-        <v>66</v>
-      </c>
-      <c r="X126" s="1">
-        <v>193.28571428571428</v>
-      </c>
-      <c r="Y126" s="1">
-        <v>144</v>
-      </c>
-      <c r="Z126" s="1">
-        <v>105.57142857142857</v>
-      </c>
-      <c r="AA126" s="1">
-        <v>92.571428571428569</v>
-      </c>
-      <c r="AB126" s="1">
-        <v>53.142857142857146</v>
-      </c>
-      <c r="AC126" s="1">
-        <v>30.571428571428573</v>
-      </c>
-      <c r="AD126" s="1">
-        <v>24.428571428571427</v>
-      </c>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V127" s="1">
-        <v>30.571428571428573</v>
-      </c>
-      <c r="W127" s="1">
-        <v>69</v>
-      </c>
-      <c r="X127" s="1">
-        <v>199.42857142857142</v>
-      </c>
-      <c r="Y127" s="1">
-        <v>154</v>
-      </c>
-      <c r="Z127" s="1">
-        <v>109.28571428571429</v>
-      </c>
-      <c r="AA127" s="1">
-        <v>95.428571428571431</v>
-      </c>
-      <c r="AB127" s="1">
-        <v>56</v>
-      </c>
-      <c r="AC127" s="1">
-        <v>32.428571428571431</v>
-      </c>
-      <c r="AD127" s="1">
-        <v>24.571428571428573</v>
-      </c>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="V128" s="1">
-        <v>33.285714285714285</v>
-      </c>
-      <c r="W128" s="1">
-        <v>73</v>
-      </c>
-      <c r="X128" s="1">
-        <v>218</v>
-      </c>
-      <c r="Y128" s="1">
-        <v>166.28571428571428</v>
-      </c>
-      <c r="Z128" s="1">
-        <v>117.71428571428571</v>
-      </c>
-      <c r="AA128" s="1">
-        <v>104</v>
-      </c>
-      <c r="AB128" s="1">
-        <v>60.857142857142854</v>
-      </c>
-      <c r="AC128" s="1">
-        <v>34.571428571428569</v>
-      </c>
-      <c r="AD128" s="1">
-        <v>27.714285714285715</v>
-      </c>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
     </row>
     <row r="129" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
@@ -13271,54 +13486,30 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="V130" s="2">
-        <v>44034</v>
-      </c>
-      <c r="W130" s="2">
-        <v>44035</v>
-      </c>
-      <c r="X130" s="2">
-        <v>44036</v>
-      </c>
-      <c r="Y130" s="2">
-        <v>44037</v>
-      </c>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
     </row>
     <row r="131" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="V131" s="1">
-        <v>31</v>
-      </c>
-      <c r="W131" s="1">
-        <v>29.285714285714285</v>
-      </c>
-      <c r="X131" s="1">
-        <v>30.571428571428573</v>
-      </c>
-      <c r="Y131" s="1">
-        <v>33.285714285714285</v>
-      </c>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="V132" s="1">
-        <v>66.714285714285708</v>
-      </c>
-      <c r="W132" s="1">
-        <v>66</v>
-      </c>
-      <c r="X132" s="1">
-        <v>69</v>
-      </c>
-      <c r="Y132" s="1">
-        <v>73</v>
-      </c>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
@@ -13327,18 +13518,10 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="V133" s="1">
-        <v>190</v>
-      </c>
-      <c r="W133" s="1">
-        <v>193.28571428571428</v>
-      </c>
-      <c r="X133" s="1">
-        <v>199.42857142857142</v>
-      </c>
-      <c r="Y133" s="1">
-        <v>218</v>
-      </c>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
@@ -13347,18 +13530,10 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="V134" s="1">
-        <v>148.14285714285714</v>
-      </c>
-      <c r="W134" s="1">
-        <v>144</v>
-      </c>
-      <c r="X134" s="1">
-        <v>154</v>
-      </c>
-      <c r="Y134" s="1">
-        <v>166.28571428571428</v>
-      </c>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
@@ -13367,18 +13542,10 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="V135" s="1">
-        <v>104.14285714285714</v>
-      </c>
-      <c r="W135" s="1">
-        <v>105.57142857142857</v>
-      </c>
-      <c r="X135" s="1">
-        <v>109.28571428571429</v>
-      </c>
-      <c r="Y135" s="1">
-        <v>117.71428571428571</v>
-      </c>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
@@ -13387,66 +13554,34 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="V136" s="1">
-        <v>91.285714285714292</v>
-      </c>
-      <c r="W136" s="1">
-        <v>92.571428571428569</v>
-      </c>
-      <c r="X136" s="1">
-        <v>95.428571428571431</v>
-      </c>
-      <c r="Y136" s="1">
-        <v>104</v>
-      </c>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
     <row r="137" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="V137" s="1">
-        <v>50.857142857142854</v>
-      </c>
-      <c r="W137" s="1">
-        <v>53.142857142857146</v>
-      </c>
-      <c r="X137" s="1">
-        <v>56</v>
-      </c>
-      <c r="Y137" s="1">
-        <v>60.857142857142854</v>
-      </c>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
     <row r="138" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="V138" s="1">
-        <v>29.571428571428573</v>
-      </c>
-      <c r="W138" s="1">
-        <v>30.571428571428573</v>
-      </c>
-      <c r="X138" s="1">
-        <v>32.428571428571431</v>
-      </c>
-      <c r="Y138" s="1">
-        <v>34.571428571428569</v>
-      </c>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
     <row r="139" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="V139" s="1">
-        <v>24.857142857142858</v>
-      </c>
-      <c r="W139" s="1">
-        <v>24.428571428571427</v>
-      </c>
-      <c r="X139" s="1">
-        <v>24.571428571428573</v>
-      </c>
-      <c r="Y139" s="1">
-        <v>27.714285714285715</v>
-      </c>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C587C95-98D4-4994-9375-4629146CE681}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B87CBA0C-4413-4DBF-A40F-6354A551A209}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,13 +914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF160"/>
+  <dimension ref="A1:AF161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R128" sqref="R128"/>
+      <selection pane="bottomRight" activeCell="X128" sqref="X128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13428,60 +13428,428 @@
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
-      <c r="AC125" s="1"/>
-      <c r="AD125" s="1"/>
+      <c r="A125" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B125">
+        <v>2839</v>
+      </c>
+      <c r="C125">
+        <v>5187</v>
+      </c>
+      <c r="D125">
+        <v>14706</v>
+      </c>
+      <c r="E125">
+        <v>16258</v>
+      </c>
+      <c r="F125">
+        <v>14646</v>
+      </c>
+      <c r="G125">
+        <v>12988</v>
+      </c>
+      <c r="H125">
+        <v>9048</v>
+      </c>
+      <c r="I125">
+        <v>5586</v>
+      </c>
+      <c r="J125">
+        <v>5027</v>
+      </c>
+      <c r="L125">
+        <f t="shared" ref="L125:L127" si="128">SUM(B125-B124)</f>
+        <v>27</v>
+      </c>
+      <c r="M125">
+        <f t="shared" ref="M125:M127" si="129">SUM(C125-C124)</f>
+        <v>75</v>
+      </c>
+      <c r="N125">
+        <f t="shared" ref="N125:N127" si="130">SUM(D125-D124)</f>
+        <v>189</v>
+      </c>
+      <c r="O125">
+        <f t="shared" ref="O125:O127" si="131">SUM(E125-E124)</f>
+        <v>136</v>
+      </c>
+      <c r="P125">
+        <f t="shared" ref="P125:P127" si="132">SUM(F125-F124)</f>
+        <v>109</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" ref="Q125:Q127" si="133">SUM(G125-G124)</f>
+        <v>109</v>
+      </c>
+      <c r="R125">
+        <f t="shared" ref="R125:R127" si="134">SUM(H125-H124)</f>
+        <v>60</v>
+      </c>
+      <c r="S125">
+        <f t="shared" ref="S125:S127" si="135">SUM(I125-I124)</f>
+        <v>34</v>
+      </c>
+      <c r="T125">
+        <f t="shared" ref="T125:T127" si="136">SUM(J125-J124)</f>
+        <v>22</v>
+      </c>
+      <c r="V125" s="1">
+        <f t="shared" ref="V125:V127" si="137">AVERAGE(L119:L125)</f>
+        <v>38.142857142857146</v>
+      </c>
+      <c r="W125" s="1">
+        <f t="shared" ref="W125:W127" si="138">AVERAGE(M119:M125)</f>
+        <v>82</v>
+      </c>
+      <c r="X125" s="1">
+        <f t="shared" ref="X125:X127" si="139">AVERAGE(N119:N125)</f>
+        <v>227.57142857142858</v>
+      </c>
+      <c r="Y125" s="1">
+        <f t="shared" ref="Y125:Y127" si="140">AVERAGE(O119:O125)</f>
+        <v>170.42857142857142</v>
+      </c>
+      <c r="Z125" s="1">
+        <f t="shared" ref="Z125:Z127" si="141">AVERAGE(P119:P125)</f>
+        <v>121.42857142857143</v>
+      </c>
+      <c r="AA125" s="1">
+        <f t="shared" ref="AA125:AA127" si="142">AVERAGE(Q119:Q125)</f>
+        <v>111.14285714285714</v>
+      </c>
+      <c r="AB125" s="1">
+        <f t="shared" ref="AB125:AB127" si="143">AVERAGE(R119:R125)</f>
+        <v>70.285714285714292</v>
+      </c>
+      <c r="AC125" s="1">
+        <f t="shared" ref="AC125:AC127" si="144">AVERAGE(S119:S125)</f>
+        <v>31.857142857142858</v>
+      </c>
+      <c r="AD125" s="1">
+        <f t="shared" ref="AD125:AD127" si="145">AVERAGE(T119:T125)</f>
+        <v>20.428571428571427</v>
+      </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V126" s="1"/>
-      <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
-      <c r="Y126" s="1"/>
-      <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
-      <c r="AB126" s="1"/>
-      <c r="AC126" s="1"/>
-      <c r="AD126" s="1"/>
+      <c r="A126" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B126">
+        <v>2881</v>
+      </c>
+      <c r="C126">
+        <v>5299</v>
+      </c>
+      <c r="D126">
+        <v>14934</v>
+      </c>
+      <c r="E126">
+        <v>16432</v>
+      </c>
+      <c r="F126">
+        <v>14763</v>
+      </c>
+      <c r="G126">
+        <v>13068</v>
+      </c>
+      <c r="H126">
+        <v>9114</v>
+      </c>
+      <c r="I126">
+        <v>5640</v>
+      </c>
+      <c r="J126">
+        <v>5046</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="128"/>
+        <v>42</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="129"/>
+        <v>112</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="130"/>
+        <v>228</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="131"/>
+        <v>174</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="132"/>
+        <v>117</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="133"/>
+        <v>80</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="134"/>
+        <v>66</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="135"/>
+        <v>54</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="136"/>
+        <v>19</v>
+      </c>
+      <c r="V126" s="1">
+        <f t="shared" si="137"/>
+        <v>41.285714285714285</v>
+      </c>
+      <c r="W126" s="1">
+        <f t="shared" si="138"/>
+        <v>90</v>
+      </c>
+      <c r="X126" s="1">
+        <f t="shared" si="139"/>
+        <v>229.85714285714286</v>
+      </c>
+      <c r="Y126" s="1">
+        <f t="shared" si="140"/>
+        <v>177.28571428571428</v>
+      </c>
+      <c r="Z126" s="1">
+        <f t="shared" si="141"/>
+        <v>126</v>
+      </c>
+      <c r="AA126" s="1">
+        <f t="shared" si="142"/>
+        <v>111.57142857142857</v>
+      </c>
+      <c r="AB126" s="1">
+        <f t="shared" si="143"/>
+        <v>71.285714285714292</v>
+      </c>
+      <c r="AC126" s="1">
+        <f t="shared" si="144"/>
+        <v>36.142857142857146</v>
+      </c>
+      <c r="AD126" s="1">
+        <f t="shared" si="145"/>
+        <v>22.428571428571427</v>
+      </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
-      <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-      <c r="AC127" s="1"/>
-      <c r="AD127" s="1"/>
+      <c r="A127" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B127">
+        <v>2943</v>
+      </c>
+      <c r="C127">
+        <v>5434</v>
+      </c>
+      <c r="D127">
+        <v>15184</v>
+      </c>
+      <c r="E127">
+        <v>16662</v>
+      </c>
+      <c r="F127">
+        <v>14935</v>
+      </c>
+      <c r="G127">
+        <v>13243</v>
+      </c>
+      <c r="H127">
+        <v>9187</v>
+      </c>
+      <c r="I127">
+        <v>5700</v>
+      </c>
+      <c r="J127">
+        <v>5058</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="128"/>
+        <v>62</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="129"/>
+        <v>135</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="130"/>
+        <v>250</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="131"/>
+        <v>230</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="132"/>
+        <v>172</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="133"/>
+        <v>175</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="134"/>
+        <v>73</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="135"/>
+        <v>60</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="136"/>
+        <v>12</v>
+      </c>
+      <c r="V127" s="1">
+        <f t="shared" si="137"/>
+        <v>43.142857142857146</v>
+      </c>
+      <c r="W127" s="1">
+        <f t="shared" si="138"/>
+        <v>97.714285714285708</v>
+      </c>
+      <c r="X127" s="1">
+        <f t="shared" si="139"/>
+        <v>230</v>
+      </c>
+      <c r="Y127" s="1">
+        <f t="shared" si="140"/>
+        <v>182.14285714285714</v>
+      </c>
+      <c r="Z127" s="1">
+        <f t="shared" si="141"/>
+        <v>131.71428571428572</v>
+      </c>
+      <c r="AA127" s="1">
+        <f t="shared" si="142"/>
+        <v>121.14285714285714</v>
+      </c>
+      <c r="AB127" s="1">
+        <f t="shared" si="143"/>
+        <v>72.714285714285708</v>
+      </c>
+      <c r="AC127" s="1">
+        <f t="shared" si="144"/>
+        <v>40.142857142857146</v>
+      </c>
+      <c r="AD127" s="1">
+        <f t="shared" si="145"/>
+        <v>21.285714285714285</v>
+      </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="V128" s="1"/>
-      <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
-      <c r="Y128" s="1"/>
-      <c r="Z128" s="1"/>
-      <c r="AA128" s="1"/>
-      <c r="AB128" s="1"/>
-      <c r="AC128" s="1"/>
-      <c r="AD128" s="1"/>
-    </row>
-    <row r="129" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B128">
+        <v>2992</v>
+      </c>
+      <c r="C128" s="1">
+        <v>5536</v>
+      </c>
+      <c r="D128" s="1">
+        <v>15427</v>
+      </c>
+      <c r="E128" s="1">
+        <v>16837</v>
+      </c>
+      <c r="F128" s="1">
+        <v>15095</v>
+      </c>
+      <c r="G128">
+        <v>13371</v>
+      </c>
+      <c r="H128">
+        <v>9281</v>
+      </c>
+      <c r="I128">
+        <v>5748</v>
+      </c>
+      <c r="J128">
+        <v>5078</v>
+      </c>
+      <c r="L128">
+        <f t="shared" ref="L128" si="146">SUM(B128-B127)</f>
+        <v>49</v>
+      </c>
+      <c r="M128">
+        <f t="shared" ref="M128" si="147">SUM(C128-C127)</f>
+        <v>102</v>
+      </c>
+      <c r="N128">
+        <f t="shared" ref="N128" si="148">SUM(D128-D127)</f>
+        <v>243</v>
+      </c>
+      <c r="O128">
+        <f t="shared" ref="O128" si="149">SUM(E128-E127)</f>
+        <v>175</v>
+      </c>
+      <c r="P128">
+        <f t="shared" ref="P128" si="150">SUM(F128-F127)</f>
+        <v>160</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" ref="Q128" si="151">SUM(G128-G127)</f>
+        <v>128</v>
+      </c>
+      <c r="R128">
+        <f t="shared" ref="R128" si="152">SUM(H128-H127)</f>
+        <v>94</v>
+      </c>
+      <c r="S128">
+        <f t="shared" ref="S128" si="153">SUM(I128-I127)</f>
+        <v>48</v>
+      </c>
+      <c r="T128">
+        <f t="shared" ref="T128" si="154">SUM(J128-J127)</f>
+        <v>20</v>
+      </c>
+      <c r="V128" s="1">
+        <f t="shared" ref="V128" si="155">AVERAGE(L122:L128)</f>
+        <v>42.428571428571431</v>
+      </c>
+      <c r="W128" s="1">
+        <f t="shared" ref="W128" si="156">AVERAGE(M122:M128)</f>
+        <v>96.142857142857139</v>
+      </c>
+      <c r="X128" s="1">
+        <f t="shared" ref="X128" si="157">AVERAGE(N122:N128)</f>
+        <v>216.14285714285714</v>
+      </c>
+      <c r="Y128" s="1">
+        <f t="shared" ref="Y128" si="158">AVERAGE(O122:O128)</f>
+        <v>172.42857142857142</v>
+      </c>
+      <c r="Z128" s="1">
+        <f t="shared" ref="Z128" si="159">AVERAGE(P122:P128)</f>
+        <v>128.85714285714286</v>
+      </c>
+      <c r="AA128" s="1">
+        <f t="shared" ref="AA128" si="160">AVERAGE(Q122:Q128)</f>
+        <v>115.85714285714286</v>
+      </c>
+      <c r="AB128" s="1">
+        <f t="shared" ref="AB128" si="161">AVERAGE(R122:R128)</f>
+        <v>72.285714285714292</v>
+      </c>
+      <c r="AC128" s="1">
+        <f t="shared" ref="AC128" si="162">AVERAGE(S122:S128)</f>
+        <v>40</v>
+      </c>
+      <c r="AD128" s="1">
+        <f t="shared" ref="AD128" si="163">AVERAGE(T122:T128)</f>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="129" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -13491,7 +13859,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -13500,8 +13868,13 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
-    </row>
-    <row r="132" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+    </row>
+    <row r="132" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -13512,8 +13885,11 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
-    </row>
-    <row r="133" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
+      <c r="AD132" s="1"/>
+    </row>
+    <row r="133" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -13524,20 +13900,44 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
-    </row>
-    <row r="134" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+    </row>
+    <row r="134" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="V134" s="1"/>
-      <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
-      <c r="Y134" s="1"/>
-      <c r="Z134" s="1"/>
-      <c r="AA134" s="1"/>
-    </row>
-    <row r="135" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="V134" s="1">
+        <v>42.428571428571431</v>
+      </c>
+      <c r="W134" s="1">
+        <v>96.142857142857139</v>
+      </c>
+      <c r="X134" s="1">
+        <v>216.14285714285714</v>
+      </c>
+      <c r="Y134" s="1">
+        <v>172.42857142857142</v>
+      </c>
+      <c r="Z134" s="1">
+        <v>128.85714285714286</v>
+      </c>
+      <c r="AA134" s="1">
+        <v>115.85714285714286</v>
+      </c>
+      <c r="AB134" s="1">
+        <v>72.285714285714292</v>
+      </c>
+      <c r="AC134" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD134" s="1">
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="135" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -13548,8 +13948,11 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
-    </row>
-    <row r="136" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+    </row>
+    <row r="136" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -13560,54 +13963,153 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
-    </row>
-    <row r="137" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+    </row>
+    <row r="137" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
-    </row>
-    <row r="138" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
-    </row>
-    <row r="139" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="V139" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+    </row>
+    <row r="138" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="V138" s="1">
+        <v>42.428571428571431</v>
+      </c>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+    </row>
+    <row r="139" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="V139" s="1">
+        <v>96.142857142857139</v>
+      </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
-    </row>
-    <row r="140" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="V140" s="1"/>
+      <c r="AB139" s="1"/>
+    </row>
+    <row r="140" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="V140" s="1">
+        <v>216.14285714285714</v>
+      </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
+    </row>
+    <row r="141" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="V141" s="1">
+        <v>172.42857142857142</v>
+      </c>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
+    </row>
+    <row r="142" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="V142" s="1">
+        <v>128.85714285714286</v>
+      </c>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
+    </row>
+    <row r="143" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="V143" s="1">
+        <v>115.85714285714286</v>
+      </c>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
+    </row>
+    <row r="144" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="V144" s="1">
+        <v>72.285714285714292</v>
+      </c>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+    </row>
+    <row r="145" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V145" s="1">
+        <v>40</v>
+      </c>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+    </row>
+    <row r="146" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V146" s="1">
+        <v>17.428571428571427</v>
+      </c>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
     </row>
     <row r="147" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
-      <c r="AA147" s="2"/>
-      <c r="AB147" s="2"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
       <c r="AC147" s="2"/>
       <c r="AD147" s="2"/>
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="157" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V157" s="2"/>
+    <row r="148" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
+      <c r="AB148" s="2"/>
     </row>
     <row r="158" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V158" s="2"/>
@@ -13617,6 +14119,9 @@
     </row>
     <row r="160" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V160" s="2"/>
+    </row>
+    <row r="161" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V161" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B87CBA0C-4413-4DBF-A40F-6354A551A209}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{402E017F-2561-4A16-B84C-1DD0636069F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MDCOVID19_CasesByAgeDistributio" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -555,10 +556,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,10 +919,10 @@
   <dimension ref="A1:AF161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X128" sqref="X128"/>
+      <selection pane="bottomRight" activeCell="V150" sqref="V150:AC159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13740,22 +13742,22 @@
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>44044</v>
       </c>
       <c r="B128">
         <v>2992</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128">
         <v>5536</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128">
         <v>15427</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128">
         <v>16837</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128">
         <v>15095</v>
       </c>
       <c r="G128">
@@ -13843,116 +13845,735 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="129" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-    </row>
-    <row r="131" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-      <c r="X131" s="1"/>
-      <c r="Y131" s="1"/>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1"/>
-      <c r="AD131" s="1"/>
-    </row>
-    <row r="132" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-    </row>
-    <row r="133" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
-      <c r="AB133" s="1"/>
-      <c r="AC133" s="1"/>
-      <c r="AD133" s="1"/>
-    </row>
-    <row r="134" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>44045</v>
+      </c>
+      <c r="B129">
+        <v>3034</v>
+      </c>
+      <c r="C129">
+        <v>5624</v>
+      </c>
+      <c r="D129">
+        <v>15631</v>
+      </c>
+      <c r="E129">
+        <v>17006</v>
+      </c>
+      <c r="F129">
+        <v>15232</v>
+      </c>
+      <c r="G129">
+        <v>13506</v>
+      </c>
+      <c r="H129">
+        <v>9350</v>
+      </c>
+      <c r="I129">
+        <v>5796</v>
+      </c>
+      <c r="J129">
+        <v>5095</v>
+      </c>
+      <c r="L129">
+        <f t="shared" ref="L129:L135" si="164">SUM(B129-B128)</f>
+        <v>42</v>
+      </c>
+      <c r="M129">
+        <f t="shared" ref="M129:M135" si="165">SUM(C129-C128)</f>
+        <v>88</v>
+      </c>
+      <c r="N129">
+        <f t="shared" ref="N129:N135" si="166">SUM(D129-D128)</f>
+        <v>204</v>
+      </c>
+      <c r="O129">
+        <f t="shared" ref="O129:O135" si="167">SUM(E129-E128)</f>
+        <v>169</v>
+      </c>
+      <c r="P129">
+        <f t="shared" ref="P129:P135" si="168">SUM(F129-F128)</f>
+        <v>137</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" ref="Q129:Q135" si="169">SUM(G129-G128)</f>
+        <v>135</v>
+      </c>
+      <c r="R129">
+        <f t="shared" ref="R129:R135" si="170">SUM(H129-H128)</f>
+        <v>69</v>
+      </c>
+      <c r="S129">
+        <f t="shared" ref="S129:S135" si="171">SUM(I129-I128)</f>
+        <v>48</v>
+      </c>
+      <c r="T129">
+        <f t="shared" ref="T129:T135" si="172">SUM(J129-J128)</f>
+        <v>17</v>
+      </c>
+      <c r="V129" s="1">
+        <f t="shared" ref="V129:V135" si="173">AVERAGE(L123:L129)</f>
+        <v>43.714285714285715</v>
+      </c>
+      <c r="W129" s="1">
+        <f t="shared" ref="W129:W135" si="174">AVERAGE(M123:M129)</f>
+        <v>99.571428571428569</v>
+      </c>
+      <c r="X129" s="1">
+        <f t="shared" ref="X129:X135" si="175">AVERAGE(N123:N129)</f>
+        <v>221.71428571428572</v>
+      </c>
+      <c r="Y129" s="1">
+        <f t="shared" ref="Y129:Y135" si="176">AVERAGE(O123:O129)</f>
+        <v>175.28571428571428</v>
+      </c>
+      <c r="Z129" s="1">
+        <f t="shared" ref="Z129:Z135" si="177">AVERAGE(P123:P129)</f>
+        <v>134</v>
+      </c>
+      <c r="AA129" s="1">
+        <f t="shared" ref="AA129:AA135" si="178">AVERAGE(Q123:Q129)</f>
+        <v>123.14285714285714</v>
+      </c>
+      <c r="AB129" s="1">
+        <f t="shared" ref="AB129:AB135" si="179">AVERAGE(R123:R129)</f>
+        <v>75</v>
+      </c>
+      <c r="AC129" s="1">
+        <f t="shared" ref="AC129:AC135" si="180">AVERAGE(S123:S129)</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="AD129" s="1">
+        <f t="shared" ref="AD129:AD135" si="181">AVERAGE(T123:T129)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B130">
+        <v>3083</v>
+      </c>
+      <c r="C130">
+        <v>5720</v>
+      </c>
+      <c r="D130">
+        <v>15832</v>
+      </c>
+      <c r="E130">
+        <v>17180</v>
+      </c>
+      <c r="F130">
+        <v>15336</v>
+      </c>
+      <c r="G130">
+        <v>13625</v>
+      </c>
+      <c r="H130">
+        <v>9415</v>
+      </c>
+      <c r="I130">
+        <v>5835</v>
+      </c>
+      <c r="J130">
+        <v>5118</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="164"/>
+        <v>49</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="165"/>
+        <v>96</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="166"/>
+        <v>201</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="167"/>
+        <v>174</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="168"/>
+        <v>104</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="169"/>
+        <v>119</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="170"/>
+        <v>65</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="171"/>
+        <v>39</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="172"/>
+        <v>23</v>
+      </c>
+      <c r="V130" s="1">
+        <f t="shared" si="173"/>
+        <v>43.714285714285715</v>
+      </c>
+      <c r="W130" s="1">
+        <f t="shared" si="174"/>
+        <v>98</v>
+      </c>
+      <c r="X130" s="1">
+        <f t="shared" si="175"/>
+        <v>207.71428571428572</v>
+      </c>
+      <c r="Y130" s="1">
+        <f t="shared" si="176"/>
+        <v>167.71428571428572</v>
+      </c>
+      <c r="Z130" s="1">
+        <f t="shared" si="177"/>
+        <v>126.71428571428571</v>
+      </c>
+      <c r="AA130" s="1">
+        <f t="shared" si="178"/>
+        <v>118.57142857142857</v>
+      </c>
+      <c r="AB130" s="1">
+        <f t="shared" si="179"/>
+        <v>69.857142857142861</v>
+      </c>
+      <c r="AC130" s="1">
+        <f t="shared" si="180"/>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="AD130" s="1">
+        <f t="shared" si="181"/>
+        <v>18.571428571428573</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>44047</v>
+      </c>
+      <c r="B131">
+        <v>3109</v>
+      </c>
+      <c r="C131">
+        <v>5797</v>
+      </c>
+      <c r="D131">
+        <v>15990</v>
+      </c>
+      <c r="E131">
+        <v>17303</v>
+      </c>
+      <c r="F131">
+        <v>15442</v>
+      </c>
+      <c r="G131">
+        <v>13733</v>
+      </c>
+      <c r="H131">
+        <v>9465</v>
+      </c>
+      <c r="I131">
+        <v>5878</v>
+      </c>
+      <c r="J131">
+        <v>5137</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="164"/>
+        <v>26</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="165"/>
+        <v>77</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="166"/>
+        <v>158</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="167"/>
+        <v>123</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="168"/>
+        <v>106</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="169"/>
+        <v>108</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="170"/>
+        <v>50</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="171"/>
+        <v>43</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="172"/>
+        <v>19</v>
+      </c>
+      <c r="V131" s="1">
+        <f t="shared" si="173"/>
+        <v>42.428571428571431</v>
+      </c>
+      <c r="W131" s="1">
+        <f t="shared" si="174"/>
+        <v>97.857142857142861</v>
+      </c>
+      <c r="X131" s="1">
+        <f t="shared" si="175"/>
+        <v>210.42857142857142</v>
+      </c>
+      <c r="Y131" s="1">
+        <f t="shared" si="176"/>
+        <v>168.71428571428572</v>
+      </c>
+      <c r="Z131" s="1">
+        <f t="shared" si="177"/>
+        <v>129.28571428571428</v>
+      </c>
+      <c r="AA131" s="1">
+        <f t="shared" si="178"/>
+        <v>122</v>
+      </c>
+      <c r="AB131" s="1">
+        <f t="shared" si="179"/>
+        <v>68.142857142857139</v>
+      </c>
+      <c r="AC131" s="1">
+        <f t="shared" si="180"/>
+        <v>46.571428571428569</v>
+      </c>
+      <c r="AD131" s="1">
+        <f t="shared" si="181"/>
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B132">
+        <v>3128</v>
+      </c>
+      <c r="C132">
+        <v>5852</v>
+      </c>
+      <c r="D132">
+        <v>16114</v>
+      </c>
+      <c r="E132">
+        <v>17395</v>
+      </c>
+      <c r="F132">
+        <v>15526</v>
+      </c>
+      <c r="G132">
+        <v>13821</v>
+      </c>
+      <c r="H132">
+        <v>9521</v>
+      </c>
+      <c r="I132">
+        <v>5908</v>
+      </c>
+      <c r="J132">
+        <v>5161</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="164"/>
+        <v>19</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="165"/>
+        <v>55</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="166"/>
+        <v>124</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="167"/>
+        <v>92</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="168"/>
+        <v>84</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="169"/>
+        <v>88</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="170"/>
+        <v>56</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="171"/>
+        <v>30</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="172"/>
+        <v>24</v>
+      </c>
+      <c r="V132" s="1">
+        <f t="shared" si="173"/>
+        <v>41.285714285714285</v>
+      </c>
+      <c r="W132" s="1">
+        <f t="shared" si="174"/>
+        <v>95</v>
+      </c>
+      <c r="X132" s="1">
+        <f t="shared" si="175"/>
+        <v>201.14285714285714</v>
+      </c>
+      <c r="Y132" s="1">
+        <f t="shared" si="176"/>
+        <v>162.42857142857142</v>
+      </c>
+      <c r="Z132" s="1">
+        <f t="shared" si="177"/>
+        <v>125.71428571428571</v>
+      </c>
+      <c r="AA132" s="1">
+        <f t="shared" si="178"/>
+        <v>119</v>
+      </c>
+      <c r="AB132" s="1">
+        <f t="shared" si="179"/>
+        <v>67.571428571428569</v>
+      </c>
+      <c r="AC132" s="1">
+        <f t="shared" si="180"/>
+        <v>46</v>
+      </c>
+      <c r="AD132" s="1">
+        <f t="shared" si="181"/>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B133">
+        <v>3147</v>
+      </c>
+      <c r="C133">
+        <v>5930</v>
+      </c>
+      <c r="D133">
+        <v>16244</v>
+      </c>
+      <c r="E133">
+        <v>17492</v>
+      </c>
+      <c r="F133">
+        <v>15620</v>
+      </c>
+      <c r="G133">
+        <v>13898</v>
+      </c>
+      <c r="H133">
+        <v>9565</v>
+      </c>
+      <c r="I133">
+        <v>5927</v>
+      </c>
+      <c r="J133">
+        <v>5182</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="164"/>
+        <v>19</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="165"/>
+        <v>78</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="166"/>
+        <v>130</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="167"/>
+        <v>97</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="168"/>
+        <v>94</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="169"/>
+        <v>77</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="170"/>
+        <v>44</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="171"/>
+        <v>19</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="172"/>
+        <v>21</v>
+      </c>
+      <c r="V133" s="1">
+        <f t="shared" si="173"/>
+        <v>38</v>
+      </c>
+      <c r="W133" s="1">
+        <f t="shared" si="174"/>
+        <v>90.142857142857139</v>
+      </c>
+      <c r="X133" s="1">
+        <f t="shared" si="175"/>
+        <v>187.14285714285714</v>
+      </c>
+      <c r="Y133" s="1">
+        <f t="shared" si="176"/>
+        <v>151.42857142857142</v>
+      </c>
+      <c r="Z133" s="1">
+        <f t="shared" si="177"/>
+        <v>122.42857142857143</v>
+      </c>
+      <c r="AA133" s="1">
+        <f t="shared" si="178"/>
+        <v>118.57142857142857</v>
+      </c>
+      <c r="AB133" s="1">
+        <f t="shared" si="179"/>
+        <v>64.428571428571431</v>
+      </c>
+      <c r="AC133" s="1">
+        <f t="shared" si="180"/>
+        <v>41</v>
+      </c>
+      <c r="AD133" s="1">
+        <f t="shared" si="181"/>
+        <v>19.428571428571427</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>44050</v>
+      </c>
+      <c r="B134">
+        <v>3195</v>
+      </c>
+      <c r="C134">
+        <v>6022</v>
+      </c>
+      <c r="D134">
+        <v>16389</v>
+      </c>
+      <c r="E134">
+        <v>17645</v>
+      </c>
+      <c r="F134">
+        <v>15725</v>
+      </c>
+      <c r="G134">
+        <v>14017</v>
+      </c>
+      <c r="H134">
+        <v>9636</v>
+      </c>
+      <c r="I134">
+        <v>5971</v>
+      </c>
+      <c r="J134">
+        <v>5206</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="164"/>
+        <v>48</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="165"/>
+        <v>92</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="166"/>
+        <v>145</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="167"/>
+        <v>153</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="168"/>
+        <v>105</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="169"/>
+        <v>119</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="170"/>
+        <v>71</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="171"/>
+        <v>44</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="172"/>
+        <v>24</v>
+      </c>
       <c r="V134" s="1">
-        <v>42.428571428571431</v>
+        <f t="shared" si="173"/>
+        <v>36</v>
       </c>
       <c r="W134" s="1">
-        <v>96.142857142857139</v>
+        <f t="shared" si="174"/>
+        <v>84</v>
       </c>
       <c r="X134" s="1">
-        <v>216.14285714285714</v>
+        <f t="shared" si="175"/>
+        <v>172.14285714285714</v>
       </c>
       <c r="Y134" s="1">
-        <v>172.42857142857142</v>
+        <f t="shared" si="176"/>
+        <v>140.42857142857142</v>
       </c>
       <c r="Z134" s="1">
-        <v>128.85714285714286</v>
+        <f t="shared" si="177"/>
+        <v>112.85714285714286</v>
       </c>
       <c r="AA134" s="1">
-        <v>115.85714285714286</v>
+        <f t="shared" si="178"/>
+        <v>110.57142857142857</v>
       </c>
       <c r="AB134" s="1">
-        <v>72.285714285714292</v>
+        <f t="shared" si="179"/>
+        <v>64.142857142857139</v>
       </c>
       <c r="AC134" s="1">
-        <v>40</v>
+        <f t="shared" si="180"/>
+        <v>38.714285714285715</v>
       </c>
       <c r="AD134" s="1">
-        <v>17.428571428571427</v>
-      </c>
-    </row>
-    <row r="135" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
-      <c r="Y135" s="1"/>
-      <c r="Z135" s="1"/>
-      <c r="AA135" s="1"/>
-      <c r="AB135" s="1"/>
-      <c r="AC135" s="1"/>
-      <c r="AD135" s="1"/>
-    </row>
-    <row r="136" spans="3:30" x14ac:dyDescent="0.25">
+        <f t="shared" si="181"/>
+        <v>21.142857142857142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>44051</v>
+      </c>
+      <c r="B135">
+        <v>3237</v>
+      </c>
+      <c r="C135">
+        <v>6126</v>
+      </c>
+      <c r="D135">
+        <v>16542</v>
+      </c>
+      <c r="E135">
+        <v>17778</v>
+      </c>
+      <c r="F135">
+        <v>15846</v>
+      </c>
+      <c r="G135">
+        <v>14112</v>
+      </c>
+      <c r="H135">
+        <v>9689</v>
+      </c>
+      <c r="I135">
+        <v>6009</v>
+      </c>
+      <c r="J135">
+        <v>5242</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="164"/>
+        <v>42</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="165"/>
+        <v>104</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="166"/>
+        <v>153</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="167"/>
+        <v>133</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="168"/>
+        <v>121</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="169"/>
+        <v>95</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="170"/>
+        <v>53</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="171"/>
+        <v>38</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="172"/>
+        <v>36</v>
+      </c>
+      <c r="V135" s="1">
+        <f t="shared" si="173"/>
+        <v>35</v>
+      </c>
+      <c r="W135" s="1">
+        <f t="shared" si="174"/>
+        <v>84.285714285714292</v>
+      </c>
+      <c r="X135" s="1">
+        <f t="shared" si="175"/>
+        <v>159.28571428571428</v>
+      </c>
+      <c r="Y135" s="1">
+        <f t="shared" si="176"/>
+        <v>134.42857142857142</v>
+      </c>
+      <c r="Z135" s="1">
+        <f t="shared" si="177"/>
+        <v>107.28571428571429</v>
+      </c>
+      <c r="AA135" s="1">
+        <f t="shared" si="178"/>
+        <v>105.85714285714286</v>
+      </c>
+      <c r="AB135" s="1">
+        <f t="shared" si="179"/>
+        <v>58.285714285714285</v>
+      </c>
+      <c r="AC135" s="1">
+        <f t="shared" si="180"/>
+        <v>37.285714285714285</v>
+      </c>
+      <c r="AD135" s="1">
+        <f t="shared" si="181"/>
+        <v>23.428571428571427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -13967,7 +14588,7 @@
       <c r="AC136" s="1"/>
       <c r="AD136" s="1"/>
     </row>
-    <row r="137" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -13982,14 +14603,12 @@
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
     </row>
-    <row r="138" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="V138" s="1">
-        <v>42.428571428571431</v>
-      </c>
+      <c r="V138" s="1"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
@@ -13997,14 +14616,12 @@
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
     </row>
-    <row r="139" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="V139" s="1">
-        <v>96.142857142857139</v>
-      </c>
+      <c r="V139" s="1"/>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
@@ -14012,93 +14629,237 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="V140" s="1">
+        <v>42.428571428571431</v>
+      </c>
+      <c r="W140" s="1">
+        <v>96.142857142857139</v>
+      </c>
+      <c r="X140" s="1">
         <v>216.14285714285714</v>
       </c>
-      <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
-      <c r="Y140" s="1"/>
-      <c r="Z140" s="1"/>
-      <c r="AA140" s="1"/>
-      <c r="AB140" s="1"/>
-    </row>
-    <row r="141" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="Y140" s="1">
+        <v>172.42857142857142</v>
+      </c>
+      <c r="Z140" s="1">
+        <v>128.85714285714286</v>
+      </c>
+      <c r="AA140" s="1">
+        <v>115.85714285714286</v>
+      </c>
+      <c r="AB140" s="1">
+        <v>72.285714285714292</v>
+      </c>
+      <c r="AC140" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD140" s="1">
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="V141" s="1">
-        <v>172.42857142857142</v>
-      </c>
-      <c r="W141" s="1"/>
-      <c r="X141" s="1"/>
-      <c r="Y141" s="1"/>
-      <c r="Z141" s="1"/>
-      <c r="AA141" s="1"/>
-      <c r="AB141" s="1"/>
-    </row>
-    <row r="142" spans="3:30" x14ac:dyDescent="0.25">
+        <v>43.714285714285715</v>
+      </c>
+      <c r="W141" s="1">
+        <v>99.571428571428569</v>
+      </c>
+      <c r="X141" s="1">
+        <v>221.71428571428572</v>
+      </c>
+      <c r="Y141" s="1">
+        <v>175.28571428571428</v>
+      </c>
+      <c r="Z141" s="1">
+        <v>134</v>
+      </c>
+      <c r="AA141" s="1">
+        <v>123.14285714285714</v>
+      </c>
+      <c r="AB141" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC141" s="1">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="AD141" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="V142" s="1">
-        <v>128.85714285714286</v>
-      </c>
-      <c r="W142" s="1"/>
-      <c r="X142" s="1"/>
-      <c r="Y142" s="1"/>
-      <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
-      <c r="AB142" s="1"/>
-    </row>
-    <row r="143" spans="3:30" x14ac:dyDescent="0.25">
+        <v>43.714285714285715</v>
+      </c>
+      <c r="W142" s="1">
+        <v>98</v>
+      </c>
+      <c r="X142" s="1">
+        <v>207.71428571428572</v>
+      </c>
+      <c r="Y142" s="1">
+        <v>167.71428571428572</v>
+      </c>
+      <c r="Z142" s="1">
+        <v>126.71428571428571</v>
+      </c>
+      <c r="AA142" s="1">
+        <v>118.57142857142857</v>
+      </c>
+      <c r="AB142" s="1">
+        <v>69.857142857142861</v>
+      </c>
+      <c r="AC142" s="1">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="AD142" s="1">
+        <v>18.571428571428573</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="V143" s="1">
-        <v>115.85714285714286</v>
-      </c>
-      <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
-      <c r="AB143" s="1"/>
-    </row>
-    <row r="144" spans="3:30" x14ac:dyDescent="0.25">
+        <v>42.428571428571431</v>
+      </c>
+      <c r="W143" s="1">
+        <v>97.857142857142861</v>
+      </c>
+      <c r="X143" s="1">
+        <v>210.42857142857142</v>
+      </c>
+      <c r="Y143" s="1">
+        <v>168.71428571428572</v>
+      </c>
+      <c r="Z143" s="1">
+        <v>129.28571428571428</v>
+      </c>
+      <c r="AA143" s="1">
+        <v>122</v>
+      </c>
+      <c r="AB143" s="1">
+        <v>68.142857142857139</v>
+      </c>
+      <c r="AC143" s="1">
+        <v>46.571428571428569</v>
+      </c>
+      <c r="AD143" s="1">
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="V144" s="1">
-        <v>72.285714285714292</v>
-      </c>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
-      <c r="Z144" s="1"/>
-      <c r="AA144" s="1"/>
-      <c r="AB144" s="1"/>
+        <v>41.285714285714285</v>
+      </c>
+      <c r="W144" s="1">
+        <v>95</v>
+      </c>
+      <c r="X144" s="1">
+        <v>201.14285714285714</v>
+      </c>
+      <c r="Y144" s="1">
+        <v>162.42857142857142</v>
+      </c>
+      <c r="Z144" s="1">
+        <v>125.71428571428571</v>
+      </c>
+      <c r="AA144" s="1">
+        <v>119</v>
+      </c>
+      <c r="AB144" s="1">
+        <v>67.571428571428569</v>
+      </c>
+      <c r="AC144" s="1">
+        <v>46</v>
+      </c>
+      <c r="AD144" s="1">
+        <v>19.142857142857142</v>
+      </c>
     </row>
     <row r="145" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V145" s="1">
-        <v>40</v>
-      </c>
-      <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
-      <c r="Y145" s="1"/>
-      <c r="Z145" s="1"/>
-      <c r="AA145" s="1"/>
-      <c r="AB145" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="W145" s="1">
+        <v>90.142857142857139</v>
+      </c>
+      <c r="X145" s="1">
+        <v>187.14285714285714</v>
+      </c>
+      <c r="Y145" s="1">
+        <v>151.42857142857142</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>122.42857142857143</v>
+      </c>
+      <c r="AA145" s="1">
+        <v>118.57142857142857</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>64.428571428571431</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>41</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>19.428571428571427</v>
+      </c>
     </row>
     <row r="146" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V146" s="1">
-        <v>17.428571428571427</v>
-      </c>
-      <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
-      <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
-      <c r="AA146" s="1"/>
-      <c r="AB146" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="W146" s="1">
+        <v>84</v>
+      </c>
+      <c r="X146" s="1">
+        <v>172.14285714285714</v>
+      </c>
+      <c r="Y146" s="1">
+        <v>140.42857142857142</v>
+      </c>
+      <c r="Z146" s="1">
+        <v>112.85714285714286</v>
+      </c>
+      <c r="AA146" s="1">
+        <v>110.57142857142857</v>
+      </c>
+      <c r="AB146" s="1">
+        <v>64.142857142857139</v>
+      </c>
+      <c r="AC146" s="1">
+        <v>38.714285714285715</v>
+      </c>
+      <c r="AD146" s="1">
+        <v>21.142857142857142</v>
+      </c>
     </row>
     <row r="147" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
-      <c r="AB147" s="1"/>
-      <c r="AC147" s="2"/>
-      <c r="AD147" s="2"/>
+      <c r="V147" s="1">
+        <v>35</v>
+      </c>
+      <c r="W147" s="1">
+        <v>84.285714285714292</v>
+      </c>
+      <c r="X147" s="1">
+        <v>159.28571428571428</v>
+      </c>
+      <c r="Y147" s="1">
+        <v>134.42857142857142</v>
+      </c>
+      <c r="Z147" s="1">
+        <v>107.28571428571429</v>
+      </c>
+      <c r="AA147" s="1">
+        <v>105.85714285714286</v>
+      </c>
+      <c r="AB147" s="1">
+        <v>58.285714285714285</v>
+      </c>
+      <c r="AC147" s="1">
+        <v>37.285714285714285</v>
+      </c>
+      <c r="AD147" s="1">
+        <v>23.428571428571427</v>
+      </c>
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
@@ -14111,11 +14872,265 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
+    <row r="150" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V150" s="3">
+        <v>44044</v>
+      </c>
+      <c r="W150" s="3">
+        <v>44045</v>
+      </c>
+      <c r="X150" s="3">
+        <v>44046</v>
+      </c>
+      <c r="Y150" s="3">
+        <v>44047</v>
+      </c>
+      <c r="Z150" s="3">
+        <v>44048</v>
+      </c>
+      <c r="AA150" s="3">
+        <v>44049</v>
+      </c>
+      <c r="AB150" s="3">
+        <v>44050</v>
+      </c>
+      <c r="AC150" s="3">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="151" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V151" s="1">
+        <v>42.428571428571431</v>
+      </c>
+      <c r="W151" s="1">
+        <v>43.714285714285715</v>
+      </c>
+      <c r="X151" s="1">
+        <v>43.714285714285715</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>42.428571428571431</v>
+      </c>
+      <c r="Z151" s="1">
+        <v>41.285714285714285</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>38</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>36</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V152" s="1">
+        <v>96.142857142857139</v>
+      </c>
+      <c r="W152" s="1">
+        <v>99.571428571428569</v>
+      </c>
+      <c r="X152" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>97.857142857142861</v>
+      </c>
+      <c r="Z152" s="1">
+        <v>95</v>
+      </c>
+      <c r="AA152" s="1">
+        <v>90.142857142857139</v>
+      </c>
+      <c r="AB152" s="1">
+        <v>84</v>
+      </c>
+      <c r="AC152" s="1">
+        <v>84.285714285714292</v>
+      </c>
+    </row>
+    <row r="153" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V153" s="1">
+        <v>216.14285714285714</v>
+      </c>
+      <c r="W153" s="1">
+        <v>221.71428571428572</v>
+      </c>
+      <c r="X153" s="1">
+        <v>207.71428571428572</v>
+      </c>
+      <c r="Y153" s="1">
+        <v>210.42857142857142</v>
+      </c>
+      <c r="Z153" s="1">
+        <v>201.14285714285714</v>
+      </c>
+      <c r="AA153" s="1">
+        <v>187.14285714285714</v>
+      </c>
+      <c r="AB153" s="1">
+        <v>172.14285714285714</v>
+      </c>
+      <c r="AC153" s="1">
+        <v>159.28571428571428</v>
+      </c>
+    </row>
+    <row r="154" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V154" s="1">
+        <v>172.42857142857142</v>
+      </c>
+      <c r="W154" s="1">
+        <v>175.28571428571428</v>
+      </c>
+      <c r="X154" s="1">
+        <v>167.71428571428572</v>
+      </c>
+      <c r="Y154" s="1">
+        <v>168.71428571428572</v>
+      </c>
+      <c r="Z154" s="1">
+        <v>162.42857142857142</v>
+      </c>
+      <c r="AA154" s="1">
+        <v>151.42857142857142</v>
+      </c>
+      <c r="AB154" s="1">
+        <v>140.42857142857142</v>
+      </c>
+      <c r="AC154" s="1">
+        <v>134.42857142857142</v>
+      </c>
+    </row>
+    <row r="155" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V155" s="1">
+        <v>128.85714285714286</v>
+      </c>
+      <c r="W155" s="1">
+        <v>134</v>
+      </c>
+      <c r="X155" s="1">
+        <v>126.71428571428571</v>
+      </c>
+      <c r="Y155" s="1">
+        <v>129.28571428571428</v>
+      </c>
+      <c r="Z155" s="1">
+        <v>125.71428571428571</v>
+      </c>
+      <c r="AA155" s="1">
+        <v>122.42857142857143</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>112.85714285714286</v>
+      </c>
+      <c r="AC155" s="1">
+        <v>107.28571428571429</v>
+      </c>
+    </row>
+    <row r="156" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V156" s="1">
+        <v>115.85714285714286</v>
+      </c>
+      <c r="W156" s="1">
+        <v>123.14285714285714</v>
+      </c>
+      <c r="X156" s="1">
+        <v>118.57142857142857</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>122</v>
+      </c>
+      <c r="Z156" s="1">
+        <v>119</v>
+      </c>
+      <c r="AA156" s="1">
+        <v>118.57142857142857</v>
+      </c>
+      <c r="AB156" s="1">
+        <v>110.57142857142857</v>
+      </c>
+      <c r="AC156" s="1">
+        <v>105.85714285714286</v>
+      </c>
+    </row>
+    <row r="157" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V157" s="1">
+        <v>72.285714285714292</v>
+      </c>
+      <c r="W157" s="1">
+        <v>75</v>
+      </c>
+      <c r="X157" s="1">
+        <v>69.857142857142861</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>68.142857142857139</v>
+      </c>
+      <c r="Z157" s="1">
+        <v>67.571428571428569</v>
+      </c>
+      <c r="AA157" s="1">
+        <v>64.428571428571431</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>64.142857142857139</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>58.285714285714285</v>
+      </c>
+    </row>
     <row r="158" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V158" s="2"/>
+      <c r="V158" s="1">
+        <v>40</v>
+      </c>
+      <c r="W158" s="1">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="X158" s="1">
+        <v>44.571428571428569</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>46.571428571428569</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>41</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>38.714285714285715</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>37.285714285714285</v>
+      </c>
     </row>
     <row r="159" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V159" s="2"/>
+      <c r="V159" s="1">
+        <v>17.428571428571427</v>
+      </c>
+      <c r="W159" s="1">
+        <v>17</v>
+      </c>
+      <c r="X159" s="1">
+        <v>18.571428571428573</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>18.857142857142858</v>
+      </c>
+      <c r="Z159" s="1">
+        <v>19.142857142857142</v>
+      </c>
+      <c r="AA159" s="1">
+        <v>19.428571428571427</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>21.142857142857142</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>23.428571428571427</v>
+      </c>
     </row>
     <row r="160" spans="22:32" x14ac:dyDescent="0.25">
       <c r="V160" s="2"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{402E017F-2561-4A16-B84C-1DD0636069F6}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D25AF5C5-8A95-4F62-8A8E-E21D7A318DAF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -560,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,13 +916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF161"/>
+  <dimension ref="A1:AF163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V150" sqref="V150:AC159"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14574,296 +14574,699 @@
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="V136" s="1"/>
-      <c r="W136" s="1"/>
-      <c r="X136" s="1"/>
-      <c r="Y136" s="1"/>
-      <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
-      <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
-      <c r="AD136" s="1"/>
+      <c r="A136" s="3">
+        <v>44052</v>
+      </c>
+      <c r="B136">
+        <v>3297</v>
+      </c>
+      <c r="C136">
+        <v>6211</v>
+      </c>
+      <c r="D136">
+        <v>16721</v>
+      </c>
+      <c r="E136">
+        <v>17958</v>
+      </c>
+      <c r="F136">
+        <v>15982</v>
+      </c>
+      <c r="G136">
+        <v>14256</v>
+      </c>
+      <c r="H136">
+        <v>9774</v>
+      </c>
+      <c r="I136">
+        <v>6053</v>
+      </c>
+      <c r="J136">
+        <v>5251</v>
+      </c>
+      <c r="L136">
+        <f t="shared" ref="L136:L141" si="182">SUM(B136-B135)</f>
+        <v>60</v>
+      </c>
+      <c r="M136">
+        <f t="shared" ref="M136:M141" si="183">SUM(C136-C135)</f>
+        <v>85</v>
+      </c>
+      <c r="N136">
+        <f t="shared" ref="N136:N141" si="184">SUM(D136-D135)</f>
+        <v>179</v>
+      </c>
+      <c r="O136">
+        <f t="shared" ref="O136:O141" si="185">SUM(E136-E135)</f>
+        <v>180</v>
+      </c>
+      <c r="P136">
+        <f t="shared" ref="P136:P141" si="186">SUM(F136-F135)</f>
+        <v>136</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" ref="Q136:Q141" si="187">SUM(G136-G135)</f>
+        <v>144</v>
+      </c>
+      <c r="R136">
+        <f t="shared" ref="R136:R141" si="188">SUM(H136-H135)</f>
+        <v>85</v>
+      </c>
+      <c r="S136">
+        <f t="shared" ref="S136:S141" si="189">SUM(I136-I135)</f>
+        <v>44</v>
+      </c>
+      <c r="T136">
+        <f t="shared" ref="T136:T141" si="190">SUM(J136-J135)</f>
+        <v>9</v>
+      </c>
+      <c r="V136" s="1">
+        <f t="shared" ref="V136:V141" si="191">AVERAGE(L130:L136)</f>
+        <v>37.571428571428569</v>
+      </c>
+      <c r="W136" s="1">
+        <f t="shared" ref="W136:W141" si="192">AVERAGE(M130:M136)</f>
+        <v>83.857142857142861</v>
+      </c>
+      <c r="X136" s="1">
+        <f t="shared" ref="X136:X141" si="193">AVERAGE(N130:N136)</f>
+        <v>155.71428571428572</v>
+      </c>
+      <c r="Y136" s="1">
+        <f t="shared" ref="Y136:Y141" si="194">AVERAGE(O130:O136)</f>
+        <v>136</v>
+      </c>
+      <c r="Z136" s="1">
+        <f t="shared" ref="Z136:Z141" si="195">AVERAGE(P130:P136)</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AA136" s="1">
+        <f t="shared" ref="AA136:AA141" si="196">AVERAGE(Q130:Q136)</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AB136" s="1">
+        <f t="shared" ref="AB136:AB141" si="197">AVERAGE(R130:R136)</f>
+        <v>60.571428571428569</v>
+      </c>
+      <c r="AC136" s="1">
+        <f t="shared" ref="AC136:AC141" si="198">AVERAGE(S130:S136)</f>
+        <v>36.714285714285715</v>
+      </c>
+      <c r="AD136" s="1">
+        <f t="shared" ref="AD136:AD141" si="199">AVERAGE(T130:T136)</f>
+        <v>22.285714285714285</v>
+      </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
-      <c r="AD137" s="1"/>
+      <c r="A137" s="3">
+        <v>44053</v>
+      </c>
+      <c r="B137">
+        <v>3328</v>
+      </c>
+      <c r="C137">
+        <v>6298</v>
+      </c>
+      <c r="D137">
+        <v>16891</v>
+      </c>
+      <c r="E137">
+        <v>18096</v>
+      </c>
+      <c r="F137">
+        <v>16105</v>
+      </c>
+      <c r="G137">
+        <v>14351</v>
+      </c>
+      <c r="H137">
+        <v>9842</v>
+      </c>
+      <c r="I137">
+        <v>6081</v>
+      </c>
+      <c r="J137">
+        <v>5266</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="182"/>
+        <v>31</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="183"/>
+        <v>87</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="184"/>
+        <v>170</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="185"/>
+        <v>138</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="186"/>
+        <v>123</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="187"/>
+        <v>95</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="188"/>
+        <v>68</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="189"/>
+        <v>28</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="190"/>
+        <v>15</v>
+      </c>
+      <c r="V137" s="1">
+        <f t="shared" si="191"/>
+        <v>35</v>
+      </c>
+      <c r="W137" s="1">
+        <f t="shared" si="192"/>
+        <v>82.571428571428569</v>
+      </c>
+      <c r="X137" s="1">
+        <f t="shared" si="193"/>
+        <v>151.28571428571428</v>
+      </c>
+      <c r="Y137" s="1">
+        <f t="shared" si="194"/>
+        <v>130.85714285714286</v>
+      </c>
+      <c r="Z137" s="1">
+        <f t="shared" si="195"/>
+        <v>109.85714285714286</v>
+      </c>
+      <c r="AA137" s="1">
+        <f t="shared" si="196"/>
+        <v>103.71428571428571</v>
+      </c>
+      <c r="AB137" s="1">
+        <f t="shared" si="197"/>
+        <v>61</v>
+      </c>
+      <c r="AC137" s="1">
+        <f t="shared" si="198"/>
+        <v>35.142857142857146</v>
+      </c>
+      <c r="AD137" s="1">
+        <f t="shared" si="199"/>
+        <v>21.142857142857142</v>
+      </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-      <c r="AB138" s="2"/>
+      <c r="A138" s="3">
+        <v>44054</v>
+      </c>
+      <c r="B138">
+        <v>3359</v>
+      </c>
+      <c r="C138">
+        <v>6367</v>
+      </c>
+      <c r="D138">
+        <v>17034</v>
+      </c>
+      <c r="E138">
+        <v>18193</v>
+      </c>
+      <c r="F138">
+        <v>16197</v>
+      </c>
+      <c r="G138">
+        <v>14427</v>
+      </c>
+      <c r="H138">
+        <v>9891</v>
+      </c>
+      <c r="I138">
+        <v>6098</v>
+      </c>
+      <c r="J138">
+        <v>5277</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="182"/>
+        <v>31</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="183"/>
+        <v>69</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="184"/>
+        <v>143</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="185"/>
+        <v>97</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="186"/>
+        <v>92</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="187"/>
+        <v>76</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="188"/>
+        <v>49</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="189"/>
+        <v>17</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="190"/>
+        <v>11</v>
+      </c>
+      <c r="V138" s="1">
+        <f t="shared" si="191"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="W138" s="1">
+        <f t="shared" si="192"/>
+        <v>81.428571428571431</v>
+      </c>
+      <c r="X138" s="1">
+        <f t="shared" si="193"/>
+        <v>149.14285714285714</v>
+      </c>
+      <c r="Y138" s="1">
+        <f t="shared" si="194"/>
+        <v>127.14285714285714</v>
+      </c>
+      <c r="Z138" s="1">
+        <f t="shared" si="195"/>
+        <v>107.85714285714286</v>
+      </c>
+      <c r="AA138" s="1">
+        <f t="shared" si="196"/>
+        <v>99.142857142857139</v>
+      </c>
+      <c r="AB138" s="1">
+        <f t="shared" si="197"/>
+        <v>60.857142857142854</v>
+      </c>
+      <c r="AC138" s="1">
+        <f t="shared" si="198"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AD138" s="1">
+        <f t="shared" si="199"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="V139" s="1"/>
-      <c r="W139" s="1"/>
-      <c r="X139" s="1"/>
-      <c r="Y139" s="1"/>
-      <c r="Z139" s="1"/>
-      <c r="AA139" s="1"/>
-      <c r="AB139" s="1"/>
+      <c r="A139" s="3">
+        <v>44055</v>
+      </c>
+      <c r="B139">
+        <v>3379</v>
+      </c>
+      <c r="C139">
+        <v>6428</v>
+      </c>
+      <c r="D139">
+        <v>17166</v>
+      </c>
+      <c r="E139">
+        <v>18300</v>
+      </c>
+      <c r="F139">
+        <v>16270</v>
+      </c>
+      <c r="G139">
+        <v>14502</v>
+      </c>
+      <c r="H139">
+        <v>9933</v>
+      </c>
+      <c r="I139">
+        <v>6120</v>
+      </c>
+      <c r="J139">
+        <v>5286</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="182"/>
+        <v>20</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="183"/>
+        <v>61</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="184"/>
+        <v>132</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="185"/>
+        <v>107</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="186"/>
+        <v>73</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="187"/>
+        <v>75</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="188"/>
+        <v>42</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="189"/>
+        <v>22</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="190"/>
+        <v>9</v>
+      </c>
+      <c r="V139" s="1">
+        <f t="shared" si="191"/>
+        <v>35.857142857142854</v>
+      </c>
+      <c r="W139" s="1">
+        <f t="shared" si="192"/>
+        <v>82.285714285714292</v>
+      </c>
+      <c r="X139" s="1">
+        <f t="shared" si="193"/>
+        <v>150.28571428571428</v>
+      </c>
+      <c r="Y139" s="1">
+        <f t="shared" si="194"/>
+        <v>129.28571428571428</v>
+      </c>
+      <c r="Z139" s="1">
+        <f t="shared" si="195"/>
+        <v>106.28571428571429</v>
+      </c>
+      <c r="AA139" s="1">
+        <f t="shared" si="196"/>
+        <v>97.285714285714292</v>
+      </c>
+      <c r="AB139" s="1">
+        <f t="shared" si="197"/>
+        <v>58.857142857142854</v>
+      </c>
+      <c r="AC139" s="1">
+        <f t="shared" si="198"/>
+        <v>30.285714285714285</v>
+      </c>
+      <c r="AD139" s="1">
+        <f t="shared" si="199"/>
+        <v>17.857142857142858</v>
+      </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44056</v>
+      </c>
+      <c r="B140">
+        <v>3417</v>
+      </c>
+      <c r="C140">
+        <v>6514</v>
+      </c>
+      <c r="D140">
+        <v>17333</v>
+      </c>
+      <c r="E140">
+        <v>18428</v>
+      </c>
+      <c r="F140">
+        <v>16395</v>
+      </c>
+      <c r="G140">
+        <v>14597</v>
+      </c>
+      <c r="H140">
+        <v>10007</v>
+      </c>
+      <c r="I140">
+        <v>6163</v>
+      </c>
+      <c r="J140">
+        <v>5306</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="182"/>
+        <v>38</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="183"/>
+        <v>86</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="184"/>
+        <v>167</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="185"/>
+        <v>128</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="186"/>
+        <v>125</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="187"/>
+        <v>95</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="188"/>
+        <v>74</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="189"/>
+        <v>43</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="190"/>
+        <v>20</v>
+      </c>
       <c r="V140" s="1">
-        <v>42.428571428571431</v>
+        <f t="shared" si="191"/>
+        <v>38.571428571428569</v>
       </c>
       <c r="W140" s="1">
+        <f t="shared" si="192"/>
+        <v>83.428571428571431</v>
+      </c>
+      <c r="X140" s="1">
+        <f t="shared" si="193"/>
+        <v>155.57142857142858</v>
+      </c>
+      <c r="Y140" s="1">
+        <f t="shared" si="194"/>
+        <v>133.71428571428572</v>
+      </c>
+      <c r="Z140" s="1">
+        <f t="shared" si="195"/>
+        <v>110.71428571428571</v>
+      </c>
+      <c r="AA140" s="1">
+        <f t="shared" si="196"/>
+        <v>99.857142857142861</v>
+      </c>
+      <c r="AB140" s="1">
+        <f t="shared" si="197"/>
+        <v>63.142857142857146</v>
+      </c>
+      <c r="AC140" s="1">
+        <f t="shared" si="198"/>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="AD140" s="1">
+        <f t="shared" si="199"/>
+        <v>17.714285714285715</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>44057</v>
+      </c>
+      <c r="B141">
+        <v>3453</v>
+      </c>
+      <c r="C141">
+        <v>6616</v>
+      </c>
+      <c r="D141">
+        <v>17470</v>
+      </c>
+      <c r="E141">
+        <v>18545</v>
+      </c>
+      <c r="F141">
+        <v>16516</v>
+      </c>
+      <c r="G141">
+        <v>14690</v>
+      </c>
+      <c r="H141">
+        <v>10071</v>
+      </c>
+      <c r="I141">
+        <v>6195</v>
+      </c>
+      <c r="J141">
+        <v>5319</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="182"/>
+        <v>36</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="183"/>
+        <v>102</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="184"/>
+        <v>137</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="185"/>
+        <v>117</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="186"/>
+        <v>121</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="187"/>
+        <v>93</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="188"/>
+        <v>64</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="189"/>
+        <v>32</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="190"/>
+        <v>13</v>
+      </c>
+      <c r="V141" s="1">
+        <f t="shared" si="191"/>
+        <v>36.857142857142854</v>
+      </c>
+      <c r="W141" s="1">
+        <f t="shared" si="192"/>
+        <v>84.857142857142861</v>
+      </c>
+      <c r="X141" s="1">
+        <f t="shared" si="193"/>
+        <v>154.42857142857142</v>
+      </c>
+      <c r="Y141" s="1">
+        <f t="shared" si="194"/>
+        <v>128.57142857142858</v>
+      </c>
+      <c r="Z141" s="1">
+        <f t="shared" si="195"/>
+        <v>113</v>
+      </c>
+      <c r="AA141" s="1">
+        <f t="shared" si="196"/>
         <v>96.142857142857139</v>
       </c>
-      <c r="X140" s="1">
-        <v>216.14285714285714</v>
-      </c>
-      <c r="Y140" s="1">
-        <v>172.42857142857142</v>
-      </c>
-      <c r="Z140" s="1">
-        <v>128.85714285714286</v>
-      </c>
-      <c r="AA140" s="1">
-        <v>115.85714285714286</v>
-      </c>
-      <c r="AB140" s="1">
-        <v>72.285714285714292</v>
-      </c>
-      <c r="AC140" s="1">
-        <v>40</v>
-      </c>
-      <c r="AD140" s="1">
-        <v>17.428571428571427</v>
-      </c>
-    </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V141" s="1">
-        <v>43.714285714285715</v>
-      </c>
-      <c r="W141" s="1">
-        <v>99.571428571428569</v>
-      </c>
-      <c r="X141" s="1">
-        <v>221.71428571428572</v>
-      </c>
-      <c r="Y141" s="1">
-        <v>175.28571428571428</v>
-      </c>
-      <c r="Z141" s="1">
-        <v>134</v>
-      </c>
-      <c r="AA141" s="1">
-        <v>123.14285714285714</v>
-      </c>
       <c r="AB141" s="1">
-        <v>75</v>
+        <f t="shared" si="197"/>
+        <v>62.142857142857146</v>
       </c>
       <c r="AC141" s="1">
-        <v>42.857142857142854</v>
+        <f t="shared" si="198"/>
+        <v>32</v>
       </c>
       <c r="AD141" s="1">
-        <v>17</v>
+        <f t="shared" si="199"/>
+        <v>16.142857142857142</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V142" s="1">
-        <v>43.714285714285715</v>
-      </c>
-      <c r="W142" s="1">
-        <v>98</v>
-      </c>
-      <c r="X142" s="1">
-        <v>207.71428571428572</v>
-      </c>
-      <c r="Y142" s="1">
-        <v>167.71428571428572</v>
-      </c>
-      <c r="Z142" s="1">
-        <v>126.71428571428571</v>
-      </c>
-      <c r="AA142" s="1">
-        <v>118.57142857142857</v>
-      </c>
-      <c r="AB142" s="1">
-        <v>69.857142857142861</v>
-      </c>
-      <c r="AC142" s="1">
-        <v>44.571428571428569</v>
-      </c>
-      <c r="AD142" s="1">
-        <v>18.571428571428573</v>
-      </c>
+      <c r="A142" s="3"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1"/>
+      <c r="AA142" s="1"/>
+      <c r="AB142" s="1"/>
+      <c r="AC142" s="1"/>
+      <c r="AD142" s="1"/>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V143" s="1">
-        <v>42.428571428571431</v>
-      </c>
-      <c r="W143" s="1">
-        <v>97.857142857142861</v>
-      </c>
-      <c r="X143" s="1">
-        <v>210.42857142857142</v>
-      </c>
-      <c r="Y143" s="1">
-        <v>168.71428571428572</v>
-      </c>
-      <c r="Z143" s="1">
-        <v>129.28571428571428</v>
-      </c>
-      <c r="AA143" s="1">
-        <v>122</v>
-      </c>
-      <c r="AB143" s="1">
-        <v>68.142857142857139</v>
-      </c>
-      <c r="AC143" s="1">
-        <v>46.571428571428569</v>
-      </c>
-      <c r="AD143" s="1">
-        <v>18.857142857142858</v>
-      </c>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V144" s="1">
-        <v>41.285714285714285</v>
-      </c>
-      <c r="W144" s="1">
-        <v>95</v>
-      </c>
-      <c r="X144" s="1">
-        <v>201.14285714285714</v>
-      </c>
-      <c r="Y144" s="1">
-        <v>162.42857142857142</v>
-      </c>
-      <c r="Z144" s="1">
-        <v>125.71428571428571</v>
-      </c>
-      <c r="AA144" s="1">
-        <v>119</v>
-      </c>
-      <c r="AB144" s="1">
-        <v>67.571428571428569</v>
-      </c>
-      <c r="AC144" s="1">
-        <v>46</v>
-      </c>
-      <c r="AD144" s="1">
-        <v>19.142857142857142</v>
-      </c>
-    </row>
-    <row r="145" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V145" s="1">
-        <v>38</v>
-      </c>
-      <c r="W145" s="1">
-        <v>90.142857142857139</v>
-      </c>
-      <c r="X145" s="1">
-        <v>187.14285714285714</v>
-      </c>
-      <c r="Y145" s="1">
-        <v>151.42857142857142</v>
-      </c>
-      <c r="Z145" s="1">
-        <v>122.42857142857143</v>
-      </c>
-      <c r="AA145" s="1">
-        <v>118.57142857142857</v>
-      </c>
-      <c r="AB145" s="1">
-        <v>64.428571428571431</v>
-      </c>
-      <c r="AC145" s="1">
-        <v>41</v>
-      </c>
-      <c r="AD145" s="1">
-        <v>19.428571428571427</v>
-      </c>
-    </row>
-    <row r="146" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V146" s="1">
-        <v>36</v>
-      </c>
-      <c r="W146" s="1">
-        <v>84</v>
-      </c>
-      <c r="X146" s="1">
-        <v>172.14285714285714</v>
-      </c>
-      <c r="Y146" s="1">
-        <v>140.42857142857142</v>
-      </c>
-      <c r="Z146" s="1">
-        <v>112.85714285714286</v>
-      </c>
-      <c r="AA146" s="1">
-        <v>110.57142857142857</v>
-      </c>
-      <c r="AB146" s="1">
-        <v>64.142857142857139</v>
-      </c>
-      <c r="AC146" s="1">
-        <v>38.714285714285715</v>
-      </c>
-      <c r="AD146" s="1">
-        <v>21.142857142857142</v>
-      </c>
-    </row>
-    <row r="147" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V147" s="1">
-        <v>35</v>
-      </c>
-      <c r="W147" s="1">
-        <v>84.285714285714292</v>
-      </c>
-      <c r="X147" s="1">
-        <v>159.28571428571428</v>
-      </c>
-      <c r="Y147" s="1">
-        <v>134.42857142857142</v>
-      </c>
-      <c r="Z147" s="1">
-        <v>107.28571428571429</v>
-      </c>
-      <c r="AA147" s="1">
-        <v>105.85714285714286</v>
-      </c>
-      <c r="AB147" s="1">
-        <v>58.285714285714285</v>
-      </c>
-      <c r="AC147" s="1">
-        <v>37.285714285714285</v>
-      </c>
-      <c r="AD147" s="1">
-        <v>23.428571428571427</v>
-      </c>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+      <c r="AD144" s="1"/>
+    </row>
+    <row r="145" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
+      <c r="AD145" s="1"/>
+    </row>
+    <row r="146" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
+      <c r="AD146" s="1"/>
+    </row>
+    <row r="147" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
+      <c r="AD147" s="1"/>
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="22:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="12:32" x14ac:dyDescent="0.25">
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
@@ -14872,271 +15275,479 @@
       <c r="AA148" s="2"/>
       <c r="AB148" s="2"/>
     </row>
-    <row r="150" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V150" s="3">
-        <v>44044</v>
-      </c>
-      <c r="W150" s="3">
-        <v>44045</v>
-      </c>
-      <c r="X150" s="3">
-        <v>44046</v>
-      </c>
-      <c r="Y150" s="3">
-        <v>44047</v>
-      </c>
-      <c r="Z150" s="3">
-        <v>44048</v>
-      </c>
-      <c r="AA150" s="3">
-        <v>44049</v>
-      </c>
-      <c r="AB150" s="3">
-        <v>44050</v>
-      </c>
-      <c r="AC150" s="3">
+    <row r="150" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
+      <c r="AA150" s="3"/>
+      <c r="AB150" s="3"/>
+      <c r="AC150" s="3"/>
+    </row>
+    <row r="151" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
+      <c r="AC151" s="1"/>
+    </row>
+    <row r="152" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
+      <c r="AC152" s="1"/>
+    </row>
+    <row r="153" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
+      <c r="AC153" s="1"/>
+    </row>
+    <row r="154" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="V154" s="3">
         <v>44051</v>
       </c>
-    </row>
-    <row r="151" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V151" s="1">
-        <v>42.428571428571431</v>
-      </c>
-      <c r="W151" s="1">
-        <v>43.714285714285715</v>
-      </c>
-      <c r="X151" s="1">
-        <v>43.714285714285715</v>
-      </c>
-      <c r="Y151" s="1">
-        <v>42.428571428571431</v>
-      </c>
-      <c r="Z151" s="1">
-        <v>41.285714285714285</v>
-      </c>
-      <c r="AA151" s="1">
-        <v>38</v>
-      </c>
-      <c r="AB151" s="1">
-        <v>36</v>
-      </c>
-      <c r="AC151" s="1">
+      <c r="W154" s="3">
+        <v>44052</v>
+      </c>
+      <c r="X154" s="3">
+        <v>44053</v>
+      </c>
+      <c r="Y154" s="3">
+        <v>44054</v>
+      </c>
+      <c r="Z154" s="3">
+        <v>44055</v>
+      </c>
+      <c r="AA154" s="3">
+        <v>44056</v>
+      </c>
+      <c r="AB154" s="3">
+        <v>44057</v>
+      </c>
+      <c r="AC154" s="1"/>
+    </row>
+    <row r="155" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="L155" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="152" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V152" s="1">
+      <c r="M155" s="1">
+        <v>37.571428571428569</v>
+      </c>
+      <c r="N155" s="1">
+        <v>35</v>
+      </c>
+      <c r="O155" s="1">
+        <v>35.714285714285715</v>
+      </c>
+      <c r="P155" s="1">
+        <v>35.857142857142854</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>38.571428571428569</v>
+      </c>
+      <c r="R155" s="1">
+        <v>36.857142857142854</v>
+      </c>
+      <c r="V155" s="1">
+        <v>35</v>
+      </c>
+      <c r="W155" s="1">
+        <v>37.571428571428569</v>
+      </c>
+      <c r="X155" s="1">
+        <v>35</v>
+      </c>
+      <c r="Y155" s="1">
+        <v>35.714285714285715</v>
+      </c>
+      <c r="Z155" s="1">
+        <v>35.857142857142854</v>
+      </c>
+      <c r="AA155" s="1">
+        <v>38.571428571428569</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>36.857142857142854</v>
+      </c>
+      <c r="AC155" s="1"/>
+      <c r="AD155" s="1"/>
+    </row>
+    <row r="156" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="L156" s="1">
+        <v>84.285714285714292</v>
+      </c>
+      <c r="M156" s="1">
+        <v>83.857142857142861</v>
+      </c>
+      <c r="N156" s="1">
+        <v>82.571428571428569</v>
+      </c>
+      <c r="O156" s="1">
+        <v>81.428571428571431</v>
+      </c>
+      <c r="P156" s="1">
+        <v>82.285714285714292</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>83.428571428571431</v>
+      </c>
+      <c r="R156" s="1">
+        <v>84.857142857142861</v>
+      </c>
+      <c r="V156" s="1">
+        <v>84.285714285714292</v>
+      </c>
+      <c r="W156" s="1">
+        <v>83.857142857142861</v>
+      </c>
+      <c r="X156" s="1">
+        <v>82.571428571428569</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>81.428571428571431</v>
+      </c>
+      <c r="Z156" s="1">
+        <v>82.285714285714292</v>
+      </c>
+      <c r="AA156" s="1">
+        <v>83.428571428571431</v>
+      </c>
+      <c r="AB156" s="1">
+        <v>84.857142857142861</v>
+      </c>
+      <c r="AC156" s="1"/>
+      <c r="AD156" s="1"/>
+    </row>
+    <row r="157" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="L157" s="1">
+        <v>159.28571428571428</v>
+      </c>
+      <c r="M157" s="1">
+        <v>155.71428571428572</v>
+      </c>
+      <c r="N157" s="1">
+        <v>151.28571428571428</v>
+      </c>
+      <c r="O157" s="1">
+        <v>149.14285714285714</v>
+      </c>
+      <c r="P157" s="1">
+        <v>150.28571428571428</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>155.57142857142858</v>
+      </c>
+      <c r="R157" s="1">
+        <v>154.42857142857142</v>
+      </c>
+      <c r="V157" s="1">
+        <v>159.28571428571428</v>
+      </c>
+      <c r="W157" s="1">
+        <v>155.71428571428572</v>
+      </c>
+      <c r="X157" s="1">
+        <v>151.28571428571428</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>149.14285714285714</v>
+      </c>
+      <c r="Z157" s="1">
+        <v>150.28571428571428</v>
+      </c>
+      <c r="AA157" s="1">
+        <v>155.57142857142858</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>154.42857142857142</v>
+      </c>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
+    </row>
+    <row r="158" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="L158" s="1">
+        <v>134.42857142857142</v>
+      </c>
+      <c r="M158" s="1">
+        <v>136</v>
+      </c>
+      <c r="N158" s="1">
+        <v>130.85714285714286</v>
+      </c>
+      <c r="O158" s="1">
+        <v>127.14285714285714</v>
+      </c>
+      <c r="P158" s="1">
+        <v>129.28571428571428</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>133.71428571428572</v>
+      </c>
+      <c r="R158" s="1">
+        <v>128.57142857142858</v>
+      </c>
+      <c r="V158" s="1">
+        <v>134.42857142857142</v>
+      </c>
+      <c r="W158" s="1">
+        <v>136</v>
+      </c>
+      <c r="X158" s="1">
+        <v>130.85714285714286</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>127.14285714285714</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>129.28571428571428</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>133.71428571428572</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>128.57142857142858</v>
+      </c>
+      <c r="AC158" s="1"/>
+      <c r="AD158" s="1"/>
+    </row>
+    <row r="159" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="L159" s="1">
+        <v>107.28571428571429</v>
+      </c>
+      <c r="M159" s="1">
+        <v>107.14285714285714</v>
+      </c>
+      <c r="N159" s="1">
+        <v>109.85714285714286</v>
+      </c>
+      <c r="O159" s="1">
+        <v>107.85714285714286</v>
+      </c>
+      <c r="P159" s="1">
+        <v>106.28571428571429</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>110.71428571428571</v>
+      </c>
+      <c r="R159" s="1">
+        <v>113</v>
+      </c>
+      <c r="V159" s="1">
+        <v>107.28571428571429</v>
+      </c>
+      <c r="W159" s="1">
+        <v>107.14285714285714</v>
+      </c>
+      <c r="X159" s="1">
+        <v>109.85714285714286</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>107.85714285714286</v>
+      </c>
+      <c r="Z159" s="1">
+        <v>106.28571428571429</v>
+      </c>
+      <c r="AA159" s="1">
+        <v>110.71428571428571</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>113</v>
+      </c>
+      <c r="AC159" s="1"/>
+      <c r="AD159" s="1"/>
+    </row>
+    <row r="160" spans="12:32" x14ac:dyDescent="0.25">
+      <c r="L160" s="1">
+        <v>105.85714285714286</v>
+      </c>
+      <c r="M160" s="1">
+        <v>107.14285714285714</v>
+      </c>
+      <c r="N160" s="1">
+        <v>103.71428571428571</v>
+      </c>
+      <c r="O160" s="1">
+        <v>99.142857142857139</v>
+      </c>
+      <c r="P160" s="1">
+        <v>97.285714285714292</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>99.857142857142861</v>
+      </c>
+      <c r="R160" s="1">
         <v>96.142857142857139</v>
       </c>
-      <c r="W152" s="1">
-        <v>99.571428571428569</v>
-      </c>
-      <c r="X152" s="1">
-        <v>98</v>
-      </c>
-      <c r="Y152" s="1">
-        <v>97.857142857142861</v>
-      </c>
-      <c r="Z152" s="1">
-        <v>95</v>
-      </c>
-      <c r="AA152" s="1">
-        <v>90.142857142857139</v>
-      </c>
-      <c r="AB152" s="1">
-        <v>84</v>
-      </c>
-      <c r="AC152" s="1">
-        <v>84.285714285714292</v>
-      </c>
-    </row>
-    <row r="153" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V153" s="1">
-        <v>216.14285714285714</v>
-      </c>
-      <c r="W153" s="1">
-        <v>221.71428571428572</v>
-      </c>
-      <c r="X153" s="1">
-        <v>207.71428571428572</v>
-      </c>
-      <c r="Y153" s="1">
-        <v>210.42857142857142</v>
-      </c>
-      <c r="Z153" s="1">
-        <v>201.14285714285714</v>
-      </c>
-      <c r="AA153" s="1">
-        <v>187.14285714285714</v>
-      </c>
-      <c r="AB153" s="1">
-        <v>172.14285714285714</v>
-      </c>
-      <c r="AC153" s="1">
-        <v>159.28571428571428</v>
-      </c>
-    </row>
-    <row r="154" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V154" s="1">
-        <v>172.42857142857142</v>
-      </c>
-      <c r="W154" s="1">
-        <v>175.28571428571428</v>
-      </c>
-      <c r="X154" s="1">
-        <v>167.71428571428572</v>
-      </c>
-      <c r="Y154" s="1">
-        <v>168.71428571428572</v>
-      </c>
-      <c r="Z154" s="1">
-        <v>162.42857142857142</v>
-      </c>
-      <c r="AA154" s="1">
-        <v>151.42857142857142</v>
-      </c>
-      <c r="AB154" s="1">
-        <v>140.42857142857142</v>
-      </c>
-      <c r="AC154" s="1">
-        <v>134.42857142857142</v>
-      </c>
-    </row>
-    <row r="155" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V155" s="1">
-        <v>128.85714285714286</v>
-      </c>
-      <c r="W155" s="1">
-        <v>134</v>
-      </c>
-      <c r="X155" s="1">
-        <v>126.71428571428571</v>
-      </c>
-      <c r="Y155" s="1">
-        <v>129.28571428571428</v>
-      </c>
-      <c r="Z155" s="1">
-        <v>125.71428571428571</v>
-      </c>
-      <c r="AA155" s="1">
-        <v>122.42857142857143</v>
-      </c>
-      <c r="AB155" s="1">
-        <v>112.85714285714286</v>
-      </c>
-      <c r="AC155" s="1">
-        <v>107.28571428571429</v>
-      </c>
-    </row>
-    <row r="156" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V156" s="1">
-        <v>115.85714285714286</v>
-      </c>
-      <c r="W156" s="1">
-        <v>123.14285714285714</v>
-      </c>
-      <c r="X156" s="1">
-        <v>118.57142857142857</v>
-      </c>
-      <c r="Y156" s="1">
-        <v>122</v>
-      </c>
-      <c r="Z156" s="1">
-        <v>119</v>
-      </c>
-      <c r="AA156" s="1">
-        <v>118.57142857142857</v>
-      </c>
-      <c r="AB156" s="1">
-        <v>110.57142857142857</v>
-      </c>
-      <c r="AC156" s="1">
+      <c r="V160" s="1">
         <v>105.85714285714286</v>
       </c>
-    </row>
-    <row r="157" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V157" s="1">
-        <v>72.285714285714292</v>
-      </c>
-      <c r="W157" s="1">
-        <v>75</v>
-      </c>
-      <c r="X157" s="1">
-        <v>69.857142857142861</v>
-      </c>
-      <c r="Y157" s="1">
-        <v>68.142857142857139</v>
-      </c>
-      <c r="Z157" s="1">
-        <v>67.571428571428569</v>
-      </c>
-      <c r="AA157" s="1">
-        <v>64.428571428571431</v>
-      </c>
-      <c r="AB157" s="1">
-        <v>64.142857142857139</v>
-      </c>
-      <c r="AC157" s="1">
+      <c r="W160" s="1">
+        <v>107.14285714285714</v>
+      </c>
+      <c r="X160" s="1">
+        <v>103.71428571428571</v>
+      </c>
+      <c r="Y160" s="1">
+        <v>99.142857142857139</v>
+      </c>
+      <c r="Z160" s="1">
+        <v>97.285714285714292</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>99.857142857142861</v>
+      </c>
+      <c r="AB160" s="1">
+        <v>96.142857142857139</v>
+      </c>
+      <c r="AC160" s="1"/>
+      <c r="AD160" s="1"/>
+    </row>
+    <row r="161" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L161" s="1">
         <v>58.285714285714285</v>
       </c>
-    </row>
-    <row r="158" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V158" s="1">
-        <v>40</v>
-      </c>
-      <c r="W158" s="1">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="X158" s="1">
-        <v>44.571428571428569</v>
-      </c>
-      <c r="Y158" s="1">
-        <v>46.571428571428569</v>
-      </c>
-      <c r="Z158" s="1">
-        <v>46</v>
-      </c>
-      <c r="AA158" s="1">
-        <v>41</v>
-      </c>
-      <c r="AB158" s="1">
-        <v>38.714285714285715</v>
-      </c>
-      <c r="AC158" s="1">
+      <c r="M161" s="1">
+        <v>60.571428571428569</v>
+      </c>
+      <c r="N161" s="1">
+        <v>61</v>
+      </c>
+      <c r="O161" s="1">
+        <v>60.857142857142854</v>
+      </c>
+      <c r="P161" s="1">
+        <v>58.857142857142854</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>63.142857142857146</v>
+      </c>
+      <c r="R161" s="1">
+        <v>62.142857142857146</v>
+      </c>
+      <c r="V161" s="1">
+        <v>58.285714285714285</v>
+      </c>
+      <c r="W161" s="1">
+        <v>60.571428571428569</v>
+      </c>
+      <c r="X161" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y161" s="1">
+        <v>60.857142857142854</v>
+      </c>
+      <c r="Z161" s="1">
+        <v>58.857142857142854</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>63.142857142857146</v>
+      </c>
+      <c r="AB161" s="1">
+        <v>62.142857142857146</v>
+      </c>
+      <c r="AC161" s="1"/>
+      <c r="AD161" s="1"/>
+    </row>
+    <row r="162" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L162" s="1">
         <v>37.285714285714285</v>
       </c>
-    </row>
-    <row r="159" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V159" s="1">
-        <v>17.428571428571427</v>
-      </c>
-      <c r="W159" s="1">
-        <v>17</v>
-      </c>
-      <c r="X159" s="1">
-        <v>18.571428571428573</v>
-      </c>
-      <c r="Y159" s="1">
-        <v>18.857142857142858</v>
-      </c>
-      <c r="Z159" s="1">
-        <v>19.142857142857142</v>
-      </c>
-      <c r="AA159" s="1">
-        <v>19.428571428571427</v>
-      </c>
-      <c r="AB159" s="1">
+      <c r="M162" s="1">
+        <v>36.714285714285715</v>
+      </c>
+      <c r="N162" s="1">
+        <v>35.142857142857146</v>
+      </c>
+      <c r="O162" s="1">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="P162" s="1">
+        <v>30.285714285714285</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>33.714285714285715</v>
+      </c>
+      <c r="R162" s="1">
+        <v>32</v>
+      </c>
+      <c r="V162" s="1">
+        <v>37.285714285714285</v>
+      </c>
+      <c r="W162" s="1">
+        <v>36.714285714285715</v>
+      </c>
+      <c r="X162" s="1">
+        <v>35.142857142857146</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="Z162" s="1">
+        <v>30.285714285714285</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>33.714285714285715</v>
+      </c>
+      <c r="AB162" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L163" s="1">
+        <v>23.428571428571427</v>
+      </c>
+      <c r="M163" s="1">
+        <v>22.285714285714285</v>
+      </c>
+      <c r="N163" s="1">
         <v>21.142857142857142</v>
       </c>
-      <c r="AC159" s="1">
+      <c r="O163" s="1">
+        <v>20</v>
+      </c>
+      <c r="P163" s="1">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>17.714285714285715</v>
+      </c>
+      <c r="R163" s="1">
+        <v>16.142857142857142</v>
+      </c>
+      <c r="V163" s="1">
         <v>23.428571428571427</v>
       </c>
-    </row>
-    <row r="160" spans="22:32" x14ac:dyDescent="0.25">
-      <c r="V160" s="2"/>
-    </row>
-    <row r="161" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V161" s="2"/>
+      <c r="W163" s="1">
+        <v>22.285714285714285</v>
+      </c>
+      <c r="X163" s="1">
+        <v>21.142857142857142</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>17.714285714285715</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>16.142857142857142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D25AF5C5-8A95-4F62-8A8E-E21D7A318DAF}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9AE746D5-E574-494D-9111-92E9BA07550B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,13 +916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF163"/>
+  <dimension ref="A1:AF164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
+      <selection pane="bottomRight" activeCell="S155" sqref="S155:Z164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15198,84 +15198,739 @@
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="V142" s="1"/>
-      <c r="W142" s="1"/>
-      <c r="X142" s="1"/>
-      <c r="Y142" s="1"/>
-      <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
-      <c r="AB142" s="1"/>
-      <c r="AC142" s="1"/>
-      <c r="AD142" s="1"/>
+      <c r="A142" s="3">
+        <v>44058</v>
+      </c>
+      <c r="B142">
+        <v>3493</v>
+      </c>
+      <c r="C142">
+        <v>6698</v>
+      </c>
+      <c r="D142">
+        <v>17643</v>
+      </c>
+      <c r="E142">
+        <v>18676</v>
+      </c>
+      <c r="F142">
+        <v>16656</v>
+      </c>
+      <c r="G142">
+        <v>14803</v>
+      </c>
+      <c r="H142">
+        <v>10146</v>
+      </c>
+      <c r="I142">
+        <v>6233</v>
+      </c>
+      <c r="J142">
+        <v>5345</v>
+      </c>
+      <c r="L142">
+        <f t="shared" ref="L142:L148" si="200">SUM(B142-B141)</f>
+        <v>40</v>
+      </c>
+      <c r="M142">
+        <f t="shared" ref="M142:M148" si="201">SUM(C142-C141)</f>
+        <v>82</v>
+      </c>
+      <c r="N142">
+        <f t="shared" ref="N142:N148" si="202">SUM(D142-D141)</f>
+        <v>173</v>
+      </c>
+      <c r="O142">
+        <f t="shared" ref="O142:O148" si="203">SUM(E142-E141)</f>
+        <v>131</v>
+      </c>
+      <c r="P142">
+        <f t="shared" ref="P142:P148" si="204">SUM(F142-F141)</f>
+        <v>140</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" ref="Q142:Q148" si="205">SUM(G142-G141)</f>
+        <v>113</v>
+      </c>
+      <c r="R142">
+        <f t="shared" ref="R142:R148" si="206">SUM(H142-H141)</f>
+        <v>75</v>
+      </c>
+      <c r="S142">
+        <f t="shared" ref="S142:S148" si="207">SUM(I142-I141)</f>
+        <v>38</v>
+      </c>
+      <c r="T142">
+        <f t="shared" ref="T142:T148" si="208">SUM(J142-J141)</f>
+        <v>26</v>
+      </c>
+      <c r="V142" s="1">
+        <f t="shared" ref="V142:V148" si="209">AVERAGE(L136:L142)</f>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="W142" s="1">
+        <f t="shared" ref="W142:W148" si="210">AVERAGE(M136:M142)</f>
+        <v>81.714285714285708</v>
+      </c>
+      <c r="X142" s="1">
+        <f t="shared" ref="X142:X148" si="211">AVERAGE(N136:N142)</f>
+        <v>157.28571428571428</v>
+      </c>
+      <c r="Y142" s="1">
+        <f t="shared" ref="Y142:Y148" si="212">AVERAGE(O136:O142)</f>
+        <v>128.28571428571428</v>
+      </c>
+      <c r="Z142" s="1">
+        <f t="shared" ref="Z142:Z148" si="213">AVERAGE(P136:P142)</f>
+        <v>115.71428571428571</v>
+      </c>
+      <c r="AA142" s="1">
+        <f t="shared" ref="AA142:AA148" si="214">AVERAGE(Q136:Q142)</f>
+        <v>98.714285714285708</v>
+      </c>
+      <c r="AB142" s="1">
+        <f t="shared" ref="AB142:AB148" si="215">AVERAGE(R136:R142)</f>
+        <v>65.285714285714292</v>
+      </c>
+      <c r="AC142" s="1">
+        <f t="shared" ref="AC142:AC148" si="216">AVERAGE(S136:S142)</f>
+        <v>32</v>
+      </c>
+      <c r="AD142" s="1">
+        <f t="shared" ref="AD142:AD148" si="217">AVERAGE(T136:T142)</f>
+        <v>14.714285714285714</v>
+      </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
-      <c r="AB143" s="1"/>
-      <c r="AC143" s="1"/>
-      <c r="AD143" s="1"/>
+      <c r="A143" s="3">
+        <v>44059</v>
+      </c>
+      <c r="B143">
+        <v>3520</v>
+      </c>
+      <c r="C143">
+        <v>6757</v>
+      </c>
+      <c r="D143">
+        <v>17756</v>
+      </c>
+      <c r="E143">
+        <v>18764</v>
+      </c>
+      <c r="F143">
+        <v>16726</v>
+      </c>
+      <c r="G143">
+        <v>14880</v>
+      </c>
+      <c r="H143">
+        <v>10191</v>
+      </c>
+      <c r="I143">
+        <v>6253</v>
+      </c>
+      <c r="J143">
+        <v>5365</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="200"/>
+        <v>27</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="201"/>
+        <v>59</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="202"/>
+        <v>113</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="203"/>
+        <v>88</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="204"/>
+        <v>70</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="205"/>
+        <v>77</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="206"/>
+        <v>45</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="207"/>
+        <v>20</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="208"/>
+        <v>20</v>
+      </c>
+      <c r="V143" s="1">
+        <f t="shared" si="209"/>
+        <v>31.857142857142858</v>
+      </c>
+      <c r="W143" s="1">
+        <f t="shared" si="210"/>
+        <v>78</v>
+      </c>
+      <c r="X143" s="1">
+        <f t="shared" si="211"/>
+        <v>147.85714285714286</v>
+      </c>
+      <c r="Y143" s="1">
+        <f t="shared" si="212"/>
+        <v>115.14285714285714</v>
+      </c>
+      <c r="Z143" s="1">
+        <f t="shared" si="213"/>
+        <v>106.28571428571429</v>
+      </c>
+      <c r="AA143" s="1">
+        <f t="shared" si="214"/>
+        <v>89.142857142857139</v>
+      </c>
+      <c r="AB143" s="1">
+        <f t="shared" si="215"/>
+        <v>59.571428571428569</v>
+      </c>
+      <c r="AC143" s="1">
+        <f t="shared" si="216"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="AD143" s="1">
+        <f t="shared" si="217"/>
+        <v>16.285714285714285</v>
+      </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
-      <c r="Z144" s="1"/>
-      <c r="AA144" s="1"/>
-      <c r="AB144" s="1"/>
-      <c r="AC144" s="1"/>
-      <c r="AD144" s="1"/>
+      <c r="A144" s="3">
+        <v>44060</v>
+      </c>
+      <c r="B144">
+        <v>3552</v>
+      </c>
+      <c r="C144">
+        <v>6797</v>
+      </c>
+      <c r="D144">
+        <v>17865</v>
+      </c>
+      <c r="E144">
+        <v>18860</v>
+      </c>
+      <c r="F144">
+        <v>16797</v>
+      </c>
+      <c r="G144">
+        <v>14951</v>
+      </c>
+      <c r="H144">
+        <v>10235</v>
+      </c>
+      <c r="I144">
+        <v>6279</v>
+      </c>
+      <c r="J144">
+        <v>5379</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="200"/>
+        <v>32</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="201"/>
+        <v>40</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="202"/>
+        <v>109</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="203"/>
+        <v>96</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="204"/>
+        <v>71</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="205"/>
+        <v>71</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="206"/>
+        <v>44</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="207"/>
+        <v>26</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="208"/>
+        <v>14</v>
+      </c>
+      <c r="V144" s="1">
+        <f t="shared" si="209"/>
+        <v>32</v>
+      </c>
+      <c r="W144" s="1">
+        <f t="shared" si="210"/>
+        <v>71.285714285714292</v>
+      </c>
+      <c r="X144" s="1">
+        <f t="shared" si="211"/>
+        <v>139.14285714285714</v>
+      </c>
+      <c r="Y144" s="1">
+        <f t="shared" si="212"/>
+        <v>109.14285714285714</v>
+      </c>
+      <c r="Z144" s="1">
+        <f t="shared" si="213"/>
+        <v>98.857142857142861</v>
+      </c>
+      <c r="AA144" s="1">
+        <f t="shared" si="214"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="AB144" s="1">
+        <f t="shared" si="215"/>
+        <v>56.142857142857146</v>
+      </c>
+      <c r="AC144" s="1">
+        <f t="shared" si="216"/>
+        <v>28.285714285714285</v>
+      </c>
+      <c r="AD144" s="1">
+        <f t="shared" si="217"/>
+        <v>16.142857142857142</v>
+      </c>
     </row>
-    <row r="145" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="V145" s="1"/>
-      <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
-      <c r="Y145" s="1"/>
-      <c r="Z145" s="1"/>
-      <c r="AA145" s="1"/>
-      <c r="AB145" s="1"/>
-      <c r="AC145" s="1"/>
-      <c r="AD145" s="1"/>
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>44061</v>
+      </c>
+      <c r="B145">
+        <v>3583</v>
+      </c>
+      <c r="C145">
+        <v>6857</v>
+      </c>
+      <c r="D145">
+        <v>17968</v>
+      </c>
+      <c r="E145">
+        <v>18958</v>
+      </c>
+      <c r="F145">
+        <v>16872</v>
+      </c>
+      <c r="G145">
+        <v>15015</v>
+      </c>
+      <c r="H145">
+        <v>10290</v>
+      </c>
+      <c r="I145">
+        <v>6301</v>
+      </c>
+      <c r="J145">
+        <v>5391</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="200"/>
+        <v>31</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="201"/>
+        <v>60</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="202"/>
+        <v>103</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="203"/>
+        <v>98</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="204"/>
+        <v>75</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="205"/>
+        <v>64</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="206"/>
+        <v>55</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="207"/>
+        <v>22</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="208"/>
+        <v>12</v>
+      </c>
+      <c r="V145" s="1">
+        <f t="shared" si="209"/>
+        <v>32</v>
+      </c>
+      <c r="W145" s="1">
+        <f t="shared" si="210"/>
+        <v>70</v>
+      </c>
+      <c r="X145" s="1">
+        <f t="shared" si="211"/>
+        <v>133.42857142857142</v>
+      </c>
+      <c r="Y145" s="1">
+        <f t="shared" si="212"/>
+        <v>109.28571428571429</v>
+      </c>
+      <c r="Z145" s="1">
+        <f t="shared" si="213"/>
+        <v>96.428571428571431</v>
+      </c>
+      <c r="AA145" s="1">
+        <f t="shared" si="214"/>
+        <v>84</v>
+      </c>
+      <c r="AB145" s="1">
+        <f t="shared" si="215"/>
+        <v>57</v>
+      </c>
+      <c r="AC145" s="1">
+        <f t="shared" si="216"/>
+        <v>29</v>
+      </c>
+      <c r="AD145" s="1">
+        <f t="shared" si="217"/>
+        <v>16.285714285714285</v>
+      </c>
     </row>
-    <row r="146" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
-      <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
-      <c r="AA146" s="1"/>
-      <c r="AB146" s="1"/>
-      <c r="AC146" s="1"/>
-      <c r="AD146" s="1"/>
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>44062</v>
+      </c>
+      <c r="B146">
+        <v>3610</v>
+      </c>
+      <c r="C146">
+        <v>6902</v>
+      </c>
+      <c r="D146">
+        <v>18057</v>
+      </c>
+      <c r="E146">
+        <v>19042</v>
+      </c>
+      <c r="F146">
+        <v>16927</v>
+      </c>
+      <c r="G146">
+        <v>15064</v>
+      </c>
+      <c r="H146">
+        <v>10326</v>
+      </c>
+      <c r="I146">
+        <v>6324</v>
+      </c>
+      <c r="J146">
+        <v>5397</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="200"/>
+        <v>27</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="201"/>
+        <v>45</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="202"/>
+        <v>89</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="203"/>
+        <v>84</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="204"/>
+        <v>55</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="205"/>
+        <v>49</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="206"/>
+        <v>36</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="207"/>
+        <v>23</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="208"/>
+        <v>6</v>
+      </c>
+      <c r="V146" s="1">
+        <f t="shared" si="209"/>
+        <v>33</v>
+      </c>
+      <c r="W146" s="1">
+        <f t="shared" si="210"/>
+        <v>67.714285714285708</v>
+      </c>
+      <c r="X146" s="1">
+        <f t="shared" si="211"/>
+        <v>127.28571428571429</v>
+      </c>
+      <c r="Y146" s="1">
+        <f t="shared" si="212"/>
+        <v>106</v>
+      </c>
+      <c r="Z146" s="1">
+        <f t="shared" si="213"/>
+        <v>93.857142857142861</v>
+      </c>
+      <c r="AA146" s="1">
+        <f t="shared" si="214"/>
+        <v>80.285714285714292</v>
+      </c>
+      <c r="AB146" s="1">
+        <f t="shared" si="215"/>
+        <v>56.142857142857146</v>
+      </c>
+      <c r="AC146" s="1">
+        <f t="shared" si="216"/>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="AD146" s="1">
+        <f t="shared" si="217"/>
+        <v>15.857142857142858</v>
+      </c>
     </row>
-    <row r="147" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
-      <c r="AB147" s="1"/>
-      <c r="AC147" s="1"/>
-      <c r="AD147" s="1"/>
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B147">
+        <v>3643</v>
+      </c>
+      <c r="C147">
+        <v>6959</v>
+      </c>
+      <c r="D147">
+        <v>18168</v>
+      </c>
+      <c r="E147">
+        <v>19138</v>
+      </c>
+      <c r="F147">
+        <v>17017</v>
+      </c>
+      <c r="G147">
+        <v>15158</v>
+      </c>
+      <c r="H147">
+        <v>10385</v>
+      </c>
+      <c r="I147">
+        <v>6355</v>
+      </c>
+      <c r="J147">
+        <v>5406</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="200"/>
+        <v>33</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="201"/>
+        <v>57</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="202"/>
+        <v>111</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="203"/>
+        <v>96</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="204"/>
+        <v>90</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="205"/>
+        <v>94</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="206"/>
+        <v>59</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="207"/>
+        <v>31</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="208"/>
+        <v>9</v>
+      </c>
+      <c r="V147" s="1">
+        <f t="shared" si="209"/>
+        <v>32.285714285714285</v>
+      </c>
+      <c r="W147" s="1">
+        <f t="shared" si="210"/>
+        <v>63.571428571428569</v>
+      </c>
+      <c r="X147" s="1">
+        <f t="shared" si="211"/>
+        <v>119.28571428571429</v>
+      </c>
+      <c r="Y147" s="1">
+        <f t="shared" si="212"/>
+        <v>101.42857142857143</v>
+      </c>
+      <c r="Z147" s="1">
+        <f t="shared" si="213"/>
+        <v>88.857142857142861</v>
+      </c>
+      <c r="AA147" s="1">
+        <f t="shared" si="214"/>
+        <v>80.142857142857139</v>
+      </c>
+      <c r="AB147" s="1">
+        <f t="shared" si="215"/>
+        <v>54</v>
+      </c>
+      <c r="AC147" s="1">
+        <f t="shared" si="216"/>
+        <v>27.428571428571427</v>
+      </c>
+      <c r="AD147" s="1">
+        <f t="shared" si="217"/>
+        <v>14.285714285714286</v>
+      </c>
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
-      <c r="AA148" s="2"/>
-      <c r="AB148" s="2"/>
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>44064</v>
+      </c>
+      <c r="B148">
+        <v>3697</v>
+      </c>
+      <c r="C148">
+        <v>7050</v>
+      </c>
+      <c r="D148">
+        <v>18304</v>
+      </c>
+      <c r="E148">
+        <v>19247</v>
+      </c>
+      <c r="F148">
+        <v>17136</v>
+      </c>
+      <c r="G148">
+        <v>15243</v>
+      </c>
+      <c r="H148">
+        <v>10441</v>
+      </c>
+      <c r="I148">
+        <v>6373</v>
+      </c>
+      <c r="J148">
+        <v>5408</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="200"/>
+        <v>54</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="201"/>
+        <v>91</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="202"/>
+        <v>136</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="203"/>
+        <v>109</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="204"/>
+        <v>119</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="205"/>
+        <v>85</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="206"/>
+        <v>56</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="207"/>
+        <v>18</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="208"/>
+        <v>2</v>
+      </c>
+      <c r="V148" s="1">
+        <f t="shared" si="209"/>
+        <v>34.857142857142854</v>
+      </c>
+      <c r="W148" s="1">
+        <f t="shared" si="210"/>
+        <v>62</v>
+      </c>
+      <c r="X148" s="1">
+        <f t="shared" si="211"/>
+        <v>119.14285714285714</v>
+      </c>
+      <c r="Y148" s="1">
+        <f t="shared" si="212"/>
+        <v>100.28571428571429</v>
+      </c>
+      <c r="Z148" s="1">
+        <f t="shared" si="213"/>
+        <v>88.571428571428569</v>
+      </c>
+      <c r="AA148" s="1">
+        <f t="shared" si="214"/>
+        <v>79</v>
+      </c>
+      <c r="AB148" s="1">
+        <f t="shared" si="215"/>
+        <v>52.857142857142854</v>
+      </c>
+      <c r="AC148" s="1">
+        <f t="shared" si="216"/>
+        <v>25.428571428571427</v>
+      </c>
+      <c r="AD148" s="1">
+        <f t="shared" si="217"/>
+        <v>12.714285714285714</v>
+      </c>
     </row>
-    <row r="150" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
@@ -15285,7 +15940,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
@@ -15295,7 +15950,7 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
     </row>
-    <row r="152" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
@@ -15305,7 +15960,7 @@
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
     </row>
-    <row r="153" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
@@ -15315,438 +15970,553 @@
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
     </row>
-    <row r="154" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="V154" s="3">
-        <v>44051</v>
-      </c>
-      <c r="W154" s="3">
-        <v>44052</v>
-      </c>
-      <c r="X154" s="3">
-        <v>44053</v>
-      </c>
-      <c r="Y154" s="3">
-        <v>44054</v>
-      </c>
-      <c r="Z154" s="3">
-        <v>44055</v>
-      </c>
-      <c r="AA154" s="3">
-        <v>44056</v>
-      </c>
-      <c r="AB154" s="3">
-        <v>44057</v>
-      </c>
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="3"/>
+      <c r="Z154" s="3"/>
+      <c r="AA154" s="3"/>
+      <c r="AB154" s="3"/>
       <c r="AC154" s="1"/>
     </row>
-    <row r="155" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L155" s="1">
-        <v>35</v>
-      </c>
-      <c r="M155" s="1">
-        <v>37.571428571428569</v>
-      </c>
-      <c r="N155" s="1">
-        <v>35</v>
-      </c>
-      <c r="O155" s="1">
-        <v>35.714285714285715</v>
-      </c>
-      <c r="P155" s="1">
-        <v>35.857142857142854</v>
-      </c>
-      <c r="Q155" s="1">
-        <v>38.571428571428569</v>
-      </c>
-      <c r="R155" s="1">
-        <v>36.857142857142854</v>
-      </c>
-      <c r="V155" s="1">
-        <v>35</v>
-      </c>
-      <c r="W155" s="1">
-        <v>37.571428571428569</v>
-      </c>
-      <c r="X155" s="1">
-        <v>35</v>
-      </c>
-      <c r="Y155" s="1">
-        <v>35.714285714285715</v>
-      </c>
-      <c r="Z155" s="1">
-        <v>35.857142857142854</v>
-      </c>
-      <c r="AA155" s="1">
-        <v>38.571428571428569</v>
-      </c>
-      <c r="AB155" s="1">
-        <v>36.857142857142854</v>
-      </c>
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="3">
+        <v>44057</v>
+      </c>
+      <c r="T155" s="3">
+        <v>44058</v>
+      </c>
+      <c r="U155" s="3">
+        <v>44059</v>
+      </c>
+      <c r="V155" s="3">
+        <v>44060</v>
+      </c>
+      <c r="W155" s="3">
+        <v>44061</v>
+      </c>
+      <c r="X155" s="3">
+        <v>44062</v>
+      </c>
+      <c r="Y155" s="3">
+        <v>44063</v>
+      </c>
+      <c r="Z155" s="3">
+        <v>44064</v>
+      </c>
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
       <c r="AD155" s="1"/>
     </row>
-    <row r="156" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <v>36.857142857142854</v>
+      </c>
+      <c r="I156" s="1">
+        <v>84.857142857142861</v>
+      </c>
+      <c r="J156" s="1">
+        <v>154.42857142857142</v>
+      </c>
+      <c r="K156" s="1">
+        <v>128.57142857142858</v>
+      </c>
       <c r="L156" s="1">
-        <v>84.285714285714292</v>
+        <v>113</v>
       </c>
       <c r="M156" s="1">
-        <v>83.857142857142861</v>
+        <v>96.142857142857139</v>
       </c>
       <c r="N156" s="1">
-        <v>82.571428571428569</v>
+        <v>62.142857142857146</v>
       </c>
       <c r="O156" s="1">
-        <v>81.428571428571431</v>
+        <v>32</v>
       </c>
       <c r="P156" s="1">
-        <v>82.285714285714292</v>
-      </c>
-      <c r="Q156" s="1">
-        <v>83.428571428571431</v>
-      </c>
-      <c r="R156" s="1">
-        <v>84.857142857142861</v>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1">
+        <v>36.857142857142854</v>
+      </c>
+      <c r="T156" s="1">
+        <v>36.571428571428569</v>
+      </c>
+      <c r="U156" s="1">
+        <v>31.857142857142858</v>
       </c>
       <c r="V156" s="1">
-        <v>84.285714285714292</v>
+        <v>32</v>
       </c>
       <c r="W156" s="1">
-        <v>83.857142857142861</v>
+        <v>32</v>
       </c>
       <c r="X156" s="1">
-        <v>82.571428571428569</v>
+        <v>33</v>
       </c>
       <c r="Y156" s="1">
-        <v>81.428571428571431</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="Z156" s="1">
-        <v>82.285714285714292</v>
-      </c>
-      <c r="AA156" s="1">
-        <v>83.428571428571431</v>
-      </c>
-      <c r="AB156" s="1">
-        <v>84.857142857142861</v>
-      </c>
+        <v>34.857142857142854</v>
+      </c>
+      <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
       <c r="AD156" s="1"/>
     </row>
-    <row r="157" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <v>36.571428571428569</v>
+      </c>
+      <c r="I157" s="1">
+        <v>81.714285714285708</v>
+      </c>
+      <c r="J157" s="1">
+        <v>157.28571428571428</v>
+      </c>
+      <c r="K157" s="1">
+        <v>128.28571428571428</v>
+      </c>
       <c r="L157" s="1">
-        <v>159.28571428571428</v>
+        <v>115.71428571428571</v>
       </c>
       <c r="M157" s="1">
-        <v>155.71428571428572</v>
+        <v>98.714285714285708</v>
       </c>
       <c r="N157" s="1">
-        <v>151.28571428571428</v>
+        <v>65.285714285714292</v>
       </c>
       <c r="O157" s="1">
-        <v>149.14285714285714</v>
+        <v>32</v>
       </c>
       <c r="P157" s="1">
-        <v>150.28571428571428</v>
-      </c>
-      <c r="Q157" s="1">
-        <v>155.57142857142858</v>
-      </c>
-      <c r="R157" s="1">
-        <v>154.42857142857142</v>
+        <v>14.714285714285714</v>
+      </c>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1">
+        <v>84.857142857142861</v>
+      </c>
+      <c r="T157" s="1">
+        <v>81.714285714285708</v>
+      </c>
+      <c r="U157" s="1">
+        <v>78</v>
       </c>
       <c r="V157" s="1">
-        <v>159.28571428571428</v>
+        <v>71.285714285714292</v>
       </c>
       <c r="W157" s="1">
-        <v>155.71428571428572</v>
+        <v>70</v>
       </c>
       <c r="X157" s="1">
-        <v>151.28571428571428</v>
+        <v>67.714285714285708</v>
       </c>
       <c r="Y157" s="1">
-        <v>149.14285714285714</v>
+        <v>63.571428571428569</v>
       </c>
       <c r="Z157" s="1">
-        <v>150.28571428571428</v>
-      </c>
-      <c r="AA157" s="1">
-        <v>155.57142857142858</v>
-      </c>
-      <c r="AB157" s="1">
-        <v>154.42857142857142</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
       <c r="AD157" s="1"/>
     </row>
-    <row r="158" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <v>31.857142857142858</v>
+      </c>
+      <c r="I158" s="1">
+        <v>78</v>
+      </c>
+      <c r="J158" s="1">
+        <v>147.85714285714286</v>
+      </c>
+      <c r="K158" s="1">
+        <v>115.14285714285714</v>
+      </c>
       <c r="L158" s="1">
-        <v>134.42857142857142</v>
+        <v>106.28571428571429</v>
       </c>
       <c r="M158" s="1">
-        <v>136</v>
+        <v>89.142857142857139</v>
       </c>
       <c r="N158" s="1">
-        <v>130.85714285714286</v>
+        <v>59.571428571428569</v>
       </c>
       <c r="O158" s="1">
-        <v>127.14285714285714</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="P158" s="1">
-        <v>129.28571428571428</v>
-      </c>
-      <c r="Q158" s="1">
-        <v>133.71428571428572</v>
-      </c>
-      <c r="R158" s="1">
-        <v>128.57142857142858</v>
+        <v>16.285714285714285</v>
+      </c>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1">
+        <v>154.42857142857142</v>
+      </c>
+      <c r="T158" s="1">
+        <v>157.28571428571428</v>
+      </c>
+      <c r="U158" s="1">
+        <v>147.85714285714286</v>
       </c>
       <c r="V158" s="1">
-        <v>134.42857142857142</v>
+        <v>139.14285714285714</v>
       </c>
       <c r="W158" s="1">
-        <v>136</v>
+        <v>133.42857142857142</v>
       </c>
       <c r="X158" s="1">
-        <v>130.85714285714286</v>
+        <v>127.28571428571429</v>
       </c>
       <c r="Y158" s="1">
-        <v>127.14285714285714</v>
+        <v>119.28571428571429</v>
       </c>
       <c r="Z158" s="1">
-        <v>129.28571428571428</v>
-      </c>
-      <c r="AA158" s="1">
-        <v>133.71428571428572</v>
-      </c>
-      <c r="AB158" s="1">
-        <v>128.57142857142858</v>
-      </c>
+        <v>119.14285714285714</v>
+      </c>
+      <c r="AA158" s="1"/>
+      <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
       <c r="AD158" s="1"/>
     </row>
-    <row r="159" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <v>32</v>
+      </c>
+      <c r="I159" s="1">
+        <v>71.285714285714292</v>
+      </c>
+      <c r="J159" s="1">
+        <v>139.14285714285714</v>
+      </c>
+      <c r="K159" s="1">
+        <v>109.14285714285714</v>
+      </c>
       <c r="L159" s="1">
-        <v>107.28571428571429</v>
+        <v>98.857142857142861</v>
       </c>
       <c r="M159" s="1">
-        <v>107.14285714285714</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="N159" s="1">
-        <v>109.85714285714286</v>
+        <v>56.142857142857146</v>
       </c>
       <c r="O159" s="1">
-        <v>107.85714285714286</v>
+        <v>28.285714285714285</v>
       </c>
       <c r="P159" s="1">
-        <v>106.28571428571429</v>
-      </c>
-      <c r="Q159" s="1">
-        <v>110.71428571428571</v>
-      </c>
-      <c r="R159" s="1">
-        <v>113</v>
+        <v>16.142857142857142</v>
+      </c>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1">
+        <v>128.57142857142858</v>
+      </c>
+      <c r="T159" s="1">
+        <v>128.28571428571428</v>
+      </c>
+      <c r="U159" s="1">
+        <v>115.14285714285714</v>
       </c>
       <c r="V159" s="1">
-        <v>107.28571428571429</v>
+        <v>109.14285714285714</v>
       </c>
       <c r="W159" s="1">
-        <v>107.14285714285714</v>
+        <v>109.28571428571429</v>
       </c>
       <c r="X159" s="1">
-        <v>109.85714285714286</v>
+        <v>106</v>
       </c>
       <c r="Y159" s="1">
-        <v>107.85714285714286</v>
+        <v>101.42857142857143</v>
       </c>
       <c r="Z159" s="1">
-        <v>106.28571428571429</v>
-      </c>
-      <c r="AA159" s="1">
-        <v>110.71428571428571</v>
-      </c>
-      <c r="AB159" s="1">
-        <v>113</v>
-      </c>
+        <v>100.28571428571429</v>
+      </c>
+      <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
       <c r="AD159" s="1"/>
     </row>
-    <row r="160" spans="12:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <v>32</v>
+      </c>
+      <c r="I160" s="1">
+        <v>70</v>
+      </c>
+      <c r="J160" s="1">
+        <v>133.42857142857142</v>
+      </c>
+      <c r="K160" s="1">
+        <v>109.28571428571429</v>
+      </c>
       <c r="L160" s="1">
-        <v>105.85714285714286</v>
+        <v>96.428571428571431</v>
       </c>
       <c r="M160" s="1">
-        <v>107.14285714285714</v>
+        <v>84</v>
       </c>
       <c r="N160" s="1">
-        <v>103.71428571428571</v>
+        <v>57</v>
       </c>
       <c r="O160" s="1">
-        <v>99.142857142857139</v>
+        <v>29</v>
       </c>
       <c r="P160" s="1">
-        <v>97.285714285714292</v>
-      </c>
-      <c r="Q160" s="1">
-        <v>99.857142857142861</v>
-      </c>
-      <c r="R160" s="1">
-        <v>96.142857142857139</v>
+        <v>16.285714285714285</v>
+      </c>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1">
+        <v>113</v>
+      </c>
+      <c r="T160" s="1">
+        <v>115.71428571428571</v>
+      </c>
+      <c r="U160" s="1">
+        <v>106.28571428571429</v>
       </c>
       <c r="V160" s="1">
-        <v>105.85714285714286</v>
+        <v>98.857142857142861</v>
       </c>
       <c r="W160" s="1">
-        <v>107.14285714285714</v>
+        <v>96.428571428571431</v>
       </c>
       <c r="X160" s="1">
-        <v>103.71428571428571</v>
+        <v>93.857142857142861</v>
       </c>
       <c r="Y160" s="1">
-        <v>99.142857142857139</v>
+        <v>88.857142857142861</v>
       </c>
       <c r="Z160" s="1">
-        <v>97.285714285714292</v>
-      </c>
-      <c r="AA160" s="1">
-        <v>99.857142857142861</v>
-      </c>
-      <c r="AB160" s="1">
-        <v>96.142857142857139</v>
-      </c>
+        <v>88.571428571428569</v>
+      </c>
+      <c r="AA160" s="1"/>
+      <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
       <c r="AD160" s="1"/>
     </row>
-    <row r="161" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <v>33</v>
+      </c>
+      <c r="I161" s="1">
+        <v>67.714285714285708</v>
+      </c>
+      <c r="J161" s="1">
+        <v>127.28571428571429</v>
+      </c>
+      <c r="K161" s="1">
+        <v>106</v>
+      </c>
       <c r="L161" s="1">
-        <v>58.285714285714285</v>
+        <v>93.857142857142861</v>
       </c>
       <c r="M161" s="1">
-        <v>60.571428571428569</v>
+        <v>80.285714285714292</v>
       </c>
       <c r="N161" s="1">
-        <v>61</v>
+        <v>56.142857142857146</v>
       </c>
       <c r="O161" s="1">
-        <v>60.857142857142854</v>
+        <v>29.142857142857142</v>
       </c>
       <c r="P161" s="1">
-        <v>58.857142857142854</v>
-      </c>
-      <c r="Q161" s="1">
-        <v>63.142857142857146</v>
-      </c>
-      <c r="R161" s="1">
-        <v>62.142857142857146</v>
+        <v>15.857142857142858</v>
+      </c>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1">
+        <v>96.142857142857139</v>
+      </c>
+      <c r="T161" s="1">
+        <v>98.714285714285708</v>
+      </c>
+      <c r="U161" s="1">
+        <v>89.142857142857139</v>
       </c>
       <c r="V161" s="1">
-        <v>58.285714285714285</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="W161" s="1">
-        <v>60.571428571428569</v>
+        <v>84</v>
       </c>
       <c r="X161" s="1">
-        <v>61</v>
+        <v>80.285714285714292</v>
       </c>
       <c r="Y161" s="1">
-        <v>60.857142857142854</v>
+        <v>80.142857142857139</v>
       </c>
       <c r="Z161" s="1">
-        <v>58.857142857142854</v>
-      </c>
-      <c r="AA161" s="1">
-        <v>63.142857142857146</v>
-      </c>
-      <c r="AB161" s="1">
-        <v>62.142857142857146</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AA161" s="1"/>
+      <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
       <c r="AD161" s="1"/>
     </row>
-    <row r="162" spans="12:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <v>32.285714285714285</v>
+      </c>
+      <c r="I162" s="1">
+        <v>63.571428571428569</v>
+      </c>
+      <c r="J162" s="1">
+        <v>119.28571428571429</v>
+      </c>
+      <c r="K162" s="1">
+        <v>101.42857142857143</v>
+      </c>
       <c r="L162" s="1">
-        <v>37.285714285714285</v>
+        <v>88.857142857142861</v>
       </c>
       <c r="M162" s="1">
-        <v>36.714285714285715</v>
+        <v>80.142857142857139</v>
       </c>
       <c r="N162" s="1">
-        <v>35.142857142857146</v>
+        <v>54</v>
       </c>
       <c r="O162" s="1">
-        <v>31.428571428571427</v>
+        <v>27.428571428571427</v>
       </c>
       <c r="P162" s="1">
-        <v>30.285714285714285</v>
-      </c>
-      <c r="Q162" s="1">
-        <v>33.714285714285715</v>
-      </c>
-      <c r="R162" s="1">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1">
+        <v>62.142857142857146</v>
+      </c>
+      <c r="T162" s="1">
+        <v>65.285714285714292</v>
+      </c>
+      <c r="U162" s="1">
+        <v>59.571428571428569</v>
+      </c>
+      <c r="V162" s="1">
+        <v>56.142857142857146</v>
+      </c>
+      <c r="W162" s="1">
+        <v>57</v>
+      </c>
+      <c r="X162" s="1">
+        <v>56.142857142857146</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>54</v>
+      </c>
+      <c r="Z162" s="1">
+        <v>52.857142857142854</v>
+      </c>
+      <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
+    </row>
+    <row r="163" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <v>34.857142857142854</v>
+      </c>
+      <c r="I163" s="1">
+        <v>62</v>
+      </c>
+      <c r="J163" s="1">
+        <v>119.14285714285714</v>
+      </c>
+      <c r="K163" s="1">
+        <v>100.28571428571429</v>
+      </c>
+      <c r="L163" s="1">
+        <v>88.571428571428569</v>
+      </c>
+      <c r="M163" s="1">
+        <v>79</v>
+      </c>
+      <c r="N163" s="1">
+        <v>52.857142857142854</v>
+      </c>
+      <c r="O163" s="1">
+        <v>25.428571428571427</v>
+      </c>
+      <c r="P163" s="1">
+        <v>12.714285714285714</v>
+      </c>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1">
         <v>32</v>
       </c>
-      <c r="V162" s="1">
-        <v>37.285714285714285</v>
-      </c>
-      <c r="W162" s="1">
-        <v>36.714285714285715</v>
-      </c>
-      <c r="X162" s="1">
-        <v>35.142857142857146</v>
-      </c>
-      <c r="Y162" s="1">
-        <v>31.428571428571427</v>
-      </c>
-      <c r="Z162" s="1">
-        <v>30.285714285714285</v>
-      </c>
-      <c r="AA162" s="1">
-        <v>33.714285714285715</v>
-      </c>
-      <c r="AB162" s="1">
+      <c r="T163" s="1">
         <v>32</v>
       </c>
+      <c r="U163" s="1">
+        <v>28.571428571428573</v>
+      </c>
+      <c r="V163" s="1">
+        <v>28.285714285714285</v>
+      </c>
+      <c r="W163" s="1">
+        <v>29</v>
+      </c>
+      <c r="X163" s="1">
+        <v>29.142857142857142</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>27.428571428571427</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>25.428571428571427</v>
+      </c>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
     </row>
-    <row r="163" spans="12:30" x14ac:dyDescent="0.25">
-      <c r="L163" s="1">
-        <v>23.428571428571427</v>
-      </c>
-      <c r="M163" s="1">
-        <v>22.285714285714285</v>
-      </c>
-      <c r="N163" s="1">
-        <v>21.142857142857142</v>
-      </c>
-      <c r="O163" s="1">
-        <v>20</v>
-      </c>
-      <c r="P163" s="1">
-        <v>17.857142857142858</v>
-      </c>
-      <c r="Q163" s="1">
-        <v>17.714285714285715</v>
-      </c>
-      <c r="R163" s="1">
+    <row r="164" spans="8:30" x14ac:dyDescent="0.25">
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="S164" s="1">
         <v>16.142857142857142</v>
       </c>
-      <c r="V163" s="1">
-        <v>23.428571428571427</v>
-      </c>
-      <c r="W163" s="1">
-        <v>22.285714285714285</v>
-      </c>
-      <c r="X163" s="1">
-        <v>21.142857142857142</v>
-      </c>
-      <c r="Y163" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z163" s="1">
-        <v>17.857142857142858</v>
-      </c>
-      <c r="AA163" s="1">
-        <v>17.714285714285715</v>
-      </c>
-      <c r="AB163" s="1">
+      <c r="T164" s="1">
+        <v>14.714285714285714</v>
+      </c>
+      <c r="U164" s="1">
+        <v>16.285714285714285</v>
+      </c>
+      <c r="V164" s="1">
         <v>16.142857142857142</v>
+      </c>
+      <c r="W164" s="1">
+        <v>16.285714285714285</v>
+      </c>
+      <c r="X164" s="1">
+        <v>15.857142857142858</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="Z164" s="1">
+        <v>12.714285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9AE746D5-E574-494D-9111-92E9BA07550B}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A5AFF81-635F-4089-94C8-1098EEF7304E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,13 +916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF164"/>
+  <dimension ref="A1:AF183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S155" sqref="S155:Z164"/>
+      <selection pane="bottomRight" activeCell="M166" sqref="M166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15928,564 +15928,1568 @@
       </c>
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="3">
+        <v>44065</v>
+      </c>
+      <c r="B149">
+        <v>3716</v>
+      </c>
+      <c r="C149">
+        <v>7119</v>
+      </c>
+      <c r="D149">
+        <v>18459</v>
+      </c>
+      <c r="E149">
+        <v>19361</v>
+      </c>
+      <c r="F149">
+        <v>17222</v>
+      </c>
+      <c r="G149">
+        <v>15338</v>
+      </c>
+      <c r="H149">
+        <v>10486</v>
+      </c>
+      <c r="I149">
+        <v>6397</v>
+      </c>
+      <c r="J149">
+        <v>5425</v>
+      </c>
+      <c r="L149">
+        <f t="shared" ref="L149:L156" si="218">SUM(B149-B148)</f>
+        <v>19</v>
+      </c>
+      <c r="M149">
+        <f t="shared" ref="M149:M156" si="219">SUM(C149-C148)</f>
+        <v>69</v>
+      </c>
+      <c r="N149">
+        <f t="shared" ref="N149:N156" si="220">SUM(D149-D148)</f>
+        <v>155</v>
+      </c>
+      <c r="O149">
+        <f t="shared" ref="O149:O156" si="221">SUM(E149-E148)</f>
+        <v>114</v>
+      </c>
+      <c r="P149">
+        <f t="shared" ref="P149:P156" si="222">SUM(F149-F148)</f>
+        <v>86</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" ref="Q149:Q156" si="223">SUM(G149-G148)</f>
+        <v>95</v>
+      </c>
+      <c r="R149">
+        <f t="shared" ref="R149:R156" si="224">SUM(H149-H148)</f>
+        <v>45</v>
+      </c>
+      <c r="S149">
+        <f t="shared" ref="S149:S156" si="225">SUM(I149-I148)</f>
+        <v>24</v>
+      </c>
+      <c r="T149">
+        <f t="shared" ref="T149:T156" si="226">SUM(J149-J148)</f>
+        <v>17</v>
+      </c>
+      <c r="V149" s="1">
+        <f t="shared" ref="V149:V156" si="227">AVERAGE(L143:L149)</f>
+        <v>31.857142857142858</v>
+      </c>
+      <c r="W149" s="1">
+        <f t="shared" ref="W149:W156" si="228">AVERAGE(M143:M149)</f>
+        <v>60.142857142857146</v>
+      </c>
+      <c r="X149" s="1">
+        <f t="shared" ref="X149:X156" si="229">AVERAGE(N143:N149)</f>
+        <v>116.57142857142857</v>
+      </c>
+      <c r="Y149" s="1">
+        <f t="shared" ref="Y149:Y156" si="230">AVERAGE(O143:O149)</f>
+        <v>97.857142857142861</v>
+      </c>
+      <c r="Z149" s="1">
+        <f t="shared" ref="Z149:Z156" si="231">AVERAGE(P143:P149)</f>
+        <v>80.857142857142861</v>
+      </c>
+      <c r="AA149" s="1">
+        <f t="shared" ref="AA149:AA156" si="232">AVERAGE(Q143:Q149)</f>
+        <v>76.428571428571431</v>
+      </c>
+      <c r="AB149" s="1">
+        <f t="shared" ref="AB149:AB156" si="233">AVERAGE(R143:R149)</f>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="AC149" s="1">
+        <f t="shared" ref="AC149:AC156" si="234">AVERAGE(S143:S149)</f>
+        <v>23.428571428571427</v>
+      </c>
+      <c r="AD149" s="1">
+        <f t="shared" ref="AD149:AD156" si="235">AVERAGE(T143:T149)</f>
+        <v>11.428571428571429</v>
+      </c>
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-      <c r="X150" s="3"/>
-      <c r="Y150" s="3"/>
-      <c r="Z150" s="3"/>
-      <c r="AA150" s="3"/>
-      <c r="AB150" s="3"/>
-      <c r="AC150" s="3"/>
+      <c r="A150" s="3">
+        <v>44066</v>
+      </c>
+      <c r="B150">
+        <v>3752</v>
+      </c>
+      <c r="C150">
+        <v>7208</v>
+      </c>
+      <c r="D150">
+        <v>18601</v>
+      </c>
+      <c r="E150">
+        <v>19467</v>
+      </c>
+      <c r="F150">
+        <v>17299</v>
+      </c>
+      <c r="G150">
+        <v>15406</v>
+      </c>
+      <c r="H150">
+        <v>10527</v>
+      </c>
+      <c r="I150">
+        <v>6410</v>
+      </c>
+      <c r="J150">
+        <v>5432</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="218"/>
+        <v>36</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="219"/>
+        <v>89</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="220"/>
+        <v>142</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="221"/>
+        <v>106</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="222"/>
+        <v>77</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="223"/>
+        <v>68</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="224"/>
+        <v>41</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="225"/>
+        <v>13</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="226"/>
+        <v>7</v>
+      </c>
+      <c r="V150" s="1">
+        <f t="shared" si="227"/>
+        <v>33.142857142857146</v>
+      </c>
+      <c r="W150" s="1">
+        <f t="shared" si="228"/>
+        <v>64.428571428571431</v>
+      </c>
+      <c r="X150" s="1">
+        <f t="shared" si="229"/>
+        <v>120.71428571428571</v>
+      </c>
+      <c r="Y150" s="1">
+        <f t="shared" si="230"/>
+        <v>100.42857142857143</v>
+      </c>
+      <c r="Z150" s="1">
+        <f t="shared" si="231"/>
+        <v>81.857142857142861</v>
+      </c>
+      <c r="AA150" s="1">
+        <f t="shared" si="232"/>
+        <v>75.142857142857139</v>
+      </c>
+      <c r="AB150" s="1">
+        <f t="shared" si="233"/>
+        <v>48</v>
+      </c>
+      <c r="AC150" s="1">
+        <f t="shared" si="234"/>
+        <v>22.428571428571427</v>
+      </c>
+      <c r="AD150" s="1">
+        <f t="shared" si="235"/>
+        <v>9.5714285714285712</v>
+      </c>
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
-      <c r="Y151" s="1"/>
-      <c r="Z151" s="1"/>
-      <c r="AA151" s="1"/>
-      <c r="AB151" s="1"/>
-      <c r="AC151" s="1"/>
+      <c r="A151" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B151">
+        <v>3788</v>
+      </c>
+      <c r="C151">
+        <v>7274</v>
+      </c>
+      <c r="D151">
+        <v>18736</v>
+      </c>
+      <c r="E151">
+        <v>19563</v>
+      </c>
+      <c r="F151">
+        <v>17377</v>
+      </c>
+      <c r="G151">
+        <v>15485</v>
+      </c>
+      <c r="H151">
+        <v>10563</v>
+      </c>
+      <c r="I151">
+        <v>6439</v>
+      </c>
+      <c r="J151">
+        <v>5444</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="218"/>
+        <v>36</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="219"/>
+        <v>66</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="220"/>
+        <v>135</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="221"/>
+        <v>96</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="222"/>
+        <v>78</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="223"/>
+        <v>79</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="224"/>
+        <v>36</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="225"/>
+        <v>29</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="226"/>
+        <v>12</v>
+      </c>
+      <c r="V151" s="1">
+        <f t="shared" si="227"/>
+        <v>33.714285714285715</v>
+      </c>
+      <c r="W151" s="1">
+        <f t="shared" si="228"/>
+        <v>68.142857142857139</v>
+      </c>
+      <c r="X151" s="1">
+        <f t="shared" si="229"/>
+        <v>124.42857142857143</v>
+      </c>
+      <c r="Y151" s="1">
+        <f t="shared" si="230"/>
+        <v>100.42857142857143</v>
+      </c>
+      <c r="Z151" s="1">
+        <f t="shared" si="231"/>
+        <v>82.857142857142861</v>
+      </c>
+      <c r="AA151" s="1">
+        <f t="shared" si="232"/>
+        <v>76.285714285714292</v>
+      </c>
+      <c r="AB151" s="1">
+        <f t="shared" si="233"/>
+        <v>46.857142857142854</v>
+      </c>
+      <c r="AC151" s="1">
+        <f t="shared" si="234"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="AD151" s="1">
+        <f t="shared" si="235"/>
+        <v>9.2857142857142865</v>
+      </c>
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
-      <c r="Y152" s="1"/>
-      <c r="Z152" s="1"/>
-      <c r="AA152" s="1"/>
-      <c r="AB152" s="1"/>
-      <c r="AC152" s="1"/>
+      <c r="A152" s="3">
+        <v>44068</v>
+      </c>
+      <c r="B152">
+        <v>3803</v>
+      </c>
+      <c r="C152">
+        <v>7322</v>
+      </c>
+      <c r="D152">
+        <v>18801</v>
+      </c>
+      <c r="E152">
+        <v>19635</v>
+      </c>
+      <c r="F152">
+        <v>17431</v>
+      </c>
+      <c r="G152">
+        <v>15559</v>
+      </c>
+      <c r="H152">
+        <v>10588</v>
+      </c>
+      <c r="I152">
+        <v>6455</v>
+      </c>
+      <c r="J152">
+        <v>5452</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="218"/>
+        <v>15</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="219"/>
+        <v>48</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="220"/>
+        <v>65</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="221"/>
+        <v>72</v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="222"/>
+        <v>54</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="223"/>
+        <v>74</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="224"/>
+        <v>25</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="225"/>
+        <v>16</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="226"/>
+        <v>8</v>
+      </c>
+      <c r="V152" s="1">
+        <f t="shared" si="227"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="W152" s="1">
+        <f t="shared" si="228"/>
+        <v>66.428571428571431</v>
+      </c>
+      <c r="X152" s="1">
+        <f t="shared" si="229"/>
+        <v>119</v>
+      </c>
+      <c r="Y152" s="1">
+        <f t="shared" si="230"/>
+        <v>96.714285714285708</v>
+      </c>
+      <c r="Z152" s="1">
+        <f t="shared" si="231"/>
+        <v>79.857142857142861</v>
+      </c>
+      <c r="AA152" s="1">
+        <f t="shared" si="232"/>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="AB152" s="1">
+        <f t="shared" si="233"/>
+        <v>42.571428571428569</v>
+      </c>
+      <c r="AC152" s="1">
+        <f t="shared" si="234"/>
+        <v>22</v>
+      </c>
+      <c r="AD152" s="1">
+        <f t="shared" si="235"/>
+        <v>8.7142857142857135</v>
+      </c>
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-      <c r="X153" s="1"/>
-      <c r="Y153" s="1"/>
-      <c r="Z153" s="1"/>
-      <c r="AA153" s="1"/>
-      <c r="AB153" s="1"/>
-      <c r="AC153" s="1"/>
+      <c r="A153" s="3">
+        <v>44069</v>
+      </c>
+      <c r="B153">
+        <v>3827</v>
+      </c>
+      <c r="C153">
+        <v>7365</v>
+      </c>
+      <c r="D153">
+        <v>18902</v>
+      </c>
+      <c r="E153">
+        <v>19710</v>
+      </c>
+      <c r="F153">
+        <v>17505</v>
+      </c>
+      <c r="G153">
+        <v>15608</v>
+      </c>
+      <c r="H153">
+        <v>10623</v>
+      </c>
+      <c r="I153">
+        <v>6482</v>
+      </c>
+      <c r="J153">
+        <v>5464</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="218"/>
+        <v>24</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="219"/>
+        <v>43</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="220"/>
+        <v>101</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="221"/>
+        <v>75</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="222"/>
+        <v>74</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="223"/>
+        <v>49</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="224"/>
+        <v>35</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="225"/>
+        <v>27</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="226"/>
+        <v>12</v>
+      </c>
+      <c r="V153" s="1">
+        <f t="shared" si="227"/>
+        <v>31</v>
+      </c>
+      <c r="W153" s="1">
+        <f t="shared" si="228"/>
+        <v>66.142857142857139</v>
+      </c>
+      <c r="X153" s="1">
+        <f t="shared" si="229"/>
+        <v>120.71428571428571</v>
+      </c>
+      <c r="Y153" s="1">
+        <f t="shared" si="230"/>
+        <v>95.428571428571431</v>
+      </c>
+      <c r="Z153" s="1">
+        <f t="shared" si="231"/>
+        <v>82.571428571428569</v>
+      </c>
+      <c r="AA153" s="1">
+        <f t="shared" si="232"/>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="AB153" s="1">
+        <f t="shared" si="233"/>
+        <v>42.428571428571431</v>
+      </c>
+      <c r="AC153" s="1">
+        <f t="shared" si="234"/>
+        <v>22.571428571428573</v>
+      </c>
+      <c r="AD153" s="1">
+        <f t="shared" si="235"/>
+        <v>9.5714285714285712</v>
+      </c>
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="V154" s="3"/>
-      <c r="W154" s="3"/>
-      <c r="X154" s="3"/>
-      <c r="Y154" s="3"/>
-      <c r="Z154" s="3"/>
-      <c r="AA154" s="3"/>
-      <c r="AB154" s="3"/>
-      <c r="AC154" s="1"/>
+      <c r="A154" s="3">
+        <v>44070</v>
+      </c>
+      <c r="B154">
+        <v>3859</v>
+      </c>
+      <c r="C154">
+        <v>7445</v>
+      </c>
+      <c r="D154">
+        <v>19033</v>
+      </c>
+      <c r="E154">
+        <v>19806</v>
+      </c>
+      <c r="F154">
+        <v>17586</v>
+      </c>
+      <c r="G154">
+        <v>15691</v>
+      </c>
+      <c r="H154">
+        <v>10668</v>
+      </c>
+      <c r="I154">
+        <v>6498</v>
+      </c>
+      <c r="J154">
+        <v>5477</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="218"/>
+        <v>32</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="219"/>
+        <v>80</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="220"/>
+        <v>131</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="221"/>
+        <v>96</v>
+      </c>
+      <c r="P154">
+        <f t="shared" si="222"/>
+        <v>81</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="223"/>
+        <v>83</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="224"/>
+        <v>45</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="225"/>
+        <v>16</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="226"/>
+        <v>13</v>
+      </c>
+      <c r="V154" s="1">
+        <f t="shared" si="227"/>
+        <v>30.857142857142858</v>
+      </c>
+      <c r="W154" s="1">
+        <f t="shared" si="228"/>
+        <v>69.428571428571431</v>
+      </c>
+      <c r="X154" s="1">
+        <f t="shared" si="229"/>
+        <v>123.57142857142857</v>
+      </c>
+      <c r="Y154" s="1">
+        <f t="shared" si="230"/>
+        <v>95.428571428571431</v>
+      </c>
+      <c r="Z154" s="1">
+        <f t="shared" si="231"/>
+        <v>81.285714285714292</v>
+      </c>
+      <c r="AA154" s="1">
+        <f t="shared" si="232"/>
+        <v>76.142857142857139</v>
+      </c>
+      <c r="AB154" s="1">
+        <f t="shared" si="233"/>
+        <v>40.428571428571431</v>
+      </c>
+      <c r="AC154" s="1">
+        <f t="shared" si="234"/>
+        <v>20.428571428571427</v>
+      </c>
+      <c r="AD154" s="1">
+        <f t="shared" si="235"/>
+        <v>10.142857142857142</v>
+      </c>
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="3">
-        <v>44057</v>
-      </c>
-      <c r="T155" s="3">
-        <v>44058</v>
-      </c>
-      <c r="U155" s="3">
-        <v>44059</v>
-      </c>
-      <c r="V155" s="3">
-        <v>44060</v>
-      </c>
-      <c r="W155" s="3">
-        <v>44061</v>
-      </c>
-      <c r="X155" s="3">
-        <v>44062</v>
-      </c>
-      <c r="Y155" s="3">
-        <v>44063</v>
-      </c>
-      <c r="Z155" s="3">
-        <v>44064</v>
-      </c>
-      <c r="AA155" s="1"/>
-      <c r="AB155" s="1"/>
-      <c r="AC155" s="1"/>
-      <c r="AD155" s="1"/>
+      <c r="A155" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B155">
+        <v>3878</v>
+      </c>
+      <c r="C155">
+        <v>7534</v>
+      </c>
+      <c r="D155">
+        <v>19164</v>
+      </c>
+      <c r="E155">
+        <v>19908</v>
+      </c>
+      <c r="F155">
+        <v>17680</v>
+      </c>
+      <c r="G155">
+        <v>15781</v>
+      </c>
+      <c r="H155">
+        <v>10719</v>
+      </c>
+      <c r="I155">
+        <v>6516</v>
+      </c>
+      <c r="J155">
+        <v>5484</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="218"/>
+        <v>19</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="219"/>
+        <v>89</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="220"/>
+        <v>131</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="221"/>
+        <v>102</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="222"/>
+        <v>94</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" si="223"/>
+        <v>90</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="224"/>
+        <v>51</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="225"/>
+        <v>18</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="226"/>
+        <v>7</v>
+      </c>
+      <c r="V155" s="1">
+        <f t="shared" si="227"/>
+        <v>25.857142857142858</v>
+      </c>
+      <c r="W155" s="1">
+        <f t="shared" si="228"/>
+        <v>69.142857142857139</v>
+      </c>
+      <c r="X155" s="1">
+        <f t="shared" si="229"/>
+        <v>122.85714285714286</v>
+      </c>
+      <c r="Y155" s="1">
+        <f t="shared" si="230"/>
+        <v>94.428571428571431</v>
+      </c>
+      <c r="Z155" s="1">
+        <f t="shared" si="231"/>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="AA155" s="1">
+        <f t="shared" si="232"/>
+        <v>76.857142857142861</v>
+      </c>
+      <c r="AB155" s="1">
+        <f t="shared" si="233"/>
+        <v>39.714285714285715</v>
+      </c>
+      <c r="AC155" s="1">
+        <f t="shared" si="234"/>
+        <v>20.428571428571427</v>
+      </c>
+      <c r="AD155" s="1">
+        <f t="shared" si="235"/>
+        <v>10.857142857142858</v>
+      </c>
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H156" s="1">
-        <v>36.857142857142854</v>
-      </c>
-      <c r="I156" s="1">
-        <v>84.857142857142861</v>
-      </c>
-      <c r="J156" s="1">
-        <v>154.42857142857142</v>
-      </c>
-      <c r="K156" s="1">
-        <v>128.57142857142858</v>
-      </c>
-      <c r="L156" s="1">
-        <v>113</v>
-      </c>
-      <c r="M156" s="1">
-        <v>96.142857142857139</v>
-      </c>
-      <c r="N156" s="1">
-        <v>62.142857142857146</v>
-      </c>
-      <c r="O156" s="1">
-        <v>32</v>
-      </c>
-      <c r="P156" s="1">
-        <v>16.142857142857142</v>
-      </c>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1">
-        <v>36.857142857142854</v>
-      </c>
-      <c r="T156" s="1">
-        <v>36.571428571428569</v>
-      </c>
-      <c r="U156" s="1">
-        <v>31.857142857142858</v>
+      <c r="A156" s="3">
+        <v>44072</v>
+      </c>
+      <c r="B156">
+        <v>3901</v>
+      </c>
+      <c r="C156">
+        <v>7606</v>
+      </c>
+      <c r="D156">
+        <v>19322</v>
+      </c>
+      <c r="E156">
+        <v>20016</v>
+      </c>
+      <c r="F156">
+        <v>17752</v>
+      </c>
+      <c r="G156">
+        <v>15886</v>
+      </c>
+      <c r="H156">
+        <v>10772</v>
+      </c>
+      <c r="I156">
+        <v>6542</v>
+      </c>
+      <c r="J156">
+        <v>5497</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="218"/>
+        <v>23</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="219"/>
+        <v>72</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="220"/>
+        <v>158</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="221"/>
+        <v>108</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="222"/>
+        <v>72</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="223"/>
+        <v>105</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="224"/>
+        <v>53</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="225"/>
+        <v>26</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="226"/>
+        <v>13</v>
       </c>
       <c r="V156" s="1">
-        <v>32</v>
+        <f t="shared" si="227"/>
+        <v>26.428571428571427</v>
       </c>
       <c r="W156" s="1">
-        <v>32</v>
+        <f t="shared" si="228"/>
+        <v>69.571428571428569</v>
       </c>
       <c r="X156" s="1">
-        <v>33</v>
+        <f t="shared" si="229"/>
+        <v>123.28571428571429</v>
       </c>
       <c r="Y156" s="1">
-        <v>32.285714285714285</v>
+        <f t="shared" si="230"/>
+        <v>93.571428571428569</v>
       </c>
       <c r="Z156" s="1">
-        <v>34.857142857142854</v>
-      </c>
-      <c r="AA156" s="1"/>
-      <c r="AB156" s="1"/>
-      <c r="AC156" s="1"/>
-      <c r="AD156" s="1"/>
+        <f t="shared" si="231"/>
+        <v>75.714285714285708</v>
+      </c>
+      <c r="AA156" s="1">
+        <f t="shared" si="232"/>
+        <v>78.285714285714292</v>
+      </c>
+      <c r="AB156" s="1">
+        <f t="shared" si="233"/>
+        <v>40.857142857142854</v>
+      </c>
+      <c r="AC156" s="1">
+        <f t="shared" si="234"/>
+        <v>20.714285714285715</v>
+      </c>
+      <c r="AD156" s="1">
+        <f t="shared" si="235"/>
+        <v>10.285714285714286</v>
+      </c>
     </row>
     <row r="157" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H157" s="1">
-        <v>36.571428571428569</v>
-      </c>
-      <c r="I157" s="1">
-        <v>81.714285714285708</v>
-      </c>
-      <c r="J157" s="1">
-        <v>157.28571428571428</v>
-      </c>
-      <c r="K157" s="1">
-        <v>128.28571428571428</v>
-      </c>
-      <c r="L157" s="1">
-        <v>115.71428571428571</v>
-      </c>
-      <c r="M157" s="1">
-        <v>98.714285714285708</v>
-      </c>
-      <c r="N157" s="1">
-        <v>65.285714285714292</v>
-      </c>
-      <c r="O157" s="1">
-        <v>32</v>
-      </c>
-      <c r="P157" s="1">
-        <v>14.714285714285714</v>
-      </c>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1">
-        <v>84.857142857142861</v>
-      </c>
-      <c r="T157" s="1">
-        <v>81.714285714285708</v>
-      </c>
-      <c r="U157" s="1">
-        <v>78</v>
+      <c r="A157" s="3">
+        <v>44073</v>
+      </c>
+      <c r="B157">
+        <v>3924</v>
+      </c>
+      <c r="C157">
+        <v>7675</v>
+      </c>
+      <c r="D157">
+        <v>19447</v>
+      </c>
+      <c r="E157">
+        <v>20088</v>
+      </c>
+      <c r="F157">
+        <v>17817</v>
+      </c>
+      <c r="G157">
+        <v>15950</v>
+      </c>
+      <c r="H157">
+        <v>10809</v>
+      </c>
+      <c r="I157">
+        <v>6573</v>
+      </c>
+      <c r="J157">
+        <v>5508</v>
+      </c>
+      <c r="L157">
+        <f t="shared" ref="L157:L163" si="236">SUM(B157-B156)</f>
+        <v>23</v>
+      </c>
+      <c r="M157">
+        <f t="shared" ref="M157:M163" si="237">SUM(C157-C156)</f>
+        <v>69</v>
+      </c>
+      <c r="N157">
+        <f t="shared" ref="N157:N163" si="238">SUM(D157-D156)</f>
+        <v>125</v>
+      </c>
+      <c r="O157">
+        <f t="shared" ref="O157:O163" si="239">SUM(E157-E156)</f>
+        <v>72</v>
+      </c>
+      <c r="P157">
+        <f t="shared" ref="P157:P163" si="240">SUM(F157-F156)</f>
+        <v>65</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" ref="Q157:Q163" si="241">SUM(G157-G156)</f>
+        <v>64</v>
+      </c>
+      <c r="R157">
+        <f t="shared" ref="R157:R163" si="242">SUM(H157-H156)</f>
+        <v>37</v>
+      </c>
+      <c r="S157">
+        <f t="shared" ref="S157:S163" si="243">SUM(I157-I156)</f>
+        <v>31</v>
+      </c>
+      <c r="T157">
+        <f t="shared" ref="T157:T163" si="244">SUM(J157-J156)</f>
+        <v>11</v>
       </c>
       <c r="V157" s="1">
-        <v>71.285714285714292</v>
+        <f t="shared" ref="V157:V163" si="245">AVERAGE(L151:L157)</f>
+        <v>24.571428571428573</v>
       </c>
       <c r="W157" s="1">
-        <v>70</v>
+        <f t="shared" ref="W157:W163" si="246">AVERAGE(M151:M157)</f>
+        <v>66.714285714285708</v>
       </c>
       <c r="X157" s="1">
-        <v>67.714285714285708</v>
+        <f t="shared" ref="X157:X163" si="247">AVERAGE(N151:N157)</f>
+        <v>120.85714285714286</v>
       </c>
       <c r="Y157" s="1">
-        <v>63.571428571428569</v>
+        <f t="shared" ref="Y157:Y163" si="248">AVERAGE(O151:O157)</f>
+        <v>88.714285714285708</v>
       </c>
       <c r="Z157" s="1">
-        <v>62</v>
-      </c>
-      <c r="AA157" s="1"/>
-      <c r="AB157" s="1"/>
-      <c r="AC157" s="1"/>
-      <c r="AD157" s="1"/>
+        <f t="shared" ref="Z157:Z163" si="249">AVERAGE(P151:P157)</f>
+        <v>74</v>
+      </c>
+      <c r="AA157" s="1">
+        <f t="shared" ref="AA157:AA163" si="250">AVERAGE(Q151:Q157)</f>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="AB157" s="1">
+        <f t="shared" ref="AB157:AB163" si="251">AVERAGE(R151:R157)</f>
+        <v>40.285714285714285</v>
+      </c>
+      <c r="AC157" s="1">
+        <f t="shared" ref="AC157:AC163" si="252">AVERAGE(S151:S157)</f>
+        <v>23.285714285714285</v>
+      </c>
+      <c r="AD157" s="1">
+        <f t="shared" ref="AD157:AD163" si="253">AVERAGE(T151:T157)</f>
+        <v>10.857142857142858</v>
+      </c>
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H158" s="1">
-        <v>31.857142857142858</v>
-      </c>
-      <c r="I158" s="1">
-        <v>78</v>
-      </c>
-      <c r="J158" s="1">
-        <v>147.85714285714286</v>
-      </c>
-      <c r="K158" s="1">
-        <v>115.14285714285714</v>
-      </c>
-      <c r="L158" s="1">
-        <v>106.28571428571429</v>
-      </c>
-      <c r="M158" s="1">
-        <v>89.142857142857139</v>
-      </c>
-      <c r="N158" s="1">
-        <v>59.571428571428569</v>
-      </c>
-      <c r="O158" s="1">
-        <v>28.571428571428573</v>
-      </c>
-      <c r="P158" s="1">
-        <v>16.285714285714285</v>
-      </c>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1">
-        <v>154.42857142857142</v>
-      </c>
-      <c r="T158" s="1">
-        <v>157.28571428571428</v>
-      </c>
-      <c r="U158" s="1">
-        <v>147.85714285714286</v>
+      <c r="A158" s="3">
+        <v>44074</v>
+      </c>
+      <c r="B158">
+        <v>3952</v>
+      </c>
+      <c r="C158">
+        <v>7741</v>
+      </c>
+      <c r="D158">
+        <v>19556</v>
+      </c>
+      <c r="E158">
+        <v>20158</v>
+      </c>
+      <c r="F158">
+        <v>17894</v>
+      </c>
+      <c r="G158">
+        <v>16003</v>
+      </c>
+      <c r="H158">
+        <v>10846</v>
+      </c>
+      <c r="I158">
+        <v>6585</v>
+      </c>
+      <c r="J158">
+        <v>5514</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="236"/>
+        <v>28</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="237"/>
+        <v>66</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="238"/>
+        <v>109</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="239"/>
+        <v>70</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="240"/>
+        <v>77</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" si="241"/>
+        <v>53</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="242"/>
+        <v>37</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="243"/>
+        <v>12</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="244"/>
+        <v>6</v>
       </c>
       <c r="V158" s="1">
-        <v>139.14285714285714</v>
+        <f t="shared" si="245"/>
+        <v>23.428571428571427</v>
       </c>
       <c r="W158" s="1">
-        <v>133.42857142857142</v>
+        <f t="shared" si="246"/>
+        <v>66.714285714285708</v>
       </c>
       <c r="X158" s="1">
-        <v>127.28571428571429</v>
+        <f t="shared" si="247"/>
+        <v>117.14285714285714</v>
       </c>
       <c r="Y158" s="1">
-        <v>119.28571428571429</v>
+        <f t="shared" si="248"/>
+        <v>85</v>
       </c>
       <c r="Z158" s="1">
-        <v>119.14285714285714</v>
-      </c>
-      <c r="AA158" s="1"/>
-      <c r="AB158" s="1"/>
-      <c r="AC158" s="1"/>
-      <c r="AD158" s="1"/>
+        <f t="shared" si="249"/>
+        <v>73.857142857142861</v>
+      </c>
+      <c r="AA158" s="1">
+        <f t="shared" si="250"/>
+        <v>74</v>
+      </c>
+      <c r="AB158" s="1">
+        <f t="shared" si="251"/>
+        <v>40.428571428571431</v>
+      </c>
+      <c r="AC158" s="1">
+        <f t="shared" si="252"/>
+        <v>20.857142857142858</v>
+      </c>
+      <c r="AD158" s="1">
+        <f t="shared" si="253"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H159" s="1">
-        <v>32</v>
-      </c>
-      <c r="I159" s="1">
-        <v>71.285714285714292</v>
-      </c>
-      <c r="J159" s="1">
-        <v>139.14285714285714</v>
-      </c>
-      <c r="K159" s="1">
-        <v>109.14285714285714</v>
-      </c>
-      <c r="L159" s="1">
-        <v>98.857142857142861</v>
-      </c>
-      <c r="M159" s="1">
-        <v>85.714285714285708</v>
-      </c>
-      <c r="N159" s="1">
-        <v>56.142857142857146</v>
-      </c>
-      <c r="O159" s="1">
-        <v>28.285714285714285</v>
-      </c>
-      <c r="P159" s="1">
-        <v>16.142857142857142</v>
-      </c>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1">
-        <v>128.57142857142858</v>
-      </c>
-      <c r="T159" s="1">
-        <v>128.28571428571428</v>
-      </c>
-      <c r="U159" s="1">
-        <v>115.14285714285714</v>
+      <c r="A159" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B159">
+        <v>3983</v>
+      </c>
+      <c r="C159">
+        <v>7841</v>
+      </c>
+      <c r="D159">
+        <v>19708</v>
+      </c>
+      <c r="E159">
+        <v>20258</v>
+      </c>
+      <c r="F159">
+        <v>17963</v>
+      </c>
+      <c r="G159">
+        <v>16085</v>
+      </c>
+      <c r="H159">
+        <v>10895</v>
+      </c>
+      <c r="I159">
+        <v>6607</v>
+      </c>
+      <c r="J159">
+        <v>5523</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="236"/>
+        <v>31</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="237"/>
+        <v>100</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="238"/>
+        <v>152</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="239"/>
+        <v>100</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="240"/>
+        <v>69</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" si="241"/>
+        <v>82</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="242"/>
+        <v>49</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="243"/>
+        <v>22</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="244"/>
+        <v>9</v>
       </c>
       <c r="V159" s="1">
-        <v>109.14285714285714</v>
+        <f t="shared" si="245"/>
+        <v>25.714285714285715</v>
       </c>
       <c r="W159" s="1">
-        <v>109.28571428571429</v>
+        <f t="shared" si="246"/>
+        <v>74.142857142857139</v>
       </c>
       <c r="X159" s="1">
-        <v>106</v>
+        <f t="shared" si="247"/>
+        <v>129.57142857142858</v>
       </c>
       <c r="Y159" s="1">
-        <v>101.42857142857143</v>
+        <f t="shared" si="248"/>
+        <v>89</v>
       </c>
       <c r="Z159" s="1">
-        <v>100.28571428571429</v>
-      </c>
-      <c r="AA159" s="1"/>
-      <c r="AB159" s="1"/>
-      <c r="AC159" s="1"/>
-      <c r="AD159" s="1"/>
+        <f t="shared" si="249"/>
+        <v>76</v>
+      </c>
+      <c r="AA159" s="1">
+        <f t="shared" si="250"/>
+        <v>75.142857142857139</v>
+      </c>
+      <c r="AB159" s="1">
+        <f t="shared" si="251"/>
+        <v>43.857142857142854</v>
+      </c>
+      <c r="AC159" s="1">
+        <f t="shared" si="252"/>
+        <v>21.714285714285715</v>
+      </c>
+      <c r="AD159" s="1">
+        <f t="shared" si="253"/>
+        <v>10.142857142857142</v>
+      </c>
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H160" s="1">
+      <c r="A160" s="3">
+        <v>44076</v>
+      </c>
+      <c r="B160">
+        <v>4020</v>
+      </c>
+      <c r="C160">
+        <v>7908</v>
+      </c>
+      <c r="D160">
+        <v>19825</v>
+      </c>
+      <c r="E160">
+        <v>20322</v>
+      </c>
+      <c r="F160">
+        <v>18011</v>
+      </c>
+      <c r="G160">
+        <v>16138</v>
+      </c>
+      <c r="H160">
+        <v>10927</v>
+      </c>
+      <c r="I160">
+        <v>6630</v>
+      </c>
+      <c r="J160">
+        <v>5538</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="236"/>
+        <v>37</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="237"/>
+        <v>67</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="238"/>
+        <v>117</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="239"/>
+        <v>64</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="240"/>
+        <v>48</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" si="241"/>
+        <v>53</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="242"/>
         <v>32</v>
       </c>
-      <c r="I160" s="1">
-        <v>70</v>
-      </c>
-      <c r="J160" s="1">
-        <v>133.42857142857142</v>
-      </c>
-      <c r="K160" s="1">
-        <v>109.28571428571429</v>
-      </c>
-      <c r="L160" s="1">
-        <v>96.428571428571431</v>
-      </c>
-      <c r="M160" s="1">
-        <v>84</v>
-      </c>
-      <c r="N160" s="1">
+      <c r="S160">
+        <f t="shared" si="243"/>
+        <v>23</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="244"/>
+        <v>15</v>
+      </c>
+      <c r="V160" s="1">
+        <f t="shared" si="245"/>
+        <v>27.571428571428573</v>
+      </c>
+      <c r="W160" s="1">
+        <f t="shared" si="246"/>
+        <v>77.571428571428569</v>
+      </c>
+      <c r="X160" s="1">
+        <f t="shared" si="247"/>
+        <v>131.85714285714286</v>
+      </c>
+      <c r="Y160" s="1">
+        <f t="shared" si="248"/>
+        <v>87.428571428571431</v>
+      </c>
+      <c r="Z160" s="1">
+        <f t="shared" si="249"/>
+        <v>72.285714285714292</v>
+      </c>
+      <c r="AA160" s="1">
+        <f t="shared" si="250"/>
+        <v>75.714285714285708</v>
+      </c>
+      <c r="AB160" s="1">
+        <f t="shared" si="251"/>
+        <v>43.428571428571431</v>
+      </c>
+      <c r="AC160" s="1">
+        <f t="shared" si="252"/>
+        <v>21.142857142857142</v>
+      </c>
+      <c r="AD160" s="1">
+        <f t="shared" si="253"/>
+        <v>10.571428571428571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>44077</v>
+      </c>
+      <c r="B161">
+        <v>4038</v>
+      </c>
+      <c r="C161">
+        <v>8029</v>
+      </c>
+      <c r="D161">
+        <v>19998</v>
+      </c>
+      <c r="E161">
+        <v>20410</v>
+      </c>
+      <c r="F161">
+        <v>18102</v>
+      </c>
+      <c r="G161">
+        <v>16239</v>
+      </c>
+      <c r="H161">
+        <v>10995</v>
+      </c>
+      <c r="I161">
+        <v>6654</v>
+      </c>
+      <c r="J161">
+        <v>5547</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="236"/>
+        <v>18</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="237"/>
+        <v>121</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="238"/>
+        <v>173</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="239"/>
+        <v>88</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="240"/>
+        <v>91</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" si="241"/>
+        <v>101</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="242"/>
+        <v>68</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="243"/>
+        <v>24</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="244"/>
+        <v>9</v>
+      </c>
+      <c r="V161" s="1">
+        <f t="shared" si="245"/>
+        <v>25.571428571428573</v>
+      </c>
+      <c r="W161" s="1">
+        <f t="shared" si="246"/>
+        <v>83.428571428571431</v>
+      </c>
+      <c r="X161" s="1">
+        <f t="shared" si="247"/>
+        <v>137.85714285714286</v>
+      </c>
+      <c r="Y161" s="1">
+        <f t="shared" si="248"/>
+        <v>86.285714285714292</v>
+      </c>
+      <c r="Z161" s="1">
+        <f t="shared" si="249"/>
+        <v>73.714285714285708</v>
+      </c>
+      <c r="AA161" s="1">
+        <f t="shared" si="250"/>
+        <v>78.285714285714292</v>
+      </c>
+      <c r="AB161" s="1">
+        <f t="shared" si="251"/>
+        <v>46.714285714285715</v>
+      </c>
+      <c r="AC161" s="1">
+        <f t="shared" si="252"/>
+        <v>22.285714285714285</v>
+      </c>
+      <c r="AD161" s="1">
+        <f t="shared" si="253"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>44078</v>
+      </c>
+      <c r="B162">
+        <v>4061</v>
+      </c>
+      <c r="C162">
+        <v>8189</v>
+      </c>
+      <c r="D162">
+        <v>20202</v>
+      </c>
+      <c r="E162">
+        <v>20531</v>
+      </c>
+      <c r="F162">
+        <v>18225</v>
+      </c>
+      <c r="G162">
+        <v>16339</v>
+      </c>
+      <c r="H162">
+        <v>11052</v>
+      </c>
+      <c r="I162">
+        <v>6675</v>
+      </c>
+      <c r="J162">
+        <v>5557</v>
+      </c>
+      <c r="K162" s="1"/>
+      <c r="L162">
+        <f t="shared" si="236"/>
+        <v>23</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="237"/>
+        <v>160</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="238"/>
+        <v>204</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="239"/>
+        <v>121</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="240"/>
+        <v>123</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" si="241"/>
+        <v>100</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="242"/>
         <v>57</v>
       </c>
-      <c r="O160" s="1">
-        <v>29</v>
-      </c>
-      <c r="P160" s="1">
-        <v>16.285714285714285</v>
-      </c>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1">
-        <v>113</v>
-      </c>
-      <c r="T160" s="1">
-        <v>115.71428571428571</v>
-      </c>
-      <c r="U160" s="1">
-        <v>106.28571428571429</v>
-      </c>
-      <c r="V160" s="1">
-        <v>98.857142857142861</v>
-      </c>
-      <c r="W160" s="1">
-        <v>96.428571428571431</v>
-      </c>
-      <c r="X160" s="1">
-        <v>93.857142857142861</v>
-      </c>
-      <c r="Y160" s="1">
-        <v>88.857142857142861</v>
-      </c>
-      <c r="Z160" s="1">
-        <v>88.571428571428569</v>
-      </c>
-      <c r="AA160" s="1"/>
-      <c r="AB160" s="1"/>
-      <c r="AC160" s="1"/>
-      <c r="AD160" s="1"/>
+      <c r="S162">
+        <f t="shared" si="243"/>
+        <v>21</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="244"/>
+        <v>10</v>
+      </c>
+      <c r="V162" s="1">
+        <f t="shared" si="245"/>
+        <v>26.142857142857142</v>
+      </c>
+      <c r="W162" s="1">
+        <f t="shared" si="246"/>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="X162" s="1">
+        <f t="shared" si="247"/>
+        <v>148.28571428571428</v>
+      </c>
+      <c r="Y162" s="1">
+        <f t="shared" si="248"/>
+        <v>89</v>
+      </c>
+      <c r="Z162" s="1">
+        <f t="shared" si="249"/>
+        <v>77.857142857142861</v>
+      </c>
+      <c r="AA162" s="1">
+        <f t="shared" si="250"/>
+        <v>79.714285714285708</v>
+      </c>
+      <c r="AB162" s="1">
+        <f t="shared" si="251"/>
+        <v>47.571428571428569</v>
+      </c>
+      <c r="AC162" s="1">
+        <f t="shared" si="252"/>
+        <v>22.714285714285715</v>
+      </c>
+      <c r="AD162" s="1">
+        <f t="shared" si="253"/>
+        <v>10.428571428571429</v>
+      </c>
     </row>
-    <row r="161" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H161" s="1">
-        <v>33</v>
-      </c>
-      <c r="I161" s="1">
-        <v>67.714285714285708</v>
-      </c>
-      <c r="J161" s="1">
-        <v>127.28571428571429</v>
-      </c>
-      <c r="K161" s="1">
-        <v>106</v>
-      </c>
-      <c r="L161" s="1">
-        <v>93.857142857142861</v>
-      </c>
-      <c r="M161" s="1">
-        <v>80.285714285714292</v>
-      </c>
-      <c r="N161" s="1">
-        <v>56.142857142857146</v>
-      </c>
-      <c r="O161" s="1">
-        <v>29.142857142857142</v>
-      </c>
-      <c r="P161" s="1">
-        <v>15.857142857142858</v>
-      </c>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1">
-        <v>96.142857142857139</v>
-      </c>
-      <c r="T161" s="1">
-        <v>98.714285714285708</v>
-      </c>
-      <c r="U161" s="1">
-        <v>89.142857142857139</v>
-      </c>
-      <c r="V161" s="1">
-        <v>85.714285714285708</v>
-      </c>
-      <c r="W161" s="1">
-        <v>84</v>
-      </c>
-      <c r="X161" s="1">
-        <v>80.285714285714292</v>
-      </c>
-      <c r="Y161" s="1">
-        <v>80.142857142857139</v>
-      </c>
-      <c r="Z161" s="1">
-        <v>79</v>
-      </c>
-      <c r="AA161" s="1"/>
-      <c r="AB161" s="1"/>
-      <c r="AC161" s="1"/>
-      <c r="AD161" s="1"/>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>44079</v>
+      </c>
+      <c r="B163">
+        <v>4096</v>
+      </c>
+      <c r="C163">
+        <v>8328</v>
+      </c>
+      <c r="D163">
+        <v>20396</v>
+      </c>
+      <c r="E163">
+        <v>20632</v>
+      </c>
+      <c r="F163">
+        <v>18312</v>
+      </c>
+      <c r="G163">
+        <v>16443</v>
+      </c>
+      <c r="H163">
+        <v>11111</v>
+      </c>
+      <c r="I163">
+        <v>6711</v>
+      </c>
+      <c r="J163">
+        <v>5578</v>
+      </c>
+      <c r="K163" s="1"/>
+      <c r="L163">
+        <f t="shared" si="236"/>
+        <v>35</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="237"/>
+        <v>139</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="238"/>
+        <v>194</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="239"/>
+        <v>101</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="240"/>
+        <v>87</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" si="241"/>
+        <v>104</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="242"/>
+        <v>59</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="243"/>
+        <v>36</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="244"/>
+        <v>21</v>
+      </c>
+      <c r="V163" s="1">
+        <f t="shared" si="245"/>
+        <v>27.857142857142858</v>
+      </c>
+      <c r="W163" s="1">
+        <f t="shared" si="246"/>
+        <v>103.14285714285714</v>
+      </c>
+      <c r="X163" s="1">
+        <f t="shared" si="247"/>
+        <v>153.42857142857142</v>
+      </c>
+      <c r="Y163" s="1">
+        <f t="shared" si="248"/>
+        <v>88</v>
+      </c>
+      <c r="Z163" s="1">
+        <f t="shared" si="249"/>
+        <v>80</v>
+      </c>
+      <c r="AA163" s="1">
+        <f t="shared" si="250"/>
+        <v>79.571428571428569</v>
+      </c>
+      <c r="AB163" s="1">
+        <f t="shared" si="251"/>
+        <v>48.428571428571431</v>
+      </c>
+      <c r="AC163" s="1">
+        <f t="shared" si="252"/>
+        <v>24.142857142857142</v>
+      </c>
+      <c r="AD163" s="1">
+        <f t="shared" si="253"/>
+        <v>11.571428571428571</v>
+      </c>
     </row>
-    <row r="162" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H162" s="1">
-        <v>32.285714285714285</v>
-      </c>
-      <c r="I162" s="1">
-        <v>63.571428571428569</v>
-      </c>
-      <c r="J162" s="1">
-        <v>119.28571428571429</v>
-      </c>
-      <c r="K162" s="1">
-        <v>101.42857142857143</v>
-      </c>
-      <c r="L162" s="1">
-        <v>88.857142857142861</v>
-      </c>
-      <c r="M162" s="1">
-        <v>80.142857142857139</v>
-      </c>
-      <c r="N162" s="1">
-        <v>54</v>
-      </c>
-      <c r="O162" s="1">
-        <v>27.428571428571427</v>
-      </c>
-      <c r="P162" s="1">
-        <v>14.285714285714286</v>
-      </c>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1">
-        <v>62.142857142857146</v>
-      </c>
-      <c r="T162" s="1">
-        <v>65.285714285714292</v>
-      </c>
-      <c r="U162" s="1">
-        <v>59.571428571428569</v>
-      </c>
-      <c r="V162" s="1">
-        <v>56.142857142857146</v>
-      </c>
-      <c r="W162" s="1">
-        <v>57</v>
-      </c>
-      <c r="X162" s="1">
-        <v>56.142857142857146</v>
-      </c>
-      <c r="Y162" s="1">
-        <v>54</v>
-      </c>
-      <c r="Z162" s="1">
-        <v>52.857142857142854</v>
-      </c>
-      <c r="AA162" s="1"/>
-      <c r="AB162" s="1"/>
-    </row>
-    <row r="163" spans="8:30" x14ac:dyDescent="0.25">
-      <c r="H163" s="1">
-        <v>34.857142857142854</v>
-      </c>
-      <c r="I163" s="1">
-        <v>62</v>
-      </c>
-      <c r="J163" s="1">
-        <v>119.14285714285714</v>
-      </c>
-      <c r="K163" s="1">
-        <v>100.28571428571429</v>
-      </c>
-      <c r="L163" s="1">
-        <v>88.571428571428569</v>
-      </c>
-      <c r="M163" s="1">
-        <v>79</v>
-      </c>
-      <c r="N163" s="1">
-        <v>52.857142857142854</v>
-      </c>
-      <c r="O163" s="1">
-        <v>25.428571428571427</v>
-      </c>
-      <c r="P163" s="1">
-        <v>12.714285714285714</v>
-      </c>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1">
-        <v>32</v>
-      </c>
-      <c r="T163" s="1">
-        <v>32</v>
-      </c>
-      <c r="U163" s="1">
-        <v>28.571428571428573</v>
-      </c>
-      <c r="V163" s="1">
-        <v>28.285714285714285</v>
-      </c>
-      <c r="W163" s="1">
-        <v>29</v>
-      </c>
-      <c r="X163" s="1">
-        <v>29.142857142857142</v>
-      </c>
-      <c r="Y163" s="1">
-        <v>27.428571428571427</v>
-      </c>
-      <c r="Z163" s="1">
-        <v>25.428571428571427</v>
-      </c>
-      <c r="AA163" s="1"/>
-      <c r="AB163" s="1"/>
-    </row>
-    <row r="164" spans="8:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -16494,30 +17498,601 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
-      <c r="S164" s="1">
-        <v>16.142857142857142</v>
-      </c>
-      <c r="T164" s="1">
-        <v>14.714285714285714</v>
-      </c>
-      <c r="U164" s="1">
-        <v>16.285714285714285</v>
-      </c>
-      <c r="V164" s="1">
-        <v>16.142857142857142</v>
-      </c>
-      <c r="W164" s="1">
-        <v>16.285714285714285</v>
-      </c>
-      <c r="X164" s="1">
-        <v>15.857142857142858</v>
-      </c>
-      <c r="Y164" s="1">
-        <v>14.285714285714286</v>
-      </c>
-      <c r="Z164" s="1">
-        <v>12.714285714285714</v>
-      </c>
+      <c r="P164" s="1"/>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+      <c r="X172" s="1"/>
+      <c r="Y172" s="1"/>
+      <c r="Z172" s="1"/>
+      <c r="AA172" s="1"/>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA173" s="3"/>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="3">
+        <v>44072</v>
+      </c>
+      <c r="T174" s="3">
+        <v>44073</v>
+      </c>
+      <c r="U174" s="3">
+        <v>44074</v>
+      </c>
+      <c r="V174" s="3">
+        <v>44075</v>
+      </c>
+      <c r="W174" s="3">
+        <v>44076</v>
+      </c>
+      <c r="X174" s="3">
+        <v>44077</v>
+      </c>
+      <c r="Y174" s="3">
+        <v>44078</v>
+      </c>
+      <c r="Z174" s="3">
+        <v>44079</v>
+      </c>
+      <c r="AA174" s="3"/>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <v>26.428571428571427</v>
+      </c>
+      <c r="I175" s="1">
+        <v>69.571428571428569</v>
+      </c>
+      <c r="J175" s="1">
+        <v>123.28571428571429</v>
+      </c>
+      <c r="K175" s="1">
+        <v>93.571428571428569</v>
+      </c>
+      <c r="L175" s="1">
+        <v>75.714285714285708</v>
+      </c>
+      <c r="M175" s="1">
+        <v>78.285714285714292</v>
+      </c>
+      <c r="N175" s="1">
+        <v>40.857142857142854</v>
+      </c>
+      <c r="O175" s="1">
+        <v>20.714285714285715</v>
+      </c>
+      <c r="P175" s="1">
+        <v>10.285714285714286</v>
+      </c>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1">
+        <v>26.428571428571427</v>
+      </c>
+      <c r="T175" s="1">
+        <v>24.571428571428573</v>
+      </c>
+      <c r="U175" s="1">
+        <v>23.428571428571427</v>
+      </c>
+      <c r="V175" s="1">
+        <v>25.714285714285715</v>
+      </c>
+      <c r="W175" s="1">
+        <v>27.571428571428573</v>
+      </c>
+      <c r="X175" s="1">
+        <v>25.571428571428573</v>
+      </c>
+      <c r="Y175" s="1">
+        <v>26.142857142857142</v>
+      </c>
+      <c r="Z175" s="1">
+        <v>27.857142857142858</v>
+      </c>
+      <c r="AA175" s="1"/>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <v>24.571428571428573</v>
+      </c>
+      <c r="I176" s="1">
+        <v>66.714285714285708</v>
+      </c>
+      <c r="J176" s="1">
+        <v>120.85714285714286</v>
+      </c>
+      <c r="K176" s="1">
+        <v>88.714285714285708</v>
+      </c>
+      <c r="L176" s="1">
+        <v>74</v>
+      </c>
+      <c r="M176" s="1">
+        <v>77.714285714285708</v>
+      </c>
+      <c r="N176" s="1">
+        <v>40.285714285714285</v>
+      </c>
+      <c r="O176" s="1">
+        <v>23.285714285714285</v>
+      </c>
+      <c r="P176" s="1">
+        <v>10.857142857142858</v>
+      </c>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1">
+        <v>69.571428571428569</v>
+      </c>
+      <c r="T176" s="1">
+        <v>66.714285714285708</v>
+      </c>
+      <c r="U176" s="1">
+        <v>66.714285714285708</v>
+      </c>
+      <c r="V176" s="1">
+        <v>74.142857142857139</v>
+      </c>
+      <c r="W176" s="1">
+        <v>77.571428571428569</v>
+      </c>
+      <c r="X176" s="1">
+        <v>83.428571428571431</v>
+      </c>
+      <c r="Y176" s="1">
+        <v>93.571428571428569</v>
+      </c>
+      <c r="Z176" s="1">
+        <v>103.14285714285714</v>
+      </c>
+      <c r="AA176" s="1"/>
+    </row>
+    <row r="177" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <v>23.428571428571427</v>
+      </c>
+      <c r="I177" s="1">
+        <v>66.714285714285708</v>
+      </c>
+      <c r="J177" s="1">
+        <v>117.14285714285714</v>
+      </c>
+      <c r="K177" s="1">
+        <v>85</v>
+      </c>
+      <c r="L177" s="1">
+        <v>73.857142857142861</v>
+      </c>
+      <c r="M177" s="1">
+        <v>74</v>
+      </c>
+      <c r="N177" s="1">
+        <v>40.428571428571431</v>
+      </c>
+      <c r="O177" s="1">
+        <v>20.857142857142858</v>
+      </c>
+      <c r="P177" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1">
+        <v>123.28571428571429</v>
+      </c>
+      <c r="T177" s="1">
+        <v>120.85714285714286</v>
+      </c>
+      <c r="U177" s="1">
+        <v>117.14285714285714</v>
+      </c>
+      <c r="V177" s="1">
+        <v>129.57142857142858</v>
+      </c>
+      <c r="W177" s="1">
+        <v>131.85714285714286</v>
+      </c>
+      <c r="X177" s="1">
+        <v>137.85714285714286</v>
+      </c>
+      <c r="Y177" s="1">
+        <v>148.28571428571428</v>
+      </c>
+      <c r="Z177" s="1">
+        <v>153.42857142857142</v>
+      </c>
+      <c r="AA177" s="1"/>
+    </row>
+    <row r="178" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <v>25.714285714285715</v>
+      </c>
+      <c r="I178" s="1">
+        <v>74.142857142857139</v>
+      </c>
+      <c r="J178" s="1">
+        <v>129.57142857142858</v>
+      </c>
+      <c r="K178" s="1">
+        <v>89</v>
+      </c>
+      <c r="L178" s="1">
+        <v>76</v>
+      </c>
+      <c r="M178" s="1">
+        <v>75.142857142857139</v>
+      </c>
+      <c r="N178" s="1">
+        <v>43.857142857142854</v>
+      </c>
+      <c r="O178" s="1">
+        <v>21.714285714285715</v>
+      </c>
+      <c r="P178" s="1">
+        <v>10.142857142857142</v>
+      </c>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1">
+        <v>93.571428571428569</v>
+      </c>
+      <c r="T178" s="1">
+        <v>88.714285714285708</v>
+      </c>
+      <c r="U178" s="1">
+        <v>85</v>
+      </c>
+      <c r="V178" s="1">
+        <v>89</v>
+      </c>
+      <c r="W178" s="1">
+        <v>87.428571428571431</v>
+      </c>
+      <c r="X178" s="1">
+        <v>86.285714285714292</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>89</v>
+      </c>
+      <c r="Z178" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA178" s="1"/>
+    </row>
+    <row r="179" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <v>27.571428571428573</v>
+      </c>
+      <c r="I179" s="1">
+        <v>77.571428571428569</v>
+      </c>
+      <c r="J179" s="1">
+        <v>131.85714285714286</v>
+      </c>
+      <c r="K179" s="1">
+        <v>87.428571428571431</v>
+      </c>
+      <c r="L179" s="1">
+        <v>72.285714285714292</v>
+      </c>
+      <c r="M179" s="1">
+        <v>75.714285714285708</v>
+      </c>
+      <c r="N179" s="1">
+        <v>43.428571428571431</v>
+      </c>
+      <c r="O179" s="1">
+        <v>21.142857142857142</v>
+      </c>
+      <c r="P179" s="1">
+        <v>10.571428571428571</v>
+      </c>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1">
+        <v>75.714285714285708</v>
+      </c>
+      <c r="T179" s="1">
+        <v>74</v>
+      </c>
+      <c r="U179" s="1">
+        <v>73.857142857142861</v>
+      </c>
+      <c r="V179" s="1">
+        <v>76</v>
+      </c>
+      <c r="W179" s="1">
+        <v>72.285714285714292</v>
+      </c>
+      <c r="X179" s="1">
+        <v>73.714285714285708</v>
+      </c>
+      <c r="Y179" s="1">
+        <v>77.857142857142861</v>
+      </c>
+      <c r="Z179" s="1">
+        <v>80</v>
+      </c>
+      <c r="AA179" s="1"/>
+    </row>
+    <row r="180" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <v>25.571428571428573</v>
+      </c>
+      <c r="I180" s="1">
+        <v>83.428571428571431</v>
+      </c>
+      <c r="J180" s="1">
+        <v>137.85714285714286</v>
+      </c>
+      <c r="K180" s="1">
+        <v>86.285714285714292</v>
+      </c>
+      <c r="L180" s="1">
+        <v>73.714285714285708</v>
+      </c>
+      <c r="M180" s="1">
+        <v>78.285714285714292</v>
+      </c>
+      <c r="N180" s="1">
+        <v>46.714285714285715</v>
+      </c>
+      <c r="O180" s="1">
+        <v>22.285714285714285</v>
+      </c>
+      <c r="P180" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1">
+        <v>78.285714285714292</v>
+      </c>
+      <c r="T180" s="1">
+        <v>77.714285714285708</v>
+      </c>
+      <c r="U180" s="1">
+        <v>74</v>
+      </c>
+      <c r="V180" s="1">
+        <v>75.142857142857139</v>
+      </c>
+      <c r="W180" s="1">
+        <v>75.714285714285708</v>
+      </c>
+      <c r="X180" s="1">
+        <v>78.285714285714292</v>
+      </c>
+      <c r="Y180" s="1">
+        <v>79.714285714285708</v>
+      </c>
+      <c r="Z180" s="1">
+        <v>79.571428571428569</v>
+      </c>
+      <c r="AA180" s="1"/>
+    </row>
+    <row r="181" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <v>26.142857142857142</v>
+      </c>
+      <c r="I181" s="1">
+        <v>93.571428571428569</v>
+      </c>
+      <c r="J181" s="1">
+        <v>148.28571428571428</v>
+      </c>
+      <c r="K181" s="1">
+        <v>89</v>
+      </c>
+      <c r="L181" s="1">
+        <v>77.857142857142861</v>
+      </c>
+      <c r="M181" s="1">
+        <v>79.714285714285708</v>
+      </c>
+      <c r="N181" s="1">
+        <v>47.571428571428569</v>
+      </c>
+      <c r="O181" s="1">
+        <v>22.714285714285715</v>
+      </c>
+      <c r="P181" s="1">
+        <v>10.428571428571429</v>
+      </c>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1">
+        <v>40.857142857142854</v>
+      </c>
+      <c r="T181" s="1">
+        <v>40.285714285714285</v>
+      </c>
+      <c r="U181" s="1">
+        <v>40.428571428571431</v>
+      </c>
+      <c r="V181" s="1">
+        <v>43.857142857142854</v>
+      </c>
+      <c r="W181" s="1">
+        <v>43.428571428571431</v>
+      </c>
+      <c r="X181" s="1">
+        <v>46.714285714285715</v>
+      </c>
+      <c r="Y181" s="1">
+        <v>47.571428571428569</v>
+      </c>
+      <c r="Z181" s="1">
+        <v>48.428571428571431</v>
+      </c>
+      <c r="AA181" s="1"/>
+    </row>
+    <row r="182" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H182" s="1">
+        <v>27.857142857142858</v>
+      </c>
+      <c r="I182" s="1">
+        <v>103.14285714285714</v>
+      </c>
+      <c r="J182" s="1">
+        <v>153.42857142857142</v>
+      </c>
+      <c r="K182" s="1">
+        <v>88</v>
+      </c>
+      <c r="L182" s="1">
+        <v>80</v>
+      </c>
+      <c r="M182" s="1">
+        <v>79.571428571428569</v>
+      </c>
+      <c r="N182" s="1">
+        <v>48.428571428571431</v>
+      </c>
+      <c r="O182" s="1">
+        <v>24.142857142857142</v>
+      </c>
+      <c r="P182" s="1">
+        <v>11.571428571428571</v>
+      </c>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1">
+        <v>20.714285714285715</v>
+      </c>
+      <c r="T182" s="1">
+        <v>23.285714285714285</v>
+      </c>
+      <c r="U182" s="1">
+        <v>20.857142857142858</v>
+      </c>
+      <c r="V182" s="1">
+        <v>21.714285714285715</v>
+      </c>
+      <c r="W182" s="1">
+        <v>21.142857142857142</v>
+      </c>
+      <c r="X182" s="1">
+        <v>22.285714285714285</v>
+      </c>
+      <c r="Y182" s="1">
+        <v>22.714285714285715</v>
+      </c>
+      <c r="Z182" s="1">
+        <v>24.142857142857142</v>
+      </c>
+      <c r="AA182" s="1"/>
+    </row>
+    <row r="183" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="S183" s="1">
+        <v>10.285714285714286</v>
+      </c>
+      <c r="T183" s="1">
+        <v>10.857142857142858</v>
+      </c>
+      <c r="U183" s="1">
+        <v>10</v>
+      </c>
+      <c r="V183" s="1">
+        <v>10.142857142857142</v>
+      </c>
+      <c r="W183" s="1">
+        <v>10.571428571428571</v>
+      </c>
+      <c r="X183" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y183" s="1">
+        <v>10.428571428571429</v>
+      </c>
+      <c r="Z183" s="1">
+        <v>11.571428571428571</v>
+      </c>
+      <c r="AA183" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A5AFF81-635F-4089-94C8-1098EEF7304E}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{065922C2-A258-470C-9BE4-EE3111C5AD82}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,18 +916,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF183"/>
+  <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M166" sqref="M166"/>
+      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -17490,94 +17493,958 @@
       </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="A164" s="3">
+        <v>44080</v>
+      </c>
+      <c r="B164">
+        <v>4110</v>
+      </c>
+      <c r="C164">
+        <v>8412</v>
+      </c>
+      <c r="D164">
+        <v>20538</v>
+      </c>
+      <c r="E164">
+        <v>20704</v>
+      </c>
+      <c r="F164">
+        <v>18370</v>
+      </c>
+      <c r="G164">
+        <v>16505</v>
+      </c>
+      <c r="H164">
+        <v>11155</v>
+      </c>
+      <c r="I164">
+        <v>6737</v>
+      </c>
+      <c r="J164">
+        <v>5588</v>
+      </c>
       <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
+      <c r="L164">
+        <f t="shared" ref="L164:L171" si="254">SUM(B164-B163)</f>
+        <v>14</v>
+      </c>
+      <c r="M164">
+        <f t="shared" ref="M164:M171" si="255">SUM(C164-C163)</f>
+        <v>84</v>
+      </c>
+      <c r="N164">
+        <f t="shared" ref="N164:N171" si="256">SUM(D164-D163)</f>
+        <v>142</v>
+      </c>
+      <c r="O164">
+        <f t="shared" ref="O164:O171" si="257">SUM(E164-E163)</f>
+        <v>72</v>
+      </c>
+      <c r="P164">
+        <f t="shared" ref="P164:P171" si="258">SUM(F164-F163)</f>
+        <v>58</v>
+      </c>
+      <c r="Q164">
+        <f t="shared" ref="Q164:Q171" si="259">SUM(G164-G163)</f>
+        <v>62</v>
+      </c>
+      <c r="R164">
+        <f t="shared" ref="R164:R171" si="260">SUM(H164-H163)</f>
+        <v>44</v>
+      </c>
+      <c r="S164">
+        <f t="shared" ref="S164:S171" si="261">SUM(I164-I163)</f>
+        <v>26</v>
+      </c>
+      <c r="T164">
+        <f t="shared" ref="T164:T171" si="262">SUM(J164-J163)</f>
+        <v>10</v>
+      </c>
+      <c r="V164" s="1">
+        <f t="shared" ref="V164:V171" si="263">AVERAGE(L158:L164)</f>
+        <v>26.571428571428573</v>
+      </c>
+      <c r="W164" s="1">
+        <f t="shared" ref="W164:W171" si="264">AVERAGE(M158:M164)</f>
+        <v>105.28571428571429</v>
+      </c>
+      <c r="X164" s="1">
+        <f t="shared" ref="X164:X171" si="265">AVERAGE(N158:N164)</f>
+        <v>155.85714285714286</v>
+      </c>
+      <c r="Y164" s="1">
+        <f t="shared" ref="Y164:Y171" si="266">AVERAGE(O158:O164)</f>
+        <v>88</v>
+      </c>
+      <c r="Z164" s="1">
+        <f t="shared" ref="Z164:Z171" si="267">AVERAGE(P158:P164)</f>
+        <v>79</v>
+      </c>
+      <c r="AA164" s="1">
+        <f t="shared" ref="AA164:AA171" si="268">AVERAGE(Q158:Q164)</f>
+        <v>79.285714285714292</v>
+      </c>
+      <c r="AB164" s="1">
+        <f t="shared" ref="AB164:AB171" si="269">AVERAGE(R158:R164)</f>
+        <v>49.428571428571431</v>
+      </c>
+      <c r="AC164" s="1">
+        <f t="shared" ref="AC164:AC171" si="270">AVERAGE(S158:S164)</f>
+        <v>23.428571428571427</v>
+      </c>
+      <c r="AD164" s="1">
+        <f t="shared" ref="AD164:AD171" si="271">AVERAGE(T158:T164)</f>
+        <v>11.428571428571429</v>
+      </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="A165" s="3">
+        <v>44081</v>
+      </c>
+      <c r="B165">
+        <v>4146</v>
+      </c>
+      <c r="C165">
+        <v>8565</v>
+      </c>
+      <c r="D165">
+        <v>20741</v>
+      </c>
+      <c r="E165">
+        <v>20801</v>
+      </c>
+      <c r="F165">
+        <v>18454</v>
+      </c>
+      <c r="G165">
+        <v>16586</v>
+      </c>
+      <c r="H165">
+        <v>11204</v>
+      </c>
+      <c r="I165">
+        <v>6780</v>
+      </c>
+      <c r="J165">
+        <v>5606</v>
+      </c>
       <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
+      <c r="L165">
+        <f t="shared" si="254"/>
+        <v>36</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="255"/>
+        <v>153</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="256"/>
+        <v>203</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="257"/>
+        <v>97</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="258"/>
+        <v>84</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" si="259"/>
+        <v>81</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="260"/>
+        <v>49</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="261"/>
+        <v>43</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="262"/>
+        <v>18</v>
+      </c>
+      <c r="V165" s="1">
+        <f t="shared" si="263"/>
+        <v>27.714285714285715</v>
+      </c>
+      <c r="W165" s="1">
+        <f t="shared" si="264"/>
+        <v>117.71428571428571</v>
+      </c>
+      <c r="X165" s="1">
+        <f t="shared" si="265"/>
+        <v>169.28571428571428</v>
+      </c>
+      <c r="Y165" s="1">
+        <f t="shared" si="266"/>
+        <v>91.857142857142861</v>
+      </c>
+      <c r="Z165" s="1">
+        <f t="shared" si="267"/>
+        <v>80</v>
+      </c>
+      <c r="AA165" s="1">
+        <f t="shared" si="268"/>
+        <v>83.285714285714292</v>
+      </c>
+      <c r="AB165" s="1">
+        <f t="shared" si="269"/>
+        <v>51.142857142857146</v>
+      </c>
+      <c r="AC165" s="1">
+        <f t="shared" si="270"/>
+        <v>27.857142857142858</v>
+      </c>
+      <c r="AD165" s="1">
+        <f t="shared" si="271"/>
+        <v>13.142857142857142</v>
+      </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
+      <c r="A166" s="3">
+        <v>44082</v>
+      </c>
+      <c r="B166">
+        <v>4156</v>
+      </c>
+      <c r="C166">
+        <v>8637</v>
+      </c>
+      <c r="D166">
+        <v>20820</v>
+      </c>
+      <c r="E166">
+        <v>20851</v>
+      </c>
+      <c r="F166">
+        <v>18502</v>
+      </c>
+      <c r="G166">
+        <v>16634</v>
+      </c>
+      <c r="H166">
+        <v>11235</v>
+      </c>
+      <c r="I166">
+        <v>6790</v>
+      </c>
+      <c r="J166">
+        <v>5614</v>
+      </c>
       <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
+      <c r="L166">
+        <f t="shared" si="254"/>
+        <v>10</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="255"/>
+        <v>72</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="256"/>
+        <v>79</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="257"/>
+        <v>50</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="258"/>
+        <v>48</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" si="259"/>
+        <v>48</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="260"/>
+        <v>31</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="261"/>
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="262"/>
+        <v>8</v>
+      </c>
+      <c r="V166" s="1">
+        <f t="shared" si="263"/>
+        <v>24.714285714285715</v>
+      </c>
+      <c r="W166" s="1">
+        <f t="shared" si="264"/>
+        <v>113.71428571428571</v>
+      </c>
+      <c r="X166" s="1">
+        <f t="shared" si="265"/>
+        <v>158.85714285714286</v>
+      </c>
+      <c r="Y166" s="1">
+        <f t="shared" si="266"/>
+        <v>84.714285714285708</v>
+      </c>
+      <c r="Z166" s="1">
+        <f t="shared" si="267"/>
+        <v>77</v>
+      </c>
+      <c r="AA166" s="1">
+        <f t="shared" si="268"/>
+        <v>78.428571428571431</v>
+      </c>
+      <c r="AB166" s="1">
+        <f t="shared" si="269"/>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="AC166" s="1">
+        <f t="shared" si="270"/>
+        <v>26.142857142857142</v>
+      </c>
+      <c r="AD166" s="1">
+        <f t="shared" si="271"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="A167" s="3">
+        <v>44083</v>
+      </c>
+      <c r="B167">
+        <v>4172</v>
+      </c>
+      <c r="C167">
+        <v>8699</v>
+      </c>
+      <c r="D167">
+        <v>20902</v>
+      </c>
+      <c r="E167">
+        <v>20906</v>
+      </c>
+      <c r="F167">
+        <v>18539</v>
+      </c>
+      <c r="G167">
+        <v>16675</v>
+      </c>
+      <c r="H167">
+        <v>11259</v>
+      </c>
+      <c r="I167">
+        <v>6805</v>
+      </c>
+      <c r="J167">
+        <v>5618</v>
+      </c>
       <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
+      <c r="L167">
+        <f t="shared" si="254"/>
+        <v>16</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="255"/>
+        <v>62</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="256"/>
+        <v>82</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="257"/>
+        <v>55</v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="258"/>
+        <v>37</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" si="259"/>
+        <v>41</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="260"/>
+        <v>24</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="261"/>
+        <v>15</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="262"/>
+        <v>4</v>
+      </c>
+      <c r="V167" s="1">
+        <f t="shared" si="263"/>
+        <v>21.714285714285715</v>
+      </c>
+      <c r="W167" s="1">
+        <f t="shared" si="264"/>
+        <v>113</v>
+      </c>
+      <c r="X167" s="1">
+        <f t="shared" si="265"/>
+        <v>153.85714285714286</v>
+      </c>
+      <c r="Y167" s="1">
+        <f t="shared" si="266"/>
+        <v>83.428571428571431</v>
+      </c>
+      <c r="Z167" s="1">
+        <f t="shared" si="267"/>
+        <v>75.428571428571431</v>
+      </c>
+      <c r="AA167" s="1">
+        <f t="shared" si="268"/>
+        <v>76.714285714285708</v>
+      </c>
+      <c r="AB167" s="1">
+        <f t="shared" si="269"/>
+        <v>47.428571428571431</v>
+      </c>
+      <c r="AC167" s="1">
+        <f t="shared" si="270"/>
+        <v>25</v>
+      </c>
+      <c r="AD167" s="1">
+        <f t="shared" si="271"/>
+        <v>11.428571428571429</v>
+      </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
+      <c r="A168" s="3">
+        <v>44084</v>
+      </c>
+      <c r="B168">
+        <v>4188</v>
+      </c>
+      <c r="C168">
+        <v>8770</v>
+      </c>
+      <c r="D168">
+        <v>21018</v>
+      </c>
+      <c r="E168">
+        <v>20968</v>
+      </c>
+      <c r="F168">
+        <v>18596</v>
+      </c>
+      <c r="G168">
+        <v>16759</v>
+      </c>
+      <c r="H168">
+        <v>11306</v>
+      </c>
+      <c r="I168">
+        <v>6830</v>
+      </c>
+      <c r="J168">
+        <v>5643</v>
+      </c>
       <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
+      <c r="L168">
+        <f t="shared" si="254"/>
+        <v>16</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="255"/>
+        <v>71</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="256"/>
+        <v>116</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="257"/>
+        <v>62</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="258"/>
+        <v>57</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" si="259"/>
+        <v>84</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="260"/>
+        <v>47</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="261"/>
+        <v>25</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="262"/>
+        <v>25</v>
+      </c>
+      <c r="V168" s="1">
+        <f t="shared" si="263"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="W168" s="1">
+        <f t="shared" si="264"/>
+        <v>105.85714285714286</v>
+      </c>
+      <c r="X168" s="1">
+        <f t="shared" si="265"/>
+        <v>145.71428571428572</v>
+      </c>
+      <c r="Y168" s="1">
+        <f t="shared" si="266"/>
+        <v>79.714285714285708</v>
+      </c>
+      <c r="Z168" s="1">
+        <f t="shared" si="267"/>
+        <v>70.571428571428569</v>
+      </c>
+      <c r="AA168" s="1">
+        <f t="shared" si="268"/>
+        <v>74.285714285714292</v>
+      </c>
+      <c r="AB168" s="1">
+        <f t="shared" si="269"/>
+        <v>44.428571428571431</v>
+      </c>
+      <c r="AC168" s="1">
+        <f t="shared" si="270"/>
+        <v>25.142857142857142</v>
+      </c>
+      <c r="AD168" s="1">
+        <f t="shared" si="271"/>
+        <v>13.714285714285714</v>
+      </c>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="A169" s="3">
+        <v>44085</v>
+      </c>
+      <c r="B169">
+        <v>4209</v>
+      </c>
+      <c r="C169">
+        <v>8888</v>
+      </c>
+      <c r="D169">
+        <v>21184</v>
+      </c>
+      <c r="E169">
+        <v>21057</v>
+      </c>
+      <c r="F169">
+        <v>18688</v>
+      </c>
+      <c r="G169">
+        <v>16832</v>
+      </c>
+      <c r="H169">
+        <v>11352</v>
+      </c>
+      <c r="I169">
+        <v>6854</v>
+      </c>
+      <c r="J169">
+        <v>5660</v>
+      </c>
       <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
+      <c r="L169">
+        <f t="shared" si="254"/>
+        <v>21</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="255"/>
+        <v>118</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="256"/>
+        <v>166</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="257"/>
+        <v>89</v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="258"/>
+        <v>92</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" si="259"/>
+        <v>73</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="260"/>
+        <v>46</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="261"/>
+        <v>24</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="262"/>
+        <v>17</v>
+      </c>
+      <c r="V169" s="1">
+        <f t="shared" si="263"/>
+        <v>21.142857142857142</v>
+      </c>
+      <c r="W169" s="1">
+        <f t="shared" si="264"/>
+        <v>99.857142857142861</v>
+      </c>
+      <c r="X169" s="1">
+        <f t="shared" si="265"/>
+        <v>140.28571428571428</v>
+      </c>
+      <c r="Y169" s="1">
+        <f t="shared" si="266"/>
+        <v>75.142857142857139</v>
+      </c>
+      <c r="Z169" s="1">
+        <f t="shared" si="267"/>
+        <v>66.142857142857139</v>
+      </c>
+      <c r="AA169" s="1">
+        <f t="shared" si="268"/>
+        <v>70.428571428571431</v>
+      </c>
+      <c r="AB169" s="1">
+        <f t="shared" si="269"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="AC169" s="1">
+        <f t="shared" si="270"/>
+        <v>25.571428571428573</v>
+      </c>
+      <c r="AD169" s="1">
+        <f t="shared" si="271"/>
+        <v>14.714285714285714</v>
+      </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
+      <c r="A170" s="3">
+        <v>44086</v>
+      </c>
+      <c r="B170">
+        <v>4234</v>
+      </c>
+      <c r="C170">
+        <v>9075</v>
+      </c>
+      <c r="D170">
+        <v>21414</v>
+      </c>
+      <c r="E170">
+        <v>21139</v>
+      </c>
+      <c r="F170">
+        <v>18792</v>
+      </c>
+      <c r="G170">
+        <v>16915</v>
+      </c>
+      <c r="H170">
+        <v>11414</v>
+      </c>
+      <c r="I170">
+        <v>6878</v>
+      </c>
+      <c r="J170">
+        <v>5672</v>
+      </c>
       <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
+      <c r="L170">
+        <f t="shared" si="254"/>
+        <v>25</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="255"/>
+        <v>187</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="256"/>
+        <v>230</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="257"/>
+        <v>82</v>
+      </c>
+      <c r="P170">
+        <f t="shared" si="258"/>
+        <v>104</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" si="259"/>
+        <v>83</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="260"/>
+        <v>62</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="261"/>
+        <v>24</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="262"/>
+        <v>12</v>
+      </c>
+      <c r="V170" s="1">
+        <f t="shared" si="263"/>
+        <v>19.714285714285715</v>
+      </c>
+      <c r="W170" s="1">
+        <f t="shared" si="264"/>
+        <v>106.71428571428571</v>
+      </c>
+      <c r="X170" s="1">
+        <f t="shared" si="265"/>
+        <v>145.42857142857142</v>
+      </c>
+      <c r="Y170" s="1">
+        <f t="shared" si="266"/>
+        <v>72.428571428571431</v>
+      </c>
+      <c r="Z170" s="1">
+        <f t="shared" si="267"/>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="AA170" s="1">
+        <f t="shared" si="268"/>
+        <v>67.428571428571431</v>
+      </c>
+      <c r="AB170" s="1">
+        <f t="shared" si="269"/>
+        <v>43.285714285714285</v>
+      </c>
+      <c r="AC170" s="1">
+        <f t="shared" si="270"/>
+        <v>23.857142857142858</v>
+      </c>
+      <c r="AD170" s="1">
+        <f t="shared" si="271"/>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>44087</v>
+      </c>
+      <c r="B171">
+        <v>4258</v>
+      </c>
+      <c r="C171">
+        <v>9183</v>
+      </c>
+      <c r="D171">
+        <v>21564</v>
+      </c>
+      <c r="E171">
+        <v>21211</v>
+      </c>
+      <c r="F171">
+        <v>18866</v>
+      </c>
+      <c r="G171">
+        <v>16990</v>
+      </c>
+      <c r="H171">
+        <v>11458</v>
+      </c>
+      <c r="I171">
+        <v>6895</v>
+      </c>
+      <c r="J171">
+        <v>5685</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="254"/>
+        <v>24</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="255"/>
+        <v>108</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="256"/>
+        <v>150</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="257"/>
+        <v>72</v>
+      </c>
+      <c r="P171">
+        <f t="shared" si="258"/>
+        <v>74</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" si="259"/>
+        <v>75</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="260"/>
+        <v>44</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="261"/>
+        <v>17</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="262"/>
+        <v>13</v>
+      </c>
+      <c r="V171" s="1">
+        <f t="shared" si="263"/>
+        <v>21.142857142857142</v>
+      </c>
+      <c r="W171" s="1">
+        <f t="shared" si="264"/>
+        <v>110.14285714285714</v>
+      </c>
+      <c r="X171" s="1">
+        <f t="shared" si="265"/>
+        <v>146.57142857142858</v>
+      </c>
+      <c r="Y171" s="1">
+        <f t="shared" si="266"/>
+        <v>72.428571428571431</v>
+      </c>
+      <c r="Z171" s="1">
+        <f t="shared" si="267"/>
+        <v>70.857142857142861</v>
+      </c>
+      <c r="AA171" s="1">
+        <f t="shared" si="268"/>
+        <v>69.285714285714292</v>
+      </c>
+      <c r="AB171" s="1">
+        <f t="shared" si="269"/>
+        <v>43.285714285714285</v>
+      </c>
+      <c r="AC171" s="1">
+        <f t="shared" si="270"/>
+        <v>22.571428571428573</v>
+      </c>
+      <c r="AD171" s="1">
+        <f t="shared" si="271"/>
+        <v>13.857142857142858</v>
+      </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
-      <c r="Y172" s="1"/>
-      <c r="Z172" s="1"/>
-      <c r="AA172" s="1"/>
+      <c r="A172" s="3">
+        <v>44088</v>
+      </c>
+      <c r="B172">
+        <v>4291</v>
+      </c>
+      <c r="C172">
+        <v>9288</v>
+      </c>
+      <c r="D172">
+        <v>21693</v>
+      </c>
+      <c r="E172">
+        <v>21279</v>
+      </c>
+      <c r="F172">
+        <v>18926</v>
+      </c>
+      <c r="G172">
+        <v>17067</v>
+      </c>
+      <c r="H172">
+        <v>11491</v>
+      </c>
+      <c r="I172">
+        <v>6916</v>
+      </c>
+      <c r="J172">
+        <v>5695</v>
+      </c>
+      <c r="L172">
+        <f t="shared" ref="L172" si="272">SUM(B172-B171)</f>
+        <v>33</v>
+      </c>
+      <c r="M172">
+        <f t="shared" ref="M172" si="273">SUM(C172-C171)</f>
+        <v>105</v>
+      </c>
+      <c r="N172">
+        <f t="shared" ref="N172" si="274">SUM(D172-D171)</f>
+        <v>129</v>
+      </c>
+      <c r="O172">
+        <f t="shared" ref="O172" si="275">SUM(E172-E171)</f>
+        <v>68</v>
+      </c>
+      <c r="P172">
+        <f t="shared" ref="P172" si="276">SUM(F172-F171)</f>
+        <v>60</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" ref="Q172" si="277">SUM(G172-G171)</f>
+        <v>77</v>
+      </c>
+      <c r="R172">
+        <f t="shared" ref="R172" si="278">SUM(H172-H171)</f>
+        <v>33</v>
+      </c>
+      <c r="S172">
+        <f t="shared" ref="S172" si="279">SUM(I172-I171)</f>
+        <v>21</v>
+      </c>
+      <c r="T172">
+        <f t="shared" ref="T172" si="280">SUM(J172-J171)</f>
+        <v>10</v>
+      </c>
+      <c r="V172" s="1">
+        <f t="shared" ref="V172" si="281">AVERAGE(L166:L172)</f>
+        <v>20.714285714285715</v>
+      </c>
+      <c r="W172" s="1">
+        <f t="shared" ref="W172" si="282">AVERAGE(M166:M172)</f>
+        <v>103.28571428571429</v>
+      </c>
+      <c r="X172" s="1">
+        <f t="shared" ref="X172" si="283">AVERAGE(N166:N172)</f>
+        <v>136</v>
+      </c>
+      <c r="Y172" s="1">
+        <f t="shared" ref="Y172" si="284">AVERAGE(O166:O172)</f>
+        <v>68.285714285714292</v>
+      </c>
+      <c r="Z172" s="1">
+        <f t="shared" ref="Z172" si="285">AVERAGE(P166:P172)</f>
+        <v>67.428571428571431</v>
+      </c>
+      <c r="AA172" s="1">
+        <f t="shared" ref="AA172" si="286">AVERAGE(Q166:Q172)</f>
+        <v>68.714285714285708</v>
+      </c>
+      <c r="AB172" s="1">
+        <f t="shared" ref="AB172" si="287">AVERAGE(R166:R172)</f>
+        <v>41</v>
+      </c>
+      <c r="AC172" s="1">
+        <f t="shared" ref="AC172" si="288">AVERAGE(S166:S172)</f>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="AD172" s="1">
+        <f t="shared" ref="AD172" si="289">AVERAGE(T166:T172)</f>
+        <v>12.714285714285714</v>
+      </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>44089</v>
+      </c>
       <c r="AA173" s="3"/>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>44090</v>
+      </c>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
@@ -17585,481 +18452,220 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
-      <c r="S174" s="3">
-        <v>44072</v>
-      </c>
-      <c r="T174" s="3">
-        <v>44073</v>
-      </c>
-      <c r="U174" s="3">
-        <v>44074</v>
-      </c>
-      <c r="V174" s="3">
-        <v>44075</v>
-      </c>
-      <c r="W174" s="3">
-        <v>44076</v>
-      </c>
-      <c r="X174" s="3">
-        <v>44077</v>
-      </c>
-      <c r="Y174" s="3">
-        <v>44078</v>
-      </c>
-      <c r="Z174" s="3">
-        <v>44079</v>
-      </c>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="3"/>
+      <c r="Z174" s="3"/>
       <c r="AA174" s="3"/>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H175" s="1">
-        <v>26.428571428571427</v>
-      </c>
-      <c r="I175" s="1">
-        <v>69.571428571428569</v>
-      </c>
-      <c r="J175" s="1">
-        <v>123.28571428571429</v>
-      </c>
-      <c r="K175" s="1">
-        <v>93.571428571428569</v>
-      </c>
-      <c r="L175" s="1">
-        <v>75.714285714285708</v>
-      </c>
-      <c r="M175" s="1">
-        <v>78.285714285714292</v>
-      </c>
-      <c r="N175" s="1">
-        <v>40.857142857142854</v>
-      </c>
-      <c r="O175" s="1">
-        <v>20.714285714285715</v>
-      </c>
-      <c r="P175" s="1">
-        <v>10.285714285714286</v>
-      </c>
+      <c r="A175" s="3">
+        <v>44091</v>
+      </c>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
-      <c r="S175" s="1">
-        <v>26.428571428571427</v>
-      </c>
-      <c r="T175" s="1">
-        <v>24.571428571428573</v>
-      </c>
-      <c r="U175" s="1">
-        <v>23.428571428571427</v>
-      </c>
-      <c r="V175" s="1">
-        <v>25.714285714285715</v>
-      </c>
-      <c r="W175" s="1">
-        <v>27.571428571428573</v>
-      </c>
-      <c r="X175" s="1">
-        <v>25.571428571428573</v>
-      </c>
-      <c r="Y175" s="1">
-        <v>26.142857142857142</v>
-      </c>
-      <c r="Z175" s="1">
-        <v>27.857142857142858</v>
-      </c>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
+      <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H176" s="1">
-        <v>24.571428571428573</v>
-      </c>
-      <c r="I176" s="1">
-        <v>66.714285714285708</v>
-      </c>
-      <c r="J176" s="1">
-        <v>120.85714285714286</v>
-      </c>
-      <c r="K176" s="1">
-        <v>88.714285714285708</v>
-      </c>
-      <c r="L176" s="1">
-        <v>74</v>
-      </c>
-      <c r="M176" s="1">
-        <v>77.714285714285708</v>
-      </c>
-      <c r="N176" s="1">
-        <v>40.285714285714285</v>
-      </c>
-      <c r="O176" s="1">
-        <v>23.285714285714285</v>
-      </c>
-      <c r="P176" s="1">
-        <v>10.857142857142858</v>
-      </c>
+      <c r="A176" s="3">
+        <v>44092</v>
+      </c>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
-      <c r="S176" s="1">
-        <v>69.571428571428569</v>
-      </c>
-      <c r="T176" s="1">
-        <v>66.714285714285708</v>
-      </c>
-      <c r="U176" s="1">
-        <v>66.714285714285708</v>
-      </c>
-      <c r="V176" s="1">
-        <v>74.142857142857139</v>
-      </c>
-      <c r="W176" s="1">
-        <v>77.571428571428569</v>
-      </c>
-      <c r="X176" s="1">
-        <v>83.428571428571431</v>
-      </c>
-      <c r="Y176" s="1">
-        <v>93.571428571428569</v>
-      </c>
-      <c r="Z176" s="1">
-        <v>103.14285714285714</v>
-      </c>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H177" s="1">
-        <v>23.428571428571427</v>
-      </c>
-      <c r="I177" s="1">
-        <v>66.714285714285708</v>
-      </c>
-      <c r="J177" s="1">
-        <v>117.14285714285714</v>
-      </c>
-      <c r="K177" s="1">
-        <v>85</v>
-      </c>
-      <c r="L177" s="1">
-        <v>73.857142857142861</v>
-      </c>
-      <c r="M177" s="1">
-        <v>74</v>
-      </c>
-      <c r="N177" s="1">
-        <v>40.428571428571431</v>
-      </c>
-      <c r="O177" s="1">
-        <v>20.857142857142858</v>
-      </c>
-      <c r="P177" s="1">
-        <v>10</v>
-      </c>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>44093</v>
+      </c>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
-      <c r="S177" s="1">
-        <v>123.28571428571429</v>
-      </c>
-      <c r="T177" s="1">
-        <v>120.85714285714286</v>
-      </c>
-      <c r="U177" s="1">
-        <v>117.14285714285714</v>
-      </c>
-      <c r="V177" s="1">
-        <v>129.57142857142858</v>
-      </c>
-      <c r="W177" s="1">
-        <v>131.85714285714286</v>
-      </c>
-      <c r="X177" s="1">
-        <v>137.85714285714286</v>
-      </c>
-      <c r="Y177" s="1">
-        <v>148.28571428571428</v>
-      </c>
-      <c r="Z177" s="1">
-        <v>153.42857142857142</v>
-      </c>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H178" s="1">
-        <v>25.714285714285715</v>
-      </c>
-      <c r="I178" s="1">
-        <v>74.142857142857139</v>
-      </c>
-      <c r="J178" s="1">
-        <v>129.57142857142858</v>
-      </c>
-      <c r="K178" s="1">
-        <v>89</v>
-      </c>
-      <c r="L178" s="1">
-        <v>76</v>
-      </c>
-      <c r="M178" s="1">
-        <v>75.142857142857139</v>
-      </c>
-      <c r="N178" s="1">
-        <v>43.857142857142854</v>
-      </c>
-      <c r="O178" s="1">
-        <v>21.714285714285715</v>
-      </c>
-      <c r="P178" s="1">
-        <v>10.142857142857142</v>
-      </c>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>44094</v>
+      </c>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
-      <c r="S178" s="1">
-        <v>93.571428571428569</v>
-      </c>
-      <c r="T178" s="1">
-        <v>88.714285714285708</v>
-      </c>
-      <c r="U178" s="1">
-        <v>85</v>
-      </c>
-      <c r="V178" s="1">
-        <v>89</v>
-      </c>
-      <c r="W178" s="1">
-        <v>87.428571428571431</v>
-      </c>
-      <c r="X178" s="1">
-        <v>86.285714285714292</v>
-      </c>
-      <c r="Y178" s="1">
-        <v>89</v>
-      </c>
-      <c r="Z178" s="1">
-        <v>88</v>
-      </c>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
+      <c r="Y178" s="1"/>
+      <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H179" s="1">
-        <v>27.571428571428573</v>
-      </c>
-      <c r="I179" s="1">
-        <v>77.571428571428569</v>
-      </c>
-      <c r="J179" s="1">
-        <v>131.85714285714286</v>
-      </c>
-      <c r="K179" s="1">
-        <v>87.428571428571431</v>
-      </c>
-      <c r="L179" s="1">
-        <v>72.285714285714292</v>
-      </c>
-      <c r="M179" s="1">
-        <v>75.714285714285708</v>
-      </c>
-      <c r="N179" s="1">
-        <v>43.428571428571431</v>
-      </c>
-      <c r="O179" s="1">
-        <v>21.142857142857142</v>
-      </c>
-      <c r="P179" s="1">
-        <v>10.571428571428571</v>
-      </c>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>44095</v>
+      </c>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
-      <c r="S179" s="1">
-        <v>75.714285714285708</v>
-      </c>
-      <c r="T179" s="1">
-        <v>74</v>
-      </c>
-      <c r="U179" s="1">
-        <v>73.857142857142861</v>
-      </c>
-      <c r="V179" s="1">
-        <v>76</v>
-      </c>
-      <c r="W179" s="1">
-        <v>72.285714285714292</v>
-      </c>
-      <c r="X179" s="1">
-        <v>73.714285714285708</v>
-      </c>
-      <c r="Y179" s="1">
-        <v>77.857142857142861</v>
-      </c>
-      <c r="Z179" s="1">
-        <v>80</v>
-      </c>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
+      <c r="Y179" s="1"/>
+      <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H180" s="1">
-        <v>25.571428571428573</v>
-      </c>
-      <c r="I180" s="1">
-        <v>83.428571428571431</v>
-      </c>
-      <c r="J180" s="1">
-        <v>137.85714285714286</v>
-      </c>
-      <c r="K180" s="1">
-        <v>86.285714285714292</v>
-      </c>
-      <c r="L180" s="1">
-        <v>73.714285714285708</v>
-      </c>
-      <c r="M180" s="1">
-        <v>78.285714285714292</v>
-      </c>
-      <c r="N180" s="1">
-        <v>46.714285714285715</v>
-      </c>
-      <c r="O180" s="1">
-        <v>22.285714285714285</v>
-      </c>
-      <c r="P180" s="1">
-        <v>10</v>
-      </c>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>44096</v>
+      </c>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
-      <c r="S180" s="1">
-        <v>78.285714285714292</v>
-      </c>
-      <c r="T180" s="1">
-        <v>77.714285714285708</v>
-      </c>
-      <c r="U180" s="1">
-        <v>74</v>
-      </c>
-      <c r="V180" s="1">
-        <v>75.142857142857139</v>
-      </c>
-      <c r="W180" s="1">
-        <v>75.714285714285708</v>
-      </c>
-      <c r="X180" s="1">
-        <v>78.285714285714292</v>
-      </c>
-      <c r="Y180" s="1">
-        <v>79.714285714285708</v>
-      </c>
-      <c r="Z180" s="1">
-        <v>79.571428571428569</v>
-      </c>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
+      <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H181" s="1">
-        <v>26.142857142857142</v>
-      </c>
-      <c r="I181" s="1">
-        <v>93.571428571428569</v>
-      </c>
-      <c r="J181" s="1">
-        <v>148.28571428571428</v>
-      </c>
-      <c r="K181" s="1">
-        <v>89</v>
-      </c>
-      <c r="L181" s="1">
-        <v>77.857142857142861</v>
-      </c>
-      <c r="M181" s="1">
-        <v>79.714285714285708</v>
-      </c>
-      <c r="N181" s="1">
-        <v>47.571428571428569</v>
-      </c>
-      <c r="O181" s="1">
-        <v>22.714285714285715</v>
-      </c>
-      <c r="P181" s="1">
-        <v>10.428571428571429</v>
-      </c>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>44097</v>
+      </c>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
-      <c r="S181" s="1">
-        <v>40.857142857142854</v>
-      </c>
-      <c r="T181" s="1">
-        <v>40.285714285714285</v>
-      </c>
-      <c r="U181" s="1">
-        <v>40.428571428571431</v>
-      </c>
-      <c r="V181" s="1">
-        <v>43.857142857142854</v>
-      </c>
-      <c r="W181" s="1">
-        <v>43.428571428571431</v>
-      </c>
-      <c r="X181" s="1">
-        <v>46.714285714285715</v>
-      </c>
-      <c r="Y181" s="1">
-        <v>47.571428571428569</v>
-      </c>
-      <c r="Z181" s="1">
-        <v>48.428571428571431</v>
-      </c>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+      <c r="Y181" s="1"/>
+      <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H182" s="1">
-        <v>27.857142857142858</v>
-      </c>
-      <c r="I182" s="1">
-        <v>103.14285714285714</v>
-      </c>
-      <c r="J182" s="1">
-        <v>153.42857142857142</v>
-      </c>
-      <c r="K182" s="1">
-        <v>88</v>
-      </c>
-      <c r="L182" s="1">
-        <v>80</v>
-      </c>
-      <c r="M182" s="1">
-        <v>79.571428571428569</v>
-      </c>
-      <c r="N182" s="1">
-        <v>48.428571428571431</v>
-      </c>
-      <c r="O182" s="1">
-        <v>24.142857142857142</v>
-      </c>
-      <c r="P182" s="1">
-        <v>11.571428571428571</v>
-      </c>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>44098</v>
+      </c>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
-      <c r="S182" s="1">
-        <v>20.714285714285715</v>
-      </c>
-      <c r="T182" s="1">
-        <v>23.285714285714285</v>
-      </c>
-      <c r="U182" s="1">
-        <v>20.857142857142858</v>
-      </c>
-      <c r="V182" s="1">
-        <v>21.714285714285715</v>
-      </c>
-      <c r="W182" s="1">
-        <v>21.142857142857142</v>
-      </c>
-      <c r="X182" s="1">
-        <v>22.285714285714285</v>
-      </c>
-      <c r="Y182" s="1">
-        <v>22.714285714285715</v>
-      </c>
-      <c r="Z182" s="1">
-        <v>24.142857142857142</v>
-      </c>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+      <c r="X182" s="1"/>
+      <c r="Y182" s="1"/>
+      <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>44099</v>
+      </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -18068,31 +18674,278 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
-      <c r="S183" s="1">
-        <v>10.285714285714286</v>
-      </c>
-      <c r="T183" s="1">
-        <v>10.857142857142858</v>
-      </c>
-      <c r="U183" s="1">
-        <v>10</v>
-      </c>
-      <c r="V183" s="1">
-        <v>10.142857142857142</v>
-      </c>
-      <c r="W183" s="1">
-        <v>10.571428571428571</v>
-      </c>
-      <c r="X183" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y183" s="1">
-        <v>10.428571428571429</v>
-      </c>
-      <c r="Z183" s="1">
-        <v>11.571428571428571</v>
-      </c>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
+      <c r="Y183" s="1"/>
+      <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>44101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G192" s="3"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
+      <c r="Y192" s="3"/>
+      <c r="Z192" s="3"/>
+      <c r="AA192" s="3"/>
+    </row>
+    <row r="193" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G193" s="3"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+      <c r="Y193" s="1"/>
+      <c r="Z193" s="1"/>
+      <c r="AA193" s="1"/>
+    </row>
+    <row r="194" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G194" s="3"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+    </row>
+    <row r="195" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G195" s="3"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+      <c r="Y195" s="1"/>
+      <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
+    </row>
+    <row r="196" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G196" s="3"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+    </row>
+    <row r="197" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G197" s="3"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+      <c r="Y197" s="1"/>
+      <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
+    </row>
+    <row r="198" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G198" s="3"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+      <c r="Y198" s="1"/>
+      <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
+    </row>
+    <row r="199" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G199" s="3"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
+      <c r="AA199" s="1"/>
+    </row>
+    <row r="200" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="G200" s="3"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
+      <c r="Y200" s="1"/>
+      <c r="Z200" s="1"/>
+      <c r="AA200" s="1"/>
+    </row>
+    <row r="201" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
+      <c r="Z201" s="1"/>
+      <c r="AA201" s="1"/>
+    </row>
+    <row r="218" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+    </row>
+    <row r="221" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N222" s="1"/>
+    </row>
+    <row r="223" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N223" s="1"/>
+    </row>
+    <row r="224" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N224" s="1"/>
+    </row>
+    <row r="225" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N225" s="1"/>
+    </row>
+    <row r="226" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N226" s="1"/>
+    </row>
+    <row r="227" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N227" s="1"/>
+    </row>
+    <row r="228" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N228" s="1"/>
+    </row>
+    <row r="229" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N229" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{065922C2-A258-470C-9BE4-EE3111C5AD82}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A2C0FCF-D660-4294-87D8-A4061FBBB854}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,10 +919,10 @@
   <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
+      <selection pane="bottomRight" activeCell="N209" sqref="N209:T218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18439,130 +18439,631 @@
       <c r="A173" s="3">
         <v>44089</v>
       </c>
-      <c r="AA173" s="3"/>
+      <c r="B173">
+        <v>4321</v>
+      </c>
+      <c r="C173">
+        <v>9388</v>
+      </c>
+      <c r="D173">
+        <v>21850</v>
+      </c>
+      <c r="E173">
+        <v>21362</v>
+      </c>
+      <c r="F173">
+        <v>18982</v>
+      </c>
+      <c r="G173">
+        <v>17148</v>
+      </c>
+      <c r="H173">
+        <v>11548</v>
+      </c>
+      <c r="I173">
+        <v>6940</v>
+      </c>
+      <c r="J173">
+        <v>5706</v>
+      </c>
+      <c r="L173">
+        <f t="shared" ref="L173:L178" si="290">SUM(B173-B172)</f>
+        <v>30</v>
+      </c>
+      <c r="M173">
+        <f t="shared" ref="M173:M178" si="291">SUM(C173-C172)</f>
+        <v>100</v>
+      </c>
+      <c r="N173">
+        <f t="shared" ref="N173:N178" si="292">SUM(D173-D172)</f>
+        <v>157</v>
+      </c>
+      <c r="O173">
+        <f t="shared" ref="O173:O178" si="293">SUM(E173-E172)</f>
+        <v>83</v>
+      </c>
+      <c r="P173">
+        <f t="shared" ref="P173:P178" si="294">SUM(F173-F172)</f>
+        <v>56</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" ref="Q173:Q178" si="295">SUM(G173-G172)</f>
+        <v>81</v>
+      </c>
+      <c r="R173">
+        <f t="shared" ref="R173:R178" si="296">SUM(H173-H172)</f>
+        <v>57</v>
+      </c>
+      <c r="S173">
+        <f t="shared" ref="S173:S178" si="297">SUM(I173-I172)</f>
+        <v>24</v>
+      </c>
+      <c r="T173">
+        <f t="shared" ref="T173:T178" si="298">SUM(J173-J172)</f>
+        <v>11</v>
+      </c>
+      <c r="V173" s="1">
+        <f t="shared" ref="V173:V178" si="299">AVERAGE(L167:L173)</f>
+        <v>23.571428571428573</v>
+      </c>
+      <c r="W173" s="1">
+        <f t="shared" ref="W173:W178" si="300">AVERAGE(M167:M173)</f>
+        <v>107.28571428571429</v>
+      </c>
+      <c r="X173" s="1">
+        <f t="shared" ref="X173:X178" si="301">AVERAGE(N167:N173)</f>
+        <v>147.14285714285714</v>
+      </c>
+      <c r="Y173" s="1">
+        <f t="shared" ref="Y173:Y178" si="302">AVERAGE(O167:O173)</f>
+        <v>73</v>
+      </c>
+      <c r="Z173" s="1">
+        <f t="shared" ref="Z173:Z178" si="303">AVERAGE(P167:P173)</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="AA173" s="1">
+        <f t="shared" ref="AA173:AA178" si="304">AVERAGE(Q167:Q173)</f>
+        <v>73.428571428571431</v>
+      </c>
+      <c r="AB173" s="1">
+        <f t="shared" ref="AB173:AB178" si="305">AVERAGE(R167:R173)</f>
+        <v>44.714285714285715</v>
+      </c>
+      <c r="AC173" s="1">
+        <f t="shared" ref="AC173:AC178" si="306">AVERAGE(S167:S173)</f>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="AD173" s="1">
+        <f t="shared" ref="AD173:AD178" si="307">AVERAGE(T167:T173)</f>
+        <v>13.142857142857142</v>
+      </c>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44090</v>
       </c>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="3"/>
-      <c r="T174" s="3"/>
-      <c r="U174" s="3"/>
-      <c r="V174" s="3"/>
-      <c r="W174" s="3"/>
-      <c r="X174" s="3"/>
-      <c r="Y174" s="3"/>
-      <c r="Z174" s="3"/>
-      <c r="AA174" s="3"/>
+      <c r="B174">
+        <v>4345</v>
+      </c>
+      <c r="C174">
+        <v>9518</v>
+      </c>
+      <c r="D174">
+        <v>21985</v>
+      </c>
+      <c r="E174">
+        <v>21457</v>
+      </c>
+      <c r="F174">
+        <v>19047</v>
+      </c>
+      <c r="G174">
+        <v>17222</v>
+      </c>
+      <c r="H174">
+        <v>11604</v>
+      </c>
+      <c r="I174">
+        <v>6981</v>
+      </c>
+      <c r="J174">
+        <v>5729</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="290"/>
+        <v>24</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="291"/>
+        <v>130</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="292"/>
+        <v>135</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="293"/>
+        <v>95</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="294"/>
+        <v>65</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="295"/>
+        <v>74</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="296"/>
+        <v>56</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="297"/>
+        <v>41</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="298"/>
+        <v>23</v>
+      </c>
+      <c r="V174" s="1">
+        <f t="shared" si="299"/>
+        <v>24.714285714285715</v>
+      </c>
+      <c r="W174" s="1">
+        <f t="shared" si="300"/>
+        <v>117</v>
+      </c>
+      <c r="X174" s="1">
+        <f t="shared" si="301"/>
+        <v>154.71428571428572</v>
+      </c>
+      <c r="Y174" s="1">
+        <f t="shared" si="302"/>
+        <v>78.714285714285708</v>
+      </c>
+      <c r="Z174" s="1">
+        <f t="shared" si="303"/>
+        <v>72.571428571428569</v>
+      </c>
+      <c r="AA174" s="1">
+        <f t="shared" si="304"/>
+        <v>78.142857142857139</v>
+      </c>
+      <c r="AB174" s="1">
+        <f t="shared" si="305"/>
+        <v>49.285714285714285</v>
+      </c>
+      <c r="AC174" s="1">
+        <f t="shared" si="306"/>
+        <v>25.142857142857142</v>
+      </c>
+      <c r="AD174" s="1">
+        <f t="shared" si="307"/>
+        <v>15.857142857142858</v>
+      </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44091</v>
       </c>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
+      <c r="B175">
+        <v>4366</v>
+      </c>
+      <c r="C175">
+        <v>9614</v>
+      </c>
+      <c r="D175">
+        <v>22145</v>
+      </c>
+      <c r="E175">
+        <v>21563</v>
+      </c>
+      <c r="F175">
+        <v>19115</v>
+      </c>
+      <c r="G175">
+        <v>17323</v>
+      </c>
+      <c r="H175">
+        <v>11645</v>
+      </c>
+      <c r="I175">
+        <v>7010</v>
+      </c>
+      <c r="J175">
+        <v>5738</v>
+      </c>
       <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
-      <c r="X175" s="1"/>
-      <c r="Y175" s="1"/>
-      <c r="Z175" s="1"/>
-      <c r="AA175" s="1"/>
+      <c r="L175">
+        <f t="shared" si="290"/>
+        <v>21</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="291"/>
+        <v>96</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="292"/>
+        <v>160</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="293"/>
+        <v>106</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="294"/>
+        <v>68</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" si="295"/>
+        <v>101</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="296"/>
+        <v>41</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="297"/>
+        <v>29</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="298"/>
+        <v>9</v>
+      </c>
+      <c r="V175" s="1">
+        <f t="shared" si="299"/>
+        <v>25.428571428571427</v>
+      </c>
+      <c r="W175" s="1">
+        <f t="shared" si="300"/>
+        <v>120.57142857142857</v>
+      </c>
+      <c r="X175" s="1">
+        <f t="shared" si="301"/>
+        <v>161</v>
+      </c>
+      <c r="Y175" s="1">
+        <f t="shared" si="302"/>
+        <v>85</v>
+      </c>
+      <c r="Z175" s="1">
+        <f t="shared" si="303"/>
+        <v>74.142857142857139</v>
+      </c>
+      <c r="AA175" s="1">
+        <f t="shared" si="304"/>
+        <v>80.571428571428569</v>
+      </c>
+      <c r="AB175" s="1">
+        <f t="shared" si="305"/>
+        <v>48.428571428571431</v>
+      </c>
+      <c r="AC175" s="1">
+        <f t="shared" si="306"/>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="AD175" s="1">
+        <f t="shared" si="307"/>
+        <v>13.571428571428571</v>
+      </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44092</v>
       </c>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
+      <c r="B176">
+        <v>4389</v>
+      </c>
+      <c r="C176">
+        <v>9707</v>
+      </c>
+      <c r="D176">
+        <v>22285</v>
+      </c>
+      <c r="E176">
+        <v>21649</v>
+      </c>
+      <c r="F176">
+        <v>19184</v>
+      </c>
+      <c r="G176">
+        <v>17402</v>
+      </c>
+      <c r="H176">
+        <v>11677</v>
+      </c>
+      <c r="I176">
+        <v>7026</v>
+      </c>
+      <c r="J176">
+        <v>5743</v>
+      </c>
       <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="V176" s="1"/>
-      <c r="W176" s="1"/>
-      <c r="X176" s="1"/>
-      <c r="Y176" s="1"/>
-      <c r="Z176" s="1"/>
-      <c r="AA176" s="1"/>
-    </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <f t="shared" si="290"/>
+        <v>23</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="291"/>
+        <v>93</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="292"/>
+        <v>140</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="293"/>
+        <v>86</v>
+      </c>
+      <c r="P176">
+        <f t="shared" si="294"/>
+        <v>69</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" si="295"/>
+        <v>79</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="296"/>
+        <v>32</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="297"/>
+        <v>16</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="298"/>
+        <v>5</v>
+      </c>
+      <c r="V176" s="1">
+        <f t="shared" si="299"/>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="W176" s="1">
+        <f t="shared" si="300"/>
+        <v>117</v>
+      </c>
+      <c r="X176" s="1">
+        <f t="shared" si="301"/>
+        <v>157.28571428571428</v>
+      </c>
+      <c r="Y176" s="1">
+        <f t="shared" si="302"/>
+        <v>84.571428571428569</v>
+      </c>
+      <c r="Z176" s="1">
+        <f t="shared" si="303"/>
+        <v>70.857142857142861</v>
+      </c>
+      <c r="AA176" s="1">
+        <f t="shared" si="304"/>
+        <v>81.428571428571431</v>
+      </c>
+      <c r="AB176" s="1">
+        <f t="shared" si="305"/>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="AC176" s="1">
+        <f t="shared" si="306"/>
+        <v>24.571428571428573</v>
+      </c>
+      <c r="AD176" s="1">
+        <f t="shared" si="307"/>
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44093</v>
       </c>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
+      <c r="B177">
+        <v>4415</v>
+      </c>
+      <c r="C177">
+        <v>9831</v>
+      </c>
+      <c r="D177">
+        <v>22458</v>
+      </c>
+      <c r="E177">
+        <v>21751</v>
+      </c>
+      <c r="F177">
+        <v>19269</v>
+      </c>
+      <c r="G177">
+        <v>17482</v>
+      </c>
+      <c r="H177">
+        <v>11737</v>
+      </c>
+      <c r="I177">
+        <v>7046</v>
+      </c>
+      <c r="J177">
+        <v>5755</v>
+      </c>
       <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-      <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
-      <c r="AA177" s="1"/>
-    </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <f t="shared" si="290"/>
+        <v>26</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="291"/>
+        <v>124</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="292"/>
+        <v>173</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="293"/>
+        <v>102</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="294"/>
+        <v>85</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" si="295"/>
+        <v>80</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="296"/>
+        <v>60</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="297"/>
+        <v>20</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="298"/>
+        <v>12</v>
+      </c>
+      <c r="V177" s="1">
+        <f t="shared" si="299"/>
+        <v>25.857142857142858</v>
+      </c>
+      <c r="W177" s="1">
+        <f t="shared" si="300"/>
+        <v>108</v>
+      </c>
+      <c r="X177" s="1">
+        <f t="shared" si="301"/>
+        <v>149.14285714285714</v>
+      </c>
+      <c r="Y177" s="1">
+        <f t="shared" si="302"/>
+        <v>87.428571428571431</v>
+      </c>
+      <c r="Z177" s="1">
+        <f t="shared" si="303"/>
+        <v>68.142857142857139</v>
+      </c>
+      <c r="AA177" s="1">
+        <f t="shared" si="304"/>
+        <v>81</v>
+      </c>
+      <c r="AB177" s="1">
+        <f t="shared" si="305"/>
+        <v>46.142857142857146</v>
+      </c>
+      <c r="AC177" s="1">
+        <f t="shared" si="306"/>
+        <v>24</v>
+      </c>
+      <c r="AD177" s="1">
+        <f t="shared" si="307"/>
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44094</v>
       </c>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="B178">
+        <v>4435</v>
+      </c>
+      <c r="C178">
+        <v>9911</v>
+      </c>
+      <c r="D178">
+        <v>22548</v>
+      </c>
+      <c r="E178">
+        <v>21812</v>
+      </c>
+      <c r="F178">
+        <v>19305</v>
+      </c>
+      <c r="G178">
+        <v>17540</v>
+      </c>
+      <c r="H178">
+        <v>11773</v>
+      </c>
+      <c r="I178">
+        <v>7063</v>
+      </c>
+      <c r="J178">
+        <v>5769</v>
+      </c>
       <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-      <c r="Y178" s="1"/>
-      <c r="Z178" s="1"/>
-      <c r="AA178" s="1"/>
-    </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <f t="shared" si="290"/>
+        <v>20</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="291"/>
+        <v>80</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="292"/>
+        <v>90</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="293"/>
+        <v>61</v>
+      </c>
+      <c r="P178">
+        <f t="shared" si="294"/>
+        <v>36</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" si="295"/>
+        <v>58</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="296"/>
+        <v>36</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="297"/>
+        <v>17</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="298"/>
+        <v>14</v>
+      </c>
+      <c r="V178" s="1">
+        <f t="shared" si="299"/>
+        <v>25.285714285714285</v>
+      </c>
+      <c r="W178" s="1">
+        <f t="shared" si="300"/>
+        <v>104</v>
+      </c>
+      <c r="X178" s="1">
+        <f t="shared" si="301"/>
+        <v>140.57142857142858</v>
+      </c>
+      <c r="Y178" s="1">
+        <f t="shared" si="302"/>
+        <v>85.857142857142861</v>
+      </c>
+      <c r="Z178" s="1">
+        <f t="shared" si="303"/>
+        <v>62.714285714285715</v>
+      </c>
+      <c r="AA178" s="1">
+        <f t="shared" si="304"/>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="AB178" s="1">
+        <f t="shared" si="305"/>
+        <v>45</v>
+      </c>
+      <c r="AC178" s="1">
+        <f t="shared" si="306"/>
+        <v>24</v>
+      </c>
+      <c r="AD178" s="1">
+        <f t="shared" si="307"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44095</v>
       </c>
@@ -18587,7 +19088,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44096</v>
       </c>
@@ -18612,7 +19113,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44097</v>
       </c>
@@ -18637,7 +19138,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44098</v>
       </c>
@@ -18662,7 +19163,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44099</v>
       </c>
@@ -18684,32 +19185,32 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>44101</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>44102</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>44103</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>44104</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -18843,13 +19344,33 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="S198" s="1"/>
-      <c r="T198" s="1"/>
-      <c r="U198" s="1"/>
-      <c r="V198" s="1"/>
+      <c r="N198" s="1">
+        <v>20.714285714285715</v>
+      </c>
+      <c r="O198" s="1">
+        <v>103.28571428571429</v>
+      </c>
+      <c r="P198" s="1">
+        <v>136</v>
+      </c>
+      <c r="Q198">
+        <v>68.285714285714292</v>
+      </c>
+      <c r="R198">
+        <v>67.428571428571431</v>
+      </c>
+      <c r="S198" s="1">
+        <v>68.714285714285708</v>
+      </c>
+      <c r="T198" s="1">
+        <v>41</v>
+      </c>
+      <c r="U198" s="1">
+        <v>19.428571428571427</v>
+      </c>
+      <c r="V198" s="1">
+        <v>12.714285714285714</v>
+      </c>
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
@@ -18864,13 +19385,33 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
+      <c r="N199" s="1">
+        <v>23.571428571428573</v>
+      </c>
+      <c r="O199" s="1">
+        <v>107.28571428571429</v>
+      </c>
+      <c r="P199" s="1">
+        <v>147.14285714285714</v>
+      </c>
+      <c r="Q199">
+        <v>73</v>
+      </c>
+      <c r="R199">
+        <v>68.571428571428569</v>
+      </c>
+      <c r="S199" s="1">
+        <v>73.428571428571431</v>
+      </c>
+      <c r="T199" s="1">
+        <v>44.714285714285715</v>
+      </c>
+      <c r="U199" s="1">
+        <v>21.428571428571427</v>
+      </c>
+      <c r="V199" s="1">
+        <v>13.142857142857142</v>
+      </c>
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
@@ -18885,13 +19426,33 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
+      <c r="N200" s="1">
+        <v>24.714285714285715</v>
+      </c>
+      <c r="O200" s="1">
+        <v>117</v>
+      </c>
+      <c r="P200" s="1">
+        <v>154.71428571428572</v>
+      </c>
+      <c r="Q200">
+        <v>78.714285714285708</v>
+      </c>
+      <c r="R200">
+        <v>72.571428571428569</v>
+      </c>
+      <c r="S200" s="1">
+        <v>78.142857142857139</v>
+      </c>
+      <c r="T200" s="1">
+        <v>49.285714285714285</v>
+      </c>
+      <c r="U200" s="1">
+        <v>25.142857142857142</v>
+      </c>
+      <c r="V200" s="1">
+        <v>15.857142857142858</v>
+      </c>
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
@@ -18899,24 +19460,355 @@
       <c r="AA200" s="1"/>
     </row>
     <row r="201" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
+      <c r="N201">
+        <v>25.428571428571427</v>
+      </c>
+      <c r="O201">
+        <v>120.57142857142857</v>
+      </c>
+      <c r="P201">
+        <v>161</v>
+      </c>
+      <c r="Q201">
+        <v>85</v>
+      </c>
+      <c r="R201">
+        <v>74.142857142857139</v>
+      </c>
+      <c r="S201" s="1">
+        <v>80.571428571428569</v>
+      </c>
+      <c r="T201" s="1">
+        <v>48.428571428571431</v>
+      </c>
+      <c r="U201" s="1">
+        <v>25.714285714285715</v>
+      </c>
+      <c r="V201" s="1">
+        <v>13.571428571428571</v>
+      </c>
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
+    <row r="202" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="N202">
+        <v>25.714285714285715</v>
+      </c>
+      <c r="O202">
+        <v>117</v>
+      </c>
+      <c r="P202">
+        <v>157.28571428571428</v>
+      </c>
+      <c r="Q202">
+        <v>84.571428571428569</v>
+      </c>
+      <c r="R202">
+        <v>70.857142857142861</v>
+      </c>
+      <c r="S202">
+        <v>81.428571428571431</v>
+      </c>
+      <c r="T202">
+        <v>46.428571428571431</v>
+      </c>
+      <c r="U202">
+        <v>24.571428571428573</v>
+      </c>
+      <c r="V202">
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="203" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="N203">
+        <v>25.857142857142858</v>
+      </c>
+      <c r="O203">
+        <v>108</v>
+      </c>
+      <c r="P203">
+        <v>149.14285714285714</v>
+      </c>
+      <c r="Q203">
+        <v>87.428571428571431</v>
+      </c>
+      <c r="R203">
+        <v>68.142857142857139</v>
+      </c>
+      <c r="S203">
+        <v>81</v>
+      </c>
+      <c r="T203">
+        <v>46.142857142857146</v>
+      </c>
+      <c r="U203">
+        <v>24</v>
+      </c>
+      <c r="V203">
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="204" spans="7:27" x14ac:dyDescent="0.25">
+      <c r="N204">
+        <v>25.285714285714285</v>
+      </c>
+      <c r="O204">
+        <v>104</v>
+      </c>
+      <c r="P204">
+        <v>140.57142857142858</v>
+      </c>
+      <c r="Q204">
+        <v>85.857142857142861</v>
+      </c>
+      <c r="R204">
+        <v>62.714285714285715</v>
+      </c>
+      <c r="S204">
+        <v>78.571428571428569</v>
+      </c>
+      <c r="T204">
+        <v>45</v>
+      </c>
+      <c r="U204">
+        <v>24</v>
+      </c>
+      <c r="V204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N209" s="3">
+        <v>44088</v>
+      </c>
+      <c r="O209" s="3">
+        <v>44089</v>
+      </c>
+      <c r="P209" s="3">
+        <v>44090</v>
+      </c>
+      <c r="Q209" s="3">
+        <v>44091</v>
+      </c>
+      <c r="R209" s="3">
+        <v>44092</v>
+      </c>
+      <c r="S209" s="3">
+        <v>44093</v>
+      </c>
+      <c r="T209" s="3">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="210" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N210" s="1">
+        <v>20.714285714285715</v>
+      </c>
+      <c r="O210" s="1">
+        <v>23.571428571428573</v>
+      </c>
+      <c r="P210" s="1">
+        <v>24.714285714285715</v>
+      </c>
+      <c r="Q210" s="1">
+        <v>25.428571428571427</v>
+      </c>
+      <c r="R210" s="1">
+        <v>25.714285714285715</v>
+      </c>
+      <c r="S210" s="1">
+        <v>25.857142857142858</v>
+      </c>
+      <c r="T210" s="1">
+        <v>25.285714285714285</v>
+      </c>
+    </row>
+    <row r="211" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N211" s="1">
+        <v>103.28571428571429</v>
+      </c>
+      <c r="O211" s="1">
+        <v>107.28571428571429</v>
+      </c>
+      <c r="P211" s="1">
+        <v>117</v>
+      </c>
+      <c r="Q211" s="1">
+        <v>120.57142857142857</v>
+      </c>
+      <c r="R211" s="1">
+        <v>117</v>
+      </c>
+      <c r="S211" s="1">
+        <v>108</v>
+      </c>
+      <c r="T211" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="212" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N212" s="1">
+        <v>136</v>
+      </c>
+      <c r="O212" s="1">
+        <v>147.14285714285714</v>
+      </c>
+      <c r="P212" s="1">
+        <v>154.71428571428572</v>
+      </c>
+      <c r="Q212" s="1">
+        <v>161</v>
+      </c>
+      <c r="R212" s="1">
+        <v>157.28571428571428</v>
+      </c>
+      <c r="S212" s="1">
+        <v>149.14285714285714</v>
+      </c>
+      <c r="T212" s="1">
+        <v>140.57142857142858</v>
+      </c>
+    </row>
+    <row r="213" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N213" s="1">
+        <v>68.285714285714292</v>
+      </c>
+      <c r="O213" s="1">
+        <v>73</v>
+      </c>
+      <c r="P213" s="1">
+        <v>78.714285714285708</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>85</v>
+      </c>
+      <c r="R213" s="1">
+        <v>84.571428571428569</v>
+      </c>
+      <c r="S213" s="1">
+        <v>87.428571428571431</v>
+      </c>
+      <c r="T213" s="1">
+        <v>85.857142857142861</v>
+      </c>
+    </row>
+    <row r="214" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N214" s="1">
+        <v>67.428571428571431</v>
+      </c>
+      <c r="O214" s="1">
+        <v>68.571428571428569</v>
+      </c>
+      <c r="P214" s="1">
+        <v>72.571428571428569</v>
+      </c>
+      <c r="Q214" s="1">
+        <v>74.142857142857139</v>
+      </c>
+      <c r="R214" s="1">
+        <v>70.857142857142861</v>
+      </c>
+      <c r="S214" s="1">
+        <v>68.142857142857139</v>
+      </c>
+      <c r="T214" s="1">
+        <v>62.714285714285715</v>
+      </c>
+    </row>
+    <row r="215" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N215" s="1">
+        <v>68.714285714285708</v>
+      </c>
+      <c r="O215" s="1">
+        <v>73.428571428571431</v>
+      </c>
+      <c r="P215" s="1">
+        <v>78.142857142857139</v>
+      </c>
+      <c r="Q215" s="1">
+        <v>80.571428571428569</v>
+      </c>
+      <c r="R215" s="1">
+        <v>81.428571428571431</v>
+      </c>
+      <c r="S215" s="1">
+        <v>81</v>
+      </c>
+      <c r="T215" s="1">
+        <v>78.571428571428569</v>
+      </c>
+    </row>
+    <row r="216" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N216" s="1">
+        <v>41</v>
+      </c>
+      <c r="O216" s="1">
+        <v>44.714285714285715</v>
+      </c>
+      <c r="P216" s="1">
+        <v>49.285714285714285</v>
+      </c>
+      <c r="Q216" s="1">
+        <v>48.428571428571431</v>
+      </c>
+      <c r="R216" s="1">
+        <v>46.428571428571431</v>
+      </c>
+      <c r="S216" s="1">
+        <v>46.142857142857146</v>
+      </c>
+      <c r="T216" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N217" s="1">
+        <v>19.428571428571427</v>
+      </c>
+      <c r="O217" s="1">
+        <v>21.428571428571427</v>
+      </c>
+      <c r="P217" s="1">
+        <v>25.142857142857142</v>
+      </c>
+      <c r="Q217" s="1">
+        <v>25.714285714285715</v>
+      </c>
+      <c r="R217" s="1">
+        <v>24.571428571428573</v>
+      </c>
+      <c r="S217" s="1">
+        <v>24</v>
+      </c>
+      <c r="T217" s="1">
+        <v>24</v>
+      </c>
+    </row>
     <row r="218" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
+      <c r="N218" s="1">
+        <v>12.714285714285714</v>
+      </c>
+      <c r="O218" s="1">
+        <v>13.142857142857142</v>
+      </c>
+      <c r="P218" s="1">
+        <v>15.857142857142858</v>
+      </c>
+      <c r="Q218" s="1">
+        <v>13.571428571428571</v>
+      </c>
+      <c r="R218" s="1">
+        <v>11.857142857142858</v>
+      </c>
+      <c r="S218" s="1">
+        <v>11.857142857142858</v>
+      </c>
+      <c r="T218" s="1">
+        <v>12</v>
+      </c>
       <c r="U218" s="1"/>
       <c r="V218" s="1"/>
     </row>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A2C0FCF-D660-4294-87D8-A4061FBBB854}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5959DDAB-5A4C-4F7C-94F6-55F73AF1D06A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,7 +919,7 @@
   <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="N209" sqref="N209:T218"/>
@@ -19067,127 +19067,629 @@
       <c r="A179" s="3">
         <v>44095</v>
       </c>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+      <c r="B179">
+        <v>4448</v>
+      </c>
+      <c r="C179">
+        <v>9981</v>
+      </c>
+      <c r="D179">
+        <v>22649</v>
+      </c>
+      <c r="E179">
+        <v>21870</v>
+      </c>
+      <c r="F179">
+        <v>19370</v>
+      </c>
+      <c r="G179">
+        <v>17588</v>
+      </c>
+      <c r="H179">
+        <v>11805</v>
+      </c>
+      <c r="I179">
+        <v>7077</v>
+      </c>
+      <c r="J179">
+        <v>5780</v>
+      </c>
       <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-      <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
-      <c r="AA179" s="1"/>
+      <c r="L179">
+        <f t="shared" ref="L179:L184" si="308">SUM(B179-B178)</f>
+        <v>13</v>
+      </c>
+      <c r="M179">
+        <f t="shared" ref="M179:M184" si="309">SUM(C179-C178)</f>
+        <v>70</v>
+      </c>
+      <c r="N179">
+        <f t="shared" ref="N179:N184" si="310">SUM(D179-D178)</f>
+        <v>101</v>
+      </c>
+      <c r="O179">
+        <f t="shared" ref="O179:O184" si="311">SUM(E179-E178)</f>
+        <v>58</v>
+      </c>
+      <c r="P179">
+        <f t="shared" ref="P179:P184" si="312">SUM(F179-F178)</f>
+        <v>65</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" ref="Q179:Q184" si="313">SUM(G179-G178)</f>
+        <v>48</v>
+      </c>
+      <c r="R179">
+        <f t="shared" ref="R179:R184" si="314">SUM(H179-H178)</f>
+        <v>32</v>
+      </c>
+      <c r="S179">
+        <f t="shared" ref="S179:S184" si="315">SUM(I179-I178)</f>
+        <v>14</v>
+      </c>
+      <c r="T179">
+        <f t="shared" ref="T179:T184" si="316">SUM(J179-J178)</f>
+        <v>11</v>
+      </c>
+      <c r="V179" s="1">
+        <f t="shared" ref="V179:V184" si="317">AVERAGE(L173:L179)</f>
+        <v>22.428571428571427</v>
+      </c>
+      <c r="W179" s="1">
+        <f t="shared" ref="W179:W184" si="318">AVERAGE(M173:M179)</f>
+        <v>99</v>
+      </c>
+      <c r="X179" s="1">
+        <f t="shared" ref="X179:X184" si="319">AVERAGE(N173:N179)</f>
+        <v>136.57142857142858</v>
+      </c>
+      <c r="Y179" s="1">
+        <f t="shared" ref="Y179:Y184" si="320">AVERAGE(O173:O179)</f>
+        <v>84.428571428571431</v>
+      </c>
+      <c r="Z179" s="1">
+        <f t="shared" ref="Z179:Z184" si="321">AVERAGE(P173:P179)</f>
+        <v>63.428571428571431</v>
+      </c>
+      <c r="AA179" s="1">
+        <f t="shared" ref="AA179:AA184" si="322">AVERAGE(Q173:Q179)</f>
+        <v>74.428571428571431</v>
+      </c>
+      <c r="AB179" s="1">
+        <f t="shared" ref="AB179:AB184" si="323">AVERAGE(R173:R179)</f>
+        <v>44.857142857142854</v>
+      </c>
+      <c r="AC179" s="1">
+        <f t="shared" ref="AC179:AC184" si="324">AVERAGE(S173:S179)</f>
+        <v>23</v>
+      </c>
+      <c r="AD179" s="1">
+        <f t="shared" ref="AD179:AD184" si="325">AVERAGE(T173:T179)</f>
+        <v>12.142857142857142</v>
+      </c>
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44096</v>
       </c>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="B180">
+        <v>4462</v>
+      </c>
+      <c r="C180">
+        <v>10015</v>
+      </c>
+      <c r="D180">
+        <v>22735</v>
+      </c>
+      <c r="E180">
+        <v>21933</v>
+      </c>
+      <c r="F180">
+        <v>19407</v>
+      </c>
+      <c r="G180">
+        <v>17645</v>
+      </c>
+      <c r="H180">
+        <v>11839</v>
+      </c>
+      <c r="I180">
+        <v>7091</v>
+      </c>
+      <c r="J180">
+        <v>5785</v>
+      </c>
       <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
-      <c r="AA180" s="1"/>
+      <c r="L180">
+        <f t="shared" si="308"/>
+        <v>14</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="309"/>
+        <v>34</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="310"/>
+        <v>86</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="311"/>
+        <v>63</v>
+      </c>
+      <c r="P180">
+        <f t="shared" si="312"/>
+        <v>37</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="313"/>
+        <v>57</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="314"/>
+        <v>34</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="315"/>
+        <v>14</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="316"/>
+        <v>5</v>
+      </c>
+      <c r="V180" s="1">
+        <f t="shared" si="317"/>
+        <v>20.142857142857142</v>
+      </c>
+      <c r="W180" s="1">
+        <f t="shared" si="318"/>
+        <v>89.571428571428569</v>
+      </c>
+      <c r="X180" s="1">
+        <f t="shared" si="319"/>
+        <v>126.42857142857143</v>
+      </c>
+      <c r="Y180" s="1">
+        <f t="shared" si="320"/>
+        <v>81.571428571428569</v>
+      </c>
+      <c r="Z180" s="1">
+        <f t="shared" si="321"/>
+        <v>60.714285714285715</v>
+      </c>
+      <c r="AA180" s="1">
+        <f t="shared" si="322"/>
+        <v>71</v>
+      </c>
+      <c r="AB180" s="1">
+        <f t="shared" si="323"/>
+        <v>41.571428571428569</v>
+      </c>
+      <c r="AC180" s="1">
+        <f t="shared" si="324"/>
+        <v>21.571428571428573</v>
+      </c>
+      <c r="AD180" s="1">
+        <f t="shared" si="325"/>
+        <v>11.285714285714286</v>
+      </c>
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44097</v>
       </c>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
+      <c r="B181">
+        <v>4487</v>
+      </c>
+      <c r="C181">
+        <v>10075</v>
+      </c>
+      <c r="D181">
+        <v>22823</v>
+      </c>
+      <c r="E181">
+        <v>21983</v>
+      </c>
+      <c r="F181">
+        <v>19460</v>
+      </c>
+      <c r="G181">
+        <v>17704</v>
+      </c>
+      <c r="H181">
+        <v>11871</v>
+      </c>
+      <c r="I181">
+        <v>7103</v>
+      </c>
+      <c r="J181">
+        <v>5791</v>
+      </c>
       <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
-      <c r="AA181" s="1"/>
+      <c r="L181">
+        <f t="shared" si="308"/>
+        <v>25</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="309"/>
+        <v>60</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="310"/>
+        <v>88</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="311"/>
+        <v>50</v>
+      </c>
+      <c r="P181">
+        <f t="shared" si="312"/>
+        <v>53</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" si="313"/>
+        <v>59</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="314"/>
+        <v>32</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="315"/>
+        <v>12</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="316"/>
+        <v>6</v>
+      </c>
+      <c r="V181" s="1">
+        <f t="shared" si="317"/>
+        <v>20.285714285714285</v>
+      </c>
+      <c r="W181" s="1">
+        <f t="shared" si="318"/>
+        <v>79.571428571428569</v>
+      </c>
+      <c r="X181" s="1">
+        <f t="shared" si="319"/>
+        <v>119.71428571428571</v>
+      </c>
+      <c r="Y181" s="1">
+        <f t="shared" si="320"/>
+        <v>75.142857142857139</v>
+      </c>
+      <c r="Z181" s="1">
+        <f t="shared" si="321"/>
+        <v>59</v>
+      </c>
+      <c r="AA181" s="1">
+        <f t="shared" si="322"/>
+        <v>68.857142857142861</v>
+      </c>
+      <c r="AB181" s="1">
+        <f t="shared" si="323"/>
+        <v>38.142857142857146</v>
+      </c>
+      <c r="AC181" s="1">
+        <f t="shared" si="324"/>
+        <v>17.428571428571427</v>
+      </c>
+      <c r="AD181" s="1">
+        <f t="shared" si="325"/>
+        <v>8.8571428571428577</v>
+      </c>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44098</v>
       </c>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+      <c r="B182">
+        <v>4505</v>
+      </c>
+      <c r="C182">
+        <v>10140</v>
+      </c>
+      <c r="D182">
+        <v>22938</v>
+      </c>
+      <c r="E182">
+        <v>22064</v>
+      </c>
+      <c r="F182">
+        <v>19530</v>
+      </c>
+      <c r="G182">
+        <v>17784</v>
+      </c>
+      <c r="H182">
+        <v>11917</v>
+      </c>
+      <c r="I182">
+        <v>7122</v>
+      </c>
+      <c r="J182">
+        <v>5800</v>
+      </c>
       <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
-      <c r="V182" s="1"/>
-      <c r="W182" s="1"/>
-      <c r="X182" s="1"/>
-      <c r="Y182" s="1"/>
-      <c r="Z182" s="1"/>
-      <c r="AA182" s="1"/>
+      <c r="L182">
+        <f t="shared" si="308"/>
+        <v>18</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="309"/>
+        <v>65</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="310"/>
+        <v>115</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="311"/>
+        <v>81</v>
+      </c>
+      <c r="P182">
+        <f t="shared" si="312"/>
+        <v>70</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" si="313"/>
+        <v>80</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="314"/>
+        <v>46</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="315"/>
+        <v>19</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="316"/>
+        <v>9</v>
+      </c>
+      <c r="V182" s="1">
+        <f t="shared" si="317"/>
+        <v>19.857142857142858</v>
+      </c>
+      <c r="W182" s="1">
+        <f t="shared" si="318"/>
+        <v>75.142857142857139</v>
+      </c>
+      <c r="X182" s="1">
+        <f t="shared" si="319"/>
+        <v>113.28571428571429</v>
+      </c>
+      <c r="Y182" s="1">
+        <f t="shared" si="320"/>
+        <v>71.571428571428569</v>
+      </c>
+      <c r="Z182" s="1">
+        <f t="shared" si="321"/>
+        <v>59.285714285714285</v>
+      </c>
+      <c r="AA182" s="1">
+        <f t="shared" si="322"/>
+        <v>65.857142857142861</v>
+      </c>
+      <c r="AB182" s="1">
+        <f t="shared" si="323"/>
+        <v>38.857142857142854</v>
+      </c>
+      <c r="AC182" s="1">
+        <f t="shared" si="324"/>
+        <v>16</v>
+      </c>
+      <c r="AD182" s="1">
+        <f t="shared" si="325"/>
+        <v>8.8571428571428577</v>
+      </c>
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44099</v>
       </c>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
+      <c r="B183">
+        <v>4532</v>
+      </c>
+      <c r="C183">
+        <v>10212</v>
+      </c>
+      <c r="D183">
+        <v>23055</v>
+      </c>
+      <c r="E183">
+        <v>22163</v>
+      </c>
+      <c r="F183">
+        <v>19617</v>
+      </c>
+      <c r="G183">
+        <v>17864</v>
+      </c>
+      <c r="H183">
+        <v>11962</v>
+      </c>
+      <c r="I183">
+        <v>7145</v>
+      </c>
+      <c r="J183">
+        <v>5809</v>
+      </c>
       <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
-      <c r="Y183" s="1"/>
-      <c r="Z183" s="1"/>
-      <c r="AA183" s="1"/>
+      <c r="L183">
+        <f t="shared" si="308"/>
+        <v>27</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="309"/>
+        <v>72</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="310"/>
+        <v>117</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="311"/>
+        <v>99</v>
+      </c>
+      <c r="P183">
+        <f t="shared" si="312"/>
+        <v>87</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" si="313"/>
+        <v>80</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="314"/>
+        <v>45</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="315"/>
+        <v>23</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="316"/>
+        <v>9</v>
+      </c>
+      <c r="V183" s="1">
+        <f t="shared" si="317"/>
+        <v>20.428571428571427</v>
+      </c>
+      <c r="W183" s="1">
+        <f t="shared" si="318"/>
+        <v>72.142857142857139</v>
+      </c>
+      <c r="X183" s="1">
+        <f t="shared" si="319"/>
+        <v>110</v>
+      </c>
+      <c r="Y183" s="1">
+        <f t="shared" si="320"/>
+        <v>73.428571428571431</v>
+      </c>
+      <c r="Z183" s="1">
+        <f t="shared" si="321"/>
+        <v>61.857142857142854</v>
+      </c>
+      <c r="AA183" s="1">
+        <f t="shared" si="322"/>
+        <v>66</v>
+      </c>
+      <c r="AB183" s="1">
+        <f t="shared" si="323"/>
+        <v>40.714285714285715</v>
+      </c>
+      <c r="AC183" s="1">
+        <f t="shared" si="324"/>
+        <v>17</v>
+      </c>
+      <c r="AD183" s="1">
+        <f t="shared" si="325"/>
+        <v>9.4285714285714288</v>
+      </c>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44100</v>
+      </c>
+      <c r="B184">
+        <v>4558</v>
+      </c>
+      <c r="C184">
+        <v>10290</v>
+      </c>
+      <c r="D184">
+        <v>23195</v>
+      </c>
+      <c r="E184">
+        <v>22265</v>
+      </c>
+      <c r="F184">
+        <v>19691</v>
+      </c>
+      <c r="G184">
+        <v>17965</v>
+      </c>
+      <c r="H184">
+        <v>12026</v>
+      </c>
+      <c r="I184">
+        <v>7167</v>
+      </c>
+      <c r="J184">
+        <v>5815</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="308"/>
+        <v>26</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="309"/>
+        <v>78</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="310"/>
+        <v>140</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="311"/>
+        <v>102</v>
+      </c>
+      <c r="P184">
+        <f t="shared" si="312"/>
+        <v>74</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" si="313"/>
+        <v>101</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="314"/>
+        <v>64</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="315"/>
+        <v>22</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="316"/>
+        <v>6</v>
+      </c>
+      <c r="V184" s="1">
+        <f t="shared" si="317"/>
+        <v>20.428571428571427</v>
+      </c>
+      <c r="W184" s="1">
+        <f t="shared" si="318"/>
+        <v>65.571428571428569</v>
+      </c>
+      <c r="X184" s="1">
+        <f t="shared" si="319"/>
+        <v>105.28571428571429</v>
+      </c>
+      <c r="Y184" s="1">
+        <f t="shared" si="320"/>
+        <v>73.428571428571431</v>
+      </c>
+      <c r="Z184" s="1">
+        <f t="shared" si="321"/>
+        <v>60.285714285714285</v>
+      </c>
+      <c r="AA184" s="1">
+        <f t="shared" si="322"/>
+        <v>69</v>
+      </c>
+      <c r="AB184" s="1">
+        <f t="shared" si="323"/>
+        <v>41.285714285714285</v>
+      </c>
+      <c r="AC184" s="1">
+        <f t="shared" si="324"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="AD184" s="1">
+        <f t="shared" si="325"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.25">
@@ -19345,31 +19847,31 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1">
-        <v>20.714285714285715</v>
+        <v>25.285714285714285</v>
       </c>
       <c r="O198" s="1">
-        <v>103.28571428571429</v>
+        <v>104</v>
       </c>
       <c r="P198" s="1">
-        <v>136</v>
-      </c>
-      <c r="Q198">
-        <v>68.285714285714292</v>
-      </c>
-      <c r="R198">
-        <v>67.428571428571431</v>
+        <v>140.57142857142858</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>85.857142857142861</v>
+      </c>
+      <c r="R198" s="1">
+        <v>62.714285714285715</v>
       </c>
       <c r="S198" s="1">
-        <v>68.714285714285708</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="T198" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U198" s="1">
-        <v>19.428571428571427</v>
+        <v>24</v>
       </c>
       <c r="V198" s="1">
-        <v>12.714285714285714</v>
+        <v>12</v>
       </c>
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
@@ -19386,31 +19888,31 @@
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1">
-        <v>23.571428571428573</v>
+        <v>22.428571428571427</v>
       </c>
       <c r="O199" s="1">
-        <v>107.28571428571429</v>
+        <v>99</v>
       </c>
       <c r="P199" s="1">
-        <v>147.14285714285714</v>
-      </c>
-      <c r="Q199">
-        <v>73</v>
-      </c>
-      <c r="R199">
-        <v>68.571428571428569</v>
+        <v>136.57142857142858</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>84.428571428571431</v>
+      </c>
+      <c r="R199" s="1">
+        <v>63.428571428571431</v>
       </c>
       <c r="S199" s="1">
-        <v>73.428571428571431</v>
+        <v>74.428571428571431</v>
       </c>
       <c r="T199" s="1">
-        <v>44.714285714285715</v>
+        <v>44.857142857142854</v>
       </c>
       <c r="U199" s="1">
-        <v>21.428571428571427</v>
+        <v>23</v>
       </c>
       <c r="V199" s="1">
-        <v>13.142857142857142</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
@@ -19427,31 +19929,31 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1">
-        <v>24.714285714285715</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="O200" s="1">
-        <v>117</v>
+        <v>89.571428571428569</v>
       </c>
       <c r="P200" s="1">
-        <v>154.71428571428572</v>
-      </c>
-      <c r="Q200">
-        <v>78.714285714285708</v>
-      </c>
-      <c r="R200">
-        <v>72.571428571428569</v>
+        <v>126.42857142857143</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>81.571428571428569</v>
+      </c>
+      <c r="R200" s="1">
+        <v>60.714285714285715</v>
       </c>
       <c r="S200" s="1">
-        <v>78.142857142857139</v>
+        <v>71</v>
       </c>
       <c r="T200" s="1">
-        <v>49.285714285714285</v>
+        <v>41.571428571428569</v>
       </c>
       <c r="U200" s="1">
-        <v>25.142857142857142</v>
+        <v>21.571428571428573</v>
       </c>
       <c r="V200" s="1">
-        <v>15.857142857142858</v>
+        <v>11.285714285714286</v>
       </c>
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
@@ -19460,32 +19962,32 @@
       <c r="AA200" s="1"/>
     </row>
     <row r="201" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N201">
-        <v>25.428571428571427</v>
-      </c>
-      <c r="O201">
-        <v>120.57142857142857</v>
-      </c>
-      <c r="P201">
-        <v>161</v>
-      </c>
-      <c r="Q201">
-        <v>85</v>
-      </c>
-      <c r="R201">
-        <v>74.142857142857139</v>
+      <c r="N201" s="1">
+        <v>20.285714285714285</v>
+      </c>
+      <c r="O201" s="1">
+        <v>79.571428571428569</v>
+      </c>
+      <c r="P201" s="1">
+        <v>119.71428571428571</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>75.142857142857139</v>
+      </c>
+      <c r="R201" s="1">
+        <v>59</v>
       </c>
       <c r="S201" s="1">
-        <v>80.571428571428569</v>
+        <v>68.857142857142861</v>
       </c>
       <c r="T201" s="1">
-        <v>48.428571428571431</v>
+        <v>38.142857142857146</v>
       </c>
       <c r="U201" s="1">
-        <v>25.714285714285715</v>
+        <v>17.428571428571427</v>
       </c>
       <c r="V201" s="1">
-        <v>13.571428571428571</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
@@ -19494,320 +19996,320 @@
       <c r="AA201" s="1"/>
     </row>
     <row r="202" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N202">
-        <v>25.714285714285715</v>
-      </c>
-      <c r="O202">
-        <v>117</v>
-      </c>
-      <c r="P202">
-        <v>157.28571428571428</v>
-      </c>
-      <c r="Q202">
-        <v>84.571428571428569</v>
-      </c>
-      <c r="R202">
-        <v>70.857142857142861</v>
-      </c>
-      <c r="S202">
-        <v>81.428571428571431</v>
-      </c>
-      <c r="T202">
-        <v>46.428571428571431</v>
-      </c>
-      <c r="U202">
-        <v>24.571428571428573</v>
-      </c>
-      <c r="V202">
-        <v>11.857142857142858</v>
+      <c r="N202" s="1">
+        <v>19.857142857142858</v>
+      </c>
+      <c r="O202" s="1">
+        <v>75.142857142857139</v>
+      </c>
+      <c r="P202" s="1">
+        <v>113.28571428571429</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>71.571428571428569</v>
+      </c>
+      <c r="R202" s="1">
+        <v>59.285714285714285</v>
+      </c>
+      <c r="S202" s="1">
+        <v>65.857142857142861</v>
+      </c>
+      <c r="T202" s="1">
+        <v>38.857142857142854</v>
+      </c>
+      <c r="U202" s="1">
+        <v>16</v>
+      </c>
+      <c r="V202" s="1">
+        <v>8.8571428571428577</v>
       </c>
     </row>
     <row r="203" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N203">
-        <v>25.857142857142858</v>
-      </c>
-      <c r="O203">
-        <v>108</v>
-      </c>
-      <c r="P203">
-        <v>149.14285714285714</v>
-      </c>
-      <c r="Q203">
-        <v>87.428571428571431</v>
-      </c>
-      <c r="R203">
-        <v>68.142857142857139</v>
-      </c>
-      <c r="S203">
-        <v>81</v>
-      </c>
-      <c r="T203">
-        <v>46.142857142857146</v>
-      </c>
-      <c r="U203">
-        <v>24</v>
-      </c>
-      <c r="V203">
-        <v>11.857142857142858</v>
+      <c r="N203" s="1">
+        <v>20.428571428571427</v>
+      </c>
+      <c r="O203" s="1">
+        <v>72.142857142857139</v>
+      </c>
+      <c r="P203" s="1">
+        <v>110</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>73.428571428571431</v>
+      </c>
+      <c r="R203" s="1">
+        <v>61.857142857142854</v>
+      </c>
+      <c r="S203" s="1">
+        <v>66</v>
+      </c>
+      <c r="T203" s="1">
+        <v>40.714285714285715</v>
+      </c>
+      <c r="U203" s="1">
+        <v>17</v>
+      </c>
+      <c r="V203" s="1">
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="204" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N204">
-        <v>25.285714285714285</v>
-      </c>
-      <c r="O204">
-        <v>104</v>
-      </c>
-      <c r="P204">
-        <v>140.57142857142858</v>
-      </c>
-      <c r="Q204">
-        <v>85.857142857142861</v>
-      </c>
-      <c r="R204">
-        <v>62.714285714285715</v>
-      </c>
-      <c r="S204">
-        <v>78.571428571428569</v>
-      </c>
-      <c r="T204">
-        <v>45</v>
-      </c>
-      <c r="U204">
-        <v>24</v>
-      </c>
-      <c r="V204">
-        <v>12</v>
+      <c r="N204" s="1">
+        <v>20.428571428571427</v>
+      </c>
+      <c r="O204" s="1">
+        <v>65.571428571428569</v>
+      </c>
+      <c r="P204" s="1">
+        <v>105.28571428571429</v>
+      </c>
+      <c r="Q204" s="1">
+        <v>73.428571428571431</v>
+      </c>
+      <c r="R204" s="1">
+        <v>60.285714285714285</v>
+      </c>
+      <c r="S204" s="1">
+        <v>69</v>
+      </c>
+      <c r="T204" s="1">
+        <v>41.285714285714285</v>
+      </c>
+      <c r="U204" s="1">
+        <v>17.285714285714285</v>
+      </c>
+      <c r="V204" s="1">
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="209" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N209" s="3">
-        <v>44088</v>
+        <v>44094</v>
       </c>
       <c r="O209" s="3">
-        <v>44089</v>
+        <v>44095</v>
       </c>
       <c r="P209" s="3">
-        <v>44090</v>
+        <v>44096</v>
       </c>
       <c r="Q209" s="3">
-        <v>44091</v>
+        <v>44097</v>
       </c>
       <c r="R209" s="3">
-        <v>44092</v>
+        <v>44098</v>
       </c>
       <c r="S209" s="3">
-        <v>44093</v>
+        <v>44099</v>
       </c>
       <c r="T209" s="3">
-        <v>44094</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="210" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N210" s="1">
-        <v>20.714285714285715</v>
+        <v>25.285714285714285</v>
       </c>
       <c r="O210" s="1">
-        <v>23.571428571428573</v>
+        <v>22.428571428571427</v>
       </c>
       <c r="P210" s="1">
-        <v>24.714285714285715</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="Q210" s="1">
-        <v>25.428571428571427</v>
+        <v>20.285714285714285</v>
       </c>
       <c r="R210" s="1">
-        <v>25.714285714285715</v>
+        <v>19.857142857142858</v>
       </c>
       <c r="S210" s="1">
-        <v>25.857142857142858</v>
+        <v>20.428571428571427</v>
       </c>
       <c r="T210" s="1">
-        <v>25.285714285714285</v>
+        <v>20.428571428571427</v>
       </c>
     </row>
     <row r="211" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N211" s="1">
-        <v>103.28571428571429</v>
+        <v>104</v>
       </c>
       <c r="O211" s="1">
-        <v>107.28571428571429</v>
+        <v>99</v>
       </c>
       <c r="P211" s="1">
-        <v>117</v>
+        <v>89.571428571428569</v>
       </c>
       <c r="Q211" s="1">
-        <v>120.57142857142857</v>
+        <v>79.571428571428569</v>
       </c>
       <c r="R211" s="1">
-        <v>117</v>
+        <v>75.142857142857139</v>
       </c>
       <c r="S211" s="1">
-        <v>108</v>
+        <v>72.142857142857139</v>
       </c>
       <c r="T211" s="1">
-        <v>104</v>
+        <v>65.571428571428569</v>
       </c>
     </row>
     <row r="212" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N212" s="1">
-        <v>136</v>
+        <v>140.57142857142858</v>
       </c>
       <c r="O212" s="1">
-        <v>147.14285714285714</v>
+        <v>136.57142857142858</v>
       </c>
       <c r="P212" s="1">
-        <v>154.71428571428572</v>
+        <v>126.42857142857143</v>
       </c>
       <c r="Q212" s="1">
-        <v>161</v>
+        <v>119.71428571428571</v>
       </c>
       <c r="R212" s="1">
-        <v>157.28571428571428</v>
+        <v>113.28571428571429</v>
       </c>
       <c r="S212" s="1">
-        <v>149.14285714285714</v>
+        <v>110</v>
       </c>
       <c r="T212" s="1">
-        <v>140.57142857142858</v>
+        <v>105.28571428571429</v>
       </c>
     </row>
     <row r="213" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N213" s="1">
-        <v>68.285714285714292</v>
+        <v>85.857142857142861</v>
       </c>
       <c r="O213" s="1">
-        <v>73</v>
+        <v>84.428571428571431</v>
       </c>
       <c r="P213" s="1">
-        <v>78.714285714285708</v>
+        <v>81.571428571428569</v>
       </c>
       <c r="Q213" s="1">
-        <v>85</v>
+        <v>75.142857142857139</v>
       </c>
       <c r="R213" s="1">
-        <v>84.571428571428569</v>
+        <v>71.571428571428569</v>
       </c>
       <c r="S213" s="1">
-        <v>87.428571428571431</v>
+        <v>73.428571428571431</v>
       </c>
       <c r="T213" s="1">
-        <v>85.857142857142861</v>
+        <v>73.428571428571431</v>
       </c>
     </row>
     <row r="214" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N214" s="1">
-        <v>67.428571428571431</v>
+        <v>62.714285714285715</v>
       </c>
       <c r="O214" s="1">
-        <v>68.571428571428569</v>
+        <v>63.428571428571431</v>
       </c>
       <c r="P214" s="1">
-        <v>72.571428571428569</v>
+        <v>60.714285714285715</v>
       </c>
       <c r="Q214" s="1">
-        <v>74.142857142857139</v>
+        <v>59</v>
       </c>
       <c r="R214" s="1">
-        <v>70.857142857142861</v>
+        <v>59.285714285714285</v>
       </c>
       <c r="S214" s="1">
-        <v>68.142857142857139</v>
+        <v>61.857142857142854</v>
       </c>
       <c r="T214" s="1">
-        <v>62.714285714285715</v>
+        <v>60.285714285714285</v>
       </c>
     </row>
     <row r="215" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N215" s="1">
-        <v>68.714285714285708</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="O215" s="1">
-        <v>73.428571428571431</v>
+        <v>74.428571428571431</v>
       </c>
       <c r="P215" s="1">
-        <v>78.142857142857139</v>
+        <v>71</v>
       </c>
       <c r="Q215" s="1">
-        <v>80.571428571428569</v>
+        <v>68.857142857142861</v>
       </c>
       <c r="R215" s="1">
-        <v>81.428571428571431</v>
+        <v>65.857142857142861</v>
       </c>
       <c r="S215" s="1">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="T215" s="1">
-        <v>78.571428571428569</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N216" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O216" s="1">
-        <v>44.714285714285715</v>
+        <v>44.857142857142854</v>
       </c>
       <c r="P216" s="1">
-        <v>49.285714285714285</v>
+        <v>41.571428571428569</v>
       </c>
       <c r="Q216" s="1">
-        <v>48.428571428571431</v>
+        <v>38.142857142857146</v>
       </c>
       <c r="R216" s="1">
-        <v>46.428571428571431</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="S216" s="1">
-        <v>46.142857142857146</v>
+        <v>40.714285714285715</v>
       </c>
       <c r="T216" s="1">
-        <v>45</v>
+        <v>41.285714285714285</v>
       </c>
     </row>
     <row r="217" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N217" s="1">
-        <v>19.428571428571427</v>
+        <v>24</v>
       </c>
       <c r="O217" s="1">
-        <v>21.428571428571427</v>
+        <v>23</v>
       </c>
       <c r="P217" s="1">
-        <v>25.142857142857142</v>
+        <v>21.571428571428573</v>
       </c>
       <c r="Q217" s="1">
-        <v>25.714285714285715</v>
+        <v>17.428571428571427</v>
       </c>
       <c r="R217" s="1">
-        <v>24.571428571428573</v>
+        <v>16</v>
       </c>
       <c r="S217" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="T217" s="1">
-        <v>24</v>
+        <v>17.285714285714285</v>
       </c>
     </row>
     <row r="218" spans="14:22" x14ac:dyDescent="0.25">
       <c r="N218" s="1">
-        <v>12.714285714285714</v>
+        <v>12</v>
       </c>
       <c r="O218" s="1">
-        <v>13.142857142857142</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="P218" s="1">
-        <v>15.857142857142858</v>
+        <v>11.285714285714286</v>
       </c>
       <c r="Q218" s="1">
-        <v>13.571428571428571</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="R218" s="1">
-        <v>11.857142857142858</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="S218" s="1">
-        <v>11.857142857142858</v>
+        <v>9.4285714285714288</v>
       </c>
       <c r="T218" s="1">
-        <v>12</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="U218" s="1"/>
       <c r="V218" s="1"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5959DDAB-5A4C-4F7C-94F6-55F73AF1D06A}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE0043A3-2681-4C8F-9A57-9CD62715E4C0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,10 +919,10 @@
   <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N209" sqref="N209:T218"/>
+      <selection pane="bottomRight" activeCell="E212" sqref="E212:L221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19696,20 +19696,728 @@
       <c r="A185" s="3">
         <v>44101</v>
       </c>
+      <c r="B185">
+        <v>4585</v>
+      </c>
+      <c r="C185">
+        <v>10361</v>
+      </c>
+      <c r="D185">
+        <v>23291</v>
+      </c>
+      <c r="E185">
+        <v>22328</v>
+      </c>
+      <c r="F185">
+        <v>19742</v>
+      </c>
+      <c r="G185">
+        <v>18021</v>
+      </c>
+      <c r="H185">
+        <v>12060</v>
+      </c>
+      <c r="I185">
+        <v>7183</v>
+      </c>
+      <c r="J185">
+        <v>5832</v>
+      </c>
+      <c r="L185">
+        <f t="shared" ref="L185:L191" si="326">SUM(B185-B184)</f>
+        <v>27</v>
+      </c>
+      <c r="M185">
+        <f t="shared" ref="M185:M191" si="327">SUM(C185-C184)</f>
+        <v>71</v>
+      </c>
+      <c r="N185">
+        <f t="shared" ref="N185:N191" si="328">SUM(D185-D184)</f>
+        <v>96</v>
+      </c>
+      <c r="O185">
+        <f t="shared" ref="O185:O191" si="329">SUM(E185-E184)</f>
+        <v>63</v>
+      </c>
+      <c r="P185">
+        <f t="shared" ref="P185:P191" si="330">SUM(F185-F184)</f>
+        <v>51</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" ref="Q185:Q191" si="331">SUM(G185-G184)</f>
+        <v>56</v>
+      </c>
+      <c r="R185">
+        <f t="shared" ref="R185:R191" si="332">SUM(H185-H184)</f>
+        <v>34</v>
+      </c>
+      <c r="S185">
+        <f t="shared" ref="S185:S191" si="333">SUM(I185-I184)</f>
+        <v>16</v>
+      </c>
+      <c r="T185">
+        <f t="shared" ref="T185:T191" si="334">SUM(J185-J184)</f>
+        <v>17</v>
+      </c>
+      <c r="V185" s="1">
+        <f t="shared" ref="V185:V191" si="335">AVERAGE(L179:L185)</f>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="W185" s="1">
+        <f t="shared" ref="W185:W191" si="336">AVERAGE(M179:M185)</f>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="X185" s="1">
+        <f t="shared" ref="X185:X191" si="337">AVERAGE(N179:N185)</f>
+        <v>106.14285714285714</v>
+      </c>
+      <c r="Y185" s="1">
+        <f t="shared" ref="Y185:Y191" si="338">AVERAGE(O179:O185)</f>
+        <v>73.714285714285708</v>
+      </c>
+      <c r="Z185" s="1">
+        <f t="shared" ref="Z185:Z191" si="339">AVERAGE(P179:P185)</f>
+        <v>62.428571428571431</v>
+      </c>
+      <c r="AA185" s="1">
+        <f t="shared" ref="AA185:AA191" si="340">AVERAGE(Q179:Q185)</f>
+        <v>68.714285714285708</v>
+      </c>
+      <c r="AB185" s="1">
+        <f t="shared" ref="AB185:AB191" si="341">AVERAGE(R179:R185)</f>
+        <v>41</v>
+      </c>
+      <c r="AC185" s="1">
+        <f t="shared" ref="AC185:AC191" si="342">AVERAGE(S179:S185)</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AD185" s="1">
+        <f t="shared" ref="AD185:AD191" si="343">AVERAGE(T179:T185)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>44102</v>
       </c>
+      <c r="B186">
+        <v>4616</v>
+      </c>
+      <c r="C186">
+        <v>10435</v>
+      </c>
+      <c r="D186">
+        <v>23386</v>
+      </c>
+      <c r="E186">
+        <v>22405</v>
+      </c>
+      <c r="F186">
+        <v>19804</v>
+      </c>
+      <c r="G186">
+        <v>18091</v>
+      </c>
+      <c r="H186">
+        <v>12096</v>
+      </c>
+      <c r="I186">
+        <v>7206</v>
+      </c>
+      <c r="J186">
+        <v>5841</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="326"/>
+        <v>31</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="327"/>
+        <v>74</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="328"/>
+        <v>95</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="329"/>
+        <v>77</v>
+      </c>
+      <c r="P186">
+        <f t="shared" si="330"/>
+        <v>62</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" si="331"/>
+        <v>70</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="332"/>
+        <v>36</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="333"/>
+        <v>23</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="334"/>
+        <v>9</v>
+      </c>
+      <c r="V186" s="1">
+        <f t="shared" si="335"/>
+        <v>24</v>
+      </c>
+      <c r="W186" s="1">
+        <f t="shared" si="336"/>
+        <v>64.857142857142861</v>
+      </c>
+      <c r="X186" s="1">
+        <f t="shared" si="337"/>
+        <v>105.28571428571429</v>
+      </c>
+      <c r="Y186" s="1">
+        <f t="shared" si="338"/>
+        <v>76.428571428571431</v>
+      </c>
+      <c r="Z186" s="1">
+        <f t="shared" si="339"/>
+        <v>62</v>
+      </c>
+      <c r="AA186" s="1">
+        <f t="shared" si="340"/>
+        <v>71.857142857142861</v>
+      </c>
+      <c r="AB186" s="1">
+        <f t="shared" si="341"/>
+        <v>41.571428571428569</v>
+      </c>
+      <c r="AC186" s="1">
+        <f t="shared" si="342"/>
+        <v>18.428571428571427</v>
+      </c>
+      <c r="AD186" s="1">
+        <f t="shared" si="343"/>
+        <v>8.7142857142857135</v>
+      </c>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>44103</v>
       </c>
+      <c r="B187">
+        <v>4635</v>
+      </c>
+      <c r="C187">
+        <v>10483</v>
+      </c>
+      <c r="D187">
+        <v>23471</v>
+      </c>
+      <c r="E187">
+        <v>22484</v>
+      </c>
+      <c r="F187">
+        <v>19865</v>
+      </c>
+      <c r="G187">
+        <v>18153</v>
+      </c>
+      <c r="H187">
+        <v>12137</v>
+      </c>
+      <c r="I187">
+        <v>7231</v>
+      </c>
+      <c r="J187">
+        <v>5852</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="326"/>
+        <v>19</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="327"/>
+        <v>48</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="328"/>
+        <v>85</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="329"/>
+        <v>79</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="330"/>
+        <v>61</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" si="331"/>
+        <v>62</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="332"/>
+        <v>41</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="333"/>
+        <v>25</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="334"/>
+        <v>11</v>
+      </c>
+      <c r="V187" s="1">
+        <f t="shared" si="335"/>
+        <v>24.714285714285715</v>
+      </c>
+      <c r="W187" s="1">
+        <f t="shared" si="336"/>
+        <v>66.857142857142861</v>
+      </c>
+      <c r="X187" s="1">
+        <f t="shared" si="337"/>
+        <v>105.14285714285714</v>
+      </c>
+      <c r="Y187" s="1">
+        <f t="shared" si="338"/>
+        <v>78.714285714285708</v>
+      </c>
+      <c r="Z187" s="1">
+        <f t="shared" si="339"/>
+        <v>65.428571428571431</v>
+      </c>
+      <c r="AA187" s="1">
+        <f t="shared" si="340"/>
+        <v>72.571428571428569</v>
+      </c>
+      <c r="AB187" s="1">
+        <f t="shared" si="341"/>
+        <v>42.571428571428569</v>
+      </c>
+      <c r="AC187" s="1">
+        <f t="shared" si="342"/>
+        <v>20</v>
+      </c>
+      <c r="AD187" s="1">
+        <f t="shared" si="343"/>
+        <v>9.5714285714285712</v>
+      </c>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>44104</v>
+      </c>
+      <c r="B188">
+        <v>4656</v>
+      </c>
+      <c r="C188">
+        <v>10521</v>
+      </c>
+      <c r="D188">
+        <v>23564</v>
+      </c>
+      <c r="E188">
+        <v>22550</v>
+      </c>
+      <c r="F188">
+        <v>19913</v>
+      </c>
+      <c r="G188">
+        <v>18223</v>
+      </c>
+      <c r="H188">
+        <v>12175</v>
+      </c>
+      <c r="I188">
+        <v>7262</v>
+      </c>
+      <c r="J188">
+        <v>5861</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="326"/>
+        <v>21</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="327"/>
+        <v>38</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="328"/>
+        <v>93</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="329"/>
+        <v>66</v>
+      </c>
+      <c r="P188">
+        <f t="shared" si="330"/>
+        <v>48</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" si="331"/>
+        <v>70</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="332"/>
+        <v>38</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="333"/>
+        <v>31</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="334"/>
+        <v>9</v>
+      </c>
+      <c r="V188" s="1">
+        <f t="shared" si="335"/>
+        <v>24.142857142857142</v>
+      </c>
+      <c r="W188" s="1">
+        <f t="shared" si="336"/>
+        <v>63.714285714285715</v>
+      </c>
+      <c r="X188" s="1">
+        <f t="shared" si="337"/>
+        <v>105.85714285714286</v>
+      </c>
+      <c r="Y188" s="1">
+        <f t="shared" si="338"/>
+        <v>81</v>
+      </c>
+      <c r="Z188" s="1">
+        <f t="shared" si="339"/>
+        <v>64.714285714285708</v>
+      </c>
+      <c r="AA188" s="1">
+        <f t="shared" si="340"/>
+        <v>74.142857142857139</v>
+      </c>
+      <c r="AB188" s="1">
+        <f t="shared" si="341"/>
+        <v>43.428571428571431</v>
+      </c>
+      <c r="AC188" s="1">
+        <f t="shared" si="342"/>
+        <v>22.714285714285715</v>
+      </c>
+      <c r="AD188" s="1">
+        <f t="shared" si="343"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B189">
+        <v>4689</v>
+      </c>
+      <c r="C189">
+        <v>10681</v>
+      </c>
+      <c r="D189">
+        <v>23741</v>
+      </c>
+      <c r="E189">
+        <v>22654</v>
+      </c>
+      <c r="F189">
+        <v>20006</v>
+      </c>
+      <c r="G189">
+        <v>18322</v>
+      </c>
+      <c r="H189">
+        <v>12239</v>
+      </c>
+      <c r="I189">
+        <v>7303</v>
+      </c>
+      <c r="J189">
+        <v>5875</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="326"/>
+        <v>33</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="327"/>
+        <v>160</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="328"/>
+        <v>177</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="329"/>
+        <v>104</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="330"/>
+        <v>93</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" si="331"/>
+        <v>99</v>
+      </c>
+      <c r="R189">
+        <f t="shared" si="332"/>
+        <v>64</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="333"/>
+        <v>41</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="334"/>
+        <v>14</v>
+      </c>
+      <c r="V189" s="1">
+        <f t="shared" si="335"/>
+        <v>26.285714285714285</v>
+      </c>
+      <c r="W189" s="1">
+        <f t="shared" si="336"/>
+        <v>77.285714285714292</v>
+      </c>
+      <c r="X189" s="1">
+        <f t="shared" si="337"/>
+        <v>114.71428571428571</v>
+      </c>
+      <c r="Y189" s="1">
+        <f t="shared" si="338"/>
+        <v>84.285714285714292</v>
+      </c>
+      <c r="Z189" s="1">
+        <f t="shared" si="339"/>
+        <v>68</v>
+      </c>
+      <c r="AA189" s="1">
+        <f t="shared" si="340"/>
+        <v>76.857142857142861</v>
+      </c>
+      <c r="AB189" s="1">
+        <f t="shared" si="341"/>
+        <v>46</v>
+      </c>
+      <c r="AC189" s="1">
+        <f t="shared" si="342"/>
+        <v>25.857142857142858</v>
+      </c>
+      <c r="AD189" s="1">
+        <f t="shared" si="343"/>
+        <v>10.714285714285714</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>44106</v>
+      </c>
+      <c r="B190">
+        <v>4723</v>
+      </c>
+      <c r="C190">
+        <v>10781</v>
+      </c>
+      <c r="D190">
+        <v>23880</v>
+      </c>
+      <c r="E190">
+        <v>22770</v>
+      </c>
+      <c r="F190">
+        <v>20106</v>
+      </c>
+      <c r="G190">
+        <v>18419</v>
+      </c>
+      <c r="H190">
+        <v>12312</v>
+      </c>
+      <c r="I190">
+        <v>7342</v>
+      </c>
+      <c r="J190">
+        <v>5889</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="326"/>
+        <v>34</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="327"/>
+        <v>100</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="328"/>
+        <v>139</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="329"/>
+        <v>116</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="330"/>
+        <v>100</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" si="331"/>
+        <v>97</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="332"/>
+        <v>73</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="333"/>
+        <v>39</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="334"/>
+        <v>14</v>
+      </c>
+      <c r="V190" s="1">
+        <f t="shared" si="335"/>
+        <v>27.285714285714285</v>
+      </c>
+      <c r="W190" s="1">
+        <f t="shared" si="336"/>
+        <v>81.285714285714292</v>
+      </c>
+      <c r="X190" s="1">
+        <f t="shared" si="337"/>
+        <v>117.85714285714286</v>
+      </c>
+      <c r="Y190" s="1">
+        <f t="shared" si="338"/>
+        <v>86.714285714285708</v>
+      </c>
+      <c r="Z190" s="1">
+        <f t="shared" si="339"/>
+        <v>69.857142857142861</v>
+      </c>
+      <c r="AA190" s="1">
+        <f t="shared" si="340"/>
+        <v>79.285714285714292</v>
+      </c>
+      <c r="AB190" s="1">
+        <f t="shared" si="341"/>
+        <v>50</v>
+      </c>
+      <c r="AC190" s="1">
+        <f t="shared" si="342"/>
+        <v>28.142857142857142</v>
+      </c>
+      <c r="AD190" s="1">
+        <f t="shared" si="343"/>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>44107</v>
+      </c>
+      <c r="B191">
+        <v>4751</v>
+      </c>
+      <c r="C191">
+        <v>10858</v>
+      </c>
+      <c r="D191">
+        <v>24012</v>
+      </c>
+      <c r="E191">
+        <v>22859</v>
+      </c>
+      <c r="F191">
+        <v>20196</v>
+      </c>
+      <c r="G191">
+        <v>18490</v>
+      </c>
+      <c r="H191">
+        <v>12368</v>
+      </c>
+      <c r="I191">
+        <v>7374</v>
+      </c>
+      <c r="J191">
+        <v>5911</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="326"/>
+        <v>28</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="327"/>
+        <v>77</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="328"/>
+        <v>132</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="329"/>
+        <v>89</v>
+      </c>
+      <c r="P191">
+        <f t="shared" si="330"/>
+        <v>90</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" si="331"/>
+        <v>71</v>
+      </c>
+      <c r="R191">
+        <f t="shared" si="332"/>
+        <v>56</v>
+      </c>
+      <c r="S191">
+        <f t="shared" si="333"/>
+        <v>32</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="334"/>
+        <v>22</v>
+      </c>
+      <c r="V191" s="1">
+        <f t="shared" si="335"/>
+        <v>27.571428571428573</v>
+      </c>
+      <c r="W191" s="1">
+        <f t="shared" si="336"/>
+        <v>81.142857142857139</v>
+      </c>
+      <c r="X191" s="1">
+        <f t="shared" si="337"/>
+        <v>116.71428571428571</v>
+      </c>
+      <c r="Y191" s="1">
+        <f t="shared" si="338"/>
+        <v>84.857142857142861</v>
+      </c>
+      <c r="Z191" s="1">
+        <f t="shared" si="339"/>
+        <v>72.142857142857139</v>
+      </c>
+      <c r="AA191" s="1">
+        <f t="shared" si="340"/>
+        <v>75</v>
+      </c>
+      <c r="AB191" s="1">
+        <f t="shared" si="341"/>
+        <v>48.857142857142854</v>
+      </c>
+      <c r="AC191" s="1">
+        <f t="shared" si="342"/>
+        <v>29.571428571428573</v>
+      </c>
+      <c r="AD191" s="1">
+        <f t="shared" si="343"/>
+        <v>13.714285714285714</v>
       </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
@@ -19733,7 +20441,7 @@
       <c r="Z192" s="3"/>
       <c r="AA192" s="3"/>
     </row>
-    <row r="193" spans="7:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:27" x14ac:dyDescent="0.25">
       <c r="G193" s="3"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -19754,7 +20462,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="7:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:27" x14ac:dyDescent="0.25">
       <c r="G194" s="3"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -19775,7 +20483,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="7:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:27" x14ac:dyDescent="0.25">
       <c r="G195" s="3"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -19796,7 +20504,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="7:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:27" x14ac:dyDescent="0.25">
       <c r="G196" s="3"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -19817,7 +20525,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="7:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:27" x14ac:dyDescent="0.25">
       <c r="G197" s="3"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -19838,7 +20546,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="7:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:27" x14ac:dyDescent="0.25">
       <c r="G198" s="3"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -19846,40 +20554,22 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
-      <c r="N198" s="1">
-        <v>25.285714285714285</v>
-      </c>
-      <c r="O198" s="1">
-        <v>104</v>
-      </c>
-      <c r="P198" s="1">
-        <v>140.57142857142858</v>
-      </c>
-      <c r="Q198" s="1">
-        <v>85.857142857142861</v>
-      </c>
-      <c r="R198" s="1">
-        <v>62.714285714285715</v>
-      </c>
-      <c r="S198" s="1">
-        <v>78.571428571428569</v>
-      </c>
-      <c r="T198" s="1">
-        <v>45</v>
-      </c>
-      <c r="U198" s="1">
-        <v>24</v>
-      </c>
-      <c r="V198" s="1">
-        <v>12</v>
-      </c>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="7:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:27" x14ac:dyDescent="0.25">
       <c r="G199" s="3"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -19887,443 +20577,655 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
-      <c r="N199" s="1">
-        <v>22.428571428571427</v>
-      </c>
-      <c r="O199" s="1">
-        <v>99</v>
-      </c>
-      <c r="P199" s="1">
-        <v>136.57142857142858</v>
-      </c>
-      <c r="Q199" s="1">
-        <v>84.428571428571431</v>
-      </c>
-      <c r="R199" s="1">
-        <v>63.428571428571431</v>
-      </c>
-      <c r="S199" s="1">
-        <v>74.428571428571431</v>
-      </c>
-      <c r="T199" s="1">
-        <v>44.857142857142854</v>
-      </c>
-      <c r="U199" s="1">
-        <v>23</v>
-      </c>
-      <c r="V199" s="1">
-        <v>12.142857142857142</v>
-      </c>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="G200" s="3"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
+    <row r="200" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D200" s="1">
+        <v>20.428571428571427</v>
+      </c>
+      <c r="E200" s="1">
+        <v>65.571428571428569</v>
+      </c>
+      <c r="F200" s="1">
+        <v>105.28571428571429</v>
+      </c>
+      <c r="G200" s="1">
+        <v>73.428571428571431</v>
+      </c>
+      <c r="H200" s="1">
+        <v>60.285714285714285</v>
+      </c>
+      <c r="I200" s="1">
+        <v>69</v>
+      </c>
+      <c r="J200" s="1">
+        <v>41.285714285714285</v>
+      </c>
+      <c r="K200" s="1">
+        <v>17.285714285714285</v>
+      </c>
+      <c r="L200" s="1">
+        <v>8.5714285714285712</v>
+      </c>
       <c r="M200" s="1"/>
-      <c r="N200" s="1">
-        <v>20.142857142857142</v>
-      </c>
-      <c r="O200" s="1">
-        <v>89.571428571428569</v>
-      </c>
-      <c r="P200" s="1">
-        <v>126.42857142857143</v>
-      </c>
-      <c r="Q200" s="1">
-        <v>81.571428571428569</v>
-      </c>
-      <c r="R200" s="1">
-        <v>60.714285714285715</v>
-      </c>
-      <c r="S200" s="1">
-        <v>71</v>
-      </c>
-      <c r="T200" s="1">
-        <v>41.571428571428569</v>
-      </c>
-      <c r="U200" s="1">
-        <v>21.571428571428573</v>
-      </c>
-      <c r="V200" s="1">
-        <v>11.285714285714286</v>
-      </c>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N201" s="1">
-        <v>20.285714285714285</v>
-      </c>
-      <c r="O201" s="1">
-        <v>79.571428571428569</v>
-      </c>
-      <c r="P201" s="1">
-        <v>119.71428571428571</v>
-      </c>
-      <c r="Q201" s="1">
-        <v>75.142857142857139</v>
-      </c>
-      <c r="R201" s="1">
-        <v>59</v>
-      </c>
-      <c r="S201" s="1">
-        <v>68.857142857142861</v>
-      </c>
-      <c r="T201" s="1">
-        <v>38.142857142857146</v>
-      </c>
-      <c r="U201" s="1">
-        <v>17.428571428571427</v>
-      </c>
-      <c r="V201" s="1">
-        <v>8.8571428571428577</v>
-      </c>
+    <row r="201" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D201" s="1">
+        <v>21.428571428571427</v>
+      </c>
+      <c r="E201" s="1">
+        <v>64.285714285714292</v>
+      </c>
+      <c r="F201" s="1">
+        <v>106.14285714285714</v>
+      </c>
+      <c r="G201" s="1">
+        <v>73.714285714285708</v>
+      </c>
+      <c r="H201" s="1">
+        <v>62.428571428571431</v>
+      </c>
+      <c r="I201" s="1">
+        <v>68.714285714285708</v>
+      </c>
+      <c r="J201" s="1">
+        <v>41</v>
+      </c>
+      <c r="K201" s="1">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="L201" s="1">
+        <v>9</v>
+      </c>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N202" s="1">
-        <v>19.857142857142858</v>
-      </c>
-      <c r="O202" s="1">
-        <v>75.142857142857139</v>
-      </c>
-      <c r="P202" s="1">
-        <v>113.28571428571429</v>
-      </c>
-      <c r="Q202" s="1">
-        <v>71.571428571428569</v>
-      </c>
-      <c r="R202" s="1">
-        <v>59.285714285714285</v>
-      </c>
-      <c r="S202" s="1">
-        <v>65.857142857142861</v>
-      </c>
-      <c r="T202" s="1">
-        <v>38.857142857142854</v>
-      </c>
-      <c r="U202" s="1">
-        <v>16</v>
-      </c>
-      <c r="V202" s="1">
-        <v>8.8571428571428577</v>
-      </c>
-    </row>
-    <row r="203" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N203" s="1">
+    <row r="202" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D202" s="1">
+        <v>24</v>
+      </c>
+      <c r="E202" s="1">
+        <v>64.857142857142861</v>
+      </c>
+      <c r="F202" s="1">
+        <v>105.28571428571429</v>
+      </c>
+      <c r="G202" s="1">
+        <v>76.428571428571431</v>
+      </c>
+      <c r="H202" s="1">
+        <v>62</v>
+      </c>
+      <c r="I202" s="1">
+        <v>71.857142857142861</v>
+      </c>
+      <c r="J202" s="1">
+        <v>41.571428571428569</v>
+      </c>
+      <c r="K202" s="1">
+        <v>18.428571428571427</v>
+      </c>
+      <c r="L202" s="1">
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+    </row>
+    <row r="203" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D203" s="1">
+        <v>24.714285714285715</v>
+      </c>
+      <c r="E203" s="1">
+        <v>66.857142857142861</v>
+      </c>
+      <c r="F203" s="1">
+        <v>105.14285714285714</v>
+      </c>
+      <c r="G203" s="1">
+        <v>78.714285714285708</v>
+      </c>
+      <c r="H203" s="1">
+        <v>65.428571428571431</v>
+      </c>
+      <c r="I203" s="1">
+        <v>72.571428571428569</v>
+      </c>
+      <c r="J203" s="1">
+        <v>42.571428571428569</v>
+      </c>
+      <c r="K203" s="1">
+        <v>20</v>
+      </c>
+      <c r="L203" s="1">
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+    </row>
+    <row r="204" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D204" s="1">
+        <v>24.142857142857142</v>
+      </c>
+      <c r="E204" s="1">
+        <v>63.714285714285715</v>
+      </c>
+      <c r="F204" s="1">
+        <v>105.85714285714286</v>
+      </c>
+      <c r="G204" s="1">
+        <v>81</v>
+      </c>
+      <c r="H204" s="1">
+        <v>64.714285714285708</v>
+      </c>
+      <c r="I204" s="1">
+        <v>74.142857142857139</v>
+      </c>
+      <c r="J204" s="1">
+        <v>43.428571428571431</v>
+      </c>
+      <c r="K204" s="1">
+        <v>22.714285714285715</v>
+      </c>
+      <c r="L204" s="1">
+        <v>10</v>
+      </c>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+    </row>
+    <row r="205" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D205" s="1">
+        <v>26.285714285714285</v>
+      </c>
+      <c r="E205" s="1">
+        <v>77.285714285714292</v>
+      </c>
+      <c r="F205" s="1">
+        <v>114.71428571428571</v>
+      </c>
+      <c r="G205" s="1">
+        <v>84.285714285714292</v>
+      </c>
+      <c r="H205" s="1">
+        <v>68</v>
+      </c>
+      <c r="I205" s="1">
+        <v>76.857142857142861</v>
+      </c>
+      <c r="J205" s="1">
+        <v>46</v>
+      </c>
+      <c r="K205" s="1">
+        <v>25.857142857142858</v>
+      </c>
+      <c r="L205" s="1">
+        <v>10.714285714285714</v>
+      </c>
+    </row>
+    <row r="206" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D206" s="1">
+        <v>27.285714285714285</v>
+      </c>
+      <c r="E206" s="1">
+        <v>81.285714285714292</v>
+      </c>
+      <c r="F206" s="1">
+        <v>117.85714285714286</v>
+      </c>
+      <c r="G206" s="1">
+        <v>86.714285714285708</v>
+      </c>
+      <c r="H206" s="1">
+        <v>69.857142857142861</v>
+      </c>
+      <c r="I206" s="1">
+        <v>79.285714285714292</v>
+      </c>
+      <c r="J206" s="1">
+        <v>50</v>
+      </c>
+      <c r="K206" s="1">
+        <v>28.142857142857142</v>
+      </c>
+      <c r="L206" s="1">
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="207" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D207" s="1">
+        <v>27.571428571428573</v>
+      </c>
+      <c r="E207" s="1">
+        <v>81.142857142857139</v>
+      </c>
+      <c r="F207" s="1">
+        <v>116.71428571428571</v>
+      </c>
+      <c r="G207" s="1">
+        <v>84.857142857142861</v>
+      </c>
+      <c r="H207" s="1">
+        <v>72.142857142857139</v>
+      </c>
+      <c r="I207" s="1">
+        <v>75</v>
+      </c>
+      <c r="J207" s="1">
+        <v>48.857142857142854</v>
+      </c>
+      <c r="K207" s="1">
+        <v>29.571428571428573</v>
+      </c>
+      <c r="L207" s="1">
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="209" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+    </row>
+    <row r="210" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+    </row>
+    <row r="212" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E212" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F212" s="3">
+        <v>44101</v>
+      </c>
+      <c r="G212" s="3">
+        <v>44102</v>
+      </c>
+      <c r="H212" s="3">
+        <v>44103</v>
+      </c>
+      <c r="I212" s="3">
+        <v>44104</v>
+      </c>
+      <c r="J212" s="3">
+        <v>44105</v>
+      </c>
+      <c r="K212" s="3">
+        <v>44106</v>
+      </c>
+      <c r="L212" s="3">
+        <v>44107</v>
+      </c>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+    </row>
+    <row r="213" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E213" s="1">
         <v>20.428571428571427</v>
       </c>
-      <c r="O203" s="1">
+      <c r="F213" s="1">
+        <v>21.428571428571427</v>
+      </c>
+      <c r="G213" s="1">
+        <v>24</v>
+      </c>
+      <c r="H213" s="1">
+        <v>24.714285714285715</v>
+      </c>
+      <c r="I213" s="1">
+        <v>24.142857142857142</v>
+      </c>
+      <c r="J213" s="1">
+        <v>26.285714285714285</v>
+      </c>
+      <c r="K213" s="1">
+        <v>27.285714285714285</v>
+      </c>
+      <c r="L213" s="1">
+        <v>27.571428571428573</v>
+      </c>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E214" s="1">
+        <v>65.571428571428569</v>
+      </c>
+      <c r="F214" s="1">
+        <v>64.285714285714292</v>
+      </c>
+      <c r="G214" s="1">
+        <v>64.857142857142861</v>
+      </c>
+      <c r="H214" s="1">
+        <v>66.857142857142861</v>
+      </c>
+      <c r="I214" s="1">
+        <v>63.714285714285715</v>
+      </c>
+      <c r="J214" s="1">
+        <v>77.285714285714292</v>
+      </c>
+      <c r="K214" s="1">
+        <v>81.285714285714292</v>
+      </c>
+      <c r="L214" s="1">
+        <v>81.142857142857139</v>
+      </c>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E215" s="1">
+        <v>105.28571428571429</v>
+      </c>
+      <c r="F215" s="1">
+        <v>106.14285714285714</v>
+      </c>
+      <c r="G215" s="1">
+        <v>105.28571428571429</v>
+      </c>
+      <c r="H215" s="1">
+        <v>105.14285714285714</v>
+      </c>
+      <c r="I215" s="1">
+        <v>105.85714285714286</v>
+      </c>
+      <c r="J215" s="1">
+        <v>114.71428571428571</v>
+      </c>
+      <c r="K215" s="1">
+        <v>117.85714285714286</v>
+      </c>
+      <c r="L215" s="1">
+        <v>116.71428571428571</v>
+      </c>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E216" s="1">
+        <v>73.428571428571431</v>
+      </c>
+      <c r="F216" s="1">
+        <v>73.714285714285708</v>
+      </c>
+      <c r="G216" s="1">
+        <v>76.428571428571431</v>
+      </c>
+      <c r="H216" s="1">
+        <v>78.714285714285708</v>
+      </c>
+      <c r="I216" s="1">
+        <v>81</v>
+      </c>
+      <c r="J216" s="1">
+        <v>84.285714285714292</v>
+      </c>
+      <c r="K216" s="1">
+        <v>86.714285714285708</v>
+      </c>
+      <c r="L216" s="1">
+        <v>84.857142857142861</v>
+      </c>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E217" s="1">
+        <v>60.285714285714285</v>
+      </c>
+      <c r="F217" s="1">
+        <v>62.428571428571431</v>
+      </c>
+      <c r="G217" s="1">
+        <v>62</v>
+      </c>
+      <c r="H217" s="1">
+        <v>65.428571428571431</v>
+      </c>
+      <c r="I217" s="1">
+        <v>64.714285714285708</v>
+      </c>
+      <c r="J217" s="1">
+        <v>68</v>
+      </c>
+      <c r="K217" s="1">
+        <v>69.857142857142861</v>
+      </c>
+      <c r="L217" s="1">
         <v>72.142857142857139</v>
       </c>
-      <c r="P203" s="1">
-        <v>110</v>
-      </c>
-      <c r="Q203" s="1">
-        <v>73.428571428571431</v>
-      </c>
-      <c r="R203" s="1">
-        <v>61.857142857142854</v>
-      </c>
-      <c r="S203" s="1">
-        <v>66</v>
-      </c>
-      <c r="T203" s="1">
-        <v>40.714285714285715</v>
-      </c>
-      <c r="U203" s="1">
-        <v>17</v>
-      </c>
-      <c r="V203" s="1">
-        <v>9.4285714285714288</v>
-      </c>
-    </row>
-    <row r="204" spans="7:27" x14ac:dyDescent="0.25">
-      <c r="N204" s="1">
-        <v>20.428571428571427</v>
-      </c>
-      <c r="O204" s="1">
-        <v>65.571428571428569</v>
-      </c>
-      <c r="P204" s="1">
-        <v>105.28571428571429</v>
-      </c>
-      <c r="Q204" s="1">
-        <v>73.428571428571431</v>
-      </c>
-      <c r="R204" s="1">
-        <v>60.285714285714285</v>
-      </c>
-      <c r="S204" s="1">
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E218" s="1">
         <v>69</v>
       </c>
-      <c r="T204" s="1">
-        <v>41.285714285714285</v>
-      </c>
-      <c r="U204" s="1">
-        <v>17.285714285714285</v>
-      </c>
-      <c r="V204" s="1">
-        <v>8.5714285714285712</v>
-      </c>
-    </row>
-    <row r="209" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N209" s="3">
-        <v>44094</v>
-      </c>
-      <c r="O209" s="3">
-        <v>44095</v>
-      </c>
-      <c r="P209" s="3">
-        <v>44096</v>
-      </c>
-      <c r="Q209" s="3">
-        <v>44097</v>
-      </c>
-      <c r="R209" s="3">
-        <v>44098</v>
-      </c>
-      <c r="S209" s="3">
-        <v>44099</v>
-      </c>
-      <c r="T209" s="3">
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="210" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N210" s="1">
-        <v>25.285714285714285</v>
-      </c>
-      <c r="O210" s="1">
-        <v>22.428571428571427</v>
-      </c>
-      <c r="P210" s="1">
-        <v>20.142857142857142</v>
-      </c>
-      <c r="Q210" s="1">
-        <v>20.285714285714285</v>
-      </c>
-      <c r="R210" s="1">
-        <v>19.857142857142858</v>
-      </c>
-      <c r="S210" s="1">
-        <v>20.428571428571427</v>
-      </c>
-      <c r="T210" s="1">
-        <v>20.428571428571427</v>
-      </c>
-    </row>
-    <row r="211" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N211" s="1">
-        <v>104</v>
-      </c>
-      <c r="O211" s="1">
-        <v>99</v>
-      </c>
-      <c r="P211" s="1">
-        <v>89.571428571428569</v>
-      </c>
-      <c r="Q211" s="1">
-        <v>79.571428571428569</v>
-      </c>
-      <c r="R211" s="1">
-        <v>75.142857142857139</v>
-      </c>
-      <c r="S211" s="1">
-        <v>72.142857142857139</v>
-      </c>
-      <c r="T211" s="1">
-        <v>65.571428571428569</v>
-      </c>
-    </row>
-    <row r="212" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N212" s="1">
-        <v>140.57142857142858</v>
-      </c>
-      <c r="O212" s="1">
-        <v>136.57142857142858</v>
-      </c>
-      <c r="P212" s="1">
-        <v>126.42857142857143</v>
-      </c>
-      <c r="Q212" s="1">
-        <v>119.71428571428571</v>
-      </c>
-      <c r="R212" s="1">
-        <v>113.28571428571429</v>
-      </c>
-      <c r="S212" s="1">
-        <v>110</v>
-      </c>
-      <c r="T212" s="1">
-        <v>105.28571428571429</v>
-      </c>
-    </row>
-    <row r="213" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N213" s="1">
-        <v>85.857142857142861</v>
-      </c>
-      <c r="O213" s="1">
-        <v>84.428571428571431</v>
-      </c>
-      <c r="P213" s="1">
-        <v>81.571428571428569</v>
-      </c>
-      <c r="Q213" s="1">
-        <v>75.142857142857139</v>
-      </c>
-      <c r="R213" s="1">
-        <v>71.571428571428569</v>
-      </c>
-      <c r="S213" s="1">
-        <v>73.428571428571431</v>
-      </c>
-      <c r="T213" s="1">
-        <v>73.428571428571431</v>
-      </c>
-    </row>
-    <row r="214" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N214" s="1">
-        <v>62.714285714285715</v>
-      </c>
-      <c r="O214" s="1">
-        <v>63.428571428571431</v>
-      </c>
-      <c r="P214" s="1">
-        <v>60.714285714285715</v>
-      </c>
-      <c r="Q214" s="1">
-        <v>59</v>
-      </c>
-      <c r="R214" s="1">
-        <v>59.285714285714285</v>
-      </c>
-      <c r="S214" s="1">
-        <v>61.857142857142854</v>
-      </c>
-      <c r="T214" s="1">
-        <v>60.285714285714285</v>
-      </c>
-    </row>
-    <row r="215" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N215" s="1">
-        <v>78.571428571428569</v>
-      </c>
-      <c r="O215" s="1">
-        <v>74.428571428571431</v>
-      </c>
-      <c r="P215" s="1">
-        <v>71</v>
-      </c>
-      <c r="Q215" s="1">
-        <v>68.857142857142861</v>
-      </c>
-      <c r="R215" s="1">
-        <v>65.857142857142861</v>
-      </c>
-      <c r="S215" s="1">
-        <v>66</v>
-      </c>
-      <c r="T215" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N216" s="1">
-        <v>45</v>
-      </c>
-      <c r="O216" s="1">
-        <v>44.857142857142854</v>
-      </c>
-      <c r="P216" s="1">
-        <v>41.571428571428569</v>
-      </c>
-      <c r="Q216" s="1">
-        <v>38.142857142857146</v>
-      </c>
-      <c r="R216" s="1">
-        <v>38.857142857142854</v>
-      </c>
-      <c r="S216" s="1">
-        <v>40.714285714285715</v>
-      </c>
-      <c r="T216" s="1">
-        <v>41.285714285714285</v>
-      </c>
-    </row>
-    <row r="217" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N217" s="1">
-        <v>24</v>
-      </c>
-      <c r="O217" s="1">
-        <v>23</v>
-      </c>
-      <c r="P217" s="1">
-        <v>21.571428571428573</v>
-      </c>
-      <c r="Q217" s="1">
-        <v>17.428571428571427</v>
-      </c>
-      <c r="R217" s="1">
-        <v>16</v>
-      </c>
-      <c r="S217" s="1">
-        <v>17</v>
-      </c>
-      <c r="T217" s="1">
-        <v>17.285714285714285</v>
-      </c>
-    </row>
-    <row r="218" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N218" s="1">
-        <v>12</v>
-      </c>
-      <c r="O218" s="1">
-        <v>12.142857142857142</v>
-      </c>
-      <c r="P218" s="1">
-        <v>11.285714285714286</v>
-      </c>
-      <c r="Q218" s="1">
-        <v>8.8571428571428577</v>
-      </c>
-      <c r="R218" s="1">
-        <v>8.8571428571428577</v>
-      </c>
-      <c r="S218" s="1">
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="T218" s="1">
-        <v>8.5714285714285712</v>
-      </c>
+      <c r="F218" s="1">
+        <v>68.714285714285708</v>
+      </c>
+      <c r="G218" s="1">
+        <v>71.857142857142861</v>
+      </c>
+      <c r="H218" s="1">
+        <v>72.571428571428569</v>
+      </c>
+      <c r="I218" s="1">
+        <v>74.142857142857139</v>
+      </c>
+      <c r="J218" s="1">
+        <v>76.857142857142861</v>
+      </c>
+      <c r="K218" s="1">
+        <v>79.285714285714292</v>
+      </c>
+      <c r="L218" s="1">
+        <v>75</v>
+      </c>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
       <c r="U218" s="1"/>
       <c r="V218" s="1"/>
     </row>
-    <row r="221" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E219" s="1">
+        <v>41.285714285714285</v>
+      </c>
+      <c r="F219" s="1">
+        <v>41</v>
+      </c>
+      <c r="G219" s="1">
+        <v>41.571428571428569</v>
+      </c>
+      <c r="H219" s="1">
+        <v>42.571428571428569</v>
+      </c>
+      <c r="I219" s="1">
+        <v>43.428571428571431</v>
+      </c>
+      <c r="J219" s="1">
+        <v>46</v>
+      </c>
+      <c r="K219" s="1">
+        <v>50</v>
+      </c>
+      <c r="L219" s="1">
+        <v>48.857142857142854</v>
+      </c>
+    </row>
+    <row r="220" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E220" s="1">
+        <v>17.285714285714285</v>
+      </c>
+      <c r="F220" s="1">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="G220" s="1">
+        <v>18.428571428571427</v>
+      </c>
+      <c r="H220" s="1">
+        <v>20</v>
+      </c>
+      <c r="I220" s="1">
+        <v>22.714285714285715</v>
+      </c>
+      <c r="J220" s="1">
+        <v>25.857142857142858</v>
+      </c>
+      <c r="K220" s="1">
+        <v>28.142857142857142</v>
+      </c>
+      <c r="L220" s="1">
+        <v>29.571428571428573</v>
+      </c>
+    </row>
+    <row r="221" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E221" s="1">
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="F221" s="1">
+        <v>9</v>
+      </c>
+      <c r="G221" s="1">
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="H221" s="1">
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="I221" s="1">
+        <v>10</v>
+      </c>
+      <c r="J221" s="1">
+        <v>10.714285714285714</v>
+      </c>
+      <c r="K221" s="1">
+        <v>11.428571428571429</v>
+      </c>
+      <c r="L221" s="1">
+        <v>13.714285714285714</v>
+      </c>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:22" x14ac:dyDescent="0.25">
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:22" x14ac:dyDescent="0.25">
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:22" x14ac:dyDescent="0.25">
       <c r="N224" s="1"/>
     </row>
     <row r="225" spans="14:14" x14ac:dyDescent="0.25">

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE0043A3-2681-4C8F-9A57-9CD62715E4C0}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BB05896-98A2-4B8D-B86F-A4350B9A5FB0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,18 +919,22 @@
   <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E212" sqref="E212:L221"/>
+      <selection pane="bottomRight" activeCell="N217" sqref="N217:V226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -20421,205 +20425,855 @@
       </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G192" s="3"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
+      <c r="A192" s="3">
+        <v>44108</v>
+      </c>
+      <c r="B192">
+        <v>4777</v>
+      </c>
+      <c r="C192">
+        <v>10918</v>
+      </c>
+      <c r="D192">
+        <v>24113</v>
+      </c>
+      <c r="E192">
+        <v>22934</v>
+      </c>
+      <c r="F192">
+        <v>20267</v>
+      </c>
+      <c r="G192">
+        <v>18546</v>
+      </c>
+      <c r="H192">
+        <v>12419</v>
+      </c>
+      <c r="I192">
+        <v>7394</v>
+      </c>
+      <c r="J192">
+        <v>5922</v>
+      </c>
       <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="S192" s="3"/>
-      <c r="T192" s="3"/>
-      <c r="U192" s="3"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-      <c r="AA192" s="3"/>
-    </row>
-    <row r="193" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G193" s="3"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
+      <c r="L192">
+        <f t="shared" ref="L192:L199" si="344">SUM(B192-B191)</f>
+        <v>26</v>
+      </c>
+      <c r="M192">
+        <f t="shared" ref="M192:M199" si="345">SUM(C192-C191)</f>
+        <v>60</v>
+      </c>
+      <c r="N192">
+        <f t="shared" ref="N192:N199" si="346">SUM(D192-D191)</f>
+        <v>101</v>
+      </c>
+      <c r="O192">
+        <f t="shared" ref="O192:O199" si="347">SUM(E192-E191)</f>
+        <v>75</v>
+      </c>
+      <c r="P192">
+        <f t="shared" ref="P192:P199" si="348">SUM(F192-F191)</f>
+        <v>71</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" ref="Q192:Q199" si="349">SUM(G192-G191)</f>
+        <v>56</v>
+      </c>
+      <c r="R192">
+        <f t="shared" ref="R192:R199" si="350">SUM(H192-H191)</f>
+        <v>51</v>
+      </c>
+      <c r="S192">
+        <f t="shared" ref="S192:S199" si="351">SUM(I192-I191)</f>
+        <v>20</v>
+      </c>
+      <c r="T192">
+        <f t="shared" ref="T192:T199" si="352">SUM(J192-J191)</f>
+        <v>11</v>
+      </c>
+      <c r="V192" s="1">
+        <f t="shared" ref="V192:V199" si="353">AVERAGE(L186:L192)</f>
+        <v>27.428571428571427</v>
+      </c>
+      <c r="W192" s="1">
+        <f t="shared" ref="W192:W199" si="354">AVERAGE(M186:M192)</f>
+        <v>79.571428571428569</v>
+      </c>
+      <c r="X192" s="1">
+        <f t="shared" ref="X192:X199" si="355">AVERAGE(N186:N192)</f>
+        <v>117.42857142857143</v>
+      </c>
+      <c r="Y192" s="1">
+        <f t="shared" ref="Y192:Y199" si="356">AVERAGE(O186:O192)</f>
+        <v>86.571428571428569</v>
+      </c>
+      <c r="Z192" s="1">
+        <f t="shared" ref="Z192:Z199" si="357">AVERAGE(P186:P192)</f>
+        <v>75</v>
+      </c>
+      <c r="AA192" s="1">
+        <f t="shared" ref="AA192:AA199" si="358">AVERAGE(Q186:Q192)</f>
+        <v>75</v>
+      </c>
+      <c r="AB192" s="1">
+        <f t="shared" ref="AB192:AB199" si="359">AVERAGE(R186:R192)</f>
+        <v>51.285714285714285</v>
+      </c>
+      <c r="AC192" s="1">
+        <f t="shared" ref="AC192:AC199" si="360">AVERAGE(S186:S192)</f>
+        <v>30.142857142857142</v>
+      </c>
+      <c r="AD192" s="1">
+        <f t="shared" ref="AD192:AD199" si="361">AVERAGE(T186:T192)</f>
+        <v>12.857142857142858</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>44109</v>
+      </c>
+      <c r="B193">
+        <v>4813</v>
+      </c>
+      <c r="C193">
+        <v>10981</v>
+      </c>
+      <c r="D193">
+        <v>24196</v>
+      </c>
+      <c r="E193">
+        <v>23012</v>
+      </c>
+      <c r="F193">
+        <v>20351</v>
+      </c>
+      <c r="G193">
+        <v>18606</v>
+      </c>
+      <c r="H193">
+        <v>12471</v>
+      </c>
+      <c r="I193">
+        <v>7424</v>
+      </c>
+      <c r="J193">
+        <v>5937</v>
+      </c>
       <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="S193" s="1"/>
-      <c r="T193" s="1"/>
-      <c r="U193" s="1"/>
-      <c r="V193" s="1"/>
-      <c r="W193" s="1"/>
-      <c r="X193" s="1"/>
-      <c r="Y193" s="1"/>
-      <c r="Z193" s="1"/>
-      <c r="AA193" s="1"/>
-    </row>
-    <row r="194" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G194" s="3"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
+      <c r="L193">
+        <f t="shared" si="344"/>
+        <v>36</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="345"/>
+        <v>63</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="346"/>
+        <v>83</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="347"/>
+        <v>78</v>
+      </c>
+      <c r="P193">
+        <f t="shared" si="348"/>
+        <v>84</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" si="349"/>
+        <v>60</v>
+      </c>
+      <c r="R193">
+        <f t="shared" si="350"/>
+        <v>52</v>
+      </c>
+      <c r="S193">
+        <f t="shared" si="351"/>
+        <v>30</v>
+      </c>
+      <c r="T193">
+        <f t="shared" si="352"/>
+        <v>15</v>
+      </c>
+      <c r="V193" s="1">
+        <f t="shared" si="353"/>
+        <v>28.142857142857142</v>
+      </c>
+      <c r="W193" s="1">
+        <f t="shared" si="354"/>
+        <v>78</v>
+      </c>
+      <c r="X193" s="1">
+        <f t="shared" si="355"/>
+        <v>115.71428571428571</v>
+      </c>
+      <c r="Y193" s="1">
+        <f t="shared" si="356"/>
+        <v>86.714285714285708</v>
+      </c>
+      <c r="Z193" s="1">
+        <f t="shared" si="357"/>
+        <v>78.142857142857139</v>
+      </c>
+      <c r="AA193" s="1">
+        <f t="shared" si="358"/>
+        <v>73.571428571428569</v>
+      </c>
+      <c r="AB193" s="1">
+        <f t="shared" si="359"/>
+        <v>53.571428571428569</v>
+      </c>
+      <c r="AC193" s="1">
+        <f t="shared" si="360"/>
+        <v>31.142857142857142</v>
+      </c>
+      <c r="AD193" s="1">
+        <f t="shared" si="361"/>
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>44110</v>
+      </c>
+      <c r="B194">
+        <v>4825</v>
+      </c>
+      <c r="C194">
+        <v>11030</v>
+      </c>
+      <c r="D194">
+        <v>24274</v>
+      </c>
+      <c r="E194">
+        <v>23085</v>
+      </c>
+      <c r="F194">
+        <v>20405</v>
+      </c>
+      <c r="G194">
+        <v>18677</v>
+      </c>
+      <c r="H194">
+        <v>12509</v>
+      </c>
+      <c r="I194">
+        <v>7443</v>
+      </c>
+      <c r="J194">
+        <v>5956</v>
+      </c>
       <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="S194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
-      <c r="V194" s="1"/>
-      <c r="W194" s="1"/>
-      <c r="X194" s="1"/>
-      <c r="Y194" s="1"/>
-      <c r="Z194" s="1"/>
-      <c r="AA194" s="1"/>
-    </row>
-    <row r="195" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G195" s="3"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
+      <c r="L194">
+        <f t="shared" si="344"/>
+        <v>12</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="345"/>
+        <v>49</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="346"/>
+        <v>78</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="347"/>
+        <v>73</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="348"/>
+        <v>54</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" si="349"/>
+        <v>71</v>
+      </c>
+      <c r="R194">
+        <f t="shared" si="350"/>
+        <v>38</v>
+      </c>
+      <c r="S194">
+        <f t="shared" si="351"/>
+        <v>19</v>
+      </c>
+      <c r="T194">
+        <f t="shared" si="352"/>
+        <v>19</v>
+      </c>
+      <c r="V194" s="1">
+        <f t="shared" si="353"/>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="W194" s="1">
+        <f t="shared" si="354"/>
+        <v>78.142857142857139</v>
+      </c>
+      <c r="X194" s="1">
+        <f t="shared" si="355"/>
+        <v>114.71428571428571</v>
+      </c>
+      <c r="Y194" s="1">
+        <f t="shared" si="356"/>
+        <v>85.857142857142861</v>
+      </c>
+      <c r="Z194" s="1">
+        <f t="shared" si="357"/>
+        <v>77.142857142857139</v>
+      </c>
+      <c r="AA194" s="1">
+        <f t="shared" si="358"/>
+        <v>74.857142857142861</v>
+      </c>
+      <c r="AB194" s="1">
+        <f t="shared" si="359"/>
+        <v>53.142857142857146</v>
+      </c>
+      <c r="AC194" s="1">
+        <f t="shared" si="360"/>
+        <v>30.285714285714285</v>
+      </c>
+      <c r="AD194" s="1">
+        <f t="shared" si="361"/>
+        <v>14.857142857142858</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>44111</v>
+      </c>
+      <c r="B195">
+        <v>4848</v>
+      </c>
+      <c r="C195">
+        <v>11082</v>
+      </c>
+      <c r="D195">
+        <v>24365</v>
+      </c>
+      <c r="E195">
+        <v>23156</v>
+      </c>
+      <c r="F195">
+        <v>20469</v>
+      </c>
+      <c r="G195">
+        <v>18749</v>
+      </c>
+      <c r="H195">
+        <v>12553</v>
+      </c>
+      <c r="I195">
+        <v>7475</v>
+      </c>
+      <c r="J195">
+        <v>5967</v>
+      </c>
       <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="S195" s="1"/>
-      <c r="T195" s="1"/>
-      <c r="U195" s="1"/>
-      <c r="V195" s="1"/>
-      <c r="W195" s="1"/>
-      <c r="X195" s="1"/>
-      <c r="Y195" s="1"/>
-      <c r="Z195" s="1"/>
-      <c r="AA195" s="1"/>
-    </row>
-    <row r="196" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G196" s="3"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
+      <c r="L195">
+        <f t="shared" si="344"/>
+        <v>23</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="345"/>
+        <v>52</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="346"/>
+        <v>91</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="347"/>
+        <v>71</v>
+      </c>
+      <c r="P195">
+        <f t="shared" si="348"/>
+        <v>64</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" si="349"/>
+        <v>72</v>
+      </c>
+      <c r="R195">
+        <f t="shared" si="350"/>
+        <v>44</v>
+      </c>
+      <c r="S195">
+        <f t="shared" si="351"/>
+        <v>32</v>
+      </c>
+      <c r="T195">
+        <f t="shared" si="352"/>
+        <v>11</v>
+      </c>
+      <c r="V195" s="1">
+        <f t="shared" si="353"/>
+        <v>27.428571428571427</v>
+      </c>
+      <c r="W195" s="1">
+        <f t="shared" si="354"/>
+        <v>80.142857142857139</v>
+      </c>
+      <c r="X195" s="1">
+        <f t="shared" si="355"/>
+        <v>114.42857142857143</v>
+      </c>
+      <c r="Y195" s="1">
+        <f t="shared" si="356"/>
+        <v>86.571428571428569</v>
+      </c>
+      <c r="Z195" s="1">
+        <f t="shared" si="357"/>
+        <v>79.428571428571431</v>
+      </c>
+      <c r="AA195" s="1">
+        <f t="shared" si="358"/>
+        <v>75.142857142857139</v>
+      </c>
+      <c r="AB195" s="1">
+        <f t="shared" si="359"/>
+        <v>54</v>
+      </c>
+      <c r="AC195" s="1">
+        <f t="shared" si="360"/>
+        <v>30.428571428571427</v>
+      </c>
+      <c r="AD195" s="1">
+        <f t="shared" si="361"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>44112</v>
+      </c>
+      <c r="B196">
+        <v>4886</v>
+      </c>
+      <c r="C196">
+        <v>11199</v>
+      </c>
+      <c r="D196">
+        <v>24524</v>
+      </c>
+      <c r="E196">
+        <v>23259</v>
+      </c>
+      <c r="F196">
+        <v>20588</v>
+      </c>
+      <c r="G196">
+        <v>18853</v>
+      </c>
+      <c r="H196">
+        <v>12626</v>
+      </c>
+      <c r="I196">
+        <v>7507</v>
+      </c>
+      <c r="J196">
+        <v>5983</v>
+      </c>
       <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="S196" s="1"/>
-      <c r="T196" s="1"/>
-      <c r="U196" s="1"/>
-      <c r="V196" s="1"/>
-      <c r="W196" s="1"/>
-      <c r="X196" s="1"/>
-      <c r="Y196" s="1"/>
-      <c r="Z196" s="1"/>
-      <c r="AA196" s="1"/>
-    </row>
-    <row r="197" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G197" s="3"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
+      <c r="L196">
+        <f t="shared" si="344"/>
+        <v>38</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="345"/>
+        <v>117</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="346"/>
+        <v>159</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="347"/>
+        <v>103</v>
+      </c>
+      <c r="P196">
+        <f t="shared" si="348"/>
+        <v>119</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" si="349"/>
+        <v>104</v>
+      </c>
+      <c r="R196">
+        <f t="shared" si="350"/>
+        <v>73</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="351"/>
+        <v>32</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="352"/>
+        <v>16</v>
+      </c>
+      <c r="V196" s="1">
+        <f t="shared" si="353"/>
+        <v>28.142857142857142</v>
+      </c>
+      <c r="W196" s="1">
+        <f t="shared" si="354"/>
+        <v>74</v>
+      </c>
+      <c r="X196" s="1">
+        <f t="shared" si="355"/>
+        <v>111.85714285714286</v>
+      </c>
+      <c r="Y196" s="1">
+        <f t="shared" si="356"/>
+        <v>86.428571428571431</v>
+      </c>
+      <c r="Z196" s="1">
+        <f t="shared" si="357"/>
+        <v>83.142857142857139</v>
+      </c>
+      <c r="AA196" s="1">
+        <f t="shared" si="358"/>
+        <v>75.857142857142861</v>
+      </c>
+      <c r="AB196" s="1">
+        <f t="shared" si="359"/>
+        <v>55.285714285714285</v>
+      </c>
+      <c r="AC196" s="1">
+        <f t="shared" si="360"/>
+        <v>29.142857142857142</v>
+      </c>
+      <c r="AD196" s="1">
+        <f t="shared" si="361"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>44113</v>
+      </c>
+      <c r="B197">
+        <v>4924</v>
+      </c>
+      <c r="C197">
+        <v>11283</v>
+      </c>
+      <c r="D197">
+        <v>24663</v>
+      </c>
+      <c r="E197">
+        <v>23393</v>
+      </c>
+      <c r="F197">
+        <v>20690</v>
+      </c>
+      <c r="G197">
+        <v>18965</v>
+      </c>
+      <c r="H197">
+        <v>12691</v>
+      </c>
+      <c r="I197">
+        <v>7550</v>
+      </c>
+      <c r="J197">
+        <v>6000</v>
+      </c>
       <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="S197" s="1"/>
-      <c r="T197" s="1"/>
-      <c r="U197" s="1"/>
-      <c r="V197" s="1"/>
-      <c r="W197" s="1"/>
-      <c r="X197" s="1"/>
-      <c r="Y197" s="1"/>
-      <c r="Z197" s="1"/>
-      <c r="AA197" s="1"/>
-    </row>
-    <row r="198" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G198" s="3"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
+      <c r="L197">
+        <f t="shared" si="344"/>
+        <v>38</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="345"/>
+        <v>84</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="346"/>
+        <v>139</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="347"/>
+        <v>134</v>
+      </c>
+      <c r="P197">
+        <f t="shared" si="348"/>
+        <v>102</v>
+      </c>
+      <c r="Q197">
+        <f t="shared" si="349"/>
+        <v>112</v>
+      </c>
+      <c r="R197">
+        <f t="shared" si="350"/>
+        <v>65</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="351"/>
+        <v>43</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="352"/>
+        <v>17</v>
+      </c>
+      <c r="V197" s="1">
+        <f t="shared" si="353"/>
+        <v>28.714285714285715</v>
+      </c>
+      <c r="W197" s="1">
+        <f t="shared" si="354"/>
+        <v>71.714285714285708</v>
+      </c>
+      <c r="X197" s="1">
+        <f t="shared" si="355"/>
+        <v>111.85714285714286</v>
+      </c>
+      <c r="Y197" s="1">
+        <f t="shared" si="356"/>
+        <v>89</v>
+      </c>
+      <c r="Z197" s="1">
+        <f t="shared" si="357"/>
+        <v>83.428571428571431</v>
+      </c>
+      <c r="AA197" s="1">
+        <f t="shared" si="358"/>
+        <v>78</v>
+      </c>
+      <c r="AB197" s="1">
+        <f t="shared" si="359"/>
+        <v>54.142857142857146</v>
+      </c>
+      <c r="AC197" s="1">
+        <f t="shared" si="360"/>
+        <v>29.714285714285715</v>
+      </c>
+      <c r="AD197" s="1">
+        <f t="shared" si="361"/>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>44114</v>
+      </c>
+      <c r="B198">
+        <v>4957</v>
+      </c>
+      <c r="C198">
+        <v>11358</v>
+      </c>
+      <c r="D198">
+        <v>24778</v>
+      </c>
+      <c r="E198">
+        <v>23506</v>
+      </c>
+      <c r="F198">
+        <v>20775</v>
+      </c>
+      <c r="G198">
+        <v>19055</v>
+      </c>
+      <c r="H198">
+        <v>12766</v>
+      </c>
+      <c r="I198">
+        <v>7583</v>
+      </c>
+      <c r="J198">
+        <v>6017</v>
+      </c>
       <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-      <c r="S198" s="1"/>
-      <c r="T198" s="1"/>
-      <c r="U198" s="1"/>
-      <c r="V198" s="1"/>
-      <c r="W198" s="1"/>
-      <c r="X198" s="1"/>
-      <c r="Y198" s="1"/>
-      <c r="Z198" s="1"/>
-      <c r="AA198" s="1"/>
-    </row>
-    <row r="199" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="G199" s="3"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
+      <c r="L198">
+        <f t="shared" si="344"/>
+        <v>33</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="345"/>
+        <v>75</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="346"/>
+        <v>115</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="347"/>
+        <v>113</v>
+      </c>
+      <c r="P198">
+        <f t="shared" si="348"/>
+        <v>85</v>
+      </c>
+      <c r="Q198">
+        <f t="shared" si="349"/>
+        <v>90</v>
+      </c>
+      <c r="R198">
+        <f t="shared" si="350"/>
+        <v>75</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="351"/>
+        <v>33</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="352"/>
+        <v>17</v>
+      </c>
+      <c r="V198" s="1">
+        <f t="shared" si="353"/>
+        <v>29.428571428571427</v>
+      </c>
+      <c r="W198" s="1">
+        <f t="shared" si="354"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="X198" s="1">
+        <f t="shared" si="355"/>
+        <v>109.42857142857143</v>
+      </c>
+      <c r="Y198" s="1">
+        <f t="shared" si="356"/>
+        <v>92.428571428571431</v>
+      </c>
+      <c r="Z198" s="1">
+        <f t="shared" si="357"/>
+        <v>82.714285714285708</v>
+      </c>
+      <c r="AA198" s="1">
+        <f t="shared" si="358"/>
+        <v>80.714285714285708</v>
+      </c>
+      <c r="AB198" s="1">
+        <f t="shared" si="359"/>
+        <v>56.857142857142854</v>
+      </c>
+      <c r="AC198" s="1">
+        <f t="shared" si="360"/>
+        <v>29.857142857142858</v>
+      </c>
+      <c r="AD198" s="1">
+        <f t="shared" si="361"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>44115</v>
+      </c>
+      <c r="B199">
+        <v>4983</v>
+      </c>
+      <c r="C199">
+        <v>11407</v>
+      </c>
+      <c r="D199">
+        <v>24882</v>
+      </c>
+      <c r="E199">
+        <v>23603</v>
+      </c>
+      <c r="F199">
+        <v>20854</v>
+      </c>
+      <c r="G199">
+        <v>19143</v>
+      </c>
+      <c r="H199">
+        <v>12842</v>
+      </c>
+      <c r="I199">
+        <v>7614</v>
+      </c>
+      <c r="J199">
+        <v>6029</v>
+      </c>
       <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
-      <c r="W199" s="1"/>
-      <c r="X199" s="1"/>
-      <c r="Y199" s="1"/>
-      <c r="Z199" s="1"/>
-      <c r="AA199" s="1"/>
-    </row>
-    <row r="200" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D200" s="1">
-        <v>20.428571428571427</v>
-      </c>
-      <c r="E200" s="1">
-        <v>65.571428571428569</v>
-      </c>
-      <c r="F200" s="1">
-        <v>105.28571428571429</v>
-      </c>
-      <c r="G200" s="1">
-        <v>73.428571428571431</v>
-      </c>
-      <c r="H200" s="1">
-        <v>60.285714285714285</v>
-      </c>
-      <c r="I200" s="1">
-        <v>69</v>
-      </c>
-      <c r="J200" s="1">
-        <v>41.285714285714285</v>
-      </c>
-      <c r="K200" s="1">
-        <v>17.285714285714285</v>
-      </c>
-      <c r="L200" s="1">
-        <v>8.5714285714285712</v>
-      </c>
+      <c r="L199">
+        <f t="shared" si="344"/>
+        <v>26</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="345"/>
+        <v>49</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="346"/>
+        <v>104</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="347"/>
+        <v>97</v>
+      </c>
+      <c r="P199">
+        <f t="shared" si="348"/>
+        <v>79</v>
+      </c>
+      <c r="Q199">
+        <f t="shared" si="349"/>
+        <v>88</v>
+      </c>
+      <c r="R199">
+        <f t="shared" si="350"/>
+        <v>76</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="351"/>
+        <v>31</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="352"/>
+        <v>12</v>
+      </c>
+      <c r="V199" s="1">
+        <f t="shared" si="353"/>
+        <v>29.428571428571427</v>
+      </c>
+      <c r="W199" s="1">
+        <f t="shared" si="354"/>
+        <v>69.857142857142861</v>
+      </c>
+      <c r="X199" s="1">
+        <f t="shared" si="355"/>
+        <v>109.85714285714286</v>
+      </c>
+      <c r="Y199" s="1">
+        <f t="shared" si="356"/>
+        <v>95.571428571428569</v>
+      </c>
+      <c r="Z199" s="1">
+        <f t="shared" si="357"/>
+        <v>83.857142857142861</v>
+      </c>
+      <c r="AA199" s="1">
+        <f t="shared" si="358"/>
+        <v>85.285714285714292</v>
+      </c>
+      <c r="AB199" s="1">
+        <f t="shared" si="359"/>
+        <v>60.428571428571431</v>
+      </c>
+      <c r="AC199" s="1">
+        <f t="shared" si="360"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AD199" s="1">
+        <f t="shared" si="361"/>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -20636,34 +21290,16 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D201" s="1">
-        <v>21.428571428571427</v>
-      </c>
-      <c r="E201" s="1">
-        <v>64.285714285714292</v>
-      </c>
-      <c r="F201" s="1">
-        <v>106.14285714285714</v>
-      </c>
-      <c r="G201" s="1">
-        <v>73.714285714285708</v>
-      </c>
-      <c r="H201" s="1">
-        <v>62.428571428571431</v>
-      </c>
-      <c r="I201" s="1">
-        <v>68.714285714285708</v>
-      </c>
-      <c r="J201" s="1">
-        <v>41</v>
-      </c>
-      <c r="K201" s="1">
-        <v>17.142857142857142</v>
-      </c>
-      <c r="L201" s="1">
-        <v>9</v>
-      </c>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
@@ -20679,34 +21315,16 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D202" s="1">
-        <v>24</v>
-      </c>
-      <c r="E202" s="1">
-        <v>64.857142857142861</v>
-      </c>
-      <c r="F202" s="1">
-        <v>105.28571428571429</v>
-      </c>
-      <c r="G202" s="1">
-        <v>76.428571428571431</v>
-      </c>
-      <c r="H202" s="1">
-        <v>62</v>
-      </c>
-      <c r="I202" s="1">
-        <v>71.857142857142861</v>
-      </c>
-      <c r="J202" s="1">
-        <v>41.571428571428569</v>
-      </c>
-      <c r="K202" s="1">
-        <v>18.428571428571427</v>
-      </c>
-      <c r="L202" s="1">
-        <v>8.7142857142857135</v>
-      </c>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
@@ -20717,34 +21335,16 @@
       <c r="U202" s="1"/>
       <c r="V202" s="1"/>
     </row>
-    <row r="203" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D203" s="1">
-        <v>24.714285714285715</v>
-      </c>
-      <c r="E203" s="1">
-        <v>66.857142857142861</v>
-      </c>
-      <c r="F203" s="1">
-        <v>105.14285714285714</v>
-      </c>
-      <c r="G203" s="1">
-        <v>78.714285714285708</v>
-      </c>
-      <c r="H203" s="1">
-        <v>65.428571428571431</v>
-      </c>
-      <c r="I203" s="1">
-        <v>72.571428571428569</v>
-      </c>
-      <c r="J203" s="1">
-        <v>42.571428571428569</v>
-      </c>
-      <c r="K203" s="1">
-        <v>20</v>
-      </c>
-      <c r="L203" s="1">
-        <v>9.5714285714285712</v>
-      </c>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
@@ -20755,34 +21355,16 @@
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
     </row>
-    <row r="204" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D204" s="1">
-        <v>24.142857142857142</v>
-      </c>
-      <c r="E204" s="1">
-        <v>63.714285714285715</v>
-      </c>
-      <c r="F204" s="1">
-        <v>105.85714285714286</v>
-      </c>
-      <c r="G204" s="1">
-        <v>81</v>
-      </c>
-      <c r="H204" s="1">
-        <v>64.714285714285708</v>
-      </c>
-      <c r="I204" s="1">
-        <v>74.142857142857139</v>
-      </c>
-      <c r="J204" s="1">
-        <v>43.428571428571431</v>
-      </c>
-      <c r="K204" s="1">
-        <v>22.714285714285715</v>
-      </c>
-      <c r="L204" s="1">
-        <v>10</v>
-      </c>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
@@ -20793,94 +21375,40 @@
       <c r="U204" s="1"/>
       <c r="V204" s="1"/>
     </row>
-    <row r="205" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D205" s="1">
-        <v>26.285714285714285</v>
-      </c>
-      <c r="E205" s="1">
-        <v>77.285714285714292</v>
-      </c>
-      <c r="F205" s="1">
-        <v>114.71428571428571</v>
-      </c>
-      <c r="G205" s="1">
-        <v>84.285714285714292</v>
-      </c>
-      <c r="H205" s="1">
-        <v>68</v>
-      </c>
-      <c r="I205" s="1">
-        <v>76.857142857142861</v>
-      </c>
-      <c r="J205" s="1">
-        <v>46</v>
-      </c>
-      <c r="K205" s="1">
-        <v>25.857142857142858</v>
-      </c>
-      <c r="L205" s="1">
-        <v>10.714285714285714</v>
-      </c>
-    </row>
-    <row r="206" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D206" s="1">
-        <v>27.285714285714285</v>
-      </c>
-      <c r="E206" s="1">
-        <v>81.285714285714292</v>
-      </c>
-      <c r="F206" s="1">
-        <v>117.85714285714286</v>
-      </c>
-      <c r="G206" s="1">
-        <v>86.714285714285708</v>
-      </c>
-      <c r="H206" s="1">
-        <v>69.857142857142861</v>
-      </c>
-      <c r="I206" s="1">
-        <v>79.285714285714292</v>
-      </c>
-      <c r="J206" s="1">
-        <v>50</v>
-      </c>
-      <c r="K206" s="1">
-        <v>28.142857142857142</v>
-      </c>
-      <c r="L206" s="1">
-        <v>11.428571428571429</v>
-      </c>
-    </row>
-    <row r="207" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D207" s="1">
-        <v>27.571428571428573</v>
-      </c>
-      <c r="E207" s="1">
-        <v>81.142857142857139</v>
-      </c>
-      <c r="F207" s="1">
-        <v>116.71428571428571</v>
-      </c>
-      <c r="G207" s="1">
-        <v>84.857142857142861</v>
-      </c>
-      <c r="H207" s="1">
-        <v>72.142857142857139</v>
-      </c>
-      <c r="I207" s="1">
-        <v>75</v>
-      </c>
-      <c r="J207" s="1">
-        <v>48.857142857142854</v>
-      </c>
-      <c r="K207" s="1">
-        <v>29.571428571428573</v>
-      </c>
-      <c r="L207" s="1">
-        <v>13.714285714285714</v>
-      </c>
-    </row>
-    <row r="209" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+    </row>
+    <row r="209" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
@@ -20889,7 +21417,7 @@
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
     </row>
-    <row r="210" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
@@ -20898,7 +21426,7 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
     </row>
-    <row r="211" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
@@ -20907,31 +21435,15 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
     </row>
-    <row r="212" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E212" s="3">
-        <v>44100</v>
-      </c>
-      <c r="F212" s="3">
-        <v>44101</v>
-      </c>
-      <c r="G212" s="3">
-        <v>44102</v>
-      </c>
-      <c r="H212" s="3">
-        <v>44103</v>
-      </c>
-      <c r="I212" s="3">
-        <v>44104</v>
-      </c>
-      <c r="J212" s="3">
-        <v>44105</v>
-      </c>
-      <c r="K212" s="3">
-        <v>44106</v>
-      </c>
-      <c r="L212" s="3">
-        <v>44107</v>
-      </c>
+    <row r="212" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
@@ -20940,31 +21452,15 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
     </row>
-    <row r="213" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E213" s="1">
-        <v>20.428571428571427</v>
-      </c>
-      <c r="F213" s="1">
-        <v>21.428571428571427</v>
-      </c>
-      <c r="G213" s="1">
-        <v>24</v>
-      </c>
-      <c r="H213" s="1">
-        <v>24.714285714285715</v>
-      </c>
-      <c r="I213" s="1">
-        <v>24.142857142857142</v>
-      </c>
-      <c r="J213" s="1">
-        <v>26.285714285714285</v>
-      </c>
-      <c r="K213" s="1">
-        <v>27.285714285714285</v>
-      </c>
-      <c r="L213" s="1">
-        <v>27.571428571428573</v>
-      </c>
+    <row r="213" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
@@ -20973,31 +21469,15 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
     </row>
-    <row r="214" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E214" s="1">
-        <v>65.571428571428569</v>
-      </c>
-      <c r="F214" s="1">
-        <v>64.285714285714292</v>
-      </c>
-      <c r="G214" s="1">
-        <v>64.857142857142861</v>
-      </c>
-      <c r="H214" s="1">
-        <v>66.857142857142861</v>
-      </c>
-      <c r="I214" s="1">
-        <v>63.714285714285715</v>
-      </c>
-      <c r="J214" s="1">
-        <v>77.285714285714292</v>
-      </c>
-      <c r="K214" s="1">
-        <v>81.285714285714292</v>
-      </c>
-      <c r="L214" s="1">
-        <v>81.142857142857139</v>
-      </c>
+    <row r="214" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
@@ -21006,31 +21486,15 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
     </row>
-    <row r="215" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E215" s="1">
-        <v>105.28571428571429</v>
-      </c>
-      <c r="F215" s="1">
-        <v>106.14285714285714</v>
-      </c>
-      <c r="G215" s="1">
-        <v>105.28571428571429</v>
-      </c>
-      <c r="H215" s="1">
-        <v>105.14285714285714</v>
-      </c>
-      <c r="I215" s="1">
-        <v>105.85714285714286</v>
-      </c>
-      <c r="J215" s="1">
-        <v>114.71428571428571</v>
-      </c>
-      <c r="K215" s="1">
-        <v>117.85714285714286</v>
-      </c>
-      <c r="L215" s="1">
-        <v>116.71428571428571</v>
-      </c>
+    <row r="215" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
@@ -21039,31 +21503,15 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
     </row>
-    <row r="216" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E216" s="1">
-        <v>73.428571428571431</v>
-      </c>
-      <c r="F216" s="1">
-        <v>73.714285714285708</v>
-      </c>
-      <c r="G216" s="1">
-        <v>76.428571428571431</v>
-      </c>
-      <c r="H216" s="1">
-        <v>78.714285714285708</v>
-      </c>
-      <c r="I216" s="1">
-        <v>81</v>
-      </c>
-      <c r="J216" s="1">
-        <v>84.285714285714292</v>
-      </c>
-      <c r="K216" s="1">
-        <v>86.714285714285708</v>
-      </c>
-      <c r="L216" s="1">
-        <v>84.857142857142861</v>
-      </c>
+    <row r="216" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
@@ -21072,175 +21520,578 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
     </row>
-    <row r="217" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B217" s="3">
+        <v>44107</v>
+      </c>
+      <c r="C217" s="1">
+        <v>27.571428571428573</v>
+      </c>
+      <c r="D217" s="1">
+        <v>81.142857142857139</v>
+      </c>
       <c r="E217" s="1">
-        <v>60.285714285714285</v>
+        <v>116.71428571428571</v>
       </c>
       <c r="F217" s="1">
-        <v>62.428571428571431</v>
+        <v>84.857142857142861</v>
       </c>
       <c r="G217" s="1">
-        <v>62</v>
+        <v>72.142857142857139</v>
       </c>
       <c r="H217" s="1">
-        <v>65.428571428571431</v>
+        <v>75</v>
       </c>
       <c r="I217" s="1">
-        <v>64.714285714285708</v>
+        <v>48.857142857142854</v>
       </c>
       <c r="J217" s="1">
-        <v>68</v>
+        <v>29.571428571428573</v>
       </c>
       <c r="K217" s="1">
+        <v>13.714285714285714</v>
+      </c>
+      <c r="L217" s="1"/>
+      <c r="N217" s="3">
+        <v>44107</v>
+      </c>
+      <c r="O217" s="3">
+        <v>44108</v>
+      </c>
+      <c r="P217" s="3">
+        <v>44109</v>
+      </c>
+      <c r="Q217" s="3">
+        <v>44110</v>
+      </c>
+      <c r="R217" s="3">
+        <v>44111</v>
+      </c>
+      <c r="S217" s="3">
+        <v>44112</v>
+      </c>
+      <c r="T217" s="3">
+        <v>44113</v>
+      </c>
+      <c r="U217" s="3">
+        <v>44114</v>
+      </c>
+      <c r="V217" s="3">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="218" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B218" s="3">
+        <v>44108</v>
+      </c>
+      <c r="C218" s="1">
+        <v>27.428571428571427</v>
+      </c>
+      <c r="D218" s="1">
+        <v>79.571428571428569</v>
+      </c>
+      <c r="E218" s="1">
+        <v>117.42857142857143</v>
+      </c>
+      <c r="F218" s="1">
+        <v>86.571428571428569</v>
+      </c>
+      <c r="G218" s="1">
+        <v>75</v>
+      </c>
+      <c r="H218" s="1">
+        <v>75</v>
+      </c>
+      <c r="I218" s="1">
+        <v>51.285714285714285</v>
+      </c>
+      <c r="J218" s="1">
+        <v>30.142857142857142</v>
+      </c>
+      <c r="K218" s="1">
+        <v>12.857142857142858</v>
+      </c>
+      <c r="L218" s="1"/>
+      <c r="N218" s="1">
+        <v>27.571428571428573</v>
+      </c>
+      <c r="O218" s="1">
+        <v>27.428571428571427</v>
+      </c>
+      <c r="P218" s="1">
+        <v>28.142857142857142</v>
+      </c>
+      <c r="Q218" s="1">
+        <v>27.142857142857142</v>
+      </c>
+      <c r="R218" s="1">
+        <v>27.428571428571427</v>
+      </c>
+      <c r="S218" s="1">
+        <v>28.142857142857142</v>
+      </c>
+      <c r="T218" s="1">
+        <v>28.714285714285715</v>
+      </c>
+      <c r="U218" s="1">
+        <v>29.428571428571427</v>
+      </c>
+      <c r="V218" s="1">
+        <v>29.428571428571427</v>
+      </c>
+    </row>
+    <row r="219" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B219" s="3">
+        <v>44109</v>
+      </c>
+      <c r="C219" s="1">
+        <v>28.142857142857142</v>
+      </c>
+      <c r="D219" s="1">
+        <v>78</v>
+      </c>
+      <c r="E219" s="1">
+        <v>115.71428571428571</v>
+      </c>
+      <c r="F219" s="1">
+        <v>86.714285714285708</v>
+      </c>
+      <c r="G219" s="1">
+        <v>78.142857142857139</v>
+      </c>
+      <c r="H219" s="1">
+        <v>73.571428571428569</v>
+      </c>
+      <c r="I219" s="1">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="J219" s="1">
+        <v>31.142857142857142</v>
+      </c>
+      <c r="K219" s="1">
+        <v>13.714285714285714</v>
+      </c>
+      <c r="L219" s="1"/>
+      <c r="N219" s="1">
+        <v>81.142857142857139</v>
+      </c>
+      <c r="O219" s="1">
+        <v>79.571428571428569</v>
+      </c>
+      <c r="P219" s="1">
+        <v>78</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>78.142857142857139</v>
+      </c>
+      <c r="R219" s="1">
+        <v>80.142857142857139</v>
+      </c>
+      <c r="S219" s="1">
+        <v>74</v>
+      </c>
+      <c r="T219" s="1">
+        <v>71.714285714285708</v>
+      </c>
+      <c r="U219" s="1">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="V219" s="1">
         <v>69.857142857142861</v>
       </c>
-      <c r="L217" s="1">
+    </row>
+    <row r="220" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B220" s="3">
+        <v>44110</v>
+      </c>
+      <c r="C220" s="1">
+        <v>27.142857142857142</v>
+      </c>
+      <c r="D220" s="1">
+        <v>78.142857142857139</v>
+      </c>
+      <c r="E220" s="1">
+        <v>114.71428571428571</v>
+      </c>
+      <c r="F220" s="1">
+        <v>85.857142857142861</v>
+      </c>
+      <c r="G220" s="1">
+        <v>77.142857142857139</v>
+      </c>
+      <c r="H220" s="1">
+        <v>74.857142857142861</v>
+      </c>
+      <c r="I220" s="1">
+        <v>53.142857142857146</v>
+      </c>
+      <c r="J220" s="1">
+        <v>30.285714285714285</v>
+      </c>
+      <c r="K220" s="1">
+        <v>14.857142857142858</v>
+      </c>
+      <c r="L220" s="1"/>
+      <c r="N220" s="1">
+        <v>116.71428571428571</v>
+      </c>
+      <c r="O220" s="1">
+        <v>117.42857142857143</v>
+      </c>
+      <c r="P220" s="1">
+        <v>115.71428571428571</v>
+      </c>
+      <c r="Q220" s="1">
+        <v>114.71428571428571</v>
+      </c>
+      <c r="R220" s="1">
+        <v>114.42857142857143</v>
+      </c>
+      <c r="S220" s="1">
+        <v>111.85714285714286</v>
+      </c>
+      <c r="T220" s="1">
+        <v>111.85714285714286</v>
+      </c>
+      <c r="U220" s="1">
+        <v>109.42857142857143</v>
+      </c>
+      <c r="V220" s="1">
+        <v>109.85714285714286</v>
+      </c>
+    </row>
+    <row r="221" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B221" s="3">
+        <v>44111</v>
+      </c>
+      <c r="C221" s="1">
+        <v>27.428571428571427</v>
+      </c>
+      <c r="D221" s="1">
+        <v>80.142857142857139</v>
+      </c>
+      <c r="E221" s="1">
+        <v>114.42857142857143</v>
+      </c>
+      <c r="F221" s="1">
+        <v>86.571428571428569</v>
+      </c>
+      <c r="G221" s="1">
+        <v>79.428571428571431</v>
+      </c>
+      <c r="H221" s="1">
+        <v>75.142857142857139</v>
+      </c>
+      <c r="I221" s="1">
+        <v>54</v>
+      </c>
+      <c r="J221" s="1">
+        <v>30.428571428571427</v>
+      </c>
+      <c r="K221" s="1">
+        <v>15.142857142857142</v>
+      </c>
+      <c r="L221" s="1"/>
+      <c r="N221" s="1">
+        <v>84.857142857142861</v>
+      </c>
+      <c r="O221" s="1">
+        <v>86.571428571428569</v>
+      </c>
+      <c r="P221" s="1">
+        <v>86.714285714285708</v>
+      </c>
+      <c r="Q221" s="1">
+        <v>85.857142857142861</v>
+      </c>
+      <c r="R221" s="1">
+        <v>86.571428571428569</v>
+      </c>
+      <c r="S221" s="1">
+        <v>86.428571428571431</v>
+      </c>
+      <c r="T221" s="1">
+        <v>89</v>
+      </c>
+      <c r="U221" s="1">
+        <v>92.428571428571431</v>
+      </c>
+      <c r="V221" s="1">
+        <v>95.571428571428569</v>
+      </c>
+    </row>
+    <row r="222" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B222" s="3">
+        <v>44112</v>
+      </c>
+      <c r="C222" s="1">
+        <v>28.142857142857142</v>
+      </c>
+      <c r="D222" s="1">
+        <v>74</v>
+      </c>
+      <c r="E222" s="1">
+        <v>111.85714285714286</v>
+      </c>
+      <c r="F222" s="1">
+        <v>86.428571428571431</v>
+      </c>
+      <c r="G222" s="1">
+        <v>83.142857142857139</v>
+      </c>
+      <c r="H222" s="1">
+        <v>75.857142857142861</v>
+      </c>
+      <c r="I222" s="1">
+        <v>55.285714285714285</v>
+      </c>
+      <c r="J222" s="1">
+        <v>29.142857142857142</v>
+      </c>
+      <c r="K222" s="1">
+        <v>15.428571428571429</v>
+      </c>
+      <c r="N222" s="1">
         <v>72.142857142857139</v>
       </c>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-    </row>
-    <row r="218" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E218" s="1">
-        <v>69</v>
-      </c>
-      <c r="F218" s="1">
-        <v>68.714285714285708</v>
-      </c>
-      <c r="G218" s="1">
-        <v>71.857142857142861</v>
-      </c>
-      <c r="H218" s="1">
-        <v>72.571428571428569</v>
-      </c>
-      <c r="I218" s="1">
-        <v>74.142857142857139</v>
-      </c>
-      <c r="J218" s="1">
-        <v>76.857142857142861</v>
-      </c>
-      <c r="K218" s="1">
-        <v>79.285714285714292</v>
-      </c>
-      <c r="L218" s="1">
+      <c r="O222" s="1">
         <v>75</v>
       </c>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-    </row>
-    <row r="219" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E219" s="1">
-        <v>41.285714285714285</v>
-      </c>
-      <c r="F219" s="1">
-        <v>41</v>
-      </c>
-      <c r="G219" s="1">
-        <v>41.571428571428569</v>
-      </c>
-      <c r="H219" s="1">
-        <v>42.571428571428569</v>
-      </c>
-      <c r="I219" s="1">
-        <v>43.428571428571431</v>
-      </c>
-      <c r="J219" s="1">
-        <v>46</v>
-      </c>
-      <c r="K219" s="1">
-        <v>50</v>
-      </c>
-      <c r="L219" s="1">
+      <c r="P222" s="1">
+        <v>78.142857142857139</v>
+      </c>
+      <c r="Q222" s="1">
+        <v>77.142857142857139</v>
+      </c>
+      <c r="R222" s="1">
+        <v>79.428571428571431</v>
+      </c>
+      <c r="S222" s="1">
+        <v>83.142857142857139</v>
+      </c>
+      <c r="T222" s="1">
+        <v>83.428571428571431</v>
+      </c>
+      <c r="U222" s="1">
+        <v>82.714285714285708</v>
+      </c>
+      <c r="V222" s="1">
+        <v>83.857142857142861</v>
+      </c>
+    </row>
+    <row r="223" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B223" s="3">
+        <v>44113</v>
+      </c>
+      <c r="C223" s="1">
+        <v>28.714285714285715</v>
+      </c>
+      <c r="D223" s="1">
+        <v>71.714285714285708</v>
+      </c>
+      <c r="E223" s="1">
+        <v>111.85714285714286</v>
+      </c>
+      <c r="F223" s="1">
+        <v>89</v>
+      </c>
+      <c r="G223" s="1">
+        <v>83.428571428571431</v>
+      </c>
+      <c r="H223" s="1">
+        <v>78</v>
+      </c>
+      <c r="I223" s="1">
+        <v>54.142857142857146</v>
+      </c>
+      <c r="J223" s="1">
+        <v>29.714285714285715</v>
+      </c>
+      <c r="K223" s="1">
+        <v>15.857142857142858</v>
+      </c>
+      <c r="N223" s="1">
+        <v>75</v>
+      </c>
+      <c r="O223" s="1">
+        <v>75</v>
+      </c>
+      <c r="P223" s="1">
+        <v>73.571428571428569</v>
+      </c>
+      <c r="Q223" s="1">
+        <v>74.857142857142861</v>
+      </c>
+      <c r="R223" s="1">
+        <v>75.142857142857139</v>
+      </c>
+      <c r="S223" s="1">
+        <v>75.857142857142861</v>
+      </c>
+      <c r="T223" s="1">
+        <v>78</v>
+      </c>
+      <c r="U223" s="1">
+        <v>80.714285714285708</v>
+      </c>
+      <c r="V223" s="1">
+        <v>85.285714285714292</v>
+      </c>
+    </row>
+    <row r="224" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B224" s="3">
+        <v>44114</v>
+      </c>
+      <c r="C224" s="1">
+        <v>29.428571428571427</v>
+      </c>
+      <c r="D224" s="1">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="E224" s="1">
+        <v>109.42857142857143</v>
+      </c>
+      <c r="F224" s="1">
+        <v>92.428571428571431</v>
+      </c>
+      <c r="G224" s="1">
+        <v>82.714285714285708</v>
+      </c>
+      <c r="H224" s="1">
+        <v>80.714285714285708</v>
+      </c>
+      <c r="I224" s="1">
+        <v>56.857142857142854</v>
+      </c>
+      <c r="J224" s="1">
+        <v>29.857142857142858</v>
+      </c>
+      <c r="K224" s="1">
+        <v>15.142857142857142</v>
+      </c>
+      <c r="N224" s="1">
         <v>48.857142857142854</v>
       </c>
-    </row>
-    <row r="220" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E220" s="1">
-        <v>17.285714285714285</v>
-      </c>
-      <c r="F220" s="1">
-        <v>17.142857142857142</v>
-      </c>
-      <c r="G220" s="1">
-        <v>18.428571428571427</v>
-      </c>
-      <c r="H220" s="1">
-        <v>20</v>
-      </c>
-      <c r="I220" s="1">
-        <v>22.714285714285715</v>
-      </c>
-      <c r="J220" s="1">
-        <v>25.857142857142858</v>
-      </c>
-      <c r="K220" s="1">
-        <v>28.142857142857142</v>
-      </c>
-      <c r="L220" s="1">
+      <c r="O224" s="1">
+        <v>51.285714285714285</v>
+      </c>
+      <c r="P224" s="1">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="Q224" s="1">
+        <v>53.142857142857146</v>
+      </c>
+      <c r="R224" s="1">
+        <v>54</v>
+      </c>
+      <c r="S224" s="1">
+        <v>55.285714285714285</v>
+      </c>
+      <c r="T224" s="1">
+        <v>54.142857142857146</v>
+      </c>
+      <c r="U224" s="1">
+        <v>56.857142857142854</v>
+      </c>
+      <c r="V224" s="1">
+        <v>60.428571428571431</v>
+      </c>
+    </row>
+    <row r="225" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B225" s="3">
+        <v>44115</v>
+      </c>
+      <c r="C225" s="1">
+        <v>29.428571428571427</v>
+      </c>
+      <c r="D225" s="1">
+        <v>69.857142857142861</v>
+      </c>
+      <c r="E225" s="1">
+        <v>109.85714285714286</v>
+      </c>
+      <c r="F225" s="1">
+        <v>95.571428571428569</v>
+      </c>
+      <c r="G225" s="1">
+        <v>83.857142857142861</v>
+      </c>
+      <c r="H225" s="1">
+        <v>85.285714285714292</v>
+      </c>
+      <c r="I225" s="1">
+        <v>60.428571428571431</v>
+      </c>
+      <c r="J225" s="1">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="K225" s="1">
+        <v>15.285714285714286</v>
+      </c>
+      <c r="N225" s="1">
         <v>29.571428571428573</v>
       </c>
-    </row>
-    <row r="221" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E221" s="1">
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="F221" s="1">
-        <v>9</v>
-      </c>
-      <c r="G221" s="1">
-        <v>8.7142857142857135</v>
-      </c>
-      <c r="H221" s="1">
-        <v>9.5714285714285712</v>
-      </c>
-      <c r="I221" s="1">
-        <v>10</v>
-      </c>
-      <c r="J221" s="1">
-        <v>10.714285714285714</v>
-      </c>
-      <c r="K221" s="1">
-        <v>11.428571428571429</v>
-      </c>
-      <c r="L221" s="1">
+      <c r="O225" s="1">
+        <v>30.142857142857142</v>
+      </c>
+      <c r="P225" s="1">
+        <v>31.142857142857142</v>
+      </c>
+      <c r="Q225" s="1">
+        <v>30.285714285714285</v>
+      </c>
+      <c r="R225" s="1">
+        <v>30.428571428571427</v>
+      </c>
+      <c r="S225" s="1">
+        <v>29.142857142857142</v>
+      </c>
+      <c r="T225" s="1">
+        <v>29.714285714285715</v>
+      </c>
+      <c r="U225" s="1">
+        <v>29.857142857142858</v>
+      </c>
+      <c r="V225" s="1">
+        <v>31.428571428571427</v>
+      </c>
+    </row>
+    <row r="226" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N226" s="1">
         <v>13.714285714285714</v>
       </c>
-      <c r="N221" s="1"/>
-    </row>
-    <row r="222" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N222" s="1"/>
-    </row>
-    <row r="223" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N223" s="1"/>
-    </row>
-    <row r="224" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N224" s="1"/>
-    </row>
-    <row r="225" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N225" s="1"/>
-    </row>
-    <row r="226" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N226" s="1"/>
-    </row>
-    <row r="227" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="1">
+        <v>12.857142857142858</v>
+      </c>
+      <c r="P226" s="1">
+        <v>13.714285714285714</v>
+      </c>
+      <c r="Q226" s="1">
+        <v>14.857142857142858</v>
+      </c>
+      <c r="R226" s="1">
+        <v>15.142857142857142</v>
+      </c>
+      <c r="S226" s="1">
+        <v>15.428571428571429</v>
+      </c>
+      <c r="T226" s="1">
+        <v>15.857142857142858</v>
+      </c>
+      <c r="U226" s="1">
+        <v>15.142857142857142</v>
+      </c>
+      <c r="V226" s="1">
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="227" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N229" s="1"/>
     </row>
   </sheetData>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BB05896-98A2-4B8D-B86F-A4350B9A5FB0}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C58573DC-674E-4A62-85FE-B7E326B45E24}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,7 +919,7 @@
   <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="N217" sqref="N217:V226"/>
@@ -21265,211 +21265,1472 @@
       </c>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
+      <c r="A200" s="3">
+        <v>44116</v>
+      </c>
+      <c r="B200">
+        <v>5016</v>
+      </c>
+      <c r="C200">
+        <v>11483</v>
+      </c>
+      <c r="D200">
+        <v>24972</v>
+      </c>
+      <c r="E200">
+        <v>23672</v>
+      </c>
+      <c r="F200">
+        <v>20929</v>
+      </c>
+      <c r="G200">
+        <v>19221</v>
+      </c>
+      <c r="H200">
+        <v>12889</v>
+      </c>
+      <c r="I200">
+        <v>7639</v>
+      </c>
+      <c r="J200">
+        <v>6040</v>
+      </c>
       <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
-      <c r="Y200" s="1"/>
-      <c r="Z200" s="1"/>
-      <c r="AA200" s="1"/>
+      <c r="L200">
+        <f t="shared" ref="L200:L205" si="362">SUM(B200-B199)</f>
+        <v>33</v>
+      </c>
+      <c r="M200">
+        <f t="shared" ref="M200:M205" si="363">SUM(C200-C199)</f>
+        <v>76</v>
+      </c>
+      <c r="N200">
+        <f t="shared" ref="N200:N205" si="364">SUM(D200-D199)</f>
+        <v>90</v>
+      </c>
+      <c r="O200">
+        <f t="shared" ref="O200:O205" si="365">SUM(E200-E199)</f>
+        <v>69</v>
+      </c>
+      <c r="P200">
+        <f t="shared" ref="P200:P205" si="366">SUM(F200-F199)</f>
+        <v>75</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" ref="Q200:Q205" si="367">SUM(G200-G199)</f>
+        <v>78</v>
+      </c>
+      <c r="R200">
+        <f t="shared" ref="R200:R205" si="368">SUM(H200-H199)</f>
+        <v>47</v>
+      </c>
+      <c r="S200">
+        <f t="shared" ref="S200:S205" si="369">SUM(I200-I199)</f>
+        <v>25</v>
+      </c>
+      <c r="T200">
+        <f t="shared" ref="T200:T205" si="370">SUM(J200-J199)</f>
+        <v>11</v>
+      </c>
+      <c r="V200" s="1">
+        <f t="shared" ref="V200:V205" si="371">AVERAGE(L194:L200)</f>
+        <v>29</v>
+      </c>
+      <c r="W200" s="1">
+        <f t="shared" ref="W200:W205" si="372">AVERAGE(M194:M200)</f>
+        <v>71.714285714285708</v>
+      </c>
+      <c r="X200" s="1">
+        <f t="shared" ref="X200:X205" si="373">AVERAGE(N194:N200)</f>
+        <v>110.85714285714286</v>
+      </c>
+      <c r="Y200" s="1">
+        <f t="shared" ref="Y200:Y205" si="374">AVERAGE(O194:O200)</f>
+        <v>94.285714285714292</v>
+      </c>
+      <c r="Z200" s="1">
+        <f t="shared" ref="Z200:Z205" si="375">AVERAGE(P194:P200)</f>
+        <v>82.571428571428569</v>
+      </c>
+      <c r="AA200" s="1">
+        <f t="shared" ref="AA200:AA205" si="376">AVERAGE(Q194:Q200)</f>
+        <v>87.857142857142861</v>
+      </c>
+      <c r="AB200" s="1">
+        <f t="shared" ref="AB200:AB205" si="377">AVERAGE(R194:R200)</f>
+        <v>59.714285714285715</v>
+      </c>
+      <c r="AC200" s="1">
+        <f t="shared" ref="AC200:AC205" si="378">AVERAGE(S194:S200)</f>
+        <v>30.714285714285715</v>
+      </c>
+      <c r="AD200" s="1">
+        <f t="shared" ref="AD200:AD205" si="379">AVERAGE(T194:T200)</f>
+        <v>14.714285714285714</v>
+      </c>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
+      <c r="A201" s="3">
+        <v>44117</v>
+      </c>
+      <c r="B201">
+        <v>5048</v>
+      </c>
+      <c r="C201">
+        <v>11539</v>
+      </c>
+      <c r="D201">
+        <v>25068</v>
+      </c>
+      <c r="E201">
+        <v>23751</v>
+      </c>
+      <c r="F201">
+        <v>20994</v>
+      </c>
+      <c r="G201">
+        <v>19294</v>
+      </c>
+      <c r="H201">
+        <v>12937</v>
+      </c>
+      <c r="I201">
+        <v>7662</v>
+      </c>
+      <c r="J201">
+        <v>6050</v>
+      </c>
       <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
-      <c r="W201" s="1"/>
-      <c r="X201" s="1"/>
-      <c r="Y201" s="1"/>
-      <c r="Z201" s="1"/>
-      <c r="AA201" s="1"/>
+      <c r="L201">
+        <f t="shared" si="362"/>
+        <v>32</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="363"/>
+        <v>56</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="364"/>
+        <v>96</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="365"/>
+        <v>79</v>
+      </c>
+      <c r="P201">
+        <f t="shared" si="366"/>
+        <v>65</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" si="367"/>
+        <v>73</v>
+      </c>
+      <c r="R201">
+        <f t="shared" si="368"/>
+        <v>48</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="369"/>
+        <v>23</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="370"/>
+        <v>10</v>
+      </c>
+      <c r="V201" s="1">
+        <f t="shared" si="371"/>
+        <v>31.857142857142858</v>
+      </c>
+      <c r="W201" s="1">
+        <f t="shared" si="372"/>
+        <v>72.714285714285708</v>
+      </c>
+      <c r="X201" s="1">
+        <f t="shared" si="373"/>
+        <v>113.42857142857143</v>
+      </c>
+      <c r="Y201" s="1">
+        <f t="shared" si="374"/>
+        <v>95.142857142857139</v>
+      </c>
+      <c r="Z201" s="1">
+        <f t="shared" si="375"/>
+        <v>84.142857142857139</v>
+      </c>
+      <c r="AA201" s="1">
+        <f t="shared" si="376"/>
+        <v>88.142857142857139</v>
+      </c>
+      <c r="AB201" s="1">
+        <f t="shared" si="377"/>
+        <v>61.142857142857146</v>
+      </c>
+      <c r="AC201" s="1">
+        <f t="shared" si="378"/>
+        <v>31.285714285714285</v>
+      </c>
+      <c r="AD201" s="1">
+        <f t="shared" si="379"/>
+        <v>13.428571428571429</v>
+      </c>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
+      <c r="A202" s="3">
+        <v>44118</v>
+      </c>
+      <c r="B202">
+        <v>5072</v>
+      </c>
+      <c r="C202">
+        <v>11596</v>
+      </c>
+      <c r="D202">
+        <v>25174</v>
+      </c>
+      <c r="E202">
+        <v>23855</v>
+      </c>
+      <c r="F202">
+        <v>21074</v>
+      </c>
+      <c r="G202">
+        <v>19373</v>
+      </c>
+      <c r="H202">
+        <v>13005</v>
+      </c>
+      <c r="I202">
+        <v>7695</v>
+      </c>
+      <c r="J202">
+        <v>6074</v>
+      </c>
       <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-      <c r="S202" s="1"/>
-      <c r="T202" s="1"/>
-      <c r="U202" s="1"/>
-      <c r="V202" s="1"/>
+      <c r="L202">
+        <f t="shared" si="362"/>
+        <v>24</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="363"/>
+        <v>57</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="364"/>
+        <v>106</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="365"/>
+        <v>104</v>
+      </c>
+      <c r="P202">
+        <f t="shared" si="366"/>
+        <v>80</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" si="367"/>
+        <v>79</v>
+      </c>
+      <c r="R202">
+        <f t="shared" si="368"/>
+        <v>68</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="369"/>
+        <v>33</v>
+      </c>
+      <c r="T202">
+        <f t="shared" si="370"/>
+        <v>24</v>
+      </c>
+      <c r="V202" s="1">
+        <f t="shared" si="371"/>
+        <v>32</v>
+      </c>
+      <c r="W202" s="1">
+        <f t="shared" si="372"/>
+        <v>73.428571428571431</v>
+      </c>
+      <c r="X202" s="1">
+        <f t="shared" si="373"/>
+        <v>115.57142857142857</v>
+      </c>
+      <c r="Y202" s="1">
+        <f t="shared" si="374"/>
+        <v>99.857142857142861</v>
+      </c>
+      <c r="Z202" s="1">
+        <f t="shared" si="375"/>
+        <v>86.428571428571431</v>
+      </c>
+      <c r="AA202" s="1">
+        <f t="shared" si="376"/>
+        <v>89.142857142857139</v>
+      </c>
+      <c r="AB202" s="1">
+        <f t="shared" si="377"/>
+        <v>64.571428571428569</v>
+      </c>
+      <c r="AC202" s="1">
+        <f t="shared" si="378"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AD202" s="1">
+        <f t="shared" si="379"/>
+        <v>15.285714285714286</v>
+      </c>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
+      <c r="A203" s="3">
+        <v>44119</v>
+      </c>
+      <c r="B203">
+        <v>5104</v>
+      </c>
+      <c r="C203">
+        <v>11662</v>
+      </c>
+      <c r="D203">
+        <v>25277</v>
+      </c>
+      <c r="E203">
+        <v>23966</v>
+      </c>
+      <c r="F203">
+        <v>21175</v>
+      </c>
+      <c r="G203">
+        <v>19463</v>
+      </c>
+      <c r="H203">
+        <v>13076</v>
+      </c>
+      <c r="I203">
+        <v>7725</v>
+      </c>
+      <c r="J203">
+        <v>6100</v>
+      </c>
       <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
+      <c r="L203">
+        <f t="shared" si="362"/>
+        <v>32</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="363"/>
+        <v>66</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="364"/>
+        <v>103</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="365"/>
+        <v>111</v>
+      </c>
+      <c r="P203">
+        <f t="shared" si="366"/>
+        <v>101</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" si="367"/>
+        <v>90</v>
+      </c>
+      <c r="R203">
+        <f t="shared" si="368"/>
+        <v>71</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="369"/>
+        <v>30</v>
+      </c>
+      <c r="T203">
+        <f t="shared" si="370"/>
+        <v>26</v>
+      </c>
+      <c r="V203" s="1">
+        <f t="shared" si="371"/>
+        <v>31.142857142857142</v>
+      </c>
+      <c r="W203" s="1">
+        <f t="shared" si="372"/>
+        <v>66.142857142857139</v>
+      </c>
+      <c r="X203" s="1">
+        <f t="shared" si="373"/>
+        <v>107.57142857142857</v>
+      </c>
+      <c r="Y203" s="1">
+        <f t="shared" si="374"/>
+        <v>101</v>
+      </c>
+      <c r="Z203" s="1">
+        <f t="shared" si="375"/>
+        <v>83.857142857142861</v>
+      </c>
+      <c r="AA203" s="1">
+        <f t="shared" si="376"/>
+        <v>87.142857142857139</v>
+      </c>
+      <c r="AB203" s="1">
+        <f t="shared" si="377"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="AC203" s="1">
+        <f t="shared" si="378"/>
+        <v>31.142857142857142</v>
+      </c>
+      <c r="AD203" s="1">
+        <f t="shared" si="379"/>
+        <v>16.714285714285715</v>
+      </c>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
+      <c r="A204" s="3">
+        <v>44120</v>
+      </c>
+      <c r="B204">
+        <v>5156</v>
+      </c>
+      <c r="C204">
+        <v>11729</v>
+      </c>
+      <c r="D204">
+        <v>25415</v>
+      </c>
+      <c r="E204">
+        <v>24133</v>
+      </c>
+      <c r="F204">
+        <v>21291</v>
+      </c>
+      <c r="G204">
+        <v>19572</v>
+      </c>
+      <c r="H204">
+        <v>13149</v>
+      </c>
+      <c r="I204">
+        <v>7759</v>
+      </c>
+      <c r="J204">
+        <v>6125</v>
+      </c>
       <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-      <c r="S204" s="1"/>
-      <c r="T204" s="1"/>
-      <c r="U204" s="1"/>
-      <c r="V204" s="1"/>
+      <c r="L204">
+        <f t="shared" si="362"/>
+        <v>52</v>
+      </c>
+      <c r="M204">
+        <f t="shared" si="363"/>
+        <v>67</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="364"/>
+        <v>138</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="365"/>
+        <v>167</v>
+      </c>
+      <c r="P204">
+        <f t="shared" si="366"/>
+        <v>116</v>
+      </c>
+      <c r="Q204">
+        <f t="shared" si="367"/>
+        <v>109</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="368"/>
+        <v>73</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="369"/>
+        <v>34</v>
+      </c>
+      <c r="T204">
+        <f t="shared" si="370"/>
+        <v>25</v>
+      </c>
+      <c r="V204" s="1">
+        <f t="shared" si="371"/>
+        <v>33.142857142857146</v>
+      </c>
+      <c r="W204" s="1">
+        <f t="shared" si="372"/>
+        <v>63.714285714285715</v>
+      </c>
+      <c r="X204" s="1">
+        <f t="shared" si="373"/>
+        <v>107.42857142857143</v>
+      </c>
+      <c r="Y204" s="1">
+        <f t="shared" si="374"/>
+        <v>105.71428571428571</v>
+      </c>
+      <c r="Z204" s="1">
+        <f t="shared" si="375"/>
+        <v>85.857142857142861</v>
+      </c>
+      <c r="AA204" s="1">
+        <f t="shared" si="376"/>
+        <v>86.714285714285708</v>
+      </c>
+      <c r="AB204" s="1">
+        <f t="shared" si="377"/>
+        <v>65.428571428571431</v>
+      </c>
+      <c r="AC204" s="1">
+        <f t="shared" si="378"/>
+        <v>29.857142857142858</v>
+      </c>
+      <c r="AD204" s="1">
+        <f t="shared" si="379"/>
+        <v>17.857142857142858</v>
+      </c>
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
+      <c r="A205" s="3">
+        <v>44121</v>
+      </c>
+      <c r="B205">
+        <v>5203</v>
+      </c>
+      <c r="C205">
+        <v>11796</v>
+      </c>
+      <c r="D205">
+        <v>25581</v>
+      </c>
+      <c r="E205">
+        <v>24286</v>
+      </c>
+      <c r="F205">
+        <v>21419</v>
+      </c>
+      <c r="G205">
+        <v>19673</v>
+      </c>
+      <c r="H205">
+        <v>13232</v>
+      </c>
+      <c r="I205">
+        <v>7794</v>
+      </c>
+      <c r="J205">
+        <v>6143</v>
+      </c>
       <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
+      <c r="L205">
+        <f t="shared" si="362"/>
+        <v>47</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="363"/>
+        <v>67</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="364"/>
+        <v>166</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="365"/>
+        <v>153</v>
+      </c>
+      <c r="P205">
+        <f t="shared" si="366"/>
+        <v>128</v>
+      </c>
+      <c r="Q205">
+        <f t="shared" si="367"/>
+        <v>101</v>
+      </c>
+      <c r="R205">
+        <f t="shared" si="368"/>
+        <v>83</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="369"/>
+        <v>35</v>
+      </c>
+      <c r="T205">
+        <f t="shared" si="370"/>
+        <v>18</v>
+      </c>
+      <c r="V205" s="1">
+        <f t="shared" si="371"/>
+        <v>35.142857142857146</v>
+      </c>
+      <c r="W205" s="1">
+        <f t="shared" si="372"/>
+        <v>62.571428571428569</v>
+      </c>
+      <c r="X205" s="1">
+        <f t="shared" si="373"/>
+        <v>114.71428571428571</v>
+      </c>
+      <c r="Y205" s="1">
+        <f t="shared" si="374"/>
+        <v>111.42857142857143</v>
+      </c>
+      <c r="Z205" s="1">
+        <f t="shared" si="375"/>
+        <v>92</v>
+      </c>
+      <c r="AA205" s="1">
+        <f t="shared" si="376"/>
+        <v>88.285714285714292</v>
+      </c>
+      <c r="AB205" s="1">
+        <f t="shared" si="377"/>
+        <v>66.571428571428569</v>
+      </c>
+      <c r="AC205" s="1">
+        <f t="shared" si="378"/>
+        <v>30.142857142857142</v>
+      </c>
+      <c r="AD205" s="1">
+        <f t="shared" si="379"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
+      <c r="A206" s="3">
+        <v>44122</v>
+      </c>
+      <c r="B206">
+        <v>5222</v>
+      </c>
+      <c r="C206">
+        <v>11855</v>
+      </c>
+      <c r="D206">
+        <v>25674</v>
+      </c>
+      <c r="E206">
+        <v>24380</v>
+      </c>
+      <c r="F206">
+        <v>21508</v>
+      </c>
+      <c r="G206">
+        <v>19744</v>
+      </c>
+      <c r="H206">
+        <v>13288</v>
+      </c>
+      <c r="I206">
+        <v>7831</v>
+      </c>
+      <c r="J206">
+        <v>6155</v>
+      </c>
       <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
+      <c r="L206">
+        <f t="shared" ref="L206:L213" si="380">SUM(B206-B205)</f>
+        <v>19</v>
+      </c>
+      <c r="M206">
+        <f t="shared" ref="M206:M213" si="381">SUM(C206-C205)</f>
+        <v>59</v>
+      </c>
+      <c r="N206">
+        <f t="shared" ref="N206:N213" si="382">SUM(D206-D205)</f>
+        <v>93</v>
+      </c>
+      <c r="O206">
+        <f t="shared" ref="O206:O213" si="383">SUM(E206-E205)</f>
+        <v>94</v>
+      </c>
+      <c r="P206">
+        <f t="shared" ref="P206:P213" si="384">SUM(F206-F205)</f>
+        <v>89</v>
+      </c>
+      <c r="Q206">
+        <f t="shared" ref="Q206:Q213" si="385">SUM(G206-G205)</f>
+        <v>71</v>
+      </c>
+      <c r="R206">
+        <f t="shared" ref="R206:R213" si="386">SUM(H206-H205)</f>
+        <v>56</v>
+      </c>
+      <c r="S206">
+        <f t="shared" ref="S206:S213" si="387">SUM(I206-I205)</f>
+        <v>37</v>
+      </c>
+      <c r="T206">
+        <f t="shared" ref="T206:T213" si="388">SUM(J206-J205)</f>
+        <v>12</v>
+      </c>
+      <c r="V206" s="1">
+        <f t="shared" ref="V206:V213" si="389">AVERAGE(L200:L206)</f>
+        <v>34.142857142857146</v>
+      </c>
+      <c r="W206" s="1">
+        <f t="shared" ref="W206:W213" si="390">AVERAGE(M200:M206)</f>
+        <v>64</v>
+      </c>
+      <c r="X206" s="1">
+        <f t="shared" ref="X206:X213" si="391">AVERAGE(N200:N206)</f>
+        <v>113.14285714285714</v>
+      </c>
+      <c r="Y206" s="1">
+        <f t="shared" ref="Y206:Y213" si="392">AVERAGE(O200:O206)</f>
+        <v>111</v>
+      </c>
+      <c r="Z206" s="1">
+        <f t="shared" ref="Z206:Z213" si="393">AVERAGE(P200:P206)</f>
+        <v>93.428571428571431</v>
+      </c>
+      <c r="AA206" s="1">
+        <f t="shared" ref="AA206:AA213" si="394">AVERAGE(Q200:Q206)</f>
+        <v>85.857142857142861</v>
+      </c>
+      <c r="AB206" s="1">
+        <f t="shared" ref="AB206:AB213" si="395">AVERAGE(R200:R206)</f>
+        <v>63.714285714285715</v>
+      </c>
+      <c r="AC206" s="1">
+        <f t="shared" ref="AC206:AC213" si="396">AVERAGE(S200:S206)</f>
+        <v>31</v>
+      </c>
+      <c r="AD206" s="1">
+        <f t="shared" ref="AD206:AD213" si="397">AVERAGE(T200:T206)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
+      <c r="A207" s="3">
+        <v>44123</v>
+      </c>
+      <c r="B207">
+        <v>5248</v>
+      </c>
+      <c r="C207">
+        <v>11904</v>
+      </c>
+      <c r="D207">
+        <v>25760</v>
+      </c>
+      <c r="E207">
+        <v>24472</v>
+      </c>
+      <c r="F207">
+        <v>21584</v>
+      </c>
+      <c r="G207">
+        <v>19815</v>
+      </c>
+      <c r="H207">
+        <v>13346</v>
+      </c>
+      <c r="I207">
+        <v>7853</v>
+      </c>
+      <c r="J207">
+        <v>6172</v>
+      </c>
       <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
+      <c r="L207">
+        <f t="shared" si="380"/>
+        <v>26</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="381"/>
+        <v>49</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="382"/>
+        <v>86</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="383"/>
+        <v>92</v>
+      </c>
+      <c r="P207">
+        <f t="shared" si="384"/>
+        <v>76</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" si="385"/>
+        <v>71</v>
+      </c>
+      <c r="R207">
+        <f t="shared" si="386"/>
+        <v>58</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="387"/>
+        <v>22</v>
+      </c>
+      <c r="T207">
+        <f t="shared" si="388"/>
+        <v>17</v>
+      </c>
+      <c r="V207" s="1">
+        <f t="shared" si="389"/>
+        <v>33.142857142857146</v>
+      </c>
+      <c r="W207" s="1">
+        <f t="shared" si="390"/>
+        <v>60.142857142857146</v>
+      </c>
+      <c r="X207" s="1">
+        <f t="shared" si="391"/>
+        <v>112.57142857142857</v>
+      </c>
+      <c r="Y207" s="1">
+        <f t="shared" si="392"/>
+        <v>114.28571428571429</v>
+      </c>
+      <c r="Z207" s="1">
+        <f t="shared" si="393"/>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="AA207" s="1">
+        <f t="shared" si="394"/>
+        <v>84.857142857142861</v>
+      </c>
+      <c r="AB207" s="1">
+        <f t="shared" si="395"/>
+        <v>65.285714285714292</v>
+      </c>
+      <c r="AC207" s="1">
+        <f t="shared" si="396"/>
+        <v>30.571428571428573</v>
+      </c>
+      <c r="AD207" s="1">
+        <f t="shared" si="397"/>
+        <v>18.857142857142858</v>
+      </c>
     </row>
-    <row r="209" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
-      <c r="P209" s="3"/>
-      <c r="Q209" s="3"/>
-      <c r="R209" s="3"/>
-      <c r="S209" s="3"/>
-      <c r="T209" s="3"/>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>44124</v>
+      </c>
+      <c r="B208">
+        <v>5274</v>
+      </c>
+      <c r="C208">
+        <v>11963</v>
+      </c>
+      <c r="D208">
+        <v>25866</v>
+      </c>
+      <c r="E208">
+        <v>24586</v>
+      </c>
+      <c r="F208">
+        <v>21669</v>
+      </c>
+      <c r="G208">
+        <v>19912</v>
+      </c>
+      <c r="H208">
+        <v>13403</v>
+      </c>
+      <c r="I208">
+        <v>7886</v>
+      </c>
+      <c r="J208">
+        <v>6185</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="380"/>
+        <v>26</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="381"/>
+        <v>59</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="382"/>
+        <v>106</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="383"/>
+        <v>114</v>
+      </c>
+      <c r="P208">
+        <f t="shared" si="384"/>
+        <v>85</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" si="385"/>
+        <v>97</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="386"/>
+        <v>57</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="387"/>
+        <v>33</v>
+      </c>
+      <c r="T208">
+        <f t="shared" si="388"/>
+        <v>13</v>
+      </c>
+      <c r="V208" s="1">
+        <f t="shared" si="389"/>
+        <v>32.285714285714285</v>
+      </c>
+      <c r="W208" s="1">
+        <f t="shared" si="390"/>
+        <v>60.571428571428569</v>
+      </c>
+      <c r="X208" s="1">
+        <f t="shared" si="391"/>
+        <v>114</v>
+      </c>
+      <c r="Y208" s="1">
+        <f t="shared" si="392"/>
+        <v>119.28571428571429</v>
+      </c>
+      <c r="Z208" s="1">
+        <f t="shared" si="393"/>
+        <v>96.428571428571431</v>
+      </c>
+      <c r="AA208" s="1">
+        <f t="shared" si="394"/>
+        <v>88.285714285714292</v>
+      </c>
+      <c r="AB208" s="1">
+        <f t="shared" si="395"/>
+        <v>66.571428571428569</v>
+      </c>
+      <c r="AC208" s="1">
+        <f t="shared" si="396"/>
+        <v>32</v>
+      </c>
+      <c r="AD208" s="1">
+        <f t="shared" si="397"/>
+        <v>19.285714285714285</v>
+      </c>
     </row>
-    <row r="210" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>44125</v>
+      </c>
+      <c r="B209">
+        <v>5297</v>
+      </c>
+      <c r="C209">
+        <v>12013</v>
+      </c>
+      <c r="D209">
+        <v>25953</v>
+      </c>
+      <c r="E209">
+        <v>24675</v>
+      </c>
+      <c r="F209">
+        <v>21746</v>
+      </c>
+      <c r="G209">
+        <v>20000</v>
+      </c>
+      <c r="H209">
+        <v>13448</v>
+      </c>
+      <c r="I209">
+        <v>7913</v>
+      </c>
+      <c r="J209">
+        <v>6191</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="380"/>
+        <v>23</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="381"/>
+        <v>50</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="382"/>
+        <v>87</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="383"/>
+        <v>89</v>
+      </c>
+      <c r="P209">
+        <f t="shared" si="384"/>
+        <v>77</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" si="385"/>
+        <v>88</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="386"/>
+        <v>45</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="387"/>
+        <v>27</v>
+      </c>
+      <c r="T209">
+        <f t="shared" si="388"/>
+        <v>6</v>
+      </c>
+      <c r="V209" s="1">
+        <f t="shared" si="389"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="W209" s="1">
+        <f t="shared" si="390"/>
+        <v>59.571428571428569</v>
+      </c>
+      <c r="X209" s="1">
+        <f t="shared" si="391"/>
+        <v>111.28571428571429</v>
+      </c>
+      <c r="Y209" s="1">
+        <f t="shared" si="392"/>
+        <v>117.14285714285714</v>
+      </c>
+      <c r="Z209" s="1">
+        <f t="shared" si="393"/>
+        <v>96</v>
+      </c>
+      <c r="AA209" s="1">
+        <f t="shared" si="394"/>
+        <v>89.571428571428569</v>
+      </c>
+      <c r="AB209" s="1">
+        <f t="shared" si="395"/>
+        <v>63.285714285714285</v>
+      </c>
+      <c r="AC209" s="1">
+        <f t="shared" si="396"/>
+        <v>31.142857142857142</v>
+      </c>
+      <c r="AD209" s="1">
+        <f t="shared" si="397"/>
+        <v>16.714285714285715</v>
+      </c>
     </row>
-    <row r="211" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>44126</v>
+      </c>
+      <c r="B210">
+        <v>5347</v>
+      </c>
+      <c r="C210">
+        <v>12086</v>
+      </c>
+      <c r="D210">
+        <v>26093</v>
+      </c>
+      <c r="E210">
+        <v>24802</v>
+      </c>
+      <c r="F210">
+        <v>21873</v>
+      </c>
+      <c r="G210">
+        <v>20106</v>
+      </c>
+      <c r="H210">
+        <v>13523</v>
+      </c>
+      <c r="I210">
+        <v>7948</v>
+      </c>
+      <c r="J210">
+        <v>6201</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="380"/>
+        <v>50</v>
+      </c>
+      <c r="M210">
+        <f t="shared" si="381"/>
+        <v>73</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="382"/>
+        <v>140</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="383"/>
+        <v>127</v>
+      </c>
+      <c r="P210">
+        <f t="shared" si="384"/>
+        <v>127</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" si="385"/>
+        <v>106</v>
+      </c>
+      <c r="R210">
+        <f t="shared" si="386"/>
+        <v>75</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="387"/>
+        <v>35</v>
+      </c>
+      <c r="T210">
+        <f t="shared" si="388"/>
+        <v>10</v>
+      </c>
+      <c r="V210" s="1">
+        <f t="shared" si="389"/>
+        <v>34.714285714285715</v>
+      </c>
+      <c r="W210" s="1">
+        <f t="shared" si="390"/>
+        <v>60.571428571428569</v>
+      </c>
+      <c r="X210" s="1">
+        <f t="shared" si="391"/>
+        <v>116.57142857142857</v>
+      </c>
+      <c r="Y210" s="1">
+        <f t="shared" si="392"/>
+        <v>119.42857142857143</v>
+      </c>
+      <c r="Z210" s="1">
+        <f t="shared" si="393"/>
+        <v>99.714285714285708</v>
+      </c>
+      <c r="AA210" s="1">
+        <f t="shared" si="394"/>
+        <v>91.857142857142861</v>
+      </c>
+      <c r="AB210" s="1">
+        <f t="shared" si="395"/>
+        <v>63.857142857142854</v>
+      </c>
+      <c r="AC210" s="1">
+        <f t="shared" si="396"/>
+        <v>31.857142857142858</v>
+      </c>
+      <c r="AD210" s="1">
+        <f t="shared" si="397"/>
+        <v>14.428571428571429</v>
+      </c>
     </row>
-    <row r="212" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B211">
+        <v>5376</v>
+      </c>
+      <c r="C211">
+        <v>12168</v>
+      </c>
+      <c r="D211">
+        <v>26232</v>
+      </c>
+      <c r="E211">
+        <v>24916</v>
+      </c>
+      <c r="F211">
+        <v>21983</v>
+      </c>
+      <c r="G211">
+        <v>20210</v>
+      </c>
+      <c r="H211">
+        <v>13593</v>
+      </c>
+      <c r="I211">
+        <v>7988</v>
+      </c>
+      <c r="J211">
+        <v>6225</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="380"/>
+        <v>29</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="381"/>
+        <v>82</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="382"/>
+        <v>139</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="383"/>
+        <v>114</v>
+      </c>
+      <c r="P211">
+        <f t="shared" si="384"/>
+        <v>110</v>
+      </c>
+      <c r="Q211">
+        <f t="shared" si="385"/>
+        <v>104</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="386"/>
+        <v>70</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="387"/>
+        <v>40</v>
+      </c>
+      <c r="T211">
+        <f t="shared" si="388"/>
+        <v>24</v>
+      </c>
+      <c r="V211" s="1">
+        <f t="shared" si="389"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="W211" s="1">
+        <f t="shared" si="390"/>
+        <v>62.714285714285715</v>
+      </c>
+      <c r="X211" s="1">
+        <f t="shared" si="391"/>
+        <v>116.71428571428571</v>
+      </c>
+      <c r="Y211" s="1">
+        <f t="shared" si="392"/>
+        <v>111.85714285714286</v>
+      </c>
+      <c r="Z211" s="1">
+        <f t="shared" si="393"/>
+        <v>98.857142857142861</v>
+      </c>
+      <c r="AA211" s="1">
+        <f t="shared" si="394"/>
+        <v>91.142857142857139</v>
+      </c>
+      <c r="AB211" s="1">
+        <f t="shared" si="395"/>
+        <v>63.428571428571431</v>
+      </c>
+      <c r="AC211" s="1">
+        <f t="shared" si="396"/>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="AD211" s="1">
+        <f t="shared" si="397"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>44128</v>
+      </c>
+      <c r="B212">
+        <v>5428</v>
+      </c>
+      <c r="C212">
+        <v>12241</v>
+      </c>
+      <c r="D212">
+        <v>26393</v>
+      </c>
+      <c r="E212">
+        <v>25061</v>
+      </c>
+      <c r="F212">
+        <v>22096</v>
+      </c>
+      <c r="G212">
+        <v>20334</v>
+      </c>
+      <c r="H212">
+        <v>13672</v>
+      </c>
+      <c r="I212">
+        <v>8022</v>
+      </c>
+      <c r="J212">
+        <v>6240</v>
+      </c>
       <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
+      <c r="L212">
+        <f t="shared" si="380"/>
+        <v>52</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="381"/>
+        <v>73</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="382"/>
+        <v>161</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="383"/>
+        <v>145</v>
+      </c>
+      <c r="P212">
+        <f t="shared" si="384"/>
+        <v>113</v>
+      </c>
+      <c r="Q212">
+        <f t="shared" si="385"/>
+        <v>124</v>
+      </c>
+      <c r="R212">
+        <f t="shared" si="386"/>
+        <v>79</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="387"/>
+        <v>34</v>
+      </c>
+      <c r="T212">
+        <f t="shared" si="388"/>
+        <v>15</v>
+      </c>
+      <c r="V212" s="1">
+        <f t="shared" si="389"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="W212" s="1">
+        <f t="shared" si="390"/>
+        <v>63.571428571428569</v>
+      </c>
+      <c r="X212" s="1">
+        <f t="shared" si="391"/>
+        <v>116</v>
+      </c>
+      <c r="Y212" s="1">
+        <f t="shared" si="392"/>
+        <v>110.71428571428571</v>
+      </c>
+      <c r="Z212" s="1">
+        <f t="shared" si="393"/>
+        <v>96.714285714285708</v>
+      </c>
+      <c r="AA212" s="1">
+        <f t="shared" si="394"/>
+        <v>94.428571428571431</v>
+      </c>
+      <c r="AB212" s="1">
+        <f t="shared" si="395"/>
+        <v>62.857142857142854</v>
+      </c>
+      <c r="AC212" s="1">
+        <f t="shared" si="396"/>
+        <v>32.571428571428569</v>
+      </c>
+      <c r="AD212" s="1">
+        <f t="shared" si="397"/>
+        <v>13.857142857142858</v>
+      </c>
     </row>
-    <row r="213" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>44129</v>
+      </c>
+      <c r="B213">
+        <v>5466</v>
+      </c>
+      <c r="C213">
+        <v>12326</v>
+      </c>
+      <c r="D213">
+        <v>26546</v>
+      </c>
+      <c r="E213">
+        <v>25206</v>
+      </c>
+      <c r="F213">
+        <v>22233</v>
+      </c>
+      <c r="G213">
+        <v>20440</v>
+      </c>
+      <c r="H213">
+        <v>13746</v>
+      </c>
+      <c r="I213">
+        <v>8057</v>
+      </c>
+      <c r="J213">
+        <v>6259</v>
+      </c>
       <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
+      <c r="L213">
+        <f t="shared" si="380"/>
+        <v>38</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="381"/>
+        <v>85</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="382"/>
+        <v>153</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="383"/>
+        <v>145</v>
+      </c>
+      <c r="P213">
+        <f t="shared" si="384"/>
+        <v>137</v>
+      </c>
+      <c r="Q213">
+        <f t="shared" si="385"/>
+        <v>106</v>
+      </c>
+      <c r="R213">
+        <f t="shared" si="386"/>
+        <v>74</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="387"/>
+        <v>35</v>
+      </c>
+      <c r="T213">
+        <f t="shared" si="388"/>
+        <v>19</v>
+      </c>
+      <c r="V213" s="1">
+        <f t="shared" si="389"/>
+        <v>34.857142857142854</v>
+      </c>
+      <c r="W213" s="1">
+        <f t="shared" si="390"/>
+        <v>67.285714285714292</v>
+      </c>
+      <c r="X213" s="1">
+        <f t="shared" si="391"/>
+        <v>124.57142857142857</v>
+      </c>
+      <c r="Y213" s="1">
+        <f t="shared" si="392"/>
+        <v>118</v>
+      </c>
+      <c r="Z213" s="1">
+        <f t="shared" si="393"/>
+        <v>103.57142857142857</v>
+      </c>
+      <c r="AA213" s="1">
+        <f t="shared" si="394"/>
+        <v>99.428571428571431</v>
+      </c>
+      <c r="AB213" s="1">
+        <f t="shared" si="395"/>
+        <v>65.428571428571431</v>
+      </c>
+      <c r="AC213" s="1">
+        <f t="shared" si="396"/>
+        <v>32.285714285714285</v>
+      </c>
+      <c r="AD213" s="1">
+        <f t="shared" si="397"/>
+        <v>14.857142857142858</v>
+      </c>
     </row>
-    <row r="214" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -21486,7 +22747,7 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
     </row>
-    <row r="215" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -21503,7 +22764,7 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
     </row>
-    <row r="216" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -21520,569 +22781,569 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
     </row>
-    <row r="217" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
-        <v>44107</v>
+        <v>44121</v>
       </c>
       <c r="C217" s="1">
-        <v>27.571428571428573</v>
+        <v>35.142857142857146</v>
       </c>
       <c r="D217" s="1">
-        <v>81.142857142857139</v>
+        <v>62.571428571428569</v>
       </c>
       <c r="E217" s="1">
-        <v>116.71428571428571</v>
+        <v>114.71428571428571</v>
       </c>
       <c r="F217" s="1">
-        <v>84.857142857142861</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="G217" s="1">
-        <v>72.142857142857139</v>
+        <v>92</v>
       </c>
       <c r="H217" s="1">
-        <v>75</v>
+        <v>88.285714285714292</v>
       </c>
       <c r="I217" s="1">
-        <v>48.857142857142854</v>
+        <v>66.571428571428569</v>
       </c>
       <c r="J217" s="1">
-        <v>29.571428571428573</v>
+        <v>30.142857142857142</v>
       </c>
       <c r="K217" s="1">
-        <v>13.714285714285714</v>
+        <v>18</v>
       </c>
       <c r="L217" s="1"/>
       <c r="N217" s="3">
-        <v>44107</v>
+        <v>44121</v>
       </c>
       <c r="O217" s="3">
-        <v>44108</v>
+        <v>44122</v>
       </c>
       <c r="P217" s="3">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="Q217" s="3">
-        <v>44110</v>
+        <v>44124</v>
       </c>
       <c r="R217" s="3">
-        <v>44111</v>
+        <v>44125</v>
       </c>
       <c r="S217" s="3">
-        <v>44112</v>
+        <v>44126</v>
       </c>
       <c r="T217" s="3">
-        <v>44113</v>
+        <v>44127</v>
       </c>
       <c r="U217" s="3">
-        <v>44114</v>
+        <v>44128</v>
       </c>
       <c r="V217" s="3">
-        <v>44115</v>
+        <v>44129</v>
       </c>
     </row>
-    <row r="218" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
-        <v>44108</v>
+        <v>44122</v>
       </c>
       <c r="C218" s="1">
-        <v>27.428571428571427</v>
+        <v>34.142857142857146</v>
       </c>
       <c r="D218" s="1">
-        <v>79.571428571428569</v>
+        <v>64</v>
       </c>
       <c r="E218" s="1">
-        <v>117.42857142857143</v>
+        <v>113.14285714285714</v>
       </c>
       <c r="F218" s="1">
-        <v>86.571428571428569</v>
+        <v>111</v>
       </c>
       <c r="G218" s="1">
-        <v>75</v>
+        <v>93.428571428571431</v>
       </c>
       <c r="H218" s="1">
-        <v>75</v>
+        <v>85.857142857142861</v>
       </c>
       <c r="I218" s="1">
-        <v>51.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="J218" s="1">
-        <v>30.142857142857142</v>
+        <v>31</v>
       </c>
       <c r="K218" s="1">
-        <v>12.857142857142858</v>
+        <v>18</v>
       </c>
       <c r="L218" s="1"/>
       <c r="N218" s="1">
-        <v>27.571428571428573</v>
+        <v>35.142857142857146</v>
       </c>
       <c r="O218" s="1">
-        <v>27.428571428571427</v>
+        <v>34.142857142857146</v>
       </c>
       <c r="P218" s="1">
-        <v>28.142857142857142</v>
+        <v>33.142857142857146</v>
       </c>
       <c r="Q218" s="1">
-        <v>27.142857142857142</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="R218" s="1">
-        <v>27.428571428571427</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="S218" s="1">
-        <v>28.142857142857142</v>
+        <v>34.714285714285715</v>
       </c>
       <c r="T218" s="1">
-        <v>28.714285714285715</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="U218" s="1">
-        <v>29.428571428571427</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="V218" s="1">
-        <v>29.428571428571427</v>
+        <v>34.857142857142854</v>
       </c>
     </row>
-    <row r="219" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="C219" s="1">
-        <v>28.142857142857142</v>
+        <v>33.142857142857146</v>
       </c>
       <c r="D219" s="1">
-        <v>78</v>
+        <v>60.142857142857146</v>
       </c>
       <c r="E219" s="1">
-        <v>115.71428571428571</v>
+        <v>112.57142857142857</v>
       </c>
       <c r="F219" s="1">
-        <v>86.714285714285708</v>
+        <v>114.28571428571429</v>
       </c>
       <c r="G219" s="1">
-        <v>78.142857142857139</v>
+        <v>93.571428571428569</v>
       </c>
       <c r="H219" s="1">
-        <v>73.571428571428569</v>
+        <v>84.857142857142861</v>
       </c>
       <c r="I219" s="1">
-        <v>53.571428571428569</v>
+        <v>65.285714285714292</v>
       </c>
       <c r="J219" s="1">
-        <v>31.142857142857142</v>
+        <v>30.571428571428573</v>
       </c>
       <c r="K219" s="1">
-        <v>13.714285714285714</v>
+        <v>18.857142857142858</v>
       </c>
       <c r="L219" s="1"/>
       <c r="N219" s="1">
-        <v>81.142857142857139</v>
+        <v>62.571428571428569</v>
       </c>
       <c r="O219" s="1">
-        <v>79.571428571428569</v>
+        <v>64</v>
       </c>
       <c r="P219" s="1">
-        <v>78</v>
+        <v>60.142857142857146</v>
       </c>
       <c r="Q219" s="1">
-        <v>78.142857142857139</v>
+        <v>60.571428571428569</v>
       </c>
       <c r="R219" s="1">
-        <v>80.142857142857139</v>
+        <v>59.571428571428569</v>
       </c>
       <c r="S219" s="1">
-        <v>74</v>
+        <v>60.571428571428569</v>
       </c>
       <c r="T219" s="1">
-        <v>71.714285714285708</v>
+        <v>62.714285714285715</v>
       </c>
       <c r="U219" s="1">
-        <v>71.428571428571431</v>
+        <v>63.571428571428569</v>
       </c>
       <c r="V219" s="1">
-        <v>69.857142857142861</v>
+        <v>67.285714285714292</v>
       </c>
     </row>
-    <row r="220" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
-        <v>44110</v>
+        <v>44124</v>
       </c>
       <c r="C220" s="1">
-        <v>27.142857142857142</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="D220" s="1">
-        <v>78.142857142857139</v>
+        <v>60.571428571428569</v>
       </c>
       <c r="E220" s="1">
-        <v>114.71428571428571</v>
+        <v>114</v>
       </c>
       <c r="F220" s="1">
-        <v>85.857142857142861</v>
+        <v>119.28571428571429</v>
       </c>
       <c r="G220" s="1">
-        <v>77.142857142857139</v>
+        <v>96.428571428571431</v>
       </c>
       <c r="H220" s="1">
-        <v>74.857142857142861</v>
+        <v>88.285714285714292</v>
       </c>
       <c r="I220" s="1">
-        <v>53.142857142857146</v>
+        <v>66.571428571428569</v>
       </c>
       <c r="J220" s="1">
-        <v>30.285714285714285</v>
+        <v>32</v>
       </c>
       <c r="K220" s="1">
-        <v>14.857142857142858</v>
+        <v>19.285714285714285</v>
       </c>
       <c r="L220" s="1"/>
       <c r="N220" s="1">
+        <v>114.71428571428571</v>
+      </c>
+      <c r="O220" s="1">
+        <v>113.14285714285714</v>
+      </c>
+      <c r="P220" s="1">
+        <v>112.57142857142857</v>
+      </c>
+      <c r="Q220" s="1">
+        <v>114</v>
+      </c>
+      <c r="R220" s="1">
+        <v>111.28571428571429</v>
+      </c>
+      <c r="S220" s="1">
+        <v>116.57142857142857</v>
+      </c>
+      <c r="T220" s="1">
         <v>116.71428571428571</v>
       </c>
-      <c r="O220" s="1">
-        <v>117.42857142857143</v>
-      </c>
-      <c r="P220" s="1">
-        <v>115.71428571428571</v>
-      </c>
-      <c r="Q220" s="1">
-        <v>114.71428571428571</v>
-      </c>
-      <c r="R220" s="1">
-        <v>114.42857142857143</v>
-      </c>
-      <c r="S220" s="1">
-        <v>111.85714285714286</v>
-      </c>
-      <c r="T220" s="1">
-        <v>111.85714285714286</v>
-      </c>
       <c r="U220" s="1">
-        <v>109.42857142857143</v>
+        <v>116</v>
       </c>
       <c r="V220" s="1">
-        <v>109.85714285714286</v>
+        <v>124.57142857142857</v>
       </c>
     </row>
-    <row r="221" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
-        <v>44111</v>
+        <v>44125</v>
       </c>
       <c r="C221" s="1">
-        <v>27.428571428571427</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="D221" s="1">
-        <v>80.142857142857139</v>
+        <v>59.571428571428569</v>
       </c>
       <c r="E221" s="1">
-        <v>114.42857142857143</v>
+        <v>111.28571428571429</v>
       </c>
       <c r="F221" s="1">
-        <v>86.571428571428569</v>
+        <v>117.14285714285714</v>
       </c>
       <c r="G221" s="1">
-        <v>79.428571428571431</v>
+        <v>96</v>
       </c>
       <c r="H221" s="1">
-        <v>75.142857142857139</v>
+        <v>89.571428571428569</v>
       </c>
       <c r="I221" s="1">
-        <v>54</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="J221" s="1">
-        <v>30.428571428571427</v>
+        <v>31.142857142857142</v>
       </c>
       <c r="K221" s="1">
-        <v>15.142857142857142</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="L221" s="1"/>
       <c r="N221" s="1">
+        <v>111.42857142857143</v>
+      </c>
+      <c r="O221" s="1">
+        <v>111</v>
+      </c>
+      <c r="P221" s="1">
+        <v>114.28571428571429</v>
+      </c>
+      <c r="Q221" s="1">
+        <v>119.28571428571429</v>
+      </c>
+      <c r="R221" s="1">
+        <v>117.14285714285714</v>
+      </c>
+      <c r="S221" s="1">
+        <v>119.42857142857143</v>
+      </c>
+      <c r="T221" s="1">
+        <v>111.85714285714286</v>
+      </c>
+      <c r="U221" s="1">
+        <v>110.71428571428571</v>
+      </c>
+      <c r="V221" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B222" s="3">
+        <v>44126</v>
+      </c>
+      <c r="C222" s="1">
+        <v>34.714285714285715</v>
+      </c>
+      <c r="D222" s="1">
+        <v>60.571428571428569</v>
+      </c>
+      <c r="E222" s="1">
+        <v>116.57142857142857</v>
+      </c>
+      <c r="F222" s="1">
+        <v>119.42857142857143</v>
+      </c>
+      <c r="G222" s="1">
+        <v>99.714285714285708</v>
+      </c>
+      <c r="H222" s="1">
+        <v>91.857142857142861</v>
+      </c>
+      <c r="I222" s="1">
+        <v>63.857142857142854</v>
+      </c>
+      <c r="J222" s="1">
+        <v>31.857142857142858</v>
+      </c>
+      <c r="K222" s="1">
+        <v>14.428571428571429</v>
+      </c>
+      <c r="N222" s="1">
+        <v>92</v>
+      </c>
+      <c r="O222" s="1">
+        <v>93.428571428571431</v>
+      </c>
+      <c r="P222" s="1">
+        <v>93.571428571428569</v>
+      </c>
+      <c r="Q222" s="1">
+        <v>96.428571428571431</v>
+      </c>
+      <c r="R222" s="1">
+        <v>96</v>
+      </c>
+      <c r="S222" s="1">
+        <v>99.714285714285708</v>
+      </c>
+      <c r="T222" s="1">
+        <v>98.857142857142861</v>
+      </c>
+      <c r="U222" s="1">
+        <v>96.714285714285708</v>
+      </c>
+      <c r="V222" s="1">
+        <v>103.57142857142857</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B223" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C223" s="1">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="D223" s="1">
+        <v>62.714285714285715</v>
+      </c>
+      <c r="E223" s="1">
+        <v>116.71428571428571</v>
+      </c>
+      <c r="F223" s="1">
+        <v>111.85714285714286</v>
+      </c>
+      <c r="G223" s="1">
+        <v>98.857142857142861</v>
+      </c>
+      <c r="H223" s="1">
+        <v>91.142857142857139</v>
+      </c>
+      <c r="I223" s="1">
+        <v>63.428571428571431</v>
+      </c>
+      <c r="J223" s="1">
+        <v>32.714285714285715</v>
+      </c>
+      <c r="K223" s="1">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="N223" s="1">
+        <v>88.285714285714292</v>
+      </c>
+      <c r="O223" s="1">
+        <v>85.857142857142861</v>
+      </c>
+      <c r="P223" s="1">
         <v>84.857142857142861</v>
       </c>
-      <c r="O221" s="1">
-        <v>86.571428571428569</v>
-      </c>
-      <c r="P221" s="1">
-        <v>86.714285714285708</v>
-      </c>
-      <c r="Q221" s="1">
-        <v>85.857142857142861</v>
-      </c>
-      <c r="R221" s="1">
-        <v>86.571428571428569</v>
-      </c>
-      <c r="S221" s="1">
-        <v>86.428571428571431</v>
-      </c>
-      <c r="T221" s="1">
-        <v>89</v>
-      </c>
-      <c r="U221" s="1">
-        <v>92.428571428571431</v>
-      </c>
-      <c r="V221" s="1">
-        <v>95.571428571428569</v>
+      <c r="Q223" s="1">
+        <v>88.285714285714292</v>
+      </c>
+      <c r="R223" s="1">
+        <v>89.571428571428569</v>
+      </c>
+      <c r="S223" s="1">
+        <v>91.857142857142861</v>
+      </c>
+      <c r="T223" s="1">
+        <v>91.142857142857139</v>
+      </c>
+      <c r="U223" s="1">
+        <v>94.428571428571431</v>
+      </c>
+      <c r="V223" s="1">
+        <v>99.428571428571431</v>
       </c>
     </row>
-    <row r="222" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B222" s="3">
-        <v>44112</v>
-      </c>
-      <c r="C222" s="1">
-        <v>28.142857142857142</v>
-      </c>
-      <c r="D222" s="1">
-        <v>74</v>
-      </c>
-      <c r="E222" s="1">
-        <v>111.85714285714286</v>
-      </c>
-      <c r="F222" s="1">
-        <v>86.428571428571431</v>
-      </c>
-      <c r="G222" s="1">
-        <v>83.142857142857139</v>
-      </c>
-      <c r="H222" s="1">
-        <v>75.857142857142861</v>
-      </c>
-      <c r="I222" s="1">
-        <v>55.285714285714285</v>
-      </c>
-      <c r="J222" s="1">
-        <v>29.142857142857142</v>
-      </c>
-      <c r="K222" s="1">
-        <v>15.428571428571429</v>
-      </c>
-      <c r="N222" s="1">
-        <v>72.142857142857139</v>
-      </c>
-      <c r="O222" s="1">
-        <v>75</v>
-      </c>
-      <c r="P222" s="1">
-        <v>78.142857142857139</v>
-      </c>
-      <c r="Q222" s="1">
-        <v>77.142857142857139</v>
-      </c>
-      <c r="R222" s="1">
-        <v>79.428571428571431</v>
-      </c>
-      <c r="S222" s="1">
-        <v>83.142857142857139</v>
-      </c>
-      <c r="T222" s="1">
-        <v>83.428571428571431</v>
-      </c>
-      <c r="U222" s="1">
-        <v>82.714285714285708</v>
-      </c>
-      <c r="V222" s="1">
-        <v>83.857142857142861</v>
-      </c>
-    </row>
-    <row r="223" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B223" s="3">
-        <v>44113</v>
-      </c>
-      <c r="C223" s="1">
-        <v>28.714285714285715</v>
-      </c>
-      <c r="D223" s="1">
-        <v>71.714285714285708</v>
-      </c>
-      <c r="E223" s="1">
-        <v>111.85714285714286</v>
-      </c>
-      <c r="F223" s="1">
-        <v>89</v>
-      </c>
-      <c r="G223" s="1">
-        <v>83.428571428571431</v>
-      </c>
-      <c r="H223" s="1">
-        <v>78</v>
-      </c>
-      <c r="I223" s="1">
-        <v>54.142857142857146</v>
-      </c>
-      <c r="J223" s="1">
-        <v>29.714285714285715</v>
-      </c>
-      <c r="K223" s="1">
-        <v>15.857142857142858</v>
-      </c>
-      <c r="N223" s="1">
-        <v>75</v>
-      </c>
-      <c r="O223" s="1">
-        <v>75</v>
-      </c>
-      <c r="P223" s="1">
-        <v>73.571428571428569</v>
-      </c>
-      <c r="Q223" s="1">
-        <v>74.857142857142861</v>
-      </c>
-      <c r="R223" s="1">
-        <v>75.142857142857139</v>
-      </c>
-      <c r="S223" s="1">
-        <v>75.857142857142861</v>
-      </c>
-      <c r="T223" s="1">
-        <v>78</v>
-      </c>
-      <c r="U223" s="1">
-        <v>80.714285714285708</v>
-      </c>
-      <c r="V223" s="1">
-        <v>85.285714285714292</v>
-      </c>
-    </row>
-    <row r="224" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
-        <v>44114</v>
+        <v>44128</v>
       </c>
       <c r="C224" s="1">
-        <v>29.428571428571427</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="D224" s="1">
-        <v>71.428571428571431</v>
+        <v>63.571428571428569</v>
       </c>
       <c r="E224" s="1">
-        <v>109.42857142857143</v>
+        <v>116</v>
       </c>
       <c r="F224" s="1">
-        <v>92.428571428571431</v>
+        <v>110.71428571428571</v>
       </c>
       <c r="G224" s="1">
-        <v>82.714285714285708</v>
+        <v>96.714285714285708</v>
       </c>
       <c r="H224" s="1">
-        <v>80.714285714285708</v>
+        <v>94.428571428571431</v>
       </c>
       <c r="I224" s="1">
-        <v>56.857142857142854</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="J224" s="1">
-        <v>29.857142857142858</v>
+        <v>32.571428571428569</v>
       </c>
       <c r="K224" s="1">
-        <v>15.142857142857142</v>
+        <v>13.857142857142858</v>
       </c>
       <c r="N224" s="1">
-        <v>48.857142857142854</v>
+        <v>66.571428571428569</v>
       </c>
       <c r="O224" s="1">
-        <v>51.285714285714285</v>
+        <v>63.714285714285715</v>
       </c>
       <c r="P224" s="1">
-        <v>53.571428571428569</v>
+        <v>65.285714285714292</v>
       </c>
       <c r="Q224" s="1">
-        <v>53.142857142857146</v>
+        <v>66.571428571428569</v>
       </c>
       <c r="R224" s="1">
-        <v>54</v>
+        <v>63.285714285714285</v>
       </c>
       <c r="S224" s="1">
-        <v>55.285714285714285</v>
+        <v>63.857142857142854</v>
       </c>
       <c r="T224" s="1">
-        <v>54.142857142857146</v>
+        <v>63.428571428571431</v>
       </c>
       <c r="U224" s="1">
-        <v>56.857142857142854</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="V224" s="1">
-        <v>60.428571428571431</v>
+        <v>65.428571428571431</v>
       </c>
     </row>
     <row r="225" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="C225" s="1">
-        <v>29.428571428571427</v>
+        <v>34.857142857142854</v>
       </c>
       <c r="D225" s="1">
-        <v>69.857142857142861</v>
+        <v>67.285714285714292</v>
       </c>
       <c r="E225" s="1">
-        <v>109.85714285714286</v>
+        <v>124.57142857142857</v>
       </c>
       <c r="F225" s="1">
-        <v>95.571428571428569</v>
+        <v>118</v>
       </c>
       <c r="G225" s="1">
-        <v>83.857142857142861</v>
+        <v>103.57142857142857</v>
       </c>
       <c r="H225" s="1">
-        <v>85.285714285714292</v>
+        <v>99.428571428571431</v>
       </c>
       <c r="I225" s="1">
-        <v>60.428571428571431</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="J225" s="1">
-        <v>31.428571428571427</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="K225" s="1">
-        <v>15.285714285714286</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="N225" s="1">
-        <v>29.571428571428573</v>
+        <v>30.142857142857142</v>
       </c>
       <c r="O225" s="1">
-        <v>30.142857142857142</v>
+        <v>31</v>
       </c>
       <c r="P225" s="1">
+        <v>30.571428571428573</v>
+      </c>
+      <c r="Q225" s="1">
+        <v>32</v>
+      </c>
+      <c r="R225" s="1">
         <v>31.142857142857142</v>
       </c>
-      <c r="Q225" s="1">
-        <v>30.285714285714285</v>
-      </c>
-      <c r="R225" s="1">
-        <v>30.428571428571427</v>
-      </c>
       <c r="S225" s="1">
-        <v>29.142857142857142</v>
+        <v>31.857142857142858</v>
       </c>
       <c r="T225" s="1">
-        <v>29.714285714285715</v>
+        <v>32.714285714285715</v>
       </c>
       <c r="U225" s="1">
-        <v>29.857142857142858</v>
+        <v>32.571428571428569</v>
       </c>
       <c r="V225" s="1">
-        <v>31.428571428571427</v>
+        <v>32.285714285714285</v>
       </c>
     </row>
     <row r="226" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N226" s="1">
-        <v>13.714285714285714</v>
+        <v>18</v>
       </c>
       <c r="O226" s="1">
-        <v>12.857142857142858</v>
+        <v>18</v>
       </c>
       <c r="P226" s="1">
-        <v>13.714285714285714</v>
+        <v>18.857142857142858</v>
       </c>
       <c r="Q226" s="1">
+        <v>19.285714285714285</v>
+      </c>
+      <c r="R226" s="1">
+        <v>16.714285714285715</v>
+      </c>
+      <c r="S226" s="1">
+        <v>14.428571428571429</v>
+      </c>
+      <c r="T226" s="1">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="U226" s="1">
+        <v>13.857142857142858</v>
+      </c>
+      <c r="V226" s="1">
         <v>14.857142857142858</v>
-      </c>
-      <c r="R226" s="1">
-        <v>15.142857142857142</v>
-      </c>
-      <c r="S226" s="1">
-        <v>15.428571428571429</v>
-      </c>
-      <c r="T226" s="1">
-        <v>15.857142857142858</v>
-      </c>
-      <c r="U226" s="1">
-        <v>15.142857142857142</v>
-      </c>
-      <c r="V226" s="1">
-        <v>15.285714285714286</v>
       </c>
     </row>
     <row r="227" spans="2:22" x14ac:dyDescent="0.25">

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C58573DC-674E-4A62-85FE-B7E326B45E24}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3AF9A0F7-F2A5-4576-8C42-240AD73F6AA0}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,24 +916,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF229"/>
+  <dimension ref="A1:AF251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N217" sqref="N217:V226"/>
+      <selection pane="bottomRight" activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22731,620 +22730,773 @@
       </c>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
+      <c r="A214" s="3">
+        <v>44130</v>
+      </c>
+      <c r="B214">
+        <v>5492</v>
+      </c>
+      <c r="C214">
+        <v>12366</v>
+      </c>
+      <c r="D214">
+        <v>26681</v>
+      </c>
+      <c r="E214">
+        <v>25322</v>
+      </c>
+      <c r="F214">
+        <v>22320</v>
+      </c>
+      <c r="G214">
+        <v>20511</v>
+      </c>
+      <c r="H214">
+        <v>13794</v>
+      </c>
+      <c r="I214">
+        <v>8082</v>
+      </c>
+      <c r="J214">
+        <v>6276</v>
+      </c>
       <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
+      <c r="L214">
+        <f t="shared" ref="L214:L219" si="398">SUM(B214-B213)</f>
+        <v>26</v>
+      </c>
+      <c r="M214">
+        <f t="shared" ref="M214:M219" si="399">SUM(C214-C213)</f>
+        <v>40</v>
+      </c>
+      <c r="N214">
+        <f t="shared" ref="N214:N219" si="400">SUM(D214-D213)</f>
+        <v>135</v>
+      </c>
+      <c r="O214">
+        <f t="shared" ref="O214:O219" si="401">SUM(E214-E213)</f>
+        <v>116</v>
+      </c>
+      <c r="P214">
+        <f t="shared" ref="P214:P219" si="402">SUM(F214-F213)</f>
+        <v>87</v>
+      </c>
+      <c r="Q214">
+        <f t="shared" ref="Q214:Q219" si="403">SUM(G214-G213)</f>
+        <v>71</v>
+      </c>
+      <c r="R214">
+        <f t="shared" ref="R214:R219" si="404">SUM(H214-H213)</f>
+        <v>48</v>
+      </c>
+      <c r="S214">
+        <f t="shared" ref="S214:S219" si="405">SUM(I214-I213)</f>
+        <v>25</v>
+      </c>
+      <c r="T214">
+        <f t="shared" ref="T214:T219" si="406">SUM(J214-J213)</f>
+        <v>17</v>
+      </c>
+      <c r="V214" s="1">
+        <f t="shared" ref="V214:V219" si="407">AVERAGE(L208:L214)</f>
+        <v>34.857142857142854</v>
+      </c>
+      <c r="W214" s="1">
+        <f t="shared" ref="W214:W219" si="408">AVERAGE(M208:M214)</f>
+        <v>66</v>
+      </c>
+      <c r="X214" s="1">
+        <f t="shared" ref="X214:X219" si="409">AVERAGE(N208:N214)</f>
+        <v>131.57142857142858</v>
+      </c>
+      <c r="Y214" s="1">
+        <f t="shared" ref="Y214:Y219" si="410">AVERAGE(O208:O214)</f>
+        <v>121.42857142857143</v>
+      </c>
+      <c r="Z214" s="1">
+        <f t="shared" ref="Z214:Z219" si="411">AVERAGE(P208:P214)</f>
+        <v>105.14285714285714</v>
+      </c>
+      <c r="AA214" s="1">
+        <f t="shared" ref="AA214:AA219" si="412">AVERAGE(Q208:Q214)</f>
+        <v>99.428571428571431</v>
+      </c>
+      <c r="AB214" s="1">
+        <f t="shared" ref="AB214:AB219" si="413">AVERAGE(R208:R214)</f>
+        <v>64</v>
+      </c>
+      <c r="AC214" s="1">
+        <f t="shared" ref="AC214:AC219" si="414">AVERAGE(S208:S214)</f>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="AD214" s="1">
+        <f t="shared" ref="AD214:AD219" si="415">AVERAGE(T208:T214)</f>
+        <v>14.857142857142858</v>
+      </c>
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
+      <c r="A215" s="3">
+        <v>44131</v>
+      </c>
+      <c r="B215">
+        <v>5519</v>
+      </c>
+      <c r="C215">
+        <v>12450</v>
+      </c>
+      <c r="D215">
+        <v>26854</v>
+      </c>
+      <c r="E215">
+        <v>25493</v>
+      </c>
+      <c r="F215">
+        <v>22470</v>
+      </c>
+      <c r="G215">
+        <v>20646</v>
+      </c>
+      <c r="H215">
+        <v>13884</v>
+      </c>
+      <c r="I215">
+        <v>8129</v>
+      </c>
+      <c r="J215">
+        <v>6296</v>
+      </c>
       <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
+      <c r="L215">
+        <f t="shared" si="398"/>
+        <v>27</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="399"/>
+        <v>84</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="400"/>
+        <v>173</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="401"/>
+        <v>171</v>
+      </c>
+      <c r="P215">
+        <f t="shared" si="402"/>
+        <v>150</v>
+      </c>
+      <c r="Q215">
+        <f t="shared" si="403"/>
+        <v>135</v>
+      </c>
+      <c r="R215">
+        <f t="shared" si="404"/>
+        <v>90</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="405"/>
+        <v>47</v>
+      </c>
+      <c r="T215">
+        <f t="shared" si="406"/>
+        <v>20</v>
+      </c>
+      <c r="V215" s="1">
+        <f t="shared" si="407"/>
+        <v>35</v>
+      </c>
+      <c r="W215" s="1">
+        <f t="shared" si="408"/>
+        <v>69.571428571428569</v>
+      </c>
+      <c r="X215" s="1">
+        <f t="shared" si="409"/>
+        <v>141.14285714285714</v>
+      </c>
+      <c r="Y215" s="1">
+        <f t="shared" si="410"/>
+        <v>129.57142857142858</v>
+      </c>
+      <c r="Z215" s="1">
+        <f t="shared" si="411"/>
+        <v>114.42857142857143</v>
+      </c>
+      <c r="AA215" s="1">
+        <f t="shared" si="412"/>
+        <v>104.85714285714286</v>
+      </c>
+      <c r="AB215" s="1">
+        <f t="shared" si="413"/>
+        <v>68.714285714285708</v>
+      </c>
+      <c r="AC215" s="1">
+        <f t="shared" si="414"/>
+        <v>34.714285714285715</v>
+      </c>
+      <c r="AD215" s="1">
+        <f t="shared" si="415"/>
+        <v>15.857142857142858</v>
+      </c>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
+      <c r="A216" s="3">
+        <v>44132</v>
+      </c>
+      <c r="B216">
+        <v>5553</v>
+      </c>
+      <c r="C216">
+        <v>12514</v>
+      </c>
+      <c r="D216">
+        <v>26984</v>
+      </c>
+      <c r="E216">
+        <v>25604</v>
+      </c>
+      <c r="F216">
+        <v>22576</v>
+      </c>
+      <c r="G216">
+        <v>20732</v>
+      </c>
+      <c r="H216">
+        <v>13961</v>
+      </c>
+      <c r="I216">
+        <v>8173</v>
+      </c>
+      <c r="J216">
+        <v>6328</v>
+      </c>
       <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
+      <c r="L216">
+        <f t="shared" si="398"/>
+        <v>34</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="399"/>
+        <v>64</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="400"/>
+        <v>130</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="401"/>
+        <v>111</v>
+      </c>
+      <c r="P216">
+        <f t="shared" si="402"/>
+        <v>106</v>
+      </c>
+      <c r="Q216">
+        <f t="shared" si="403"/>
+        <v>86</v>
+      </c>
+      <c r="R216">
+        <f t="shared" si="404"/>
+        <v>77</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="405"/>
+        <v>44</v>
+      </c>
+      <c r="T216">
+        <f t="shared" si="406"/>
+        <v>32</v>
+      </c>
+      <c r="V216" s="1">
+        <f t="shared" si="407"/>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="W216" s="1">
+        <f t="shared" si="408"/>
+        <v>71.571428571428569</v>
+      </c>
+      <c r="X216" s="1">
+        <f t="shared" si="409"/>
+        <v>147.28571428571428</v>
+      </c>
+      <c r="Y216" s="1">
+        <f t="shared" si="410"/>
+        <v>132.71428571428572</v>
+      </c>
+      <c r="Z216" s="1">
+        <f t="shared" si="411"/>
+        <v>118.57142857142857</v>
+      </c>
+      <c r="AA216" s="1">
+        <f t="shared" si="412"/>
+        <v>104.57142857142857</v>
+      </c>
+      <c r="AB216" s="1">
+        <f t="shared" si="413"/>
+        <v>73.285714285714292</v>
+      </c>
+      <c r="AC216" s="1">
+        <f t="shared" si="414"/>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="AD216" s="1">
+        <f t="shared" si="415"/>
+        <v>19.571428571428573</v>
+      </c>
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B217" s="3">
-        <v>44121</v>
-      </c>
-      <c r="C217" s="1">
-        <v>35.142857142857146</v>
-      </c>
-      <c r="D217" s="1">
-        <v>62.571428571428569</v>
-      </c>
-      <c r="E217" s="1">
-        <v>114.71428571428571</v>
-      </c>
-      <c r="F217" s="1">
-        <v>111.42857142857143</v>
-      </c>
-      <c r="G217" s="1">
-        <v>92</v>
-      </c>
-      <c r="H217" s="1">
-        <v>88.285714285714292</v>
-      </c>
-      <c r="I217" s="1">
-        <v>66.571428571428569</v>
-      </c>
-      <c r="J217" s="1">
-        <v>30.142857142857142</v>
-      </c>
-      <c r="K217" s="1">
-        <v>18</v>
-      </c>
-      <c r="L217" s="1"/>
-      <c r="N217" s="3">
-        <v>44121</v>
-      </c>
-      <c r="O217" s="3">
-        <v>44122</v>
-      </c>
-      <c r="P217" s="3">
-        <v>44123</v>
-      </c>
-      <c r="Q217" s="3">
-        <v>44124</v>
-      </c>
-      <c r="R217" s="3">
-        <v>44125</v>
-      </c>
-      <c r="S217" s="3">
-        <v>44126</v>
-      </c>
-      <c r="T217" s="3">
-        <v>44127</v>
-      </c>
-      <c r="U217" s="3">
-        <v>44128</v>
-      </c>
-      <c r="V217" s="3">
-        <v>44129</v>
+      <c r="A217" s="3">
+        <v>44133</v>
+      </c>
+      <c r="B217">
+        <v>5611</v>
+      </c>
+      <c r="C217">
+        <v>12601</v>
+      </c>
+      <c r="D217">
+        <v>27162</v>
+      </c>
+      <c r="E217">
+        <v>25795</v>
+      </c>
+      <c r="F217">
+        <v>22721</v>
+      </c>
+      <c r="G217">
+        <v>20866</v>
+      </c>
+      <c r="H217">
+        <v>14046</v>
+      </c>
+      <c r="I217">
+        <v>8232</v>
+      </c>
+      <c r="J217">
+        <v>6353</v>
+      </c>
+      <c r="K217" s="1"/>
+      <c r="L217">
+        <f t="shared" si="398"/>
+        <v>58</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="399"/>
+        <v>87</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="400"/>
+        <v>178</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="401"/>
+        <v>191</v>
+      </c>
+      <c r="P217">
+        <f t="shared" si="402"/>
+        <v>145</v>
+      </c>
+      <c r="Q217">
+        <f t="shared" si="403"/>
+        <v>134</v>
+      </c>
+      <c r="R217">
+        <f t="shared" si="404"/>
+        <v>85</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="405"/>
+        <v>59</v>
+      </c>
+      <c r="T217">
+        <f t="shared" si="406"/>
+        <v>25</v>
+      </c>
+      <c r="V217" s="1">
+        <f t="shared" si="407"/>
+        <v>37.714285714285715</v>
+      </c>
+      <c r="W217" s="1">
+        <f t="shared" si="408"/>
+        <v>73.571428571428569</v>
+      </c>
+      <c r="X217" s="1">
+        <f t="shared" si="409"/>
+        <v>152.71428571428572</v>
+      </c>
+      <c r="Y217" s="1">
+        <f t="shared" si="410"/>
+        <v>141.85714285714286</v>
+      </c>
+      <c r="Z217" s="1">
+        <f t="shared" si="411"/>
+        <v>121.14285714285714</v>
+      </c>
+      <c r="AA217" s="1">
+        <f t="shared" si="412"/>
+        <v>108.57142857142857</v>
+      </c>
+      <c r="AB217" s="1">
+        <f t="shared" si="413"/>
+        <v>74.714285714285708</v>
+      </c>
+      <c r="AC217" s="1">
+        <f t="shared" si="414"/>
+        <v>40.571428571428569</v>
+      </c>
+      <c r="AD217" s="1">
+        <f t="shared" si="415"/>
+        <v>21.714285714285715</v>
       </c>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B218" s="3">
-        <v>44122</v>
-      </c>
-      <c r="C218" s="1">
-        <v>34.142857142857146</v>
-      </c>
-      <c r="D218" s="1">
-        <v>64</v>
-      </c>
-      <c r="E218" s="1">
-        <v>113.14285714285714</v>
-      </c>
-      <c r="F218" s="1">
-        <v>111</v>
-      </c>
-      <c r="G218" s="1">
-        <v>93.428571428571431</v>
-      </c>
-      <c r="H218" s="1">
-        <v>85.857142857142861</v>
-      </c>
-      <c r="I218" s="1">
-        <v>63.714285714285715</v>
-      </c>
-      <c r="J218" s="1">
-        <v>31</v>
-      </c>
-      <c r="K218" s="1">
-        <v>18</v>
-      </c>
-      <c r="L218" s="1"/>
-      <c r="N218" s="1">
-        <v>35.142857142857146</v>
-      </c>
-      <c r="O218" s="1">
-        <v>34.142857142857146</v>
-      </c>
-      <c r="P218" s="1">
-        <v>33.142857142857146</v>
-      </c>
-      <c r="Q218" s="1">
-        <v>32.285714285714285</v>
-      </c>
-      <c r="R218" s="1">
-        <v>32.142857142857146</v>
-      </c>
-      <c r="S218" s="1">
-        <v>34.714285714285715</v>
-      </c>
-      <c r="T218" s="1">
-        <v>31.428571428571427</v>
-      </c>
-      <c r="U218" s="1">
-        <v>32.142857142857146</v>
+      <c r="A218" s="3">
+        <v>44134</v>
+      </c>
+      <c r="B218">
+        <v>5663</v>
+      </c>
+      <c r="C218">
+        <v>12699</v>
+      </c>
+      <c r="D218">
+        <v>27323</v>
+      </c>
+      <c r="E218">
+        <v>25943</v>
+      </c>
+      <c r="F218">
+        <v>22871</v>
+      </c>
+      <c r="G218">
+        <v>21007</v>
+      </c>
+      <c r="H218">
+        <v>14131</v>
+      </c>
+      <c r="I218">
+        <v>8291</v>
+      </c>
+      <c r="J218">
+        <v>6386</v>
+      </c>
+      <c r="K218" s="1"/>
+      <c r="L218">
+        <f t="shared" si="398"/>
+        <v>52</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="399"/>
+        <v>98</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="400"/>
+        <v>161</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="401"/>
+        <v>148</v>
+      </c>
+      <c r="P218">
+        <f t="shared" si="402"/>
+        <v>150</v>
+      </c>
+      <c r="Q218">
+        <f t="shared" si="403"/>
+        <v>141</v>
+      </c>
+      <c r="R218">
+        <f t="shared" si="404"/>
+        <v>85</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="405"/>
+        <v>59</v>
+      </c>
+      <c r="T218">
+        <f t="shared" si="406"/>
+        <v>33</v>
       </c>
       <c r="V218" s="1">
-        <v>34.857142857142854</v>
+        <f t="shared" si="407"/>
+        <v>41</v>
+      </c>
+      <c r="W218" s="1">
+        <f t="shared" si="408"/>
+        <v>75.857142857142861</v>
+      </c>
+      <c r="X218" s="1">
+        <f t="shared" si="409"/>
+        <v>155.85714285714286</v>
+      </c>
+      <c r="Y218" s="1">
+        <f t="shared" si="410"/>
+        <v>146.71428571428572</v>
+      </c>
+      <c r="Z218" s="1">
+        <f t="shared" si="411"/>
+        <v>126.85714285714286</v>
+      </c>
+      <c r="AA218" s="1">
+        <f t="shared" si="412"/>
+        <v>113.85714285714286</v>
+      </c>
+      <c r="AB218" s="1">
+        <f t="shared" si="413"/>
+        <v>76.857142857142861</v>
+      </c>
+      <c r="AC218" s="1">
+        <f t="shared" si="414"/>
+        <v>43.285714285714285</v>
+      </c>
+      <c r="AD218" s="1">
+        <f t="shared" si="415"/>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B219" s="3">
-        <v>44123</v>
-      </c>
-      <c r="C219" s="1">
-        <v>33.142857142857146</v>
-      </c>
-      <c r="D219" s="1">
-        <v>60.142857142857146</v>
-      </c>
-      <c r="E219" s="1">
-        <v>112.57142857142857</v>
-      </c>
-      <c r="F219" s="1">
-        <v>114.28571428571429</v>
-      </c>
-      <c r="G219" s="1">
-        <v>93.571428571428569</v>
-      </c>
-      <c r="H219" s="1">
-        <v>84.857142857142861</v>
-      </c>
-      <c r="I219" s="1">
-        <v>65.285714285714292</v>
-      </c>
-      <c r="J219" s="1">
-        <v>30.571428571428573</v>
-      </c>
-      <c r="K219" s="1">
-        <v>18.857142857142858</v>
-      </c>
-      <c r="L219" s="1"/>
-      <c r="N219" s="1">
-        <v>62.571428571428569</v>
-      </c>
-      <c r="O219" s="1">
-        <v>64</v>
-      </c>
-      <c r="P219" s="1">
-        <v>60.142857142857146</v>
-      </c>
-      <c r="Q219" s="1">
-        <v>60.571428571428569</v>
-      </c>
-      <c r="R219" s="1">
-        <v>59.571428571428569</v>
-      </c>
-      <c r="S219" s="1">
-        <v>60.571428571428569</v>
-      </c>
-      <c r="T219" s="1">
-        <v>62.714285714285715</v>
-      </c>
-      <c r="U219" s="1">
-        <v>63.571428571428569</v>
+      <c r="A219" s="3">
+        <v>44135</v>
+      </c>
+      <c r="B219">
+        <v>5713</v>
+      </c>
+      <c r="C219">
+        <v>12798</v>
+      </c>
+      <c r="D219">
+        <v>27535</v>
+      </c>
+      <c r="E219">
+        <v>26141</v>
+      </c>
+      <c r="F219">
+        <v>23016</v>
+      </c>
+      <c r="G219">
+        <v>21138</v>
+      </c>
+      <c r="H219">
+        <v>14216</v>
+      </c>
+      <c r="I219">
+        <v>8317</v>
+      </c>
+      <c r="J219">
+        <v>6407</v>
+      </c>
+      <c r="K219" s="1"/>
+      <c r="L219">
+        <f t="shared" si="398"/>
+        <v>50</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="399"/>
+        <v>99</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="400"/>
+        <v>212</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="401"/>
+        <v>198</v>
+      </c>
+      <c r="P219">
+        <f t="shared" si="402"/>
+        <v>145</v>
+      </c>
+      <c r="Q219">
+        <f t="shared" si="403"/>
+        <v>131</v>
+      </c>
+      <c r="R219">
+        <f t="shared" si="404"/>
+        <v>85</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="405"/>
+        <v>26</v>
+      </c>
+      <c r="T219">
+        <f t="shared" si="406"/>
+        <v>21</v>
       </c>
       <c r="V219" s="1">
-        <v>67.285714285714292</v>
+        <f t="shared" si="407"/>
+        <v>40.714285714285715</v>
+      </c>
+      <c r="W219" s="1">
+        <f t="shared" si="408"/>
+        <v>79.571428571428569</v>
+      </c>
+      <c r="X219" s="1">
+        <f t="shared" si="409"/>
+        <v>163.14285714285714</v>
+      </c>
+      <c r="Y219" s="1">
+        <f t="shared" si="410"/>
+        <v>154.28571428571428</v>
+      </c>
+      <c r="Z219" s="1">
+        <f t="shared" si="411"/>
+        <v>131.42857142857142</v>
+      </c>
+      <c r="AA219" s="1">
+        <f t="shared" si="412"/>
+        <v>114.85714285714286</v>
+      </c>
+      <c r="AB219" s="1">
+        <f t="shared" si="413"/>
+        <v>77.714285714285708</v>
+      </c>
+      <c r="AC219" s="1">
+        <f t="shared" si="414"/>
+        <v>42.142857142857146</v>
+      </c>
+      <c r="AD219" s="1">
+        <f t="shared" si="415"/>
+        <v>23.857142857142858</v>
       </c>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B220" s="3">
-        <v>44124</v>
-      </c>
-      <c r="C220" s="1">
-        <v>32.285714285714285</v>
-      </c>
-      <c r="D220" s="1">
-        <v>60.571428571428569</v>
-      </c>
-      <c r="E220" s="1">
-        <v>114</v>
-      </c>
-      <c r="F220" s="1">
-        <v>119.28571428571429</v>
-      </c>
-      <c r="G220" s="1">
-        <v>96.428571428571431</v>
-      </c>
-      <c r="H220" s="1">
-        <v>88.285714285714292</v>
-      </c>
-      <c r="I220" s="1">
-        <v>66.571428571428569</v>
-      </c>
-      <c r="J220" s="1">
-        <v>32</v>
-      </c>
-      <c r="K220" s="1">
-        <v>19.285714285714285</v>
-      </c>
+      <c r="B220" s="3"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
       <c r="L220" s="1"/>
-      <c r="N220" s="1">
-        <v>114.71428571428571</v>
-      </c>
-      <c r="O220" s="1">
-        <v>113.14285714285714</v>
-      </c>
-      <c r="P220" s="1">
-        <v>112.57142857142857</v>
-      </c>
-      <c r="Q220" s="1">
-        <v>114</v>
-      </c>
-      <c r="R220" s="1">
-        <v>111.28571428571429</v>
-      </c>
-      <c r="S220" s="1">
-        <v>116.57142857142857</v>
-      </c>
-      <c r="T220" s="1">
-        <v>116.71428571428571</v>
-      </c>
-      <c r="U220" s="1">
-        <v>116</v>
-      </c>
-      <c r="V220" s="1">
-        <v>124.57142857142857</v>
-      </c>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B221" s="3">
-        <v>44125</v>
-      </c>
-      <c r="C221" s="1">
-        <v>32.142857142857146</v>
-      </c>
-      <c r="D221" s="1">
-        <v>59.571428571428569</v>
-      </c>
-      <c r="E221" s="1">
-        <v>111.28571428571429</v>
-      </c>
-      <c r="F221" s="1">
-        <v>117.14285714285714</v>
-      </c>
-      <c r="G221" s="1">
-        <v>96</v>
-      </c>
-      <c r="H221" s="1">
-        <v>89.571428571428569</v>
-      </c>
-      <c r="I221" s="1">
-        <v>63.285714285714285</v>
-      </c>
-      <c r="J221" s="1">
-        <v>31.142857142857142</v>
-      </c>
-      <c r="K221" s="1">
-        <v>16.714285714285715</v>
-      </c>
+      <c r="B221" s="3"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
       <c r="L221" s="1"/>
-      <c r="N221" s="1">
-        <v>111.42857142857143</v>
-      </c>
-      <c r="O221" s="1">
-        <v>111</v>
-      </c>
-      <c r="P221" s="1">
-        <v>114.28571428571429</v>
-      </c>
-      <c r="Q221" s="1">
-        <v>119.28571428571429</v>
-      </c>
-      <c r="R221" s="1">
-        <v>117.14285714285714</v>
-      </c>
-      <c r="S221" s="1">
-        <v>119.42857142857143</v>
-      </c>
-      <c r="T221" s="1">
-        <v>111.85714285714286</v>
-      </c>
-      <c r="U221" s="1">
-        <v>110.71428571428571</v>
-      </c>
-      <c r="V221" s="1">
-        <v>118</v>
-      </c>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B222" s="3">
-        <v>44126</v>
-      </c>
-      <c r="C222" s="1">
-        <v>34.714285714285715</v>
-      </c>
-      <c r="D222" s="1">
-        <v>60.571428571428569</v>
-      </c>
-      <c r="E222" s="1">
-        <v>116.57142857142857</v>
-      </c>
-      <c r="F222" s="1">
-        <v>119.42857142857143</v>
-      </c>
-      <c r="G222" s="1">
-        <v>99.714285714285708</v>
-      </c>
-      <c r="H222" s="1">
-        <v>91.857142857142861</v>
-      </c>
-      <c r="I222" s="1">
-        <v>63.857142857142854</v>
-      </c>
-      <c r="J222" s="1">
-        <v>31.857142857142858</v>
-      </c>
-      <c r="K222" s="1">
-        <v>14.428571428571429</v>
-      </c>
-      <c r="N222" s="1">
-        <v>92</v>
-      </c>
-      <c r="O222" s="1">
-        <v>93.428571428571431</v>
-      </c>
-      <c r="P222" s="1">
-        <v>93.571428571428569</v>
-      </c>
-      <c r="Q222" s="1">
-        <v>96.428571428571431</v>
-      </c>
-      <c r="R222" s="1">
-        <v>96</v>
-      </c>
-      <c r="S222" s="1">
-        <v>99.714285714285708</v>
-      </c>
-      <c r="T222" s="1">
-        <v>98.857142857142861</v>
-      </c>
-      <c r="U222" s="1">
-        <v>96.714285714285708</v>
-      </c>
-      <c r="V222" s="1">
-        <v>103.57142857142857</v>
-      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B223" s="3">
-        <v>44127</v>
-      </c>
-      <c r="C223" s="1">
-        <v>31.428571428571427</v>
-      </c>
-      <c r="D223" s="1">
-        <v>62.714285714285715</v>
-      </c>
-      <c r="E223" s="1">
-        <v>116.71428571428571</v>
-      </c>
-      <c r="F223" s="1">
-        <v>111.85714285714286</v>
-      </c>
-      <c r="G223" s="1">
-        <v>98.857142857142861</v>
-      </c>
-      <c r="H223" s="1">
-        <v>91.142857142857139</v>
-      </c>
-      <c r="I223" s="1">
-        <v>63.428571428571431</v>
-      </c>
-      <c r="J223" s="1">
-        <v>32.714285714285715</v>
-      </c>
-      <c r="K223" s="1">
-        <v>14.285714285714286</v>
-      </c>
-      <c r="N223" s="1">
-        <v>88.285714285714292</v>
-      </c>
-      <c r="O223" s="1">
-        <v>85.857142857142861</v>
-      </c>
-      <c r="P223" s="1">
-        <v>84.857142857142861</v>
-      </c>
-      <c r="Q223" s="1">
-        <v>88.285714285714292</v>
-      </c>
-      <c r="R223" s="1">
-        <v>89.571428571428569</v>
-      </c>
-      <c r="S223" s="1">
-        <v>91.857142857142861</v>
-      </c>
-      <c r="T223" s="1">
-        <v>91.142857142857139</v>
-      </c>
-      <c r="U223" s="1">
-        <v>94.428571428571431</v>
-      </c>
-      <c r="V223" s="1">
-        <v>99.428571428571431</v>
-      </c>
+      <c r="B223" s="3"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B224" s="3">
-        <v>44128</v>
-      </c>
-      <c r="C224" s="1">
-        <v>32.142857142857146</v>
-      </c>
-      <c r="D224" s="1">
-        <v>63.571428571428569</v>
-      </c>
-      <c r="E224" s="1">
-        <v>116</v>
-      </c>
-      <c r="F224" s="1">
-        <v>110.71428571428571</v>
-      </c>
-      <c r="G224" s="1">
-        <v>96.714285714285708</v>
-      </c>
-      <c r="H224" s="1">
-        <v>94.428571428571431</v>
-      </c>
-      <c r="I224" s="1">
-        <v>62.857142857142854</v>
-      </c>
-      <c r="J224" s="1">
-        <v>32.571428571428569</v>
-      </c>
-      <c r="K224" s="1">
-        <v>13.857142857142858</v>
-      </c>
-      <c r="N224" s="1">
-        <v>66.571428571428569</v>
-      </c>
-      <c r="O224" s="1">
-        <v>63.714285714285715</v>
-      </c>
-      <c r="P224" s="1">
-        <v>65.285714285714292</v>
-      </c>
-      <c r="Q224" s="1">
-        <v>66.571428571428569</v>
-      </c>
-      <c r="R224" s="1">
-        <v>63.285714285714285</v>
-      </c>
-      <c r="S224" s="1">
-        <v>63.857142857142854</v>
-      </c>
-      <c r="T224" s="1">
-        <v>63.428571428571431</v>
-      </c>
-      <c r="U224" s="1">
-        <v>62.857142857142854</v>
-      </c>
-      <c r="V224" s="1">
-        <v>65.428571428571431</v>
-      </c>
+      <c r="B224" s="3"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
     </row>
     <row r="225" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B225" s="3">
-        <v>44129</v>
-      </c>
-      <c r="C225" s="1">
-        <v>34.857142857142854</v>
-      </c>
-      <c r="D225" s="1">
-        <v>67.285714285714292</v>
-      </c>
-      <c r="E225" s="1">
-        <v>124.57142857142857</v>
-      </c>
-      <c r="F225" s="1">
-        <v>118</v>
-      </c>
-      <c r="G225" s="1">
-        <v>103.57142857142857</v>
-      </c>
-      <c r="H225" s="1">
-        <v>99.428571428571431</v>
-      </c>
-      <c r="I225" s="1">
-        <v>65.428571428571431</v>
-      </c>
-      <c r="J225" s="1">
-        <v>32.285714285714285</v>
-      </c>
-      <c r="K225" s="1">
-        <v>14.857142857142858</v>
-      </c>
-      <c r="N225" s="1">
-        <v>30.142857142857142</v>
-      </c>
-      <c r="O225" s="1">
-        <v>31</v>
-      </c>
-      <c r="P225" s="1">
-        <v>30.571428571428573</v>
-      </c>
-      <c r="Q225" s="1">
-        <v>32</v>
-      </c>
-      <c r="R225" s="1">
-        <v>31.142857142857142</v>
-      </c>
-      <c r="S225" s="1">
-        <v>31.857142857142858</v>
-      </c>
-      <c r="T225" s="1">
-        <v>32.714285714285715</v>
-      </c>
-      <c r="U225" s="1">
-        <v>32.571428571428569</v>
-      </c>
-      <c r="V225" s="1">
-        <v>32.285714285714285</v>
-      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
     </row>
     <row r="226" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N226" s="1">
-        <v>18</v>
-      </c>
-      <c r="O226" s="1">
-        <v>18</v>
-      </c>
-      <c r="P226" s="1">
-        <v>18.857142857142858</v>
-      </c>
-      <c r="Q226" s="1">
-        <v>19.285714285714285</v>
-      </c>
-      <c r="R226" s="1">
-        <v>16.714285714285715</v>
-      </c>
-      <c r="S226" s="1">
-        <v>14.428571428571429</v>
-      </c>
-      <c r="T226" s="1">
-        <v>14.285714285714286</v>
-      </c>
-      <c r="U226" s="1">
-        <v>13.857142857142858</v>
-      </c>
-      <c r="V226" s="1">
-        <v>14.857142857142858</v>
-      </c>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
     </row>
     <row r="227" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N227" s="1"/>
@@ -23354,6 +23506,182 @@
     </row>
     <row r="229" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N229" s="1"/>
+    </row>
+    <row r="233" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+    </row>
+    <row r="242" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3AF9A0F7-F2A5-4576-8C42-240AD73F6AA0}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{47391186-DFE8-41C7-8ED4-A12E2C364016}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,23 +916,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF251"/>
+  <dimension ref="A1:AF273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D233" sqref="D233"/>
+      <selection pane="bottomRight" activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23360,174 +23359,1573 @@
       </c>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B220" s="3"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
+      <c r="A220" s="3">
+        <v>44136</v>
+      </c>
+      <c r="B220">
+        <v>5768</v>
+      </c>
+      <c r="C220">
+        <v>12866</v>
+      </c>
+      <c r="D220">
+        <v>27700</v>
+      </c>
+      <c r="E220">
+        <v>26311</v>
+      </c>
+      <c r="F220">
+        <v>23139</v>
+      </c>
+      <c r="G220">
+        <v>21283</v>
+      </c>
+      <c r="H220">
+        <v>14296</v>
+      </c>
+      <c r="I220">
+        <v>8355</v>
+      </c>
+      <c r="J220">
+        <v>6427</v>
+      </c>
       <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
+      <c r="L220">
+        <f t="shared" ref="L220:L234" si="416">SUM(B220-B219)</f>
+        <v>55</v>
+      </c>
+      <c r="M220">
+        <f t="shared" ref="M220:M234" si="417">SUM(C220-C219)</f>
+        <v>68</v>
+      </c>
+      <c r="N220">
+        <f t="shared" ref="N220:N234" si="418">SUM(D220-D219)</f>
+        <v>165</v>
+      </c>
+      <c r="O220">
+        <f t="shared" ref="O220:O234" si="419">SUM(E220-E219)</f>
+        <v>170</v>
+      </c>
+      <c r="P220">
+        <f t="shared" ref="P220:P234" si="420">SUM(F220-F219)</f>
+        <v>123</v>
+      </c>
+      <c r="Q220">
+        <f t="shared" ref="Q220:Q234" si="421">SUM(G220-G219)</f>
+        <v>145</v>
+      </c>
+      <c r="R220">
+        <f t="shared" ref="R220:R234" si="422">SUM(H220-H219)</f>
+        <v>80</v>
+      </c>
+      <c r="S220">
+        <f t="shared" ref="S220:S234" si="423">SUM(I220-I219)</f>
+        <v>38</v>
+      </c>
+      <c r="T220">
+        <f t="shared" ref="T220:T234" si="424">SUM(J220-J219)</f>
+        <v>20</v>
+      </c>
+      <c r="V220" s="1">
+        <f t="shared" ref="V220:V234" si="425">AVERAGE(L214:L220)</f>
+        <v>43.142857142857146</v>
+      </c>
+      <c r="W220" s="1">
+        <f t="shared" ref="W220:W234" si="426">AVERAGE(M214:M220)</f>
+        <v>77.142857142857139</v>
+      </c>
+      <c r="X220" s="1">
+        <f t="shared" ref="X220:X234" si="427">AVERAGE(N214:N220)</f>
+        <v>164.85714285714286</v>
+      </c>
+      <c r="Y220" s="1">
+        <f t="shared" ref="Y220:Y234" si="428">AVERAGE(O214:O220)</f>
+        <v>157.85714285714286</v>
+      </c>
+      <c r="Z220" s="1">
+        <f t="shared" ref="Z220:Z234" si="429">AVERAGE(P214:P220)</f>
+        <v>129.42857142857142</v>
+      </c>
+      <c r="AA220" s="1">
+        <f t="shared" ref="AA220:AA234" si="430">AVERAGE(Q214:Q220)</f>
+        <v>120.42857142857143</v>
+      </c>
+      <c r="AB220" s="1">
+        <f t="shared" ref="AB220:AB234" si="431">AVERAGE(R214:R220)</f>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="AC220" s="1">
+        <f t="shared" ref="AC220:AC234" si="432">AVERAGE(S214:S220)</f>
+        <v>42.571428571428569</v>
+      </c>
+      <c r="AD220" s="1">
+        <f t="shared" ref="AD220:AD234" si="433">AVERAGE(T214:T220)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B221" s="3"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
+      <c r="A221" s="3">
+        <v>44137</v>
+      </c>
+      <c r="B221">
+        <v>5822</v>
+      </c>
+      <c r="C221">
+        <v>12935</v>
+      </c>
+      <c r="D221">
+        <v>27861</v>
+      </c>
+      <c r="E221">
+        <v>26474</v>
+      </c>
+      <c r="F221">
+        <v>23279</v>
+      </c>
+      <c r="G221">
+        <v>21407</v>
+      </c>
+      <c r="H221">
+        <v>14366</v>
+      </c>
+      <c r="I221">
+        <v>8397</v>
+      </c>
+      <c r="J221">
+        <v>6454</v>
+      </c>
       <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
+      <c r="L221">
+        <f t="shared" si="416"/>
+        <v>54</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="417"/>
+        <v>69</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="418"/>
+        <v>161</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="419"/>
+        <v>163</v>
+      </c>
+      <c r="P221">
+        <f t="shared" si="420"/>
+        <v>140</v>
+      </c>
+      <c r="Q221">
+        <f t="shared" si="421"/>
+        <v>124</v>
+      </c>
+      <c r="R221">
+        <f t="shared" si="422"/>
+        <v>70</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="423"/>
+        <v>42</v>
+      </c>
+      <c r="T221">
+        <f t="shared" si="424"/>
+        <v>27</v>
+      </c>
+      <c r="V221" s="1">
+        <f t="shared" si="425"/>
+        <v>47.142857142857146</v>
+      </c>
+      <c r="W221" s="1">
+        <f t="shared" si="426"/>
+        <v>81.285714285714292</v>
+      </c>
+      <c r="X221" s="1">
+        <f t="shared" si="427"/>
+        <v>168.57142857142858</v>
+      </c>
+      <c r="Y221" s="1">
+        <f t="shared" si="428"/>
+        <v>164.57142857142858</v>
+      </c>
+      <c r="Z221" s="1">
+        <f t="shared" si="429"/>
+        <v>137</v>
+      </c>
+      <c r="AA221" s="1">
+        <f t="shared" si="430"/>
+        <v>128</v>
+      </c>
+      <c r="AB221" s="1">
+        <f t="shared" si="431"/>
+        <v>81.714285714285708</v>
+      </c>
+      <c r="AC221" s="1">
+        <f t="shared" si="432"/>
+        <v>45</v>
+      </c>
+      <c r="AD221" s="1">
+        <f t="shared" si="433"/>
+        <v>25.428571428571427</v>
+      </c>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B222" s="3"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
+      <c r="A222" s="3">
+        <v>44138</v>
+      </c>
+      <c r="B222">
+        <v>5852</v>
+      </c>
+      <c r="C222">
+        <v>13008</v>
+      </c>
+      <c r="D222">
+        <v>28009</v>
+      </c>
+      <c r="E222">
+        <v>26614</v>
+      </c>
+      <c r="F222">
+        <v>23415</v>
+      </c>
+      <c r="G222">
+        <v>21498</v>
+      </c>
+      <c r="H222">
+        <v>14455</v>
+      </c>
+      <c r="I222">
+        <v>8440</v>
+      </c>
+      <c r="J222">
+        <v>6475</v>
+      </c>
       <c r="K222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-      <c r="S222" s="1"/>
-      <c r="T222" s="1"/>
-      <c r="U222" s="1"/>
-      <c r="V222" s="1"/>
+      <c r="L222">
+        <f t="shared" si="416"/>
+        <v>30</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="417"/>
+        <v>73</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="418"/>
+        <v>148</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="419"/>
+        <v>140</v>
+      </c>
+      <c r="P222">
+        <f t="shared" si="420"/>
+        <v>136</v>
+      </c>
+      <c r="Q222">
+        <f t="shared" si="421"/>
+        <v>91</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="422"/>
+        <v>89</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="423"/>
+        <v>43</v>
+      </c>
+      <c r="T222">
+        <f t="shared" si="424"/>
+        <v>21</v>
+      </c>
+      <c r="V222" s="1">
+        <f t="shared" si="425"/>
+        <v>47.571428571428569</v>
+      </c>
+      <c r="W222" s="1">
+        <f t="shared" si="426"/>
+        <v>79.714285714285708</v>
+      </c>
+      <c r="X222" s="1">
+        <f t="shared" si="427"/>
+        <v>165</v>
+      </c>
+      <c r="Y222" s="1">
+        <f t="shared" si="428"/>
+        <v>160.14285714285714</v>
+      </c>
+      <c r="Z222" s="1">
+        <f t="shared" si="429"/>
+        <v>135</v>
+      </c>
+      <c r="AA222" s="1">
+        <f t="shared" si="430"/>
+        <v>121.71428571428571</v>
+      </c>
+      <c r="AB222" s="1">
+        <f t="shared" si="431"/>
+        <v>81.571428571428569</v>
+      </c>
+      <c r="AC222" s="1">
+        <f t="shared" si="432"/>
+        <v>44.428571428571431</v>
+      </c>
+      <c r="AD222" s="1">
+        <f t="shared" si="433"/>
+        <v>25.571428571428573</v>
+      </c>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B223" s="3"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
+      <c r="A223" s="3">
+        <v>44139</v>
+      </c>
+      <c r="B223">
+        <v>5901</v>
+      </c>
+      <c r="C223">
+        <v>13103</v>
+      </c>
+      <c r="D223">
+        <v>28208</v>
+      </c>
+      <c r="E223">
+        <v>26793</v>
+      </c>
+      <c r="F223">
+        <v>23576</v>
+      </c>
+      <c r="G223">
+        <v>21647</v>
+      </c>
+      <c r="H223">
+        <v>14554</v>
+      </c>
+      <c r="I223">
+        <v>8489</v>
+      </c>
+      <c r="J223">
+        <v>6495</v>
+      </c>
       <c r="K223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-      <c r="U223" s="1"/>
-      <c r="V223" s="1"/>
+      <c r="L223">
+        <f t="shared" si="416"/>
+        <v>49</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="417"/>
+        <v>95</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="418"/>
+        <v>199</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="419"/>
+        <v>179</v>
+      </c>
+      <c r="P223">
+        <f t="shared" si="420"/>
+        <v>161</v>
+      </c>
+      <c r="Q223">
+        <f t="shared" si="421"/>
+        <v>149</v>
+      </c>
+      <c r="R223">
+        <f t="shared" si="422"/>
+        <v>99</v>
+      </c>
+      <c r="S223">
+        <f t="shared" si="423"/>
+        <v>49</v>
+      </c>
+      <c r="T223">
+        <f t="shared" si="424"/>
+        <v>20</v>
+      </c>
+      <c r="V223" s="1">
+        <f t="shared" si="425"/>
+        <v>49.714285714285715</v>
+      </c>
+      <c r="W223" s="1">
+        <f t="shared" si="426"/>
+        <v>84.142857142857139</v>
+      </c>
+      <c r="X223" s="1">
+        <f t="shared" si="427"/>
+        <v>174.85714285714286</v>
+      </c>
+      <c r="Y223" s="1">
+        <f t="shared" si="428"/>
+        <v>169.85714285714286</v>
+      </c>
+      <c r="Z223" s="1">
+        <f t="shared" si="429"/>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="AA223" s="1">
+        <f t="shared" si="430"/>
+        <v>130.71428571428572</v>
+      </c>
+      <c r="AB223" s="1">
+        <f t="shared" si="431"/>
+        <v>84.714285714285708</v>
+      </c>
+      <c r="AC223" s="1">
+        <f t="shared" si="432"/>
+        <v>45.142857142857146</v>
+      </c>
+      <c r="AD223" s="1">
+        <f t="shared" si="433"/>
+        <v>23.857142857142858</v>
+      </c>
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B224" s="3"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
+      <c r="A224" s="3">
+        <v>44140</v>
+      </c>
+      <c r="B224">
+        <v>5951</v>
+      </c>
+      <c r="C224">
+        <v>13205</v>
+      </c>
+      <c r="D224">
+        <v>28429</v>
+      </c>
+      <c r="E224">
+        <v>27036</v>
+      </c>
+      <c r="F224">
+        <v>23754</v>
+      </c>
+      <c r="G224">
+        <v>21817</v>
+      </c>
+      <c r="H224">
+        <v>14666</v>
+      </c>
+      <c r="I224">
+        <v>8563</v>
+      </c>
+      <c r="J224">
+        <v>6543</v>
+      </c>
       <c r="K224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-      <c r="S224" s="1"/>
-      <c r="T224" s="1"/>
-      <c r="U224" s="1"/>
-      <c r="V224" s="1"/>
-    </row>
-    <row r="225" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B225" s="3"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
+      <c r="L224">
+        <f t="shared" si="416"/>
+        <v>50</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="417"/>
+        <v>102</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="418"/>
+        <v>221</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="419"/>
+        <v>243</v>
+      </c>
+      <c r="P224">
+        <f t="shared" si="420"/>
+        <v>178</v>
+      </c>
+      <c r="Q224">
+        <f t="shared" si="421"/>
+        <v>170</v>
+      </c>
+      <c r="R224">
+        <f t="shared" si="422"/>
+        <v>112</v>
+      </c>
+      <c r="S224">
+        <f t="shared" si="423"/>
+        <v>74</v>
+      </c>
+      <c r="T224">
+        <f t="shared" si="424"/>
+        <v>48</v>
+      </c>
+      <c r="V224" s="1">
+        <f t="shared" si="425"/>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="W224" s="1">
+        <f t="shared" si="426"/>
+        <v>86.285714285714292</v>
+      </c>
+      <c r="X224" s="1">
+        <f t="shared" si="427"/>
+        <v>181</v>
+      </c>
+      <c r="Y224" s="1">
+        <f t="shared" si="428"/>
+        <v>177.28571428571428</v>
+      </c>
+      <c r="Z224" s="1">
+        <f t="shared" si="429"/>
+        <v>147.57142857142858</v>
+      </c>
+      <c r="AA224" s="1">
+        <f t="shared" si="430"/>
+        <v>135.85714285714286</v>
+      </c>
+      <c r="AB224" s="1">
+        <f t="shared" si="431"/>
+        <v>88.571428571428569</v>
+      </c>
+      <c r="AC224" s="1">
+        <f t="shared" si="432"/>
+        <v>47.285714285714285</v>
+      </c>
+      <c r="AD224" s="1">
+        <f t="shared" si="433"/>
+        <v>27.142857142857142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>44141</v>
+      </c>
+      <c r="B225">
+        <v>6004</v>
+      </c>
+      <c r="C225">
+        <v>13350</v>
+      </c>
+      <c r="D225">
+        <v>28782</v>
+      </c>
+      <c r="E225">
+        <v>27317</v>
+      </c>
+      <c r="F225">
+        <v>23989</v>
+      </c>
+      <c r="G225">
+        <v>22058</v>
+      </c>
+      <c r="H225">
+        <v>14802</v>
+      </c>
+      <c r="I225">
+        <v>8626</v>
+      </c>
+      <c r="J225">
+        <v>6577</v>
+      </c>
       <c r="K225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="U225" s="1"/>
-      <c r="V225" s="1"/>
-    </row>
-    <row r="226" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-    </row>
-    <row r="227" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N227" s="1"/>
-    </row>
-    <row r="228" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N229" s="1"/>
-    </row>
-    <row r="233" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-    </row>
-    <row r="234" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="1"/>
+      <c r="L225">
+        <f t="shared" si="416"/>
+        <v>53</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="417"/>
+        <v>145</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="418"/>
+        <v>353</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="419"/>
+        <v>281</v>
+      </c>
+      <c r="P225">
+        <f t="shared" si="420"/>
+        <v>235</v>
+      </c>
+      <c r="Q225">
+        <f t="shared" si="421"/>
+        <v>241</v>
+      </c>
+      <c r="R225">
+        <f t="shared" si="422"/>
+        <v>136</v>
+      </c>
+      <c r="S225">
+        <f t="shared" si="423"/>
+        <v>63</v>
+      </c>
+      <c r="T225">
+        <f t="shared" si="424"/>
+        <v>34</v>
+      </c>
+      <c r="V225" s="1">
+        <f t="shared" si="425"/>
+        <v>48.714285714285715</v>
+      </c>
+      <c r="W225" s="1">
+        <f t="shared" si="426"/>
+        <v>93</v>
+      </c>
+      <c r="X225" s="1">
+        <f t="shared" si="427"/>
+        <v>208.42857142857142</v>
+      </c>
+      <c r="Y225" s="1">
+        <f t="shared" si="428"/>
+        <v>196.28571428571428</v>
+      </c>
+      <c r="Z225" s="1">
+        <f t="shared" si="429"/>
+        <v>159.71428571428572</v>
+      </c>
+      <c r="AA225" s="1">
+        <f t="shared" si="430"/>
+        <v>150.14285714285714</v>
+      </c>
+      <c r="AB225" s="1">
+        <f t="shared" si="431"/>
+        <v>95.857142857142861</v>
+      </c>
+      <c r="AC225" s="1">
+        <f t="shared" si="432"/>
+        <v>47.857142857142854</v>
+      </c>
+      <c r="AD225" s="1">
+        <f t="shared" si="433"/>
+        <v>27.285714285714285</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>44142</v>
+      </c>
+      <c r="B226">
+        <v>6040</v>
+      </c>
+      <c r="C226">
+        <v>13496</v>
+      </c>
+      <c r="D226">
+        <v>29102</v>
+      </c>
+      <c r="E226">
+        <v>27602</v>
+      </c>
+      <c r="F226">
+        <v>24188</v>
+      </c>
+      <c r="G226">
+        <v>22256</v>
+      </c>
+      <c r="H226">
+        <v>14924</v>
+      </c>
+      <c r="I226">
+        <v>8683</v>
+      </c>
+      <c r="J226">
+        <v>6624</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="416"/>
+        <v>36</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="417"/>
+        <v>146</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="418"/>
+        <v>320</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="419"/>
+        <v>285</v>
+      </c>
+      <c r="P226">
+        <f t="shared" si="420"/>
+        <v>199</v>
+      </c>
+      <c r="Q226">
+        <f t="shared" si="421"/>
+        <v>198</v>
+      </c>
+      <c r="R226">
+        <f t="shared" si="422"/>
+        <v>122</v>
+      </c>
+      <c r="S226">
+        <f t="shared" si="423"/>
+        <v>57</v>
+      </c>
+      <c r="T226">
+        <f t="shared" si="424"/>
+        <v>47</v>
+      </c>
+      <c r="V226" s="1">
+        <f t="shared" si="425"/>
+        <v>46.714285714285715</v>
+      </c>
+      <c r="W226" s="1">
+        <f t="shared" si="426"/>
+        <v>99.714285714285708</v>
+      </c>
+      <c r="X226" s="1">
+        <f t="shared" si="427"/>
+        <v>223.85714285714286</v>
+      </c>
+      <c r="Y226" s="1">
+        <f t="shared" si="428"/>
+        <v>208.71428571428572</v>
+      </c>
+      <c r="Z226" s="1">
+        <f t="shared" si="429"/>
+        <v>167.42857142857142</v>
+      </c>
+      <c r="AA226" s="1">
+        <f t="shared" si="430"/>
+        <v>159.71428571428572</v>
+      </c>
+      <c r="AB226" s="1">
+        <f t="shared" si="431"/>
+        <v>101.14285714285714</v>
+      </c>
+      <c r="AC226" s="1">
+        <f t="shared" si="432"/>
+        <v>52.285714285714285</v>
+      </c>
+      <c r="AD226" s="1">
+        <f t="shared" si="433"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>44143</v>
+      </c>
+      <c r="B227">
+        <v>6103</v>
+      </c>
+      <c r="C227">
+        <v>13596</v>
+      </c>
+      <c r="D227">
+        <v>29316</v>
+      </c>
+      <c r="E227">
+        <v>27768</v>
+      </c>
+      <c r="F227">
+        <v>24364</v>
+      </c>
+      <c r="G227">
+        <v>22405</v>
+      </c>
+      <c r="H227">
+        <v>15047</v>
+      </c>
+      <c r="I227">
+        <v>8739</v>
+      </c>
+      <c r="J227">
+        <v>6658</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="416"/>
+        <v>63</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="417"/>
+        <v>100</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="418"/>
+        <v>214</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="419"/>
+        <v>166</v>
+      </c>
+      <c r="P227">
+        <f t="shared" si="420"/>
+        <v>176</v>
+      </c>
+      <c r="Q227">
+        <f t="shared" si="421"/>
+        <v>149</v>
+      </c>
+      <c r="R227">
+        <f t="shared" si="422"/>
+        <v>123</v>
+      </c>
+      <c r="S227">
+        <f t="shared" si="423"/>
+        <v>56</v>
+      </c>
+      <c r="T227">
+        <f t="shared" si="424"/>
+        <v>34</v>
+      </c>
+      <c r="V227" s="1">
+        <f t="shared" si="425"/>
+        <v>47.857142857142854</v>
+      </c>
+      <c r="W227" s="1">
+        <f t="shared" si="426"/>
+        <v>104.28571428571429</v>
+      </c>
+      <c r="X227" s="1">
+        <f t="shared" si="427"/>
+        <v>230.85714285714286</v>
+      </c>
+      <c r="Y227" s="1">
+        <f t="shared" si="428"/>
+        <v>208.14285714285714</v>
+      </c>
+      <c r="Z227" s="1">
+        <f t="shared" si="429"/>
+        <v>175</v>
+      </c>
+      <c r="AA227" s="1">
+        <f t="shared" si="430"/>
+        <v>160.28571428571428</v>
+      </c>
+      <c r="AB227" s="1">
+        <f t="shared" si="431"/>
+        <v>107.28571428571429</v>
+      </c>
+      <c r="AC227" s="1">
+        <f t="shared" si="432"/>
+        <v>54.857142857142854</v>
+      </c>
+      <c r="AD227" s="1">
+        <f t="shared" si="433"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>44144</v>
+      </c>
+      <c r="B228">
+        <v>6176</v>
+      </c>
+      <c r="C228">
+        <v>13754</v>
+      </c>
+      <c r="D228">
+        <v>29618</v>
+      </c>
+      <c r="E228">
+        <v>27996</v>
+      </c>
+      <c r="F228">
+        <v>24568</v>
+      </c>
+      <c r="G228">
+        <v>22612</v>
+      </c>
+      <c r="H228">
+        <v>15163</v>
+      </c>
+      <c r="I228">
+        <v>8798</v>
+      </c>
+      <c r="J228">
+        <v>6686</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="416"/>
+        <v>73</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="417"/>
+        <v>158</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="418"/>
+        <v>302</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="419"/>
+        <v>228</v>
+      </c>
+      <c r="P228">
+        <f t="shared" si="420"/>
+        <v>204</v>
+      </c>
+      <c r="Q228">
+        <f t="shared" si="421"/>
+        <v>207</v>
+      </c>
+      <c r="R228">
+        <f t="shared" si="422"/>
+        <v>116</v>
+      </c>
+      <c r="S228">
+        <f t="shared" si="423"/>
+        <v>59</v>
+      </c>
+      <c r="T228">
+        <f t="shared" si="424"/>
+        <v>28</v>
+      </c>
+      <c r="V228" s="1">
+        <f t="shared" si="425"/>
+        <v>50.571428571428569</v>
+      </c>
+      <c r="W228" s="1">
+        <f t="shared" si="426"/>
+        <v>117</v>
+      </c>
+      <c r="X228" s="1">
+        <f t="shared" si="427"/>
+        <v>251</v>
+      </c>
+      <c r="Y228" s="1">
+        <f t="shared" si="428"/>
+        <v>217.42857142857142</v>
+      </c>
+      <c r="Z228" s="1">
+        <f t="shared" si="429"/>
+        <v>184.14285714285714</v>
+      </c>
+      <c r="AA228" s="1">
+        <f t="shared" si="430"/>
+        <v>172.14285714285714</v>
+      </c>
+      <c r="AB228" s="1">
+        <f t="shared" si="431"/>
+        <v>113.85714285714286</v>
+      </c>
+      <c r="AC228" s="1">
+        <f t="shared" si="432"/>
+        <v>57.285714285714285</v>
+      </c>
+      <c r="AD228" s="1">
+        <f t="shared" si="433"/>
+        <v>33.142857142857146</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>44145</v>
+      </c>
+      <c r="B229">
+        <v>6236</v>
+      </c>
+      <c r="C229">
+        <v>13902</v>
+      </c>
+      <c r="D229">
+        <v>29895</v>
+      </c>
+      <c r="E229">
+        <v>28213</v>
+      </c>
+      <c r="F229">
+        <v>24751</v>
+      </c>
+      <c r="G229">
+        <v>22833</v>
+      </c>
+      <c r="H229">
+        <v>15303</v>
+      </c>
+      <c r="I229">
+        <v>8854</v>
+      </c>
+      <c r="J229">
+        <v>6722</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="416"/>
+        <v>60</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="417"/>
+        <v>148</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="418"/>
+        <v>277</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="419"/>
+        <v>217</v>
+      </c>
+      <c r="P229">
+        <f t="shared" si="420"/>
+        <v>183</v>
+      </c>
+      <c r="Q229">
+        <f t="shared" si="421"/>
+        <v>221</v>
+      </c>
+      <c r="R229">
+        <f t="shared" si="422"/>
+        <v>140</v>
+      </c>
+      <c r="S229">
+        <f t="shared" si="423"/>
+        <v>56</v>
+      </c>
+      <c r="T229">
+        <f t="shared" si="424"/>
+        <v>36</v>
+      </c>
+      <c r="V229" s="1">
+        <f t="shared" si="425"/>
+        <v>54.857142857142854</v>
+      </c>
+      <c r="W229" s="1">
+        <f t="shared" si="426"/>
+        <v>127.71428571428571</v>
+      </c>
+      <c r="X229" s="1">
+        <f t="shared" si="427"/>
+        <v>269.42857142857144</v>
+      </c>
+      <c r="Y229" s="1">
+        <f t="shared" si="428"/>
+        <v>228.42857142857142</v>
+      </c>
+      <c r="Z229" s="1">
+        <f t="shared" si="429"/>
+        <v>190.85714285714286</v>
+      </c>
+      <c r="AA229" s="1">
+        <f t="shared" si="430"/>
+        <v>190.71428571428572</v>
+      </c>
+      <c r="AB229" s="1">
+        <f t="shared" si="431"/>
+        <v>121.14285714285714</v>
+      </c>
+      <c r="AC229" s="1">
+        <f t="shared" si="432"/>
+        <v>59.142857142857146</v>
+      </c>
+      <c r="AD229" s="1">
+        <f t="shared" si="433"/>
+        <v>35.285714285714285</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>44146</v>
+      </c>
+      <c r="B230">
+        <v>6320</v>
+      </c>
+      <c r="C230">
+        <v>14076</v>
+      </c>
+      <c r="D230">
+        <v>30237</v>
+      </c>
+      <c r="E230">
+        <v>28497</v>
+      </c>
+      <c r="F230">
+        <v>25002</v>
+      </c>
+      <c r="G230">
+        <v>23093</v>
+      </c>
+      <c r="H230">
+        <v>15481</v>
+      </c>
+      <c r="I230">
+        <v>8934</v>
+      </c>
+      <c r="J230">
+        <v>6783</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="416"/>
+        <v>84</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="417"/>
+        <v>174</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="418"/>
+        <v>342</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="419"/>
+        <v>284</v>
+      </c>
+      <c r="P230">
+        <f t="shared" si="420"/>
+        <v>251</v>
+      </c>
+      <c r="Q230">
+        <f t="shared" si="421"/>
+        <v>260</v>
+      </c>
+      <c r="R230">
+        <f t="shared" si="422"/>
+        <v>178</v>
+      </c>
+      <c r="S230">
+        <f t="shared" si="423"/>
+        <v>80</v>
+      </c>
+      <c r="T230">
+        <f t="shared" si="424"/>
+        <v>61</v>
+      </c>
+      <c r="V230" s="1">
+        <f t="shared" si="425"/>
+        <v>59.857142857142854</v>
+      </c>
+      <c r="W230" s="1">
+        <f t="shared" si="426"/>
+        <v>139</v>
+      </c>
+      <c r="X230" s="1">
+        <f t="shared" si="427"/>
+        <v>289.85714285714283</v>
+      </c>
+      <c r="Y230" s="1">
+        <f t="shared" si="428"/>
+        <v>243.42857142857142</v>
+      </c>
+      <c r="Z230" s="1">
+        <f t="shared" si="429"/>
+        <v>203.71428571428572</v>
+      </c>
+      <c r="AA230" s="1">
+        <f t="shared" si="430"/>
+        <v>206.57142857142858</v>
+      </c>
+      <c r="AB230" s="1">
+        <f t="shared" si="431"/>
+        <v>132.42857142857142</v>
+      </c>
+      <c r="AC230" s="1">
+        <f t="shared" si="432"/>
+        <v>63.571428571428569</v>
+      </c>
+      <c r="AD230" s="1">
+        <f t="shared" si="433"/>
+        <v>41.142857142857146</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>44147</v>
+      </c>
+      <c r="B231">
+        <v>6389</v>
+      </c>
+      <c r="C231">
+        <v>14223</v>
+      </c>
+      <c r="D231">
+        <v>30492</v>
+      </c>
+      <c r="E231">
+        <v>28718</v>
+      </c>
+      <c r="F231">
+        <v>25249</v>
+      </c>
+      <c r="G231">
+        <v>23341</v>
+      </c>
+      <c r="H231">
+        <v>15642</v>
+      </c>
+      <c r="I231">
+        <v>9015</v>
+      </c>
+      <c r="J231">
+        <v>6831</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="416"/>
+        <v>69</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="417"/>
+        <v>147</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="418"/>
+        <v>255</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="419"/>
+        <v>221</v>
+      </c>
+      <c r="P231">
+        <f t="shared" si="420"/>
+        <v>247</v>
+      </c>
+      <c r="Q231">
+        <f t="shared" si="421"/>
+        <v>248</v>
+      </c>
+      <c r="R231">
+        <f t="shared" si="422"/>
+        <v>161</v>
+      </c>
+      <c r="S231">
+        <f t="shared" si="423"/>
+        <v>81</v>
+      </c>
+      <c r="T231">
+        <f t="shared" si="424"/>
+        <v>48</v>
+      </c>
+      <c r="V231" s="1">
+        <f t="shared" si="425"/>
+        <v>62.571428571428569</v>
+      </c>
+      <c r="W231" s="1">
+        <f t="shared" si="426"/>
+        <v>145.42857142857142</v>
+      </c>
+      <c r="X231" s="1">
+        <f t="shared" si="427"/>
+        <v>294.71428571428572</v>
+      </c>
+      <c r="Y231" s="1">
+        <f t="shared" si="428"/>
+        <v>240.28571428571428</v>
+      </c>
+      <c r="Z231" s="1">
+        <f t="shared" si="429"/>
+        <v>213.57142857142858</v>
+      </c>
+      <c r="AA231" s="1">
+        <f t="shared" si="430"/>
+        <v>217.71428571428572</v>
+      </c>
+      <c r="AB231" s="1">
+        <f t="shared" si="431"/>
+        <v>139.42857142857142</v>
+      </c>
+      <c r="AC231" s="1">
+        <f t="shared" si="432"/>
+        <v>64.571428571428569</v>
+      </c>
+      <c r="AD231" s="1">
+        <f t="shared" si="433"/>
+        <v>41.142857142857146</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>44148</v>
+      </c>
+      <c r="B232">
+        <v>6461</v>
+      </c>
+      <c r="C232">
+        <v>14384</v>
+      </c>
+      <c r="D232">
+        <v>30844</v>
+      </c>
+      <c r="E232">
+        <v>29060</v>
+      </c>
+      <c r="F232">
+        <v>25562</v>
+      </c>
+      <c r="G232">
+        <v>23636</v>
+      </c>
+      <c r="H232">
+        <v>15815</v>
+      </c>
+      <c r="I232">
+        <v>9122</v>
+      </c>
+      <c r="J232">
+        <v>6885</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="416"/>
+        <v>72</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="417"/>
+        <v>161</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="418"/>
+        <v>352</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="419"/>
+        <v>342</v>
+      </c>
+      <c r="P232">
+        <f t="shared" si="420"/>
+        <v>313</v>
+      </c>
+      <c r="Q232">
+        <f t="shared" si="421"/>
+        <v>295</v>
+      </c>
+      <c r="R232">
+        <f t="shared" si="422"/>
+        <v>173</v>
+      </c>
+      <c r="S232">
+        <f t="shared" si="423"/>
+        <v>107</v>
+      </c>
+      <c r="T232">
+        <f t="shared" si="424"/>
+        <v>54</v>
+      </c>
+      <c r="V232" s="1">
+        <f t="shared" si="425"/>
+        <v>65.285714285714292</v>
+      </c>
+      <c r="W232" s="1">
+        <f t="shared" si="426"/>
+        <v>147.71428571428572</v>
+      </c>
+      <c r="X232" s="1">
+        <f t="shared" si="427"/>
+        <v>294.57142857142856</v>
+      </c>
+      <c r="Y232" s="1">
+        <f t="shared" si="428"/>
+        <v>249</v>
+      </c>
+      <c r="Z232" s="1">
+        <f t="shared" si="429"/>
+        <v>224.71428571428572</v>
+      </c>
+      <c r="AA232" s="1">
+        <f t="shared" si="430"/>
+        <v>225.42857142857142</v>
+      </c>
+      <c r="AB232" s="1">
+        <f t="shared" si="431"/>
+        <v>144.71428571428572</v>
+      </c>
+      <c r="AC232" s="1">
+        <f t="shared" si="432"/>
+        <v>70.857142857142861</v>
+      </c>
+      <c r="AD232" s="1">
+        <f t="shared" si="433"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>44149</v>
+      </c>
+      <c r="B233">
+        <v>6565</v>
+      </c>
+      <c r="C233">
+        <v>14569</v>
+      </c>
+      <c r="D233">
+        <v>31321</v>
+      </c>
+      <c r="E233">
+        <v>29495</v>
+      </c>
+      <c r="F233">
+        <v>25933</v>
+      </c>
+      <c r="G233">
+        <v>24009</v>
+      </c>
+      <c r="H233">
+        <v>16006</v>
+      </c>
+      <c r="I233">
+        <v>9241</v>
+      </c>
+      <c r="J233">
+        <v>6951</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="416"/>
+        <v>104</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="417"/>
+        <v>185</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="418"/>
+        <v>477</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="419"/>
+        <v>435</v>
+      </c>
+      <c r="P233">
+        <f t="shared" si="420"/>
+        <v>371</v>
+      </c>
+      <c r="Q233">
+        <f t="shared" si="421"/>
+        <v>373</v>
+      </c>
+      <c r="R233">
+        <f t="shared" si="422"/>
+        <v>191</v>
+      </c>
+      <c r="S233">
+        <f t="shared" si="423"/>
+        <v>119</v>
+      </c>
+      <c r="T233">
+        <f t="shared" si="424"/>
+        <v>66</v>
+      </c>
+      <c r="V233" s="1">
+        <f t="shared" si="425"/>
+        <v>75</v>
+      </c>
+      <c r="W233" s="1">
+        <f t="shared" si="426"/>
+        <v>153.28571428571428</v>
+      </c>
+      <c r="X233" s="1">
+        <f t="shared" si="427"/>
+        <v>317</v>
+      </c>
+      <c r="Y233" s="1">
+        <f t="shared" si="428"/>
+        <v>270.42857142857144</v>
+      </c>
+      <c r="Z233" s="1">
+        <f t="shared" si="429"/>
+        <v>249.28571428571428</v>
+      </c>
+      <c r="AA233" s="1">
+        <f t="shared" si="430"/>
+        <v>250.42857142857142</v>
+      </c>
+      <c r="AB233" s="1">
+        <f t="shared" si="431"/>
+        <v>154.57142857142858</v>
+      </c>
+      <c r="AC233" s="1">
+        <f t="shared" si="432"/>
+        <v>79.714285714285708</v>
+      </c>
+      <c r="AD233" s="1">
+        <f t="shared" si="433"/>
+        <v>46.714285714285715</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>44150</v>
+      </c>
+      <c r="B234">
+        <v>6654</v>
+      </c>
+      <c r="C234">
+        <v>14714</v>
+      </c>
+      <c r="D234">
+        <v>31680</v>
+      </c>
+      <c r="E234">
+        <v>29784</v>
+      </c>
+      <c r="F234">
+        <v>26207</v>
+      </c>
+      <c r="G234">
+        <v>24313</v>
+      </c>
+      <c r="H234">
+        <v>16227</v>
+      </c>
+      <c r="I234">
+        <v>9348</v>
+      </c>
+      <c r="J234">
+        <v>7003</v>
+      </c>
       <c r="K234" s="1"/>
-    </row>
-    <row r="235" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L234">
+        <f t="shared" si="416"/>
+        <v>89</v>
+      </c>
+      <c r="M234">
+        <f t="shared" si="417"/>
+        <v>145</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="418"/>
+        <v>359</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="419"/>
+        <v>289</v>
+      </c>
+      <c r="P234">
+        <f t="shared" si="420"/>
+        <v>274</v>
+      </c>
+      <c r="Q234">
+        <f t="shared" si="421"/>
+        <v>304</v>
+      </c>
+      <c r="R234">
+        <f t="shared" si="422"/>
+        <v>221</v>
+      </c>
+      <c r="S234">
+        <f t="shared" si="423"/>
+        <v>107</v>
+      </c>
+      <c r="T234">
+        <f t="shared" si="424"/>
+        <v>52</v>
+      </c>
+      <c r="V234" s="1">
+        <f t="shared" si="425"/>
+        <v>78.714285714285708</v>
+      </c>
+      <c r="W234" s="1">
+        <f t="shared" si="426"/>
+        <v>159.71428571428572</v>
+      </c>
+      <c r="X234" s="1">
+        <f t="shared" si="427"/>
+        <v>337.71428571428572</v>
+      </c>
+      <c r="Y234" s="1">
+        <f t="shared" si="428"/>
+        <v>288</v>
+      </c>
+      <c r="Z234" s="1">
+        <f t="shared" si="429"/>
+        <v>263.28571428571428</v>
+      </c>
+      <c r="AA234" s="1">
+        <f t="shared" si="430"/>
+        <v>272.57142857142856</v>
+      </c>
+      <c r="AB234" s="1">
+        <f t="shared" si="431"/>
+        <v>168.57142857142858</v>
+      </c>
+      <c r="AC234" s="1">
+        <f t="shared" si="432"/>
+        <v>87</v>
+      </c>
+      <c r="AD234" s="1">
+        <f t="shared" si="433"/>
+        <v>49.285714285714285</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -23538,7 +24936,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -23549,7 +24947,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -23560,7 +24958,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -23571,7 +24969,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -23582,7 +24980,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -23683,6 +25081,360 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
+    <row r="257" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
+      <c r="S257" s="3"/>
+      <c r="T257" s="3"/>
+      <c r="U257" s="3"/>
+      <c r="V257" s="3"/>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
+      <c r="Y257" s="3"/>
+      <c r="Z257" s="3"/>
+      <c r="AA257" s="3"/>
+      <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
+    </row>
+    <row r="258" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B258" s="3"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+    </row>
+    <row r="259" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B259" s="3"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="1"/>
+      <c r="X259" s="1"/>
+      <c r="Y259" s="1"/>
+      <c r="Z259" s="1"/>
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
+    </row>
+    <row r="260" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B260" s="3"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1"/>
+      <c r="Y260" s="1"/>
+      <c r="Z260" s="1"/>
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
+    </row>
+    <row r="261" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B261" s="3"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+      <c r="W261" s="1"/>
+      <c r="X261" s="1"/>
+      <c r="Y261" s="1"/>
+      <c r="Z261" s="1"/>
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
+    </row>
+    <row r="262" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B262" s="3"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
+      <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
+      <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
+      <c r="AC262" s="1"/>
+    </row>
+    <row r="263" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B263" s="3"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
+      <c r="W263" s="1"/>
+      <c r="X263" s="1"/>
+      <c r="Y263" s="1"/>
+      <c r="Z263" s="1"/>
+      <c r="AA263" s="1"/>
+      <c r="AB263" s="1"/>
+      <c r="AC263" s="1"/>
+    </row>
+    <row r="264" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B264" s="3"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+      <c r="W264" s="1"/>
+      <c r="X264" s="1"/>
+      <c r="Y264" s="1"/>
+      <c r="Z264" s="1"/>
+      <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
+      <c r="AC264" s="1"/>
+    </row>
+    <row r="265" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B265" s="3"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
+      <c r="W265" s="1"/>
+      <c r="X265" s="1"/>
+      <c r="Y265" s="1"/>
+      <c r="Z265" s="1"/>
+      <c r="AA265" s="1"/>
+      <c r="AB265" s="1"/>
+      <c r="AC265" s="1"/>
+    </row>
+    <row r="266" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B266" s="3"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="1"/>
+      <c r="U266" s="1"/>
+      <c r="V266" s="1"/>
+      <c r="W266" s="1"/>
+      <c r="X266" s="1"/>
+      <c r="Y266" s="1"/>
+      <c r="Z266" s="1"/>
+      <c r="AA266" s="1"/>
+      <c r="AB266" s="1"/>
+      <c r="AC266" s="1"/>
+    </row>
+    <row r="267" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B267" s="3"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B268" s="3"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B269" s="3"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B270" s="3"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B271" s="3"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B272" s="3"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B273" s="3"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/MDCOVID19_CasesByAgeDistribution.xlsx
+++ b/Data/MDCOVID19_CasesByAgeDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb61959dcc1c374c/Documents/GitHub/MD-COVID19/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{47391186-DFE8-41C7-8ED4-A12E2C364016}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{8C2F2433-59D0-42E7-B955-80569FABD71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6B3C54D-D24A-457A-83A6-05F0278A9B6A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,10 +919,10 @@
   <dimension ref="A1:AF273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B256" sqref="B256"/>
+      <selection pane="bottomRight" activeCell="B247" sqref="B247:N274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24926,72 +24926,740 @@
       </c>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
+      <c r="A235" s="3">
+        <v>44151</v>
+      </c>
+      <c r="B235">
+        <v>6740</v>
+      </c>
+      <c r="C235">
+        <v>14853</v>
+      </c>
+      <c r="D235">
+        <v>32015</v>
+      </c>
+      <c r="E235">
+        <v>30092</v>
+      </c>
+      <c r="F235">
+        <v>26485</v>
+      </c>
+      <c r="G235">
+        <v>24589</v>
+      </c>
+      <c r="H235">
+        <v>16387</v>
+      </c>
+      <c r="I235">
+        <v>9444</v>
+      </c>
+      <c r="J235">
+        <v>7051</v>
+      </c>
       <c r="K235" s="1"/>
+      <c r="L235">
+        <f t="shared" ref="L235:L241" si="434">SUM(B235-B234)</f>
+        <v>86</v>
+      </c>
+      <c r="M235">
+        <f t="shared" ref="M235:M241" si="435">SUM(C235-C234)</f>
+        <v>139</v>
+      </c>
+      <c r="N235">
+        <f t="shared" ref="N235:N241" si="436">SUM(D235-D234)</f>
+        <v>335</v>
+      </c>
+      <c r="O235">
+        <f t="shared" ref="O235:O241" si="437">SUM(E235-E234)</f>
+        <v>308</v>
+      </c>
+      <c r="P235">
+        <f t="shared" ref="P235:P241" si="438">SUM(F235-F234)</f>
+        <v>278</v>
+      </c>
+      <c r="Q235">
+        <f t="shared" ref="Q235:Q241" si="439">SUM(G235-G234)</f>
+        <v>276</v>
+      </c>
+      <c r="R235">
+        <f t="shared" ref="R235:R241" si="440">SUM(H235-H234)</f>
+        <v>160</v>
+      </c>
+      <c r="S235">
+        <f t="shared" ref="S235:S241" si="441">SUM(I235-I234)</f>
+        <v>96</v>
+      </c>
+      <c r="T235">
+        <f t="shared" ref="T235:T241" si="442">SUM(J235-J234)</f>
+        <v>48</v>
+      </c>
+      <c r="V235" s="1">
+        <f t="shared" ref="V235:V241" si="443">AVERAGE(L229:L235)</f>
+        <v>80.571428571428569</v>
+      </c>
+      <c r="W235" s="1">
+        <f t="shared" ref="W235:W241" si="444">AVERAGE(M229:M235)</f>
+        <v>157</v>
+      </c>
+      <c r="X235" s="1">
+        <f t="shared" ref="X235:X241" si="445">AVERAGE(N229:N235)</f>
+        <v>342.42857142857144</v>
+      </c>
+      <c r="Y235" s="1">
+        <f t="shared" ref="Y235:Y241" si="446">AVERAGE(O229:O235)</f>
+        <v>299.42857142857144</v>
+      </c>
+      <c r="Z235" s="1">
+        <f t="shared" ref="Z235:Z241" si="447">AVERAGE(P229:P235)</f>
+        <v>273.85714285714283</v>
+      </c>
+      <c r="AA235" s="1">
+        <f t="shared" ref="AA235:AA241" si="448">AVERAGE(Q229:Q235)</f>
+        <v>282.42857142857144</v>
+      </c>
+      <c r="AB235" s="1">
+        <f t="shared" ref="AB235:AB241" si="449">AVERAGE(R229:R235)</f>
+        <v>174.85714285714286</v>
+      </c>
+      <c r="AC235" s="1">
+        <f t="shared" ref="AC235:AC241" si="450">AVERAGE(S229:S235)</f>
+        <v>92.285714285714292</v>
+      </c>
+      <c r="AD235" s="1">
+        <f t="shared" ref="AD235:AD241" si="451">AVERAGE(T229:T235)</f>
+        <v>52.142857142857146</v>
+      </c>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
+      <c r="A236" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B236">
+        <v>6842</v>
+      </c>
+      <c r="C236">
+        <v>15036</v>
+      </c>
+      <c r="D236">
+        <v>32423</v>
+      </c>
+      <c r="E236">
+        <v>30500</v>
+      </c>
+      <c r="F236">
+        <v>26836</v>
+      </c>
+      <c r="G236">
+        <v>24922</v>
+      </c>
+      <c r="H236">
+        <v>16582</v>
+      </c>
+      <c r="I236">
+        <v>9549</v>
+      </c>
+      <c r="J236">
+        <v>7115</v>
+      </c>
       <c r="K236" s="1"/>
+      <c r="L236">
+        <f t="shared" si="434"/>
+        <v>102</v>
+      </c>
+      <c r="M236">
+        <f t="shared" si="435"/>
+        <v>183</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="436"/>
+        <v>408</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="437"/>
+        <v>408</v>
+      </c>
+      <c r="P236">
+        <f t="shared" si="438"/>
+        <v>351</v>
+      </c>
+      <c r="Q236">
+        <f t="shared" si="439"/>
+        <v>333</v>
+      </c>
+      <c r="R236">
+        <f t="shared" si="440"/>
+        <v>195</v>
+      </c>
+      <c r="S236">
+        <f t="shared" si="441"/>
+        <v>105</v>
+      </c>
+      <c r="T236">
+        <f t="shared" si="442"/>
+        <v>64</v>
+      </c>
+      <c r="V236" s="1">
+        <f t="shared" si="443"/>
+        <v>86.571428571428569</v>
+      </c>
+      <c r="W236" s="1">
+        <f t="shared" si="444"/>
+        <v>162</v>
+      </c>
+      <c r="X236" s="1">
+        <f t="shared" si="445"/>
+        <v>361.14285714285717</v>
+      </c>
+      <c r="Y236" s="1">
+        <f t="shared" si="446"/>
+        <v>326.71428571428572</v>
+      </c>
+      <c r="Z236" s="1">
+        <f t="shared" si="447"/>
+        <v>297.85714285714283</v>
+      </c>
+      <c r="AA236" s="1">
+        <f t="shared" si="448"/>
+        <v>298.42857142857144</v>
+      </c>
+      <c r="AB236" s="1">
+        <f t="shared" si="449"/>
+        <v>182.71428571428572</v>
+      </c>
+      <c r="AC236" s="1">
+        <f t="shared" si="450"/>
+        <v>99.285714285714292</v>
+      </c>
+      <c r="AD236" s="1">
+        <f t="shared" si="451"/>
+        <v>56.142857142857146</v>
+      </c>
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
+      <c r="A237" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B237">
+        <v>6944</v>
+      </c>
+      <c r="C237">
+        <v>15221</v>
+      </c>
+      <c r="D237">
+        <v>32786</v>
+      </c>
+      <c r="E237">
+        <v>30859</v>
+      </c>
+      <c r="F237">
+        <v>27146</v>
+      </c>
+      <c r="G237">
+        <v>25229</v>
+      </c>
+      <c r="H237">
+        <v>16782</v>
+      </c>
+      <c r="I237">
+        <v>9676</v>
+      </c>
+      <c r="J237">
+        <v>7180</v>
+      </c>
       <c r="K237" s="1"/>
+      <c r="L237">
+        <f t="shared" si="434"/>
+        <v>102</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="435"/>
+        <v>185</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="436"/>
+        <v>363</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="437"/>
+        <v>359</v>
+      </c>
+      <c r="P237">
+        <f t="shared" si="438"/>
+        <v>310</v>
+      </c>
+      <c r="Q237">
+        <f t="shared" si="439"/>
+        <v>307</v>
+      </c>
+      <c r="R237">
+        <f t="shared" si="440"/>
+        <v>200</v>
+      </c>
+      <c r="S237">
+        <f t="shared" si="441"/>
+        <v>127</v>
+      </c>
+      <c r="T237">
+        <f t="shared" si="442"/>
+        <v>65</v>
+      </c>
+      <c r="V237" s="1">
+        <f t="shared" si="443"/>
+        <v>89.142857142857139</v>
+      </c>
+      <c r="W237" s="1">
+        <f t="shared" si="444"/>
+        <v>163.57142857142858</v>
+      </c>
+      <c r="X237" s="1">
+        <f t="shared" si="445"/>
+        <v>364.14285714285717</v>
+      </c>
+      <c r="Y237" s="1">
+        <f t="shared" si="446"/>
+        <v>337.42857142857144</v>
+      </c>
+      <c r="Z237" s="1">
+        <f t="shared" si="447"/>
+        <v>306.28571428571428</v>
+      </c>
+      <c r="AA237" s="1">
+        <f t="shared" si="448"/>
+        <v>305.14285714285717</v>
+      </c>
+      <c r="AB237" s="1">
+        <f t="shared" si="449"/>
+        <v>185.85714285714286</v>
+      </c>
+      <c r="AC237" s="1">
+        <f t="shared" si="450"/>
+        <v>106</v>
+      </c>
+      <c r="AD237" s="1">
+        <f t="shared" si="451"/>
+        <v>56.714285714285715</v>
+      </c>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
+      <c r="A238" s="3">
+        <v>44154</v>
+      </c>
+      <c r="B238">
+        <v>7082</v>
+      </c>
+      <c r="C238">
+        <v>15484</v>
+      </c>
+      <c r="D238">
+        <v>33325</v>
+      </c>
+      <c r="E238">
+        <v>31386</v>
+      </c>
+      <c r="F238">
+        <v>27633</v>
+      </c>
+      <c r="G238">
+        <v>25669</v>
+      </c>
+      <c r="H238">
+        <v>17061</v>
+      </c>
+      <c r="I238">
+        <v>9828</v>
+      </c>
+      <c r="J238">
+        <v>7265</v>
+      </c>
       <c r="K238" s="1"/>
+      <c r="L238">
+        <f t="shared" si="434"/>
+        <v>138</v>
+      </c>
+      <c r="M238">
+        <f t="shared" si="435"/>
+        <v>263</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="436"/>
+        <v>539</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="437"/>
+        <v>527</v>
+      </c>
+      <c r="P238">
+        <f t="shared" si="438"/>
+        <v>487</v>
+      </c>
+      <c r="Q238">
+        <f t="shared" si="439"/>
+        <v>440</v>
+      </c>
+      <c r="R238">
+        <f t="shared" si="440"/>
+        <v>279</v>
+      </c>
+      <c r="S238">
+        <f t="shared" si="441"/>
+        <v>152</v>
+      </c>
+      <c r="T238">
+        <f t="shared" si="442"/>
+        <v>85</v>
+      </c>
+      <c r="V238" s="1">
+        <f t="shared" si="443"/>
+        <v>99</v>
+      </c>
+      <c r="W238" s="1">
+        <f t="shared" si="444"/>
+        <v>180.14285714285714</v>
+      </c>
+      <c r="X238" s="1">
+        <f t="shared" si="445"/>
+        <v>404.71428571428572</v>
+      </c>
+      <c r="Y238" s="1">
+        <f t="shared" si="446"/>
+        <v>381.14285714285717</v>
+      </c>
+      <c r="Z238" s="1">
+        <f t="shared" si="447"/>
+        <v>340.57142857142856</v>
+      </c>
+      <c r="AA238" s="1">
+        <f t="shared" si="448"/>
+        <v>332.57142857142856</v>
+      </c>
+      <c r="AB238" s="1">
+        <f t="shared" si="449"/>
+        <v>202.71428571428572</v>
+      </c>
+      <c r="AC238" s="1">
+        <f t="shared" si="450"/>
+        <v>116.14285714285714</v>
+      </c>
+      <c r="AD238" s="1">
+        <f t="shared" si="451"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
+      <c r="A239" s="3">
+        <v>44155</v>
+      </c>
+      <c r="B239">
+        <v>7184</v>
+      </c>
+      <c r="C239">
+        <v>15718</v>
+      </c>
+      <c r="D239">
+        <v>33762</v>
+      </c>
+      <c r="E239">
+        <v>31807</v>
+      </c>
+      <c r="F239">
+        <v>27991</v>
+      </c>
+      <c r="G239">
+        <v>26040</v>
+      </c>
+      <c r="H239">
+        <v>17286</v>
+      </c>
+      <c r="I239">
+        <v>9946</v>
+      </c>
+      <c r="J239">
+        <v>7352</v>
+      </c>
       <c r="K239" s="1"/>
+      <c r="L239">
+        <f t="shared" si="434"/>
+        <v>102</v>
+      </c>
+      <c r="M239">
+        <f t="shared" si="435"/>
+        <v>234</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="436"/>
+        <v>437</v>
+      </c>
+      <c r="O239">
+        <f t="shared" si="437"/>
+        <v>421</v>
+      </c>
+      <c r="P239">
+        <f t="shared" si="438"/>
+        <v>358</v>
+      </c>
+      <c r="Q239">
+        <f t="shared" si="439"/>
+        <v>371</v>
+      </c>
+      <c r="R239">
+        <f t="shared" si="440"/>
+        <v>225</v>
+      </c>
+      <c r="S239">
+        <f t="shared" si="441"/>
+        <v>118</v>
+      </c>
+      <c r="T239">
+        <f t="shared" si="442"/>
+        <v>87</v>
+      </c>
+      <c r="V239" s="1">
+        <f t="shared" si="443"/>
+        <v>103.28571428571429</v>
+      </c>
+      <c r="W239" s="1">
+        <f t="shared" si="444"/>
+        <v>190.57142857142858</v>
+      </c>
+      <c r="X239" s="1">
+        <f t="shared" si="445"/>
+        <v>416.85714285714283</v>
+      </c>
+      <c r="Y239" s="1">
+        <f t="shared" si="446"/>
+        <v>392.42857142857144</v>
+      </c>
+      <c r="Z239" s="1">
+        <f t="shared" si="447"/>
+        <v>347</v>
+      </c>
+      <c r="AA239" s="1">
+        <f t="shared" si="448"/>
+        <v>343.42857142857144</v>
+      </c>
+      <c r="AB239" s="1">
+        <f t="shared" si="449"/>
+        <v>210.14285714285714</v>
+      </c>
+      <c r="AC239" s="1">
+        <f t="shared" si="450"/>
+        <v>117.71428571428571</v>
+      </c>
+      <c r="AD239" s="1">
+        <f t="shared" si="451"/>
+        <v>66.714285714285708</v>
+      </c>
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
+      <c r="A240" s="3">
+        <v>44156</v>
+      </c>
+      <c r="B240">
+        <v>7320</v>
+      </c>
+      <c r="C240">
+        <v>15957</v>
+      </c>
+      <c r="D240">
+        <v>34300</v>
+      </c>
+      <c r="E240">
+        <v>32331</v>
+      </c>
+      <c r="F240">
+        <v>28398</v>
+      </c>
+      <c r="G240">
+        <v>26482</v>
+      </c>
+      <c r="H240">
+        <v>17590</v>
+      </c>
+      <c r="I240">
+        <v>10114</v>
+      </c>
+      <c r="J240">
+        <v>7479</v>
+      </c>
       <c r="K240" s="1"/>
-    </row>
-    <row r="242" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <f t="shared" si="434"/>
+        <v>136</v>
+      </c>
+      <c r="M240">
+        <f t="shared" si="435"/>
+        <v>239</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="436"/>
+        <v>538</v>
+      </c>
+      <c r="O240">
+        <f t="shared" si="437"/>
+        <v>524</v>
+      </c>
+      <c r="P240">
+        <f t="shared" si="438"/>
+        <v>407</v>
+      </c>
+      <c r="Q240">
+        <f t="shared" si="439"/>
+        <v>442</v>
+      </c>
+      <c r="R240">
+        <f t="shared" si="440"/>
+        <v>304</v>
+      </c>
+      <c r="S240">
+        <f t="shared" si="441"/>
+        <v>168</v>
+      </c>
+      <c r="T240">
+        <f t="shared" si="442"/>
+        <v>127</v>
+      </c>
+      <c r="V240" s="1">
+        <f t="shared" si="443"/>
+        <v>107.85714285714286</v>
+      </c>
+      <c r="W240" s="1">
+        <f t="shared" si="444"/>
+        <v>198.28571428571428</v>
+      </c>
+      <c r="X240" s="1">
+        <f t="shared" si="445"/>
+        <v>425.57142857142856</v>
+      </c>
+      <c r="Y240" s="1">
+        <f t="shared" si="446"/>
+        <v>405.14285714285717</v>
+      </c>
+      <c r="Z240" s="1">
+        <f t="shared" si="447"/>
+        <v>352.14285714285717</v>
+      </c>
+      <c r="AA240" s="1">
+        <f t="shared" si="448"/>
+        <v>353.28571428571428</v>
+      </c>
+      <c r="AB240" s="1">
+        <f t="shared" si="449"/>
+        <v>226.28571428571428</v>
+      </c>
+      <c r="AC240" s="1">
+        <f t="shared" si="450"/>
+        <v>124.71428571428571</v>
+      </c>
+      <c r="AD240" s="1">
+        <f t="shared" si="451"/>
+        <v>75.428571428571431</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>44157</v>
+      </c>
+      <c r="B241">
+        <v>7429</v>
+      </c>
+      <c r="C241">
+        <v>16176</v>
+      </c>
+      <c r="D241">
+        <v>34704</v>
+      </c>
+      <c r="E241">
+        <v>32691</v>
+      </c>
+      <c r="F241">
+        <v>28709</v>
+      </c>
+      <c r="G241">
+        <v>26824</v>
+      </c>
+      <c r="H241">
+        <v>17793</v>
+      </c>
+      <c r="I241">
+        <v>10249</v>
+      </c>
+      <c r="J241">
+        <v>7564</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="434"/>
+        <v>109</v>
+      </c>
+      <c r="M241">
+        <f t="shared" si="435"/>
+        <v>219</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="436"/>
+        <v>404</v>
+      </c>
+      <c r="O241">
+        <f t="shared" si="437"/>
+        <v>360</v>
+      </c>
+      <c r="P241">
+        <f t="shared" si="438"/>
+        <v>311</v>
+      </c>
+      <c r="Q241">
+        <f t="shared" si="439"/>
+        <v>342</v>
+      </c>
+      <c r="R241">
+        <f t="shared" si="440"/>
+        <v>203</v>
+      </c>
+      <c r="S241">
+        <f t="shared" si="441"/>
+        <v>135</v>
+      </c>
+      <c r="T241">
+        <f t="shared" si="442"/>
+        <v>85</v>
+      </c>
+      <c r="V241" s="1">
+        <f t="shared" si="443"/>
+        <v>110.71428571428571</v>
+      </c>
+      <c r="W241" s="1">
+        <f t="shared" si="444"/>
+        <v>208.85714285714286</v>
+      </c>
+      <c r="X241" s="1">
+        <f t="shared" si="445"/>
+        <v>432</v>
+      </c>
+      <c r="Y241" s="1">
+        <f t="shared" si="446"/>
+        <v>415.28571428571428</v>
+      </c>
+      <c r="Z241" s="1">
+        <f t="shared" si="447"/>
+        <v>357.42857142857144</v>
+      </c>
+      <c r="AA241" s="1">
+        <f t="shared" si="448"/>
+        <v>358.71428571428572</v>
+      </c>
+      <c r="AB241" s="1">
+        <f t="shared" si="449"/>
+        <v>223.71428571428572</v>
+      </c>
+      <c r="AC241" s="1">
+        <f t="shared" si="450"/>
+        <v>128.71428571428572</v>
+      </c>
+      <c r="AD241" s="1">
+        <f t="shared" si="451"/>
+        <v>80.142857142857139</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -25000,7 +25668,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -25009,7 +25677,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -25018,7 +25686,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -25027,7 +25695,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -25036,7 +25704,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -25045,7 +25713,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -25054,7 +25722,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -25063,7 +25731,7 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -25072,7 +25740,8 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B251" s="3"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -25080,8 +25749,80 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B252" s="3"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B253" s="3"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B254" s="3"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B255" s="3"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B256" s="3"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
     </row>
     <row r="257" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B257" s="3"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
@@ -25269,14 +26010,14 @@
     </row>
     <row r="264" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
       <c r="K264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
